--- a/Overview_Studies.xlsx
+++ b/Overview_Studies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f2d186216cf91ab/Desktop/Meta playground/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f2d186216cf91ab/Bidlung/University/M.S. Leiden University/M.S. Neuroscience (Research)/Internship Groningen/Statistical Analysis/Multiverse test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="271" documentId="11_AD4DB114E441178AC67DF4C06ED7EC56693EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA4C0755-B69D-4F38-AD6E-8F4039827562}"/>
+  <xr:revisionPtr revIDLastSave="278" documentId="11_AD4DB114E441178AC67DF4C06ED7EC56693EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2341254-58DD-424F-848E-DF39839FE3ED}"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="-16200" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -2085,9 +2085,6 @@
     <t>Table S5: Cohens d RT  Psilo - Pla = 0,81</t>
   </si>
   <si>
-    <t>0,81</t>
-  </si>
-  <si>
     <t>Doss et al. 2021</t>
   </si>
   <si>
@@ -2098,6 +2095,9 @@
   </si>
   <si>
     <t>DoseLabel</t>
+  </si>
+  <si>
+    <t>0.81</t>
   </si>
 </sst>
 </file>
@@ -2425,7 +2425,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2593,6 +2593,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2890,8 +2897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView zoomScale="65" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="B27" zoomScale="65" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2916,13 +2923,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>254</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>255</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>36</v>
@@ -3259,7 +3266,7 @@
         <v>59</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>44</v>
@@ -3310,7 +3317,7 @@
         <v>59</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>44</v>
@@ -3361,7 +3368,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D10" s="28" t="s">
         <v>44</v>
@@ -3410,7 +3417,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>44</v>
@@ -4853,7 +4860,7 @@
         <v>250</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5133,7 +5140,7 @@
         <v>59</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>133</v>
@@ -5184,7 +5191,7 @@
         <v>59</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>133</v>
@@ -5235,7 +5242,7 @@
         <v>38</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>133</v>
@@ -5284,7 +5291,7 @@
         <v>38</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>133</v>
@@ -5336,10 +5343,14 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="59" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
@@ -5349,13 +5360,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>254</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>255</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>36</v>
@@ -5384,7 +5395,7 @@
       <c r="N1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="57" t="s">
         <v>5</v>
       </c>
       <c r="P1" s="11" t="s">
@@ -5435,7 +5446,7 @@
         <v>52</v>
       </c>
       <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="O2" s="58"/>
       <c r="P2" s="18" t="s">
         <v>53</v>
       </c>
@@ -5484,7 +5495,7 @@
         <v>64</v>
       </c>
       <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+      <c r="O3" s="58"/>
       <c r="P3" s="14" t="s">
         <v>65</v>
       </c>
@@ -5533,7 +5544,7 @@
         <v>73</v>
       </c>
       <c r="N4" s="2"/>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="58" t="s">
         <v>74</v>
       </c>
       <c r="P4" s="14" t="s">
@@ -5584,7 +5595,7 @@
         <v>78</v>
       </c>
       <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="O5" s="58"/>
       <c r="P5" s="17"/>
       <c r="Q5" s="34" t="s">
         <v>79</v>
@@ -5631,7 +5642,7 @@
         <v>78</v>
       </c>
       <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="O6" s="58"/>
       <c r="P6" s="17"/>
       <c r="Q6" s="34" t="s">
         <v>81</v>
@@ -5678,7 +5689,7 @@
         <v>87</v>
       </c>
       <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="O7" s="58"/>
       <c r="P7" s="17"/>
       <c r="Q7" s="34" t="s">
         <v>79</v>
@@ -5725,7 +5736,7 @@
         <v>89</v>
       </c>
       <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="O8" s="58"/>
       <c r="P8" s="17"/>
       <c r="Q8" s="19" t="s">
         <v>81</v>
@@ -5772,7 +5783,7 @@
         <v>95</v>
       </c>
       <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="O9" s="58"/>
       <c r="P9" s="14"/>
       <c r="Q9" s="19" t="s">
         <v>79</v>
@@ -5819,7 +5830,7 @@
         <v>97</v>
       </c>
       <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+      <c r="O10" s="58"/>
       <c r="P10" s="15"/>
       <c r="Q10" s="19" t="s">
         <v>81</v>
@@ -5866,7 +5877,7 @@
       <c r="N11" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="O11" s="58" t="s">
         <v>102</v>
       </c>
       <c r="P11" s="18" t="s">
@@ -5917,7 +5928,7 @@
       <c r="N12" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="O12" s="2"/>
+      <c r="O12" s="58"/>
       <c r="P12" s="14" t="s">
         <v>109</v>
       </c>
@@ -5968,7 +5979,7 @@
       <c r="N13" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="O13" s="2"/>
+      <c r="O13" s="58"/>
       <c r="P13" s="18"/>
       <c r="Q13" s="19"/>
     </row>
@@ -6015,7 +6026,7 @@
       <c r="N14" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="O14" s="2"/>
+      <c r="O14" s="58"/>
       <c r="P14" s="18"/>
       <c r="Q14" s="19"/>
     </row>
@@ -6062,7 +6073,7 @@
       <c r="N15" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="O15" s="2"/>
+      <c r="O15" s="58"/>
       <c r="P15" s="18"/>
       <c r="Q15" s="19"/>
     </row>
@@ -6107,7 +6118,7 @@
         <v>129</v>
       </c>
       <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="O16" s="58"/>
       <c r="P16" s="18"/>
       <c r="Q16" s="19" t="s">
         <v>130</v>
@@ -6154,7 +6165,7 @@
         <v>159</v>
       </c>
       <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="O17" s="58"/>
       <c r="P17" s="56"/>
       <c r="Q17" s="28" t="s">
         <v>160</v>
@@ -6201,7 +6212,7 @@
       <c r="N18" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="O18" s="58" t="s">
         <v>166</v>
       </c>
       <c r="P18" s="18" t="s">
@@ -6252,7 +6263,7 @@
       <c r="N19" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="O19" s="58" t="s">
         <v>174</v>
       </c>
       <c r="P19" s="55" t="s">
@@ -6303,7 +6314,7 @@
       <c r="N20" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="O20" s="58" t="s">
         <v>177</v>
       </c>
       <c r="P20" s="18" t="s">
@@ -6356,7 +6367,7 @@
       <c r="N21" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="O21" s="2"/>
+      <c r="O21" s="58"/>
       <c r="P21" s="18"/>
       <c r="Q21" s="19" t="s">
         <v>187</v>
@@ -6405,7 +6416,7 @@
       <c r="N22" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="O22" s="2"/>
+      <c r="O22" s="58"/>
       <c r="P22" s="14" t="s">
         <v>193</v>
       </c>
@@ -6452,7 +6463,7 @@
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="2" t="s">
+      <c r="O23" s="58" t="s">
         <v>198</v>
       </c>
       <c r="P23" s="52" t="s">
@@ -6501,7 +6512,7 @@
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
-      <c r="O24" s="2" t="s">
+      <c r="O24" s="58" t="s">
         <v>213</v>
       </c>
       <c r="P24" s="44" t="s">
@@ -6550,7 +6561,7 @@
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="2" t="s">
+      <c r="O25" s="58" t="s">
         <v>217</v>
       </c>
       <c r="P25" s="37" t="s">
@@ -6599,7 +6610,7 @@
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-      <c r="O26" s="2" t="s">
+      <c r="O26" s="58" t="s">
         <v>220</v>
       </c>
       <c r="P26" s="38" t="s">
@@ -6648,7 +6659,7 @@
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-      <c r="O27" s="2" t="s">
+      <c r="O27" s="58" t="s">
         <v>222</v>
       </c>
       <c r="P27" s="38" t="s">
@@ -6701,7 +6712,7 @@
       <c r="N28" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="O28" s="2"/>
+      <c r="O28" s="58"/>
       <c r="P28" s="42" t="s">
         <v>229</v>
       </c>
@@ -6748,7 +6759,7 @@
       <c r="N29" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="O29" s="2"/>
+      <c r="O29" s="58"/>
       <c r="P29" s="51" t="s">
         <v>235</v>
       </c>
@@ -6799,7 +6810,7 @@
       <c r="N30" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="O30" s="2"/>
+      <c r="O30" s="58"/>
       <c r="P30" s="51" t="s">
         <v>242</v>
       </c>
@@ -6846,7 +6857,7 @@
         <v>246</v>
       </c>
       <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+      <c r="O31" s="58"/>
       <c r="P31" s="37" t="s">
         <v>247</v>
       </c>
@@ -6890,10 +6901,10 @@
         <v>250</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+      <c r="O32" s="58"/>
       <c r="P32" s="51"/>
       <c r="Q32" s="34"/>
     </row>
@@ -6928,13 +6939,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>254</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>255</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>36</v>
@@ -7243,13 +7254,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>254</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>255</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>36</v>

--- a/Overview_Studies.xlsx
+++ b/Overview_Studies.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f2d186216cf91ab/Bidlung/University/M.S. Leiden University/M.S. Neuroscience (Research)/Internship Groningen/Statistical Analysis/Multiverse test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f2d186216cf91ab/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="278" documentId="11_AD4DB114E441178AC67DF4C06ED7EC56693EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2341254-58DD-424F-848E-DF39839FE3ED}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{8EA6A821-AFA9-4F02-A176-D69FF3C366D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E57BCD7-BDA0-48F1-A8FB-931B3F883FD1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10035" yWindow="-21600" windowWidth="23730" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="High Dose" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Low Dose'!$A$1:$Q$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overview!$A$1:$Q$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="264">
   <si>
     <t>CognitiveFunction</t>
   </si>
@@ -2098,6 +2099,62 @@
   </si>
   <si>
     <t>0.81</t>
+  </si>
+  <si>
+    <t>0.075</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>FIGURE S2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+ACC (in %) +1st and 3rd quartiles 
+placebo (2h): 98.27 (0.9697, 0.9864)
+10mgPost: 98.59(96.86-1)</t>
+    </r>
+  </si>
+  <si>
+    <t>Placebo:  98.27 (0.9697, 0.9864)
+20mg 2h: median 0.9843 iqr = 0.9632- 1.00</t>
+  </si>
+  <si>
+    <t>Placebo:  98.27 (0.9697, 0.9864)
+30mg 2h: median 1.00,  iqr = 0.89- 0.9987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Figure S2 (4h) (median, 1st &amp; 3rd quartile)
+Placebo:  0.98 (0.97, 1)
+10mg 0.99, 0.98, 1.00
+</t>
+  </si>
+  <si>
+    <t>Figure S2 (4h) (median, 1st &amp; 3rd quartile)
+Placebo:  0.98, 0.97,  1.00
+20mg: 0.9839,( 0.9634, 1.00)</t>
+  </si>
+  <si>
+    <t>Figure S2 (6h) (median, 1st &amp;3rd quartile)
+Placebo: 0.98, 0.98, 1.00
+20mg:  0.9833, (0.9683, 1.00)</t>
+  </si>
+  <si>
+    <t>Figure S2 (6h) (median, 1st &amp;3rd quartile)
+Placebo: 0.98, (0.98, 1.00)
+30mg: 0.99, (0.98, 1.00)</t>
   </si>
 </sst>
 </file>
@@ -2425,7 +2482,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2600,6 +2657,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2897,8 +2969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView topLeftCell="B27" zoomScale="65" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="82" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5340,19 +5412,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView topLeftCell="F1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="6" max="6" width="26.28515625" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="56.28515625" style="64" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1"/>
     <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.140625" style="59" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>46</v>
       </c>
@@ -5386,7 +5464,7 @@
       <c r="K1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="62" t="s">
         <v>48</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -5482,8 +5560,8 @@
       <c r="I3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="15" t="s">
-        <v>62</v>
+      <c r="J3" s="61">
+        <v>10</v>
       </c>
       <c r="K3" s="15">
         <v>240</v>
@@ -5503,7 +5581,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" ht="61.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -5537,13 +5615,13 @@
       <c r="K4" s="15">
         <v>120</v>
       </c>
-      <c r="L4" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="L4" s="60" t="s">
+        <v>257</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="N4" s="2"/>
       <c r="O4" s="58" t="s">
         <v>74</v>
       </c>
@@ -5554,7 +5632,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" ht="60.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -5588,20 +5666,20 @@
       <c r="K5" s="15">
         <v>240</v>
       </c>
-      <c r="L5" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="M5" s="2" t="s">
+      <c r="L5" s="63" t="s">
+        <v>260</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="N5" s="2"/>
       <c r="O5" s="58"/>
       <c r="P5" s="17"/>
       <c r="Q5" s="34" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" ht="46.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="12">
         <v>1</v>
       </c>
@@ -5635,20 +5713,20 @@
       <c r="K6" s="15">
         <v>360</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="2"/>
+      <c r="N6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="N6" s="2"/>
       <c r="O6" s="58"/>
       <c r="P6" s="17"/>
       <c r="Q6" s="34" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="12">
         <v>1</v>
       </c>
@@ -5680,22 +5758,20 @@
         <v>20</v>
       </c>
       <c r="K7" s="15">
-        <v>240</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="N7" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="L7" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="O7" s="58"/>
       <c r="P7" s="17"/>
-      <c r="Q7" s="34" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="Q7" s="34"/>
+    </row>
+    <row r="8" spans="1:17" ht="46.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="12">
         <v>1</v>
       </c>
@@ -5727,22 +5803,22 @@
         <v>20</v>
       </c>
       <c r="K8" s="15">
-        <v>360</v>
-      </c>
-      <c r="L8" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="N8" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="L8" s="60" t="s">
+        <v>261</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="O8" s="58"/>
       <c r="P8" s="17"/>
-      <c r="Q8" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="Q8" s="34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="46.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="12">
         <v>1</v>
       </c>
@@ -5771,25 +5847,25 @@
         <v>71</v>
       </c>
       <c r="J9" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K9" s="15">
-        <v>240</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="L9" s="60" t="s">
+        <v>262</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="O9" s="58"/>
-      <c r="P9" s="14"/>
+      <c r="P9" s="17"/>
       <c r="Q9" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="46.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="12">
         <v>1</v>
       </c>
@@ -5821,78 +5897,74 @@
         <v>30</v>
       </c>
       <c r="K10" s="15">
+        <v>240</v>
+      </c>
+      <c r="L10" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O10" s="58"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="46.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="12">
+        <v>1</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="15">
+        <v>14</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="15">
+        <v>30</v>
+      </c>
+      <c r="K11" s="15">
         <v>360</v>
       </c>
-      <c r="L10" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="12">
-        <v>2</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G11" s="15">
-        <v>8</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="15">
-        <v>120</v>
-      </c>
-      <c r="L11" s="17" t="s">
-        <v>100</v>
+      <c r="L11" s="61" t="s">
+        <v>263</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="O11" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="P11" s="18" t="s">
-        <v>103</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="O11" s="58"/>
+      <c r="P11" s="15"/>
       <c r="Q11" s="19" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="12">
         <v>2</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>15</v>
+      <c r="B12" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>16</v>
@@ -5904,16 +5976,16 @@
         <v>11</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G12" s="15">
         <v>8</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>106</v>
+        <v>19</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="J12" s="15" t="s">
         <v>28</v>
@@ -5922,73 +5994,77 @@
         <v>120</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O12" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="P12" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q12" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="12">
+        <v>2</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="15">
+        <v>8</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="15">
+        <v>120</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="O12" s="58"/>
-      <c r="P12" s="14" t="s">
+      <c r="O13" s="58"/>
+      <c r="P13" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="Q12" s="15" t="s">
+      <c r="Q13" s="15" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="25">
+    <row r="14" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="25">
         <v>3</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B14" s="20" t="s">
         <v>59</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="G13" s="15">
-        <v>34</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="K13" s="15">
-        <v>180</v>
-      </c>
-      <c r="L13" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="O13" s="58"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="19"/>
-    </row>
-    <row r="14" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="12">
-        <v>3</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>23</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>20</v>
@@ -6000,13 +6076,13 @@
         <v>21</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G14" s="15">
         <v>34</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I14" s="16" t="s">
         <v>43</v>
@@ -6015,16 +6091,16 @@
         <v>112</v>
       </c>
       <c r="K14" s="15">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O14" s="58"/>
       <c r="P14" s="18"/>
@@ -6034,8 +6110,8 @@
       <c r="A15" s="12">
         <v>3</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>15</v>
+      <c r="B15" s="26" t="s">
+        <v>23</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>20</v>
@@ -6047,13 +6123,13 @@
         <v>21</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G15" s="15">
         <v>34</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="I15" s="16" t="s">
         <v>43</v>
@@ -6061,17 +6137,17 @@
       <c r="J15" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="K15" s="19">
-        <v>180</v>
+      <c r="K15" s="15">
+        <v>150</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="O15" s="58"/>
       <c r="P15" s="18"/>
@@ -6094,132 +6170,128 @@
         <v>21</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G16" s="15">
         <v>34</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="J16" s="15" t="s">
         <v>112</v>
       </c>
       <c r="K16" s="19">
-        <v>60</v>
-      </c>
-      <c r="L16" s="22" t="s">
-        <v>128</v>
+        <v>180</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>122</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="O16" s="58"/>
       <c r="P16" s="18"/>
-      <c r="Q16" s="19" t="s">
-        <v>130</v>
-      </c>
+      <c r="Q16" s="19"/>
     </row>
     <row r="17" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="25">
-        <v>5</v>
+      <c r="A17" s="12">
+        <v>3</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="28" t="s">
-        <v>25</v>
+      <c r="C17" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="G17" s="28">
-        <v>16</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="I17" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="J17" s="28">
-        <v>14</v>
-      </c>
-      <c r="K17" s="28">
-        <v>85</v>
-      </c>
-      <c r="L17" s="48" t="s">
-        <v>158</v>
+        <v>21</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17" s="15">
+        <v>34</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K17" s="19">
+        <v>60</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="58"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="28" t="s">
-        <v>160</v>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="19" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="12">
-        <v>6</v>
+      <c r="A18" s="25">
+        <v>5</v>
       </c>
       <c r="B18" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>26</v>
+      <c r="C18" s="28" t="s">
+        <v>25</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="G18" s="15">
-        <v>8</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="K18" s="15">
-        <v>140</v>
-      </c>
-      <c r="L18" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="O18" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="P18" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q18" s="19" t="s">
-        <v>168</v>
+        <v>11</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" s="28">
+        <v>16</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" s="28">
+        <v>14</v>
+      </c>
+      <c r="K18" s="28">
+        <v>85</v>
+      </c>
+      <c r="L18" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="28" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -6233,10 +6305,10 @@
         <v>26</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>170</v>
+        <v>21</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>161</v>
@@ -6245,28 +6317,28 @@
         <v>8</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>169</v>
+        <v>27</v>
       </c>
       <c r="I19" s="16" t="s">
         <v>162</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="K19" s="15">
         <v>140</v>
       </c>
-      <c r="L19" s="14" t="s">
-        <v>172</v>
+      <c r="L19" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="O19" s="58" t="s">
-        <v>174</v>
-      </c>
-      <c r="P19" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="P19" s="18" t="s">
         <v>167</v>
       </c>
       <c r="Q19" s="19" t="s">
@@ -6287,7 +6359,7 @@
         <v>11</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>17</v>
+        <v>170</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>161</v>
@@ -6302,22 +6374,22 @@
         <v>162</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="K20" s="15">
         <v>140</v>
       </c>
-      <c r="L20" s="17" t="s">
-        <v>175</v>
+      <c r="L20" s="14" t="s">
+        <v>172</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O20" s="58" t="s">
-        <v>177</v>
-      </c>
-      <c r="P20" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="P20" s="55" t="s">
         <v>167</v>
       </c>
       <c r="Q20" s="19" t="s">
@@ -6326,13 +6398,13 @@
     </row>
     <row r="21" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="12">
-        <v>7</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>15</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>11</v>
@@ -6341,47 +6413,49 @@
         <v>17</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="G21" s="15">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="J21" s="15" t="s">
         <v>28</v>
       </c>
       <c r="K21" s="15">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>185</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O21" s="58"/>
-      <c r="P21" s="18"/>
+        <v>176</v>
+      </c>
+      <c r="O21" s="58" t="s">
+        <v>177</v>
+      </c>
+      <c r="P21" s="18" t="s">
+        <v>167</v>
+      </c>
       <c r="Q21" s="19" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="12">
-        <v>8</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>59</v>
+        <v>7</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>23</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>11</v>
@@ -6390,136 +6464,136 @@
         <v>17</v>
       </c>
       <c r="F22" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" s="15">
+        <v>17</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="15">
+        <v>120</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="O22" s="58"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="12">
+        <v>8</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="14" t="s">
         <v>188</v>
-      </c>
-      <c r="G22" s="15">
-        <v>16</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="K22" s="15">
-        <v>85</v>
-      </c>
-      <c r="L22" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="O22" s="58"/>
-      <c r="P22" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q22" s="19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="33">
-        <v>9</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>41</v>
       </c>
       <c r="G23" s="15">
         <v>16</v>
       </c>
       <c r="H23" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="K23" s="15">
+        <v>85</v>
+      </c>
+      <c r="L23" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O23" s="58"/>
+      <c r="P23" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q23" s="19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="33">
+        <v>9</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="15">
+        <v>16</v>
+      </c>
+      <c r="H24" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="I23" s="46" t="s">
+      <c r="I24" s="46" t="s">
         <v>195</v>
       </c>
-      <c r="J23" s="15" t="s">
+      <c r="J24" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="K23" s="15">
+      <c r="K24" s="15">
         <v>105</v>
       </c>
-      <c r="L23" s="17" t="s">
+      <c r="L24" s="17" t="s">
         <v>197</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="58" t="s">
-        <v>198</v>
-      </c>
-      <c r="P23" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q23" s="19" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="12">
-        <v>10</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="G24" s="15">
-        <v>12</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="K24" s="15">
-        <v>100</v>
-      </c>
-      <c r="L24" s="17" t="s">
-        <v>212</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="P24" s="44" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q24" s="21" t="s">
-        <v>215</v>
+        <v>198</v>
+      </c>
+      <c r="P24" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q24" s="19" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -6538,33 +6612,33 @@
       <c r="E25" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="35" t="s">
+      <c r="F25" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G25" s="15">
         <v>12</v>
       </c>
-      <c r="H25" s="36" t="s">
+      <c r="H25" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="I25" s="47" t="s">
+      <c r="I25" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="J25" s="36" t="s">
+      <c r="J25" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="K25" s="36">
-        <v>360</v>
-      </c>
-      <c r="L25" s="15" t="s">
-        <v>216</v>
+      <c r="K25" s="15">
+        <v>100</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>212</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="58" t="s">
-        <v>217</v>
-      </c>
-      <c r="P25" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="P25" s="44" t="s">
         <v>214</v>
       </c>
       <c r="Q25" s="21" t="s">
@@ -6587,33 +6661,33 @@
       <c r="E26" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="38" t="s">
+      <c r="F26" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="36">
         <v>12</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="I26" s="41" t="s">
+      <c r="I26" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="J26" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="K26" s="21">
-        <v>100</v>
-      </c>
-      <c r="L26" s="37" t="s">
-        <v>219</v>
+      <c r="J26" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="K26" s="36">
+        <v>360</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>216</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="58" t="s">
-        <v>220</v>
-      </c>
-      <c r="P26" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="P26" s="37" t="s">
         <v>214</v>
       </c>
       <c r="Q26" s="21" t="s">
@@ -6652,15 +6726,15 @@
         <v>218</v>
       </c>
       <c r="K27" s="21">
-        <v>360</v>
+        <v>100</v>
       </c>
       <c r="L27" s="37" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="58" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="P27" s="38" t="s">
         <v>214</v>
@@ -6671,108 +6745,108 @@
     </row>
     <row r="28" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="12">
-        <v>11</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="F28" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="G28" s="34">
-        <v>40</v>
+        <v>209</v>
+      </c>
+      <c r="G28" s="21">
+        <v>12</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="I28" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="K28" s="34">
-        <v>90</v>
+        <v>210</v>
+      </c>
+      <c r="I28" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="K28" s="21">
+        <v>360</v>
       </c>
       <c r="L28" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="O28" s="58"/>
-      <c r="P28" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q28" s="34"/>
+        <v>221</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="58" t="s">
+        <v>222</v>
+      </c>
+      <c r="P28" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q28" s="21" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="29" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="12">
-        <v>12</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>35</v>
+        <v>11</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="21">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="G29" s="34">
+        <v>40</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="I29" s="41" t="s">
-        <v>231</v>
-      </c>
-      <c r="J29" s="21">
-        <v>15</v>
-      </c>
-      <c r="K29" s="21">
+        <v>224</v>
+      </c>
+      <c r="I29" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="34" t="s">
         <v>225</v>
       </c>
+      <c r="K29" s="34">
+        <v>90</v>
+      </c>
       <c r="L29" s="37" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="O29" s="58"/>
-      <c r="P29" s="51" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q29" s="21" t="s">
-        <v>236</v>
-      </c>
+      <c r="P29" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q29" s="34"/>
     </row>
     <row r="30" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="12">
         <v>12</v>
       </c>
-      <c r="B30" s="23" t="s">
-        <v>38</v>
+      <c r="B30" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="C30" s="21" t="s">
         <v>35</v>
@@ -6783,38 +6857,38 @@
       <c r="E30" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="38" t="s">
-        <v>237</v>
-      </c>
+      <c r="F30" s="42"/>
       <c r="G30" s="21">
         <v>19</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="I30" s="41" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="J30" s="21">
         <v>15</v>
       </c>
       <c r="K30" s="21">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="L30" s="37" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="O30" s="58"/>
       <c r="P30" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q30" s="34"/>
+        <v>235</v>
+      </c>
+      <c r="Q30" s="21" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="31" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="12">
@@ -6836,30 +6910,32 @@
         <v>237</v>
       </c>
       <c r="G31" s="21">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="I31" s="41" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="J31" s="21">
         <v>15</v>
       </c>
       <c r="K31" s="21">
-        <v>153</v>
-      </c>
-      <c r="L31" s="54" t="s">
-        <v>245</v>
+        <v>172</v>
+      </c>
+      <c r="L31" s="37" t="s">
+        <v>239</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>241</v>
+      </c>
       <c r="O31" s="58"/>
-      <c r="P31" s="37" t="s">
-        <v>247</v>
+      <c r="P31" s="51" t="s">
+        <v>242</v>
       </c>
       <c r="Q31" s="34"/>
     </row>
@@ -6867,8 +6943,8 @@
       <c r="A32" s="12">
         <v>12</v>
       </c>
-      <c r="B32" s="24" t="s">
-        <v>15</v>
+      <c r="B32" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="C32" s="21" t="s">
         <v>35</v>
@@ -6880,35 +6956,128 @@
         <v>17</v>
       </c>
       <c r="F32" s="38" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="G32" s="21">
         <v>21</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="I32" s="41" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="J32" s="21">
         <v>15</v>
       </c>
       <c r="K32" s="21">
-        <v>166</v>
-      </c>
-      <c r="L32" s="37" t="s">
-        <v>250</v>
+        <v>153</v>
+      </c>
+      <c r="L32" s="54" t="s">
+        <v>245</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="58"/>
-      <c r="P32" s="51"/>
+      <c r="P32" s="37" t="s">
+        <v>247</v>
+      </c>
       <c r="Q32" s="34"/>
     </row>
+    <row r="33" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="12">
+        <v>12</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="G33" s="21">
+        <v>21</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="I33" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="21">
+        <v>15</v>
+      </c>
+      <c r="K33" s="21">
+        <v>166</v>
+      </c>
+      <c r="L33" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="58"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="34"/>
+    </row>
+    <row r="34" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="12">
+        <v>1</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="15">
+        <v>14</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="J34" s="15">
+        <v>30</v>
+      </c>
+      <c r="K34" s="15">
+        <v>120</v>
+      </c>
+      <c r="L34" s="60" t="s">
+        <v>259</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O34" s="58"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="34"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:Q34" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6917,8 +7086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B5538A5-2CE0-400F-BF9C-B504D5DC3739}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Overview_Studies.xlsx
+++ b/Overview_Studies.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f2d186216cf91ab/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prsyu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{8EA6A821-AFA9-4F02-A176-D69FF3C366D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E57BCD7-BDA0-48F1-A8FB-931B3F883FD1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAACC741-5BD4-46F3-B062-2655933E2E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10035" yWindow="-21600" windowWidth="23730" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12810" yWindow="-21600" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="266">
   <si>
     <t>CognitiveFunction</t>
   </si>
@@ -2155,6 +2155,12 @@
     <t>Figure S2 (6h) (median, 1st &amp;3rd quartile)
 Placebo: 0.98, (0.98, 1.00)
 30mg: 0.99, (0.98, 1.00)</t>
+  </si>
+  <si>
+    <t>text: ∆RT = 59.7 ms, z = 11.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> text: ∆RT = 47.0 ms, z = 9.33, p &lt; 0.0001</t>
   </si>
 </sst>
 </file>
@@ -2482,7 +2488,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2671,6 +2677,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2969,8 +2981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="82" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="82" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3138,7 +3150,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" ht="104.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -3172,7 +3184,7 @@
       <c r="K4" s="15">
         <v>120</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="60" t="s">
         <v>72</v>
       </c>
       <c r="M4" s="2" t="s">
@@ -3612,7 +3624,7 @@
         <v>240</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>68</v>
+        <v>265</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>69</v>
@@ -3677,7 +3689,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="12">
         <v>9</v>
       </c>
@@ -3711,7 +3723,7 @@
       <c r="K15" s="15">
         <v>105</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="L15" s="60" t="s">
         <v>202</v>
       </c>
       <c r="M15" s="2"/>
@@ -4304,7 +4316,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" ht="213" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="12">
         <v>6</v>
       </c>
@@ -4329,7 +4341,7 @@
       <c r="H28" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="I28" s="16" t="s">
+      <c r="I28" s="65" t="s">
         <v>162</v>
       </c>
       <c r="J28" s="15" t="s">
@@ -4351,7 +4363,7 @@
       <c r="P28" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="Q28" s="19" t="s">
+      <c r="Q28" s="66" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4798,7 +4810,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="117.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:17" ht="103.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="12">
         <v>12</v>
       </c>
@@ -5021,7 +5033,7 @@
         <v>240</v>
       </c>
       <c r="L42" s="51" t="s">
-        <v>3</v>
+        <v>264</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>70</v>

--- a/Overview_Studies.xlsx
+++ b/Overview_Studies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prsyu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAACC741-5BD4-46F3-B062-2655933E2E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A2A376-26F0-44B9-8824-40811DFF76B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12810" yWindow="-21600" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9210" yWindow="-19320" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -2979,10 +2979,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="82" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="82" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3305,11 +3306,11 @@
       <c r="C7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>11</v>
+      <c r="D7" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>44</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>39</v>
@@ -3342,7 +3343,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -3393,7 +3394,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="12">
         <v>4</v>
       </c>
@@ -3444,7 +3445,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="25">
         <v>4</v>
       </c>
@@ -3493,7 +3494,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="25">
         <v>4</v>
       </c>
@@ -3689,7 +3690,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" ht="32.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="12">
         <v>9</v>
       </c>
@@ -3748,11 +3749,11 @@
       <c r="C16" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>11</v>
+      <c r="D16" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>44</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>39</v>
@@ -3795,11 +3796,11 @@
       <c r="C17" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>11</v>
+      <c r="D17" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>37</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>39</v>
@@ -3842,11 +3843,11 @@
       <c r="C18" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>11</v>
+      <c r="D18" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>37</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>39</v>
@@ -3879,7 +3880,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="12">
         <v>2</v>
       </c>
@@ -3930,7 +3931,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="12">
         <v>2</v>
       </c>
@@ -3979,7 +3980,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="25">
         <v>3</v>
       </c>
@@ -4026,7 +4027,7 @@
       <c r="P21" s="18"/>
       <c r="Q21" s="19"/>
     </row>
-    <row r="22" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="12">
         <v>3</v>
       </c>
@@ -4073,7 +4074,7 @@
       <c r="P22" s="18"/>
       <c r="Q22" s="19"/>
     </row>
-    <row r="23" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="12">
         <v>3</v>
       </c>
@@ -4120,7 +4121,7 @@
       <c r="P23" s="18"/>
       <c r="Q23" s="19"/>
     </row>
-    <row r="24" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="12">
         <v>3</v>
       </c>
@@ -4167,7 +4168,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="25">
         <v>5</v>
       </c>
@@ -4214,7 +4215,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="12">
         <v>6</v>
       </c>
@@ -4265,7 +4266,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="12">
         <v>6</v>
       </c>
@@ -4316,7 +4317,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="213" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" ht="213" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="12">
         <v>6</v>
       </c>
@@ -4367,7 +4368,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="12">
         <v>7</v>
       </c>
@@ -4416,7 +4417,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="12">
         <v>8</v>
       </c>
@@ -4467,7 +4468,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="33">
         <v>9</v>
       </c>
@@ -4516,7 +4517,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="12">
         <v>10</v>
       </c>
@@ -4565,7 +4566,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="12">
         <v>10</v>
       </c>
@@ -4614,7 +4615,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="12">
         <v>10</v>
       </c>
@@ -4663,7 +4664,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="12">
         <v>10</v>
       </c>
@@ -4712,7 +4713,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="12">
         <v>11</v>
       </c>
@@ -4761,7 +4762,7 @@
       </c>
       <c r="Q36" s="34"/>
     </row>
-    <row r="37" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="12">
         <v>12</v>
       </c>
@@ -4810,7 +4811,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="103.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:17" ht="103.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="12">
         <v>12</v>
       </c>
@@ -4859,7 +4860,7 @@
       </c>
       <c r="Q38" s="34"/>
     </row>
-    <row r="39" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="12">
         <v>12</v>
       </c>
@@ -4906,7 +4907,7 @@
       </c>
       <c r="Q39" s="34"/>
     </row>
-    <row r="40" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="12">
         <v>12</v>
       </c>
@@ -5098,7 +5099,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="43">
         <v>6</v>
       </c>
@@ -5149,7 +5150,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="43">
         <v>9</v>
       </c>
@@ -5201,7 +5202,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q45" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}"/>
+  <autoFilter ref="A1:Q45" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Barrett et al. (2017)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Overview_Studies.xlsx
+++ b/Overview_Studies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prsyu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A2A376-26F0-44B9-8824-40811DFF76B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B28AAB-FE60-4BE0-8F6F-3B74EBF8C2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-9210" yWindow="-19320" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2979,11 +2979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="82" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3343,7 +3342,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -3394,7 +3393,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="12">
         <v>4</v>
       </c>
@@ -3445,7 +3444,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="25">
         <v>4</v>
       </c>
@@ -3494,7 +3493,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="25">
         <v>4</v>
       </c>
@@ -3690,7 +3689,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="32.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="12">
         <v>9</v>
       </c>
@@ -3701,10 +3700,10 @@
         <v>32</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>44</v>
+        <v>11</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>41</v>
@@ -3880,7 +3879,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="12">
         <v>2</v>
       </c>
@@ -3931,7 +3930,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="12">
         <v>2</v>
       </c>
@@ -3980,7 +3979,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="25">
         <v>3</v>
       </c>
@@ -4027,7 +4026,7 @@
       <c r="P21" s="18"/>
       <c r="Q21" s="19"/>
     </row>
-    <row r="22" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="12">
         <v>3</v>
       </c>
@@ -4074,7 +4073,7 @@
       <c r="P22" s="18"/>
       <c r="Q22" s="19"/>
     </row>
-    <row r="23" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="12">
         <v>3</v>
       </c>
@@ -4121,7 +4120,7 @@
       <c r="P23" s="18"/>
       <c r="Q23" s="19"/>
     </row>
-    <row r="24" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="12">
         <v>3</v>
       </c>
@@ -4168,7 +4167,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="25">
         <v>5</v>
       </c>
@@ -4215,7 +4214,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="12">
         <v>6</v>
       </c>
@@ -4266,7 +4265,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="12">
         <v>6</v>
       </c>
@@ -4317,7 +4316,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="213" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" ht="213" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="12">
         <v>6</v>
       </c>
@@ -4368,7 +4367,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="12">
         <v>7</v>
       </c>
@@ -4417,7 +4416,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="12">
         <v>8</v>
       </c>
@@ -4468,7 +4467,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="33">
         <v>9</v>
       </c>
@@ -4517,7 +4516,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="12">
         <v>10</v>
       </c>
@@ -4566,7 +4565,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="12">
         <v>10</v>
       </c>
@@ -4615,7 +4614,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="12">
         <v>10</v>
       </c>
@@ -4664,7 +4663,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="12">
         <v>10</v>
       </c>
@@ -4713,7 +4712,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="12">
         <v>11</v>
       </c>
@@ -4762,7 +4761,7 @@
       </c>
       <c r="Q36" s="34"/>
     </row>
-    <row r="37" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="12">
         <v>12</v>
       </c>
@@ -4811,7 +4810,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="103.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:17" ht="103.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="12">
         <v>12</v>
       </c>
@@ -4860,7 +4859,7 @@
       </c>
       <c r="Q38" s="34"/>
     </row>
-    <row r="39" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="12">
         <v>12</v>
       </c>
@@ -4907,7 +4906,7 @@
       </c>
       <c r="Q39" s="34"/>
     </row>
-    <row r="40" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="12">
         <v>12</v>
       </c>
@@ -5099,7 +5098,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="43">
         <v>6</v>
       </c>
@@ -5150,7 +5149,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="43">
         <v>9</v>
       </c>
@@ -5161,10 +5160,10 @@
         <v>32</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>44</v>
       </c>
       <c r="F45" s="44" t="s">
         <v>41</v>
@@ -5202,13 +5201,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q45" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Barrett et al. (2017)"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Q45" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Overview_Studies.xlsx
+++ b/Overview_Studies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prsyu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B28AAB-FE60-4BE0-8F6F-3B74EBF8C2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5B2654-5CF4-458B-BE8A-284D84D158FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9210" yWindow="-19320" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5835" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="257">
   <si>
     <t>CognitiveFunction</t>
   </si>
@@ -518,9 +518,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> (∆RT = 47.0 ms, z = 9.33, p &lt; 0.0001)</t>
-  </si>
-  <si>
     <t>2.086251</t>
   </si>
   <si>
@@ -1473,10 +1470,6 @@
     <t xml:space="preserve">FAIR </t>
   </si>
   <si>
-    <t xml:space="preserve">Low 
-</t>
-  </si>
-  <si>
     <t>8.05</t>
   </si>
   <si>
@@ -2101,60 +2094,8 @@
     <t>0.81</t>
   </si>
   <si>
-    <t>0.075</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>FIGURE S2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-ACC (in %) +1st and 3rd quartiles 
-placebo (2h): 98.27 (0.9697, 0.9864)
-10mgPost: 98.59(96.86-1)</t>
-    </r>
-  </si>
-  <si>
-    <t>Placebo:  98.27 (0.9697, 0.9864)
-20mg 2h: median 0.9843 iqr = 0.9632- 1.00</t>
-  </si>
-  <si>
     <t>Placebo:  98.27 (0.9697, 0.9864)
 30mg 2h: median 1.00,  iqr = 0.89- 0.9987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure S2 (4h) (median, 1st &amp; 3rd quartile)
-Placebo:  0.98 (0.97, 1)
-10mg 0.99, 0.98, 1.00
-</t>
-  </si>
-  <si>
-    <t>Figure S2 (4h) (median, 1st &amp; 3rd quartile)
-Placebo:  0.98, 0.97,  1.00
-20mg: 0.9839,( 0.9634, 1.00)</t>
-  </si>
-  <si>
-    <t>Figure S2 (6h) (median, 1st &amp;3rd quartile)
-Placebo: 0.98, 0.98, 1.00
-20mg:  0.9833, (0.9683, 1.00)</t>
-  </si>
-  <si>
-    <t>Figure S2 (6h) (median, 1st &amp;3rd quartile)
-Placebo: 0.98, (0.98, 1.00)
-30mg: 0.99, (0.98, 1.00)</t>
   </si>
   <si>
     <t>text: ∆RT = 59.7 ms, z = 11.32</t>
@@ -2488,7 +2429,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2656,23 +2597,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2981,8 +2910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="82" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3007,13 +2936,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>252</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>254</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>36</v>
@@ -3176,7 +3105,7 @@
         <v>12</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J4" s="15">
         <v>10</v>
@@ -3184,21 +3113,21 @@
       <c r="K4" s="15">
         <v>120</v>
       </c>
-      <c r="L4" s="60" t="s">
+      <c r="L4" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="P4" s="14" t="s">
+      <c r="Q4" s="19" t="s">
         <v>75</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -3227,7 +3156,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J5" s="15">
         <v>10</v>
@@ -3236,16 +3165,16 @@
         <v>240</v>
       </c>
       <c r="L5" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="17"/>
       <c r="Q5" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -3274,7 +3203,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J6" s="15">
         <v>10</v>
@@ -3283,16 +3212,16 @@
         <v>360</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="17"/>
       <c r="Q6" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -3321,7 +3250,7 @@
         <v>12</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J7" s="15">
         <v>20</v>
@@ -3330,16 +3259,16 @@
         <v>240</v>
       </c>
       <c r="L7" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="17"/>
       <c r="Q7" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -3350,7 +3279,7 @@
         <v>59</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>44</v>
@@ -3359,7 +3288,7 @@
         <v>44</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G8" s="28">
         <v>21</v>
@@ -3368,29 +3297,29 @@
         <v>22</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J8" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="K8" s="30" t="s">
+      <c r="L8" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="L8" s="31" t="s">
+      <c r="M8" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q8" s="28" t="s">
         <v>139</v>
-      </c>
-      <c r="Q8" s="28" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -3401,7 +3330,7 @@
         <v>59</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>44</v>
@@ -3410,7 +3339,7 @@
         <v>44</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G9" s="28">
         <v>21</v>
@@ -3419,29 +3348,29 @@
         <v>22</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K9" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="L9" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="L9" s="31" t="s">
+      <c r="M9" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q9" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -3452,7 +3381,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D10" s="28" t="s">
         <v>44</v>
@@ -3461,36 +3390,36 @@
         <v>44</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G10" s="28">
         <v>22</v>
       </c>
       <c r="H10" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="I10" s="29" t="s">
         <v>147</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>148</v>
       </c>
       <c r="J10" s="28">
         <v>25</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L10" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q10" s="32" t="s">
         <v>151</v>
-      </c>
-      <c r="Q10" s="32" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -3501,7 +3430,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>44</v>
@@ -3510,36 +3439,36 @@
         <v>44</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G11" s="28">
         <v>22</v>
       </c>
       <c r="H11" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="I11" s="29" t="s">
         <v>147</v>
-      </c>
-      <c r="I11" s="29" t="s">
-        <v>148</v>
       </c>
       <c r="J11" s="28">
         <v>25</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L11" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q11" s="32" t="s">
         <v>151</v>
-      </c>
-      <c r="Q11" s="32" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -3624,10 +3553,10 @@
         <v>240</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3664,7 +3593,7 @@
         <v>12</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J14" s="15">
         <v>20</v>
@@ -3673,20 +3602,20 @@
         <v>120</v>
       </c>
       <c r="L14" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="P14" s="17" t="s">
-        <v>85</v>
-      </c>
       <c r="Q14" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -3712,30 +3641,30 @@
         <v>16</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I15" s="46" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K15" s="15">
         <v>105</v>
       </c>
-      <c r="L15" s="60" t="s">
-        <v>202</v>
+      <c r="L15" s="59" t="s">
+        <v>200</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P15" s="53" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Q15" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -3764,7 +3693,7 @@
         <v>12</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J16" s="15">
         <v>20</v>
@@ -3773,16 +3702,16 @@
         <v>360</v>
       </c>
       <c r="L16" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="M16" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="17"/>
       <c r="Q16" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -3811,7 +3740,7 @@
         <v>12</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J17" s="15">
         <v>30</v>
@@ -3820,16 +3749,16 @@
         <v>240</v>
       </c>
       <c r="L17" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="M17" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="14"/>
       <c r="Q17" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -3858,7 +3787,7 @@
         <v>12</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J18" s="15">
         <v>30</v>
@@ -3867,16 +3796,16 @@
         <v>360</v>
       </c>
       <c r="L18" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="M18" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="15"/>
       <c r="Q18" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -3896,7 +3825,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G19" s="15">
         <v>8</v>
@@ -3905,7 +3834,7 @@
         <v>19</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J19" s="15" t="s">
         <v>28</v>
@@ -3914,20 +3843,20 @@
         <v>120</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O19" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="P19" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="P19" s="18" t="s">
+      <c r="Q19" s="19" t="s">
         <v>103</v>
-      </c>
-      <c r="Q19" s="19" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -3947,7 +3876,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G20" s="15">
         <v>8</v>
@@ -3956,7 +3885,7 @@
         <v>18</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J20" s="15" t="s">
         <v>28</v>
@@ -3965,18 +3894,18 @@
         <v>120</v>
       </c>
       <c r="L20" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q20" s="15" t="s">
         <v>109</v>
-      </c>
-      <c r="Q20" s="15" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -3996,7 +3925,7 @@
         <v>21</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G21" s="15">
         <v>34</v>
@@ -4008,19 +3937,19 @@
         <v>43</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K21" s="15">
         <v>180</v>
       </c>
       <c r="L21" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="M21" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="N21" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="18"/>
@@ -4043,7 +3972,7 @@
         <v>21</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G22" s="15">
         <v>34</v>
@@ -4055,19 +3984,19 @@
         <v>43</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K22" s="15">
         <v>150</v>
       </c>
       <c r="L22" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="M22" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="N22" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="18"/>
@@ -4090,31 +4019,31 @@
         <v>21</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G23" s="15">
         <v>34</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I23" s="16" t="s">
         <v>43</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K23" s="19">
         <v>180</v>
       </c>
       <c r="L23" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="M23" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="N23" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="18"/>
@@ -4137,34 +4066,34 @@
         <v>21</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G24" s="15">
         <v>34</v>
       </c>
       <c r="H24" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="I24" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="I24" s="16" t="s">
-        <v>127</v>
-      </c>
       <c r="J24" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K24" s="19">
         <v>60</v>
       </c>
       <c r="L24" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="M24" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="18"/>
       <c r="Q24" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -4184,16 +4113,16 @@
         <v>11</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G25" s="28">
         <v>16</v>
       </c>
       <c r="H25" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="I25" s="28" t="s">
         <v>156</v>
-      </c>
-      <c r="I25" s="28" t="s">
-        <v>157</v>
       </c>
       <c r="J25" s="28">
         <v>14</v>
@@ -4202,16 +4131,16 @@
         <v>85</v>
       </c>
       <c r="L25" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="M25" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="56"/>
       <c r="Q25" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -4231,7 +4160,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G26" s="15">
         <v>8</v>
@@ -4240,29 +4169,29 @@
         <v>27</v>
       </c>
       <c r="I26" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="J26" s="15" t="s">
         <v>162</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>163</v>
       </c>
       <c r="K26" s="15">
         <v>140</v>
       </c>
       <c r="L26" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="O26" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="P26" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="P26" s="18" t="s">
+      <c r="Q26" s="19" t="s">
         <v>167</v>
-      </c>
-      <c r="Q26" s="19" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -4282,38 +4211,38 @@
         <v>11</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G27" s="15">
         <v>8</v>
       </c>
       <c r="H27" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="J27" s="15" t="s">
         <v>169</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>171</v>
       </c>
       <c r="K27" s="15">
         <v>140</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="P27" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q27" s="19" t="s">
         <v>167</v>
-      </c>
-      <c r="Q27" s="19" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="213" thickBot="1" x14ac:dyDescent="0.45">
@@ -4333,16 +4262,16 @@
         <v>11</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G28" s="15">
         <v>8</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="I28" s="65" t="s">
-        <v>162</v>
+        <v>168</v>
+      </c>
+      <c r="I28" s="61" t="s">
+        <v>161</v>
       </c>
       <c r="J28" s="15" t="s">
         <v>28</v>
@@ -4351,20 +4280,20 @@
         <v>140</v>
       </c>
       <c r="L28" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P28" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q28" s="62" t="s">
         <v>167</v>
-      </c>
-      <c r="Q28" s="66" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -4384,7 +4313,7 @@
         <v>11</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G29" s="15">
         <v>17</v>
@@ -4393,7 +4322,7 @@
         <v>30</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J29" s="15" t="s">
         <v>28</v>
@@ -4402,18 +4331,18 @@
         <v>120</v>
       </c>
       <c r="L29" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="N29" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="18"/>
       <c r="Q29" s="19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -4433,7 +4362,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G30" s="15">
         <v>16</v>
@@ -4445,26 +4374,26 @@
         <v>43</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K30" s="15">
         <v>85</v>
       </c>
       <c r="L30" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="N30" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Q30" s="19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -4490,30 +4419,30 @@
         <v>16</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I31" s="46" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K31" s="15">
         <v>105</v>
       </c>
       <c r="L31" s="17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="P31" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q31" s="19" t="s">
         <v>198</v>
-      </c>
-      <c r="P31" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q31" s="19" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -4533,36 +4462,36 @@
         <v>11</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G32" s="15">
         <v>12</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K32" s="15">
         <v>100</v>
       </c>
       <c r="L32" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="P32" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q32" s="21" t="s">
         <v>213</v>
-      </c>
-      <c r="P32" s="44" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q32" s="21" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -4582,36 +4511,36 @@
         <v>11</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G33" s="36">
         <v>12</v>
       </c>
       <c r="H33" s="36" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I33" s="47" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J33" s="36" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K33" s="36">
         <v>360</v>
       </c>
       <c r="L33" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P33" s="37" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Q33" s="21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -4631,36 +4560,36 @@
         <v>11</v>
       </c>
       <c r="F34" s="38" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G34" s="21">
         <v>12</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I34" s="41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J34" s="21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K34" s="21">
         <v>100</v>
       </c>
       <c r="L34" s="37" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P34" s="38" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Q34" s="21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -4680,36 +4609,36 @@
         <v>11</v>
       </c>
       <c r="F35" s="38" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G35" s="21">
         <v>12</v>
       </c>
       <c r="H35" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I35" s="41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J35" s="21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K35" s="21">
         <v>360</v>
       </c>
       <c r="L35" s="37" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="P35" s="38" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Q35" s="21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -4729,35 +4658,35 @@
         <v>21</v>
       </c>
       <c r="F36" s="38" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G36" s="34">
         <v>40</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I36" s="39" t="s">
         <v>14</v>
       </c>
       <c r="J36" s="34" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K36" s="34">
         <v>90</v>
       </c>
       <c r="L36" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="N36" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="42" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Q36" s="34"/>
     </row>
@@ -4782,10 +4711,10 @@
         <v>19</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I37" s="41" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J37" s="21">
         <v>15</v>
@@ -4794,23 +4723,23 @@
         <v>225</v>
       </c>
       <c r="L37" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="N37" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="51" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="Q37" s="21" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="103.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="117.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="12">
         <v>12</v>
       </c>
@@ -4827,7 +4756,7 @@
         <v>11</v>
       </c>
       <c r="F38" s="38" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G38" s="21">
         <v>19</v>
@@ -4836,7 +4765,7 @@
         <v>12</v>
       </c>
       <c r="I38" s="41" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J38" s="21">
         <v>15</v>
@@ -4845,17 +4774,17 @@
         <v>172</v>
       </c>
       <c r="L38" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="N38" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="51" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Q38" s="34"/>
     </row>
@@ -4876,16 +4805,16 @@
         <v>11</v>
       </c>
       <c r="F39" s="38" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G39" s="21">
         <v>21</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I39" s="41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J39" s="21">
         <v>15</v>
@@ -4894,15 +4823,15 @@
         <v>153</v>
       </c>
       <c r="L39" s="54" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="37" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Q39" s="34"/>
     </row>
@@ -4923,13 +4852,13 @@
         <v>11</v>
       </c>
       <c r="F40" s="38" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G40" s="21">
         <v>21</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I40" s="41" t="s">
         <v>14</v>
@@ -4941,10 +4870,10 @@
         <v>166</v>
       </c>
       <c r="L40" s="37" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5033,10 +4962,10 @@
         <v>240</v>
       </c>
       <c r="L42" s="51" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5073,7 +5002,7 @@
         <v>12</v>
       </c>
       <c r="I43" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J43" s="21">
         <v>30</v>
@@ -5082,20 +5011,20 @@
         <v>120</v>
       </c>
       <c r="L43" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="M43" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P43" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="P43" s="38" t="s">
-        <v>93</v>
-      </c>
       <c r="Q43" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -5115,38 +5044,38 @@
         <v>44</v>
       </c>
       <c r="F44" s="44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G44" s="45">
         <v>8</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I44" s="41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J44" s="21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K44" s="21">
         <v>140</v>
       </c>
       <c r="L44" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="P44" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q44" s="34" t="s">
         <v>167</v>
-      </c>
-      <c r="Q44" s="34" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -5172,32 +5101,32 @@
         <v>16</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I45" s="39" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J45" s="21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K45" s="21">
         <v>105</v>
       </c>
       <c r="L45" s="37" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>42</v>
       </c>
       <c r="P45" s="40" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Q45" s="34" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -5211,7 +5140,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5224,16 +5153,16 @@
         <v>59</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G1" s="28">
         <v>21</v>
@@ -5242,29 +5171,29 @@
         <v>22</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J1" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="K1" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="L1" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="M1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q1" s="28" t="s">
         <v>139</v>
-      </c>
-      <c r="Q1" s="28" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -5275,16 +5204,16 @@
         <v>59</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G2" s="28">
         <v>21</v>
@@ -5293,29 +5222,29 @@
         <v>22</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K2" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="L2" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="M2" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q2" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -5326,45 +5255,45 @@
         <v>38</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G3" s="28">
         <v>22</v>
       </c>
       <c r="H3" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3" s="29" t="s">
         <v>147</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>148</v>
       </c>
       <c r="J3" s="28">
         <v>25</v>
       </c>
       <c r="K3" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L3" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q3" s="32" t="s">
         <v>151</v>
-      </c>
-      <c r="Q3" s="32" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -5375,45 +5304,45 @@
         <v>38</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G4" s="28">
         <v>22</v>
       </c>
       <c r="H4" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="I4" s="29" t="s">
         <v>147</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>148</v>
       </c>
       <c r="J4" s="28">
         <v>25</v>
       </c>
       <c r="K4" s="30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L4" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q4" s="32" t="s">
         <v>151</v>
-      </c>
-      <c r="Q4" s="32" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -5426,8 +5355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView zoomScale="81" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5436,71 +5365,67 @@
     <col min="8" max="8" width="21.7109375" customWidth="1"/>
     <col min="9" max="9" width="20.5703125" customWidth="1"/>
     <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="56.28515625" style="64" customWidth="1"/>
+    <col min="12" max="12" width="56.28515625" style="60" customWidth="1"/>
     <col min="13" max="13" width="14.28515625" customWidth="1"/>
     <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" style="59" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="7" t="s">
+    <row r="1" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="12">
         <v>1</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>9</v>
+      <c r="B1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="15">
+        <v>19</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="15">
+        <v>10</v>
+      </c>
+      <c r="K1" s="15">
+        <v>180</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>13</v>
+      <c r="B2" s="20" t="s">
+        <v>59</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>10</v>
@@ -5512,44 +5437,44 @@
         <v>11</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G2" s="15">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="15">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="K2" s="15">
-        <v>180</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>51</v>
+        <v>240</v>
+      </c>
+      <c r="L2" s="48" t="s">
+        <v>63</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="N2" s="2"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q2" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="O2" s="2"/>
+      <c r="P2" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="104.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>59</v>
+      <c r="B3" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>10</v>
@@ -5561,39 +5486,41 @@
         <v>11</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="G3" s="15">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="61">
+        <v>70</v>
+      </c>
+      <c r="J3" s="15">
         <v>10</v>
       </c>
       <c r="K3" s="15">
-        <v>240</v>
-      </c>
-      <c r="L3" s="48" t="s">
-        <v>63</v>
+        <v>120</v>
+      </c>
+      <c r="L3" s="59" t="s">
+        <v>71</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="N3" s="2"/>
-      <c r="O3" s="58"/>
+      <c r="O3" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="P3" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q3" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="61.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>74</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -5619,32 +5546,28 @@
         <v>12</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J4" s="15">
         <v>10</v>
       </c>
       <c r="K4" s="15">
-        <v>120</v>
-      </c>
-      <c r="L4" s="60" t="s">
-        <v>257</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O4" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q4" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="L4" s="49" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="60.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -5670,36 +5593,36 @@
         <v>12</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J5" s="15">
         <v>10</v>
       </c>
       <c r="K5" s="15">
-        <v>240</v>
-      </c>
-      <c r="L5" s="63" t="s">
-        <v>260</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O5" s="58"/>
+        <v>360</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
       <c r="P5" s="17"/>
       <c r="Q5" s="34" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="46.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="12">
-        <v>1</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>38</v>
+        <v>9</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>15</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>11</v>
@@ -5708,45 +5631,47 @@
         <v>11</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G6" s="15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" s="15">
-        <v>10</v>
+        <v>168</v>
+      </c>
+      <c r="I6" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>199</v>
       </c>
       <c r="K6" s="15">
-        <v>360</v>
-      </c>
-      <c r="L6" s="60" t="s">
-        <v>80</v>
+        <v>105</v>
+      </c>
+      <c r="L6" s="59" t="s">
+        <v>200</v>
       </c>
       <c r="M6" s="2"/>
-      <c r="N6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O6" s="58"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="N6" s="2"/>
+      <c r="O6" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="12">
-        <v>1</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>38</v>
+        <v>2</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>11</v>
@@ -5755,43 +5680,49 @@
         <v>11</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="G7" s="15">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" s="15">
-        <v>20</v>
+        <v>98</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="K7" s="15">
         <v>120</v>
       </c>
-      <c r="L7" s="60" t="s">
-        <v>258</v>
+      <c r="L7" s="17" t="s">
+        <v>99</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="O7" s="58"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="34"/>
-    </row>
-    <row r="8" spans="1:17" ht="46.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="P7" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="12">
-        <v>1</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>38</v>
+        <v>2</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>15</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>11</v>
@@ -5800,286 +5731,282 @@
         <v>11</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="G8" s="15">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" s="15">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="K8" s="15">
-        <v>240</v>
-      </c>
-      <c r="L8" s="60" t="s">
-        <v>261</v>
+        <v>120</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>106</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="O8" s="58"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="34" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="46.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="12">
-        <v>1</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>38</v>
+        <v>107</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="25">
+        <v>3</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>59</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="G9" s="15">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9" s="15">
+        <v>43</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" s="15">
+        <v>180</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="19"/>
+    </row>
+    <row r="10" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="12">
+        <v>3</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="15">
-        <v>360</v>
-      </c>
-      <c r="L9" s="60" t="s">
-        <v>262</v>
-      </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O9" s="58"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="46.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="12">
-        <v>1</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>10</v>
-      </c>
       <c r="D10" s="15" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="G10" s="15">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="J10" s="15">
-        <v>30</v>
+        <v>43</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>111</v>
       </c>
       <c r="K10" s="15">
-        <v>240</v>
-      </c>
-      <c r="L10" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="N10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="O10" s="58"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="46.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>118</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="19"/>
+    </row>
+    <row r="11" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="12">
-        <v>1</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>38</v>
+        <v>3</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>15</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="G11" s="15">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="J11" s="15">
-        <v>30</v>
-      </c>
-      <c r="K11" s="15">
-        <v>360</v>
-      </c>
-      <c r="L11" s="61" t="s">
-        <v>263</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" s="19">
+        <v>180</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="N11" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="O11" s="58"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="19" t="s">
-        <v>81</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="19"/>
     </row>
     <row r="12" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="12">
-        <v>2</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>15</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="G12" s="15">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="15">
-        <v>120</v>
-      </c>
-      <c r="L12" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="O12" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="P12" s="18" t="s">
-        <v>103</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="K12" s="19">
+        <v>60</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="18"/>
       <c r="Q12" s="19" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="12">
-        <v>2</v>
+      <c r="A13" s="25">
+        <v>5</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="G13" s="28">
         <v>16</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="G13" s="15">
-        <v>8</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="15">
-        <v>120</v>
-      </c>
-      <c r="L13" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O13" s="58"/>
-      <c r="P13" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q13" s="15" t="s">
-        <v>110</v>
+      <c r="H13" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="J13" s="28">
+        <v>14</v>
+      </c>
+      <c r="K13" s="28">
+        <v>85</v>
+      </c>
+      <c r="L13" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="28" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="25">
-        <v>3</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>59</v>
+      <c r="A14" s="12">
+        <v>6</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>15</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>21</v>
@@ -6088,721 +6015,725 @@
         <v>21</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="G14" s="15">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="K14" s="15">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>114</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="O14" s="58"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="19"/>
+        <v>164</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="P14" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q14" s="19" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="15" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="12">
-        <v>3</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>15</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="G15" s="15">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>24</v>
+        <v>168</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="K15" s="15">
-        <v>150</v>
-      </c>
-      <c r="L15" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>118</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="O15" s="58"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="19"/>
-    </row>
-    <row r="16" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>171</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="P15" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q15" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="213" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B16" s="24" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="G16" s="15">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>43</v>
+        <v>168</v>
+      </c>
+      <c r="I16" s="61" t="s">
+        <v>161</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="K16" s="19">
-        <v>180</v>
+        <v>28</v>
+      </c>
+      <c r="K16" s="15">
+        <v>140</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>123</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="O16" s="58"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="19"/>
+        <v>174</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="P16" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q16" s="62" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="17" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="12">
-        <v>3</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>23</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="G17" s="15">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="K17" s="19">
-        <v>60</v>
-      </c>
-      <c r="L17" s="22" t="s">
-        <v>128</v>
+        <v>28</v>
+      </c>
+      <c r="K17" s="15">
+        <v>120</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>182</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="58"/>
+        <v>183</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" s="18"/>
       <c r="Q17" s="19" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="25">
-        <v>5</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>25</v>
+      <c r="A18" s="12">
+        <v>8</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="G18" s="28">
+      <c r="E18" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="G18" s="15">
         <v>16</v>
       </c>
-      <c r="H18" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="J18" s="28">
-        <v>14</v>
-      </c>
-      <c r="K18" s="28">
+      <c r="H18" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="K18" s="15">
         <v>85</v>
       </c>
-      <c r="L18" s="48" t="s">
-        <v>158</v>
+      <c r="L18" s="50" t="s">
+        <v>188</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="28" t="s">
-        <v>160</v>
+        <v>189</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q18" s="19" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="12">
-        <v>6</v>
+      <c r="A19" s="33">
+        <v>9</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="G19" s="15">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>162</v>
+        <v>168</v>
+      </c>
+      <c r="I19" s="46" t="s">
+        <v>193</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="K19" s="15">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="N19" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="O19" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="P19" s="18" t="s">
-        <v>167</v>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="P19" s="52" t="s">
+        <v>197</v>
       </c>
       <c r="Q19" s="19" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="12">
-        <v>6</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="G20" s="15">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H20" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="J20" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="I20" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>171</v>
-      </c>
       <c r="K20" s="15">
-        <v>140</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>172</v>
+        <v>100</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>210</v>
       </c>
       <c r="M20" s="2"/>
-      <c r="N20" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="O20" s="58" t="s">
-        <v>174</v>
-      </c>
-      <c r="P20" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q20" s="19" t="s">
-        <v>168</v>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="P20" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q20" s="21" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="12">
-        <v>6</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="G21" s="15">
-        <v>8</v>
-      </c>
-      <c r="H21" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="G21" s="36">
+        <v>12</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="I21" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="J21" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="I21" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="15">
-        <v>140</v>
-      </c>
-      <c r="L21" s="17" t="s">
-        <v>175</v>
+      <c r="K21" s="36">
+        <v>360</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>214</v>
       </c>
       <c r="M21" s="2"/>
-      <c r="N21" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="O21" s="58" t="s">
-        <v>177</v>
-      </c>
-      <c r="P21" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q21" s="19" t="s">
-        <v>168</v>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="P21" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q21" s="21" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="12">
-        <v>7</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="G22" s="15">
-        <v>17</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" s="15">
-        <v>120</v>
-      </c>
-      <c r="L22" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O22" s="58"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="19" t="s">
-        <v>187</v>
+        <v>11</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="G22" s="21">
+        <v>12</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="I22" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="K22" s="21">
+        <v>100</v>
+      </c>
+      <c r="L22" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="P22" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q22" s="21" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="12">
-        <v>8</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>59</v>
+        <v>10</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="G23" s="15">
-        <v>16</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="K23" s="15">
-        <v>85</v>
-      </c>
-      <c r="L23" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="O23" s="58"/>
-      <c r="P23" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q23" s="19" t="s">
-        <v>194</v>
+        <v>11</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" s="21">
+        <v>12</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="I23" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="K23" s="21">
+        <v>360</v>
+      </c>
+      <c r="L23" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="P23" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q23" s="21" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="33">
-        <v>9</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>15</v>
+      <c r="A24" s="12">
+        <v>11</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>23</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" s="15">
-        <v>16</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="I24" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="K24" s="15">
-        <v>105</v>
-      </c>
-      <c r="L24" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="58" t="s">
-        <v>198</v>
-      </c>
-      <c r="P24" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q24" s="19" t="s">
-        <v>200</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="G24" s="34">
+        <v>40</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="I24" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="K24" s="34">
+        <v>90</v>
+      </c>
+      <c r="L24" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q24" s="34"/>
     </row>
     <row r="25" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>33</v>
+      <c r="C25" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="G25" s="15">
+        <v>11</v>
+      </c>
+      <c r="F25" s="42"/>
+      <c r="G25" s="21">
+        <v>19</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="I25" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="J25" s="21">
+        <v>15</v>
+      </c>
+      <c r="K25" s="21">
+        <v>225</v>
+      </c>
+      <c r="L25" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q25" s="21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="117.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="12">
         <v>12</v>
       </c>
-      <c r="H25" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="K25" s="15">
-        <v>100</v>
-      </c>
-      <c r="L25" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="P25" s="44" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q25" s="21" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="12">
-        <v>10</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>33</v>
+      <c r="B26" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="G26" s="36">
+        <v>11</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="G26" s="21">
+        <v>19</v>
+      </c>
+      <c r="H26" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="I26" s="47" t="s">
-        <v>211</v>
-      </c>
-      <c r="J26" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="K26" s="36">
-        <v>360</v>
-      </c>
-      <c r="L26" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="58" t="s">
-        <v>217</v>
-      </c>
-      <c r="P26" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q26" s="21" t="s">
-        <v>215</v>
-      </c>
+      <c r="I26" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="J26" s="21">
+        <v>15</v>
+      </c>
+      <c r="K26" s="21">
+        <v>172</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" s="51" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q26" s="34"/>
     </row>
     <row r="27" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="12">
-        <v>10</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>33</v>
+        <v>12</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F27" s="38" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="G27" s="21">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="I27" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="J27" s="21" t="s">
-        <v>218</v>
+        <v>242</v>
+      </c>
+      <c r="J27" s="21">
+        <v>15</v>
       </c>
       <c r="K27" s="21">
-        <v>100</v>
-      </c>
-      <c r="L27" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="L27" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>244</v>
+      </c>
       <c r="N27" s="2"/>
-      <c r="O27" s="58" t="s">
-        <v>220</v>
-      </c>
-      <c r="P27" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q27" s="21" t="s">
-        <v>215</v>
-      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q27" s="34"/>
     </row>
     <row r="28" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="12">
-        <v>10</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>33</v>
+        <v>12</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F28" s="38" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="G28" s="21">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="I28" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="J28" s="21" t="s">
-        <v>218</v>
+        <v>14</v>
+      </c>
+      <c r="J28" s="21">
+        <v>15</v>
       </c>
       <c r="K28" s="21">
-        <v>360</v>
+        <v>166</v>
       </c>
       <c r="L28" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>253</v>
+      </c>
       <c r="N28" s="2"/>
-      <c r="O28" s="58" t="s">
-        <v>222</v>
-      </c>
-      <c r="P28" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q28" s="21" t="s">
-        <v>215</v>
-      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="34"/>
     </row>
     <row r="29" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="12">
@@ -6821,35 +6752,35 @@
         <v>21</v>
       </c>
       <c r="F29" s="38" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G29" s="34">
         <v>40</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I29" s="39" t="s">
         <v>14</v>
       </c>
       <c r="J29" s="34" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K29" s="34">
         <v>90</v>
       </c>
       <c r="L29" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="N29" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="O29" s="57"/>
+      <c r="P29" s="42" t="s">
         <v>227</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="O29" s="58"/>
-      <c r="P29" s="42" t="s">
-        <v>229</v>
       </c>
       <c r="Q29" s="34"/>
     </row>
@@ -6874,10 +6805,10 @@
         <v>19</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I30" s="41" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J30" s="21">
         <v>15</v>
@@ -6886,20 +6817,20 @@
         <v>225</v>
       </c>
       <c r="L30" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="N30" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="O30" s="57"/>
+      <c r="P30" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="N30" s="2" t="s">
+      <c r="Q30" s="21" t="s">
         <v>234</v>
-      </c>
-      <c r="O30" s="58"/>
-      <c r="P30" s="51" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q30" s="21" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -6919,7 +6850,7 @@
         <v>17</v>
       </c>
       <c r="F31" s="38" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G31" s="21">
         <v>19</v>
@@ -6928,7 +6859,7 @@
         <v>12</v>
       </c>
       <c r="I31" s="41" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J31" s="21">
         <v>15</v>
@@ -6937,17 +6868,17 @@
         <v>172</v>
       </c>
       <c r="L31" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="N31" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="O31" s="57"/>
+      <c r="P31" s="51" t="s">
         <v>240</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="O31" s="58"/>
-      <c r="P31" s="51" t="s">
-        <v>242</v>
       </c>
       <c r="Q31" s="34"/>
     </row>
@@ -6968,16 +6899,16 @@
         <v>17</v>
       </c>
       <c r="F32" s="38" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G32" s="21">
         <v>21</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I32" s="41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J32" s="21">
         <v>15</v>
@@ -6986,15 +6917,15 @@
         <v>153</v>
       </c>
       <c r="L32" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="37" t="s">
         <v>245</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="37" t="s">
-        <v>247</v>
       </c>
       <c r="Q32" s="34"/>
     </row>
@@ -7015,13 +6946,13 @@
         <v>17</v>
       </c>
       <c r="F33" s="38" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G33" s="21">
         <v>21</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I33" s="41" t="s">
         <v>14</v>
@@ -7033,13 +6964,13 @@
         <v>166</v>
       </c>
       <c r="L33" s="37" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" s="58"/>
+      <c r="O33" s="57"/>
       <c r="P33" s="51"/>
       <c r="Q33" s="34"/>
     </row>
@@ -7069,7 +7000,7 @@
         <v>12</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J34" s="15">
         <v>30</v>
@@ -7077,14 +7008,14 @@
       <c r="K34" s="15">
         <v>120</v>
       </c>
-      <c r="L34" s="60" t="s">
-        <v>259</v>
+      <c r="L34" s="59" t="s">
+        <v>254</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="O34" s="58"/>
+        <v>90</v>
+      </c>
+      <c r="O34" s="57"/>
       <c r="P34" s="17"/>
       <c r="Q34" s="34"/>
     </row>
@@ -7096,10 +7027,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B5538A5-2CE0-400F-BF9C-B504D5DC3739}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7110,6 +7041,8 @@
     <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.42578125" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="108.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7120,13 +7053,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>252</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>254</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>36</v>
@@ -7169,55 +7102,55 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>13</v>
+      <c r="B2" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="18"/>
+      <c r="F2" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="G2" s="15">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="J2" s="15">
         <v>20</v>
       </c>
       <c r="K2" s="15">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q2" s="19" t="s">
-        <v>54</v>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="34" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>59</v>
+      <c r="B3" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>10</v>
@@ -7225,48 +7158,46 @@
       <c r="D3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>60</v>
-      </c>
+      <c r="F3" s="18"/>
       <c r="G3" s="15">
+        <v>18</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="15">
         <v>20</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>67</v>
-      </c>
       <c r="K3" s="15">
-        <v>240</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>68</v>
+        <v>180</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q3" s="15" t="s">
-        <v>66</v>
+      <c r="P3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>38</v>
+      <c r="B4" s="20" t="s">
+        <v>59</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>10</v>
@@ -7274,142 +7205,240 @@
       <c r="D4" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="28" t="s">
         <v>44</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="19">
+        <v>60</v>
+      </c>
+      <c r="G4" s="15">
+        <v>20</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" s="15">
-        <v>20</v>
+      <c r="J4" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="K4" s="15">
-        <v>120</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>82</v>
+        <v>240</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>256</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="N4" s="2"/>
-      <c r="O4" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="O4" s="2"/>
       <c r="P4" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>76</v>
+        <v>65</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="12">
-        <v>9</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="28" t="s">
         <v>44</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="15">
-        <v>16</v>
+        <v>39</v>
+      </c>
+      <c r="G5" s="19">
+        <v>14</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="I5" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>201</v>
+        <v>12</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="15">
+        <v>20</v>
       </c>
       <c r="K5" s="15">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="M5" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="12">
+        <v>1</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="15">
+        <v>14</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="15">
+        <v>20</v>
+      </c>
+      <c r="K6" s="15">
+        <v>360</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="43">
+        <v>6</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="45">
+        <v>8</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="K7" s="21">
+        <v>140</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="P7" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q7" s="34" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="43">
+        <v>9</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="45">
+        <v>16</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="J8" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="P5" s="53" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q5" s="19" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="43">
-        <v>6</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="G6" s="45">
-        <v>8</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="I6" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="K6" s="21">
-        <v>140</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="P6" s="51" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q6" s="34" t="s">
-        <v>168</v>
+      <c r="K8" s="21">
+        <v>105</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q8" s="34" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -7419,13 +7448,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B928E5-8912-4A3C-9609-DB7127AEEA71}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
@@ -7435,13 +7468,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>252</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>254</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>36</v>
@@ -7484,10 +7517,10 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="21" t="s">
@@ -7496,146 +7529,140 @@
       <c r="E2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="21">
-        <v>18</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="21">
+      <c r="F2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="15">
+        <v>14</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="15">
         <v>30</v>
       </c>
-      <c r="K2" s="21">
-        <v>180</v>
-      </c>
-      <c r="L2" s="37" t="s">
-        <v>56</v>
+      <c r="K2" s="15">
+        <v>240</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>93</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q2" s="34" t="s">
-        <v>54</v>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="19" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="33">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="21" t="s">
         <v>37</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="21">
-        <v>20</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="41" t="s">
+      <c r="F3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="15">
         <v>14</v>
       </c>
-      <c r="J3" s="21">
+      <c r="H3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="15">
         <v>30</v>
       </c>
-      <c r="K3" s="21">
-        <v>240</v>
-      </c>
-      <c r="L3" s="51" t="s">
-        <v>3</v>
+      <c r="K3" s="15">
+        <v>360</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>95</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q3" s="21" t="s">
-        <v>66</v>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="19" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="43">
+      <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>38</v>
+      <c r="B4" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="21" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="34">
-        <v>14</v>
+      <c r="F4" s="42"/>
+      <c r="G4" s="21">
+        <v>18</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I4" s="41" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="J4" s="21">
         <v>30</v>
       </c>
       <c r="K4" s="21">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="L4" s="37" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="N4" s="2"/>
-      <c r="O4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="P4" s="38" t="s">
-        <v>93</v>
+      <c r="O4" s="2"/>
+      <c r="P4" s="42" t="s">
+        <v>58</v>
       </c>
       <c r="Q4" s="34" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="43">
-        <v>9</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>15</v>
+      <c r="A5" s="33">
+        <v>1</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>59</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>37</v>
@@ -7643,39 +7670,88 @@
       <c r="E5" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="45">
-        <v>16</v>
+      <c r="F5" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="21">
+        <v>20</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="I5" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>205</v>
+        <v>61</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="21">
+        <v>30</v>
       </c>
       <c r="K5" s="21">
-        <v>105</v>
-      </c>
-      <c r="L5" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P5" s="40" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q5" s="34" t="s">
-        <v>208</v>
+        <v>240</v>
+      </c>
+      <c r="L5" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q5" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="43">
+        <v>1</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="34">
+        <v>14</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="21">
+        <v>30</v>
+      </c>
+      <c r="K6" s="21">
+        <v>120</v>
+      </c>
+      <c r="L6" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P6" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q6" s="34" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Overview_Studies.xlsx
+++ b/Overview_Studies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prsyu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5B2654-5CF4-458B-BE8A-284D84D158FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDFE2B1-1C76-486A-98ED-6DAC075A18FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5835" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="High Dose" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Low Dose'!$A$1:$Q$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Low Dose'!$A$2:$Q$35</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overview!$A$1:$Q$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="257">
   <si>
     <t>CognitiveFunction</t>
   </si>
@@ -2111,7 +2111,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2179,6 +2179,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2429,7 +2436,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2612,6 +2619,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5353,10 +5363,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5371,61 +5381,65 @@
     <col min="15" max="15" width="14.140625" style="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="12">
+    <row r="1" spans="1:17" s="63" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1" s="63" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>252</v>
+      </c>
+      <c r="F1" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="15">
-        <v>19</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="15">
-        <v>10</v>
-      </c>
-      <c r="K1" s="15">
-        <v>180</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>54</v>
+      <c r="H1" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="63" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>59</v>
+      <c r="B2" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>10</v>
@@ -5437,44 +5451,44 @@
         <v>11</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="G2" s="15">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>62</v>
+        <v>50</v>
+      </c>
+      <c r="J2" s="15">
+        <v>10</v>
       </c>
       <c r="K2" s="15">
-        <v>240</v>
-      </c>
-      <c r="L2" s="48" t="s">
-        <v>63</v>
+        <v>180</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="104.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="P2" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>38</v>
+      <c r="B3" s="20" t="s">
+        <v>59</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>10</v>
@@ -5486,41 +5500,39 @@
         <v>11</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="G3" s="15">
+        <v>20</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="J3" s="15">
-        <v>10</v>
+      <c r="J3" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="K3" s="15">
-        <v>120</v>
-      </c>
-      <c r="L3" s="59" t="s">
-        <v>71</v>
+        <v>240</v>
+      </c>
+      <c r="L3" s="48" t="s">
+        <v>63</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="N3" s="2"/>
-      <c r="O3" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="O3" s="2"/>
       <c r="P3" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q3" s="19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="104.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -5552,19 +5564,23 @@
         <v>10</v>
       </c>
       <c r="K4" s="15">
-        <v>240</v>
-      </c>
-      <c r="L4" s="49" t="s">
-        <v>76</v>
+        <v>120</v>
+      </c>
+      <c r="L4" s="59" t="s">
+        <v>71</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="34" t="s">
-        <v>78</v>
+      <c r="O4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -5599,10 +5615,10 @@
         <v>10</v>
       </c>
       <c r="K5" s="15">
-        <v>360</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>79</v>
+        <v>240</v>
+      </c>
+      <c r="L5" s="49" t="s">
+        <v>76</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>77</v>
@@ -5611,115 +5627,111 @@
       <c r="O5" s="2"/>
       <c r="P5" s="17"/>
       <c r="Q5" s="34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="12">
+        <v>1</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="15">
+        <v>14</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="15">
+        <v>10</v>
+      </c>
+      <c r="K6" s="15">
+        <v>360</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="34" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="12">
+    <row r="7" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="12">
         <v>9</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B7" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="14" t="s">
+      <c r="D7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G7" s="15">
         <v>16</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H7" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="I6" s="46" t="s">
+      <c r="I7" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J7" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K7" s="15">
         <v>105</v>
       </c>
-      <c r="L6" s="59" t="s">
+      <c r="L7" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2" t="s">
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="P6" s="53" t="s">
+      <c r="P7" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="Q6" s="19" t="s">
+      <c r="Q7" s="19" t="s">
         <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="12">
-        <v>2</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7" s="15">
-        <v>8</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="15">
-        <v>120</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="P7" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q7" s="19" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>15</v>
+      <c r="B8" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>16</v>
@@ -5731,16 +5743,16 @@
         <v>11</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G8" s="15">
         <v>8</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>105</v>
+        <v>19</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>98</v>
       </c>
       <c r="J8" s="15" t="s">
         <v>28</v>
@@ -5749,73 +5761,77 @@
         <v>120</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="12">
+        <v>2</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="15">
+        <v>8</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="15">
+        <v>120</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="14" t="s">
+      <c r="O9" s="2"/>
+      <c r="P9" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="Q8" s="15" t="s">
+      <c r="Q9" s="15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="25">
+    <row r="10" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="25">
         <v>3</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B10" s="20" t="s">
         <v>59</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="G9" s="15">
-        <v>34</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="K9" s="15">
-        <v>180</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="19"/>
-    </row>
-    <row r="10" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="12">
-        <v>3</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>23</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>20</v>
@@ -5827,13 +5843,13 @@
         <v>21</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G10" s="15">
         <v>34</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I10" s="16" t="s">
         <v>43</v>
@@ -5842,16 +5858,16 @@
         <v>111</v>
       </c>
       <c r="K10" s="15">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="18"/>
@@ -5861,8 +5877,8 @@
       <c r="A11" s="12">
         <v>3</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>15</v>
+      <c r="B11" s="26" t="s">
+        <v>23</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>20</v>
@@ -5874,13 +5890,13 @@
         <v>21</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G11" s="15">
         <v>34</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="I11" s="16" t="s">
         <v>43</v>
@@ -5888,17 +5904,17 @@
       <c r="J11" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="K11" s="19">
-        <v>180</v>
+      <c r="K11" s="15">
+        <v>150</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="18"/>
@@ -5921,132 +5937,128 @@
         <v>21</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G12" s="15">
         <v>34</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="J12" s="15" t="s">
         <v>111</v>
       </c>
       <c r="K12" s="19">
-        <v>60</v>
-      </c>
-      <c r="L12" s="22" t="s">
-        <v>127</v>
+        <v>180</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" s="18"/>
-      <c r="Q12" s="19" t="s">
-        <v>129</v>
-      </c>
+      <c r="Q12" s="19"/>
     </row>
     <row r="13" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="25">
-        <v>5</v>
+      <c r="A13" s="12">
+        <v>3</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="28" t="s">
-        <v>25</v>
+      <c r="C13" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="G13" s="28">
-        <v>16</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="J13" s="28">
-        <v>14</v>
-      </c>
-      <c r="K13" s="28">
-        <v>85</v>
-      </c>
-      <c r="L13" s="48" t="s">
-        <v>157</v>
+        <v>21</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="15">
+        <v>34</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" s="19">
+        <v>60</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>127</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="28" t="s">
-        <v>159</v>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="19" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="12">
-        <v>6</v>
+      <c r="A14" s="25">
+        <v>5</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>26</v>
+      <c r="C14" s="28" t="s">
+        <v>25</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="G14" s="15">
-        <v>8</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="K14" s="15">
-        <v>140</v>
-      </c>
-      <c r="L14" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="P14" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q14" s="19" t="s">
-        <v>167</v>
+        <v>11</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" s="28">
+        <v>16</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="J14" s="28">
+        <v>14</v>
+      </c>
+      <c r="K14" s="28">
+        <v>85</v>
+      </c>
+      <c r="L14" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="28" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -6060,10 +6072,10 @@
         <v>26</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>160</v>
@@ -6072,35 +6084,35 @@
         <v>8</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>168</v>
+        <v>27</v>
       </c>
       <c r="I15" s="16" t="s">
         <v>161</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="K15" s="15">
         <v>140</v>
       </c>
-      <c r="L15" s="14" t="s">
-        <v>170</v>
+      <c r="L15" s="17" t="s">
+        <v>163</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="P15" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="P15" s="18" t="s">
         <v>166</v>
       </c>
       <c r="Q15" s="19" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="213" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="12">
         <v>6</v>
       </c>
@@ -6125,41 +6137,41 @@
       <c r="H16" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="I16" s="61" t="s">
+      <c r="I16" s="16" t="s">
         <v>161</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="K16" s="15">
         <v>140</v>
       </c>
-      <c r="L16" s="17" t="s">
-        <v>173</v>
+      <c r="L16" s="14" t="s">
+        <v>170</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="P16" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="P16" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="Q16" s="62" t="s">
+      <c r="Q16" s="19" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" ht="213" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="12">
-        <v>7</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>15</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>11</v>
@@ -6168,185 +6180,187 @@
         <v>11</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="G17" s="15">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>181</v>
+        <v>168</v>
+      </c>
+      <c r="I17" s="61" t="s">
+        <v>161</v>
       </c>
       <c r="J17" s="15" t="s">
         <v>28</v>
       </c>
       <c r="K17" s="15">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>183</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="M17" s="2"/>
       <c r="N17" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="O17" s="2"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="19" t="s">
-        <v>185</v>
+        <v>174</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="P17" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q17" s="62" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="12">
+        <v>7</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="G18" s="15">
+        <v>17</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="15">
+        <v>120</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="12">
         <v>8</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B19" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C19" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="14" t="s">
+      <c r="D19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="14" t="s">
         <v>186</v>
-      </c>
-      <c r="G18" s="15">
-        <v>16</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="K18" s="15">
-        <v>85</v>
-      </c>
-      <c r="L18" s="50" t="s">
-        <v>188</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="O18" s="2"/>
-      <c r="P18" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q18" s="19" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="33">
-        <v>9</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>41</v>
       </c>
       <c r="G19" s="15">
         <v>16</v>
       </c>
       <c r="H19" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="K19" s="15">
+        <v>85</v>
+      </c>
+      <c r="L19" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q19" s="19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="33">
+        <v>9</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="15">
+        <v>16</v>
+      </c>
+      <c r="H20" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="I19" s="46" t="s">
+      <c r="I20" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="J20" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K20" s="15">
         <v>105</v>
       </c>
-      <c r="L19" s="17" t="s">
+      <c r="L20" s="17" t="s">
         <v>195</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="P19" s="52" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q19" s="19" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="12">
-        <v>10</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="G20" s="15">
-        <v>12</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="K20" s="15">
-        <v>100</v>
-      </c>
-      <c r="L20" s="17" t="s">
-        <v>210</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="P20" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q20" s="21" t="s">
-        <v>213</v>
+        <v>196</v>
+      </c>
+      <c r="P20" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q20" s="19" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -6365,33 +6379,33 @@
       <c r="E21" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="35" t="s">
+      <c r="F21" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="15">
         <v>12</v>
       </c>
-      <c r="H21" s="36" t="s">
+      <c r="H21" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="I21" s="47" t="s">
+      <c r="I21" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="J21" s="36" t="s">
+      <c r="J21" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="K21" s="36">
-        <v>360</v>
-      </c>
-      <c r="L21" s="15" t="s">
-        <v>214</v>
+      <c r="K21" s="15">
+        <v>100</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>210</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="P21" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="P21" s="44" t="s">
         <v>212</v>
       </c>
       <c r="Q21" s="21" t="s">
@@ -6414,33 +6428,33 @@
       <c r="E22" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="38" t="s">
+      <c r="F22" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="36">
         <v>12</v>
       </c>
-      <c r="H22" s="21" t="s">
+      <c r="H22" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="I22" s="41" t="s">
+      <c r="I22" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="J22" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="K22" s="21">
-        <v>100</v>
-      </c>
-      <c r="L22" s="37" t="s">
-        <v>217</v>
+      <c r="J22" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="K22" s="36">
+        <v>360</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>214</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="P22" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="P22" s="37" t="s">
         <v>212</v>
       </c>
       <c r="Q22" s="21" t="s">
@@ -6479,15 +6493,15 @@
         <v>216</v>
       </c>
       <c r="K23" s="21">
-        <v>360</v>
+        <v>100</v>
       </c>
       <c r="L23" s="37" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P23" s="38" t="s">
         <v>212</v>
@@ -6498,108 +6512,108 @@
     </row>
     <row r="24" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="12">
-        <v>11</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="G24" s="34">
-        <v>40</v>
+        <v>207</v>
+      </c>
+      <c r="G24" s="21">
+        <v>12</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="I24" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" s="34" t="s">
-        <v>223</v>
-      </c>
-      <c r="K24" s="34">
-        <v>90</v>
+        <v>208</v>
+      </c>
+      <c r="I24" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="K24" s="21">
+        <v>360</v>
       </c>
       <c r="L24" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="O24" s="2"/>
-      <c r="P24" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q24" s="34"/>
+        <v>219</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="P24" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q24" s="21" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="25" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="12">
-        <v>12</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>35</v>
+        <v>11</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="42"/>
-      <c r="G25" s="21">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="G25" s="34">
+        <v>40</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="I25" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="J25" s="21">
-        <v>15</v>
-      </c>
-      <c r="K25" s="21">
+        <v>222</v>
+      </c>
+      <c r="I25" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="K25" s="34">
+        <v>90</v>
+      </c>
+      <c r="L25" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="M25" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="L25" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="N25" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="O25" s="2"/>
-      <c r="P25" s="51" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q25" s="21" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="117.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="P25" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q25" s="34"/>
+    </row>
+    <row r="26" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="12">
         <v>12</v>
       </c>
-      <c r="B26" s="23" t="s">
-        <v>38</v>
+      <c r="B26" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="C26" s="21" t="s">
         <v>35</v>
@@ -6610,40 +6624,40 @@
       <c r="E26" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="38" t="s">
-        <v>235</v>
-      </c>
+      <c r="F26" s="42"/>
       <c r="G26" s="21">
         <v>19</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="I26" s="41" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="J26" s="21">
         <v>15</v>
       </c>
       <c r="K26" s="21">
-        <v>172</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>237</v>
+        <v>225</v>
+      </c>
+      <c r="L26" s="37" t="s">
+        <v>230</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="51" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q26" s="34"/>
-    </row>
-    <row r="27" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>233</v>
+      </c>
+      <c r="Q26" s="21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="117.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="12">
         <v>12</v>
       </c>
@@ -6663,30 +6677,32 @@
         <v>235</v>
       </c>
       <c r="G27" s="21">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>241</v>
+        <v>12</v>
       </c>
       <c r="I27" s="41" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="J27" s="21">
         <v>15</v>
       </c>
       <c r="K27" s="21">
-        <v>153</v>
-      </c>
-      <c r="L27" s="54" t="s">
-        <v>243</v>
+        <v>172</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>239</v>
+      </c>
       <c r="O27" s="2"/>
-      <c r="P27" s="37" t="s">
-        <v>245</v>
+      <c r="P27" s="51" t="s">
+        <v>240</v>
       </c>
       <c r="Q27" s="34"/>
     </row>
@@ -6694,8 +6710,8 @@
       <c r="A28" s="12">
         <v>12</v>
       </c>
-      <c r="B28" s="24" t="s">
-        <v>15</v>
+      <c r="B28" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>35</v>
@@ -6707,138 +6723,136 @@
         <v>11</v>
       </c>
       <c r="F28" s="38" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="G28" s="21">
         <v>21</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="I28" s="41" t="s">
-        <v>14</v>
+        <v>242</v>
       </c>
       <c r="J28" s="21">
         <v>15</v>
       </c>
       <c r="K28" s="21">
-        <v>166</v>
-      </c>
-      <c r="L28" s="37" t="s">
-        <v>248</v>
+        <v>153</v>
+      </c>
+      <c r="L28" s="54" t="s">
+        <v>243</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="51"/>
+      <c r="P28" s="37" t="s">
+        <v>245</v>
+      </c>
       <c r="Q28" s="34"/>
     </row>
     <row r="29" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="12">
-        <v>11</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>34</v>
+        <v>12</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="D29" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="G29" s="21">
         <v>21</v>
       </c>
-      <c r="E29" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="G29" s="34">
-        <v>40</v>
-      </c>
       <c r="H29" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="I29" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="I29" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="J29" s="34" t="s">
-        <v>223</v>
-      </c>
-      <c r="K29" s="34">
-        <v>90</v>
+      <c r="J29" s="21">
+        <v>15</v>
+      </c>
+      <c r="K29" s="21">
+        <v>166</v>
       </c>
       <c r="L29" s="37" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="O29" s="57"/>
-      <c r="P29" s="42" t="s">
-        <v>227</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="51"/>
       <c r="Q29" s="34"/>
     </row>
     <row r="30" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="12">
-        <v>12</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>35</v>
+        <v>11</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="42"/>
-      <c r="G30" s="21">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="F30" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="G30" s="34">
+        <v>40</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="I30" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="J30" s="21">
-        <v>15</v>
-      </c>
-      <c r="K30" s="21">
+        <v>222</v>
+      </c>
+      <c r="I30" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="K30" s="34">
+        <v>90</v>
+      </c>
+      <c r="L30" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="M30" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="L30" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="N30" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="O30" s="57"/>
-      <c r="P30" s="51" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q30" s="21" t="s">
-        <v>234</v>
-      </c>
+      <c r="P30" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q30" s="34"/>
     </row>
     <row r="31" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="12">
         <v>12</v>
       </c>
-      <c r="B31" s="23" t="s">
-        <v>38</v>
+      <c r="B31" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>35</v>
@@ -6849,38 +6863,38 @@
       <c r="E31" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="38" t="s">
-        <v>235</v>
-      </c>
+      <c r="F31" s="42"/>
       <c r="G31" s="21">
         <v>19</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="I31" s="41" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="J31" s="21">
         <v>15</v>
       </c>
       <c r="K31" s="21">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="L31" s="37" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="O31" s="57"/>
       <c r="P31" s="51" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q31" s="34"/>
+        <v>233</v>
+      </c>
+      <c r="Q31" s="21" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="32" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="12">
@@ -6902,30 +6916,32 @@
         <v>235</v>
       </c>
       <c r="G32" s="21">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>241</v>
+        <v>12</v>
       </c>
       <c r="I32" s="41" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="J32" s="21">
         <v>15</v>
       </c>
       <c r="K32" s="21">
-        <v>153</v>
-      </c>
-      <c r="L32" s="54" t="s">
-        <v>243</v>
+        <v>172</v>
+      </c>
+      <c r="L32" s="37" t="s">
+        <v>237</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>239</v>
+      </c>
       <c r="O32" s="57"/>
-      <c r="P32" s="37" t="s">
-        <v>245</v>
+      <c r="P32" s="51" t="s">
+        <v>240</v>
       </c>
       <c r="Q32" s="34"/>
     </row>
@@ -6933,8 +6949,8 @@
       <c r="A33" s="12">
         <v>12</v>
       </c>
-      <c r="B33" s="24" t="s">
-        <v>15</v>
+      <c r="B33" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="C33" s="21" t="s">
         <v>35</v>
@@ -6946,81 +6962,128 @@
         <v>17</v>
       </c>
       <c r="F33" s="38" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="G33" s="21">
         <v>21</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="I33" s="41" t="s">
-        <v>14</v>
+        <v>242</v>
       </c>
       <c r="J33" s="21">
         <v>15</v>
       </c>
       <c r="K33" s="21">
-        <v>166</v>
-      </c>
-      <c r="L33" s="37" t="s">
-        <v>248</v>
+        <v>153</v>
+      </c>
+      <c r="L33" s="54" t="s">
+        <v>243</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="57"/>
-      <c r="P33" s="51"/>
+      <c r="P33" s="37" t="s">
+        <v>245</v>
+      </c>
       <c r="Q33" s="34"/>
     </row>
-    <row r="34" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="12">
+        <v>12</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="G34" s="21">
+        <v>21</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="I34" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="21">
+        <v>15</v>
+      </c>
+      <c r="K34" s="21">
+        <v>166</v>
+      </c>
+      <c r="L34" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="34"/>
+    </row>
+    <row r="35" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="12">
         <v>1</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B35" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C35" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="14" t="s">
+      <c r="D35" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G35" s="15">
         <v>14</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="H35" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I34" s="16" t="s">
+      <c r="I35" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J34" s="15">
+      <c r="J35" s="15">
         <v>30</v>
       </c>
-      <c r="K34" s="15">
+      <c r="K35" s="15">
         <v>120</v>
       </c>
-      <c r="L34" s="59" t="s">
+      <c r="L35" s="59" t="s">
         <v>254</v>
       </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2" t="s">
+      <c r="M35" s="2"/>
+      <c r="N35" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="O34" s="57"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="34"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="34"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q34" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:Q35" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7029,9 +7092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B5538A5-2CE0-400F-BF9C-B504D5DC3739}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7450,7 +7511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B928E5-8912-4A3C-9609-DB7127AEEA71}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>

--- a/Overview_Studies.xlsx
+++ b/Overview_Studies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prsyu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDFE2B1-1C76-486A-98ED-6DAC075A18FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2F4F24-8383-4B0F-8329-A72575DEE678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5070" yWindow="4140" windowWidth="21600" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="258">
   <si>
     <t>CognitiveFunction</t>
   </si>
@@ -2102,6 +2102,9 @@
   </si>
   <si>
     <t xml:space="preserve"> text: ∆RT = 47.0 ms, z = 9.33, p &lt; 0.0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.18</t>
   </si>
 </sst>
 </file>
@@ -2920,8 +2923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView zoomScale="82" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="L28" zoomScale="82" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4689,7 +4692,7 @@
         <v>224</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>226</v>
@@ -5365,8 +5368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="81" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6597,7 +6600,7 @@
         <v>224</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>226</v>
@@ -6657,7 +6660,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="117.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" ht="103.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="12">
         <v>12</v>
       </c>

--- a/Overview_Studies.xlsx
+++ b/Overview_Studies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prsyu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f2d186216cf91ab/Bidlung/University/M.S. Leiden University/M.S. Neuroscience (Research)/Internship Groningen/GitHub_Multiverse_meta/MetaAnalysis-Psilo-Cognition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17DA2F1F-1176-4321-84BC-474ABB99768F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1860" yWindow="-18915" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="259">
   <si>
     <t>CognitiveFunction</t>
   </si>
@@ -3016,8 +3016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3957,9 +3957,7 @@
       <c r="N19" s="54" t="s">
         <v>252</v>
       </c>
-      <c r="O19" s="2" t="s">
-        <v>253</v>
-      </c>
+      <c r="O19" s="2"/>
       <c r="P19" s="18" t="s">
         <v>93</v>
       </c>
@@ -5469,8 +5467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView zoomScale="81" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6925,7 +6923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B5538A5-2CE0-400F-BF9C-B504D5DC3739}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="69" workbookViewId="0">
+    <sheetView zoomScale="69" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/Overview_Studies.xlsx
+++ b/Overview_Studies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f2d186216cf91ab/Bidlung/University/M.S. Leiden University/M.S. Neuroscience (Research)/Internship Groningen/GitHub_Multiverse_meta/MetaAnalysis-Psilo-Cognition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17DA2F1F-1176-4321-84BC-474ABB99768F}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3074FFDD-5426-4B07-9EA2-FD7110E00061}"/>
   <bookViews>
-    <workbookView xWindow="-1860" yWindow="-18915" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="29010" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -3016,8 +3016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Overview_Studies.xlsx
+++ b/Overview_Studies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f2d186216cf91ab/Bidlung/University/M.S. Leiden University/M.S. Neuroscience (Research)/Internship Groningen/GitHub_Multiverse_meta/MetaAnalysis-Psilo-Cognition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3074FFDD-5426-4B07-9EA2-FD7110E00061}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCE28B44-A3E0-45E8-9F91-3493146621CB}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="29010" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="29010" windowHeight="15345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="260">
   <si>
     <t>CognitiveFunction</t>
   </si>
@@ -1134,24 +1134,6 @@
     <t>attentional blink</t>
   </si>
   <si>
-    <t xml:space="preserve">calculations based on raw data provided.
-mean accuracy Psilocybin: 0.8271889 
-SD accuracy Psilocybin: 0.09645801 
-mean accuracy placebo: 0.8711982  
-SD accuracy placebo: 0.06757419 
-mean RT Psilocybin: 0.8646351  
-SD RT Psilocybin: 0.1826972  
-mean RT placebo: 0.9029352  
-SD RT placebo: 0.2269478  
-</t>
-  </si>
-  <si>
-    <t>-0.1859102</t>
-  </si>
-  <si>
-    <t>-0.5284621</t>
-  </si>
-  <si>
     <t>Incrfeasaed RT for psilo</t>
   </si>
   <si>
@@ -2109,6 +2091,28 @@
   </si>
   <si>
     <t>-1.305</t>
+  </si>
+  <si>
+    <t>-0.4602659</t>
+  </si>
+  <si>
+    <t>-0.2587441</t>
+  </si>
+  <si>
+    <t>we only calcualted the results for lag 2,3 and 4 for RT &amp; ACC.
+RT calcualted for T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculations based on raw data provided.
+mean accuracy Psilocybin: 0.3520737
+SD accuracy Psilocybin: 0.04880175 
+mean accuracy placebo: 0.371659  
+SD accuracy placebo: 0.03520996  
+mean RT Psilocybin: 0.8614073  
+SD RT Psilocybin: 0.1706961  
+mean RT placebo: 0.9138944 
+SD RT placebo: 0.2353612   
+</t>
   </si>
 </sst>
 </file>
@@ -2653,7 +2657,27 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3016,8 +3040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3044,13 +3068,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>36</v>
@@ -3225,7 +3249,7 @@
         <v>71</v>
       </c>
       <c r="M4" s="54" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2" t="s">
@@ -3276,7 +3300,7 @@
         <v>75</v>
       </c>
       <c r="M5" s="54" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -3323,7 +3347,7 @@
         <v>77</v>
       </c>
       <c r="M6" s="54" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -3370,7 +3394,7 @@
         <v>82</v>
       </c>
       <c r="M7" s="54" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -3387,7 +3411,7 @@
         <v>59</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>44</v>
@@ -3396,7 +3420,7 @@
         <v>44</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G8" s="28">
         <v>21</v>
@@ -3405,29 +3429,29 @@
         <v>22</v>
       </c>
       <c r="I8" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="K8" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="L8" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="K8" s="30" t="s">
+      <c r="N8" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="L8" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="47" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q8" s="28" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -3438,7 +3462,7 @@
         <v>59</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>44</v>
@@ -3447,7 +3471,7 @@
         <v>44</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G9" s="28">
         <v>21</v>
@@ -3456,29 +3480,29 @@
         <v>22</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K9" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="L9" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="47" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q9" s="28" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -3489,7 +3513,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D10" s="28" t="s">
         <v>44</v>
@@ -3498,36 +3522,36 @@
         <v>44</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G10" s="28">
         <v>22</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J10" s="28">
         <v>25</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L10" s="31" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="47" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Q10" s="32" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -3538,7 +3562,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>44</v>
@@ -3547,36 +3571,36 @@
         <v>44</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G11" s="28">
         <v>22</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I11" s="29" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J11" s="28">
         <v>25</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L11" s="31" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="47" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="32" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -3661,7 +3685,7 @@
         <v>240</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>68</v>
@@ -3713,7 +3737,7 @@
         <v>79</v>
       </c>
       <c r="M14" s="54" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2" t="s">
@@ -3749,30 +3773,30 @@
         <v>16</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I15" s="45" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K15" s="15">
         <v>105</v>
       </c>
       <c r="L15" s="56" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="P15" s="63" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="Q15" s="59" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -3813,7 +3837,7 @@
         <v>83</v>
       </c>
       <c r="M16" s="54" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3860,7 +3884,7 @@
         <v>88</v>
       </c>
       <c r="M17" s="54" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3907,7 +3931,7 @@
         <v>89</v>
       </c>
       <c r="M18" s="54" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3955,7 +3979,7 @@
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="54" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="18" t="s">
@@ -4004,7 +4028,7 @@
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="14" t="s">
@@ -4108,7 +4132,7 @@
       <c r="P22" s="18"/>
       <c r="Q22" s="19"/>
     </row>
-    <row r="23" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" ht="189" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="12">
         <v>3</v>
       </c>
@@ -4142,18 +4166,20 @@
       <c r="K23" s="19">
         <v>180</v>
       </c>
-      <c r="L23" s="17" t="s">
-        <v>111</v>
+      <c r="L23" s="56" t="s">
+        <v>259</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>112</v>
+        <v>257</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>113</v>
+        <v>256</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="18"/>
-      <c r="Q23" s="19"/>
+      <c r="Q23" s="59" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="24" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="12">
@@ -4172,16 +4198,16 @@
         <v>21</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G24" s="15">
         <v>34</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J24" s="15" t="s">
         <v>101</v>
@@ -4190,16 +4216,16 @@
         <v>60</v>
       </c>
       <c r="L24" s="22" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="18"/>
       <c r="Q24" s="19" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -4219,16 +4245,16 @@
         <v>11</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G25" s="28">
         <v>16</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J25" s="28">
         <v>14</v>
@@ -4237,16 +4263,16 @@
         <v>85</v>
       </c>
       <c r="L25" s="47" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="53"/>
       <c r="Q25" s="28" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="146.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -4266,7 +4292,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G26" s="15">
         <v>8</v>
@@ -4275,29 +4301,29 @@
         <v>27</v>
       </c>
       <c r="I26" s="58" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K26" s="15">
         <v>140</v>
       </c>
       <c r="L26" s="17" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="P26" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q26" s="19" t="s">
         <v>154</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="P26" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q26" s="19" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="146.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -4317,38 +4343,38 @@
         <v>11</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G27" s="15">
         <v>8</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I27" s="58" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K27" s="15">
         <v>140</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="P27" s="52" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q27" s="19" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="146.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -4368,16 +4394,16 @@
         <v>11</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G28" s="15">
         <v>8</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I28" s="58" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J28" s="15" t="s">
         <v>28</v>
@@ -4386,20 +4412,20 @@
         <v>140</v>
       </c>
       <c r="L28" s="17" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="P28" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q28" s="59" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -4419,7 +4445,7 @@
         <v>11</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G29" s="15">
         <v>17</v>
@@ -4428,7 +4454,7 @@
         <v>30</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J29" s="15" t="s">
         <v>28</v>
@@ -4437,18 +4463,18 @@
         <v>120</v>
       </c>
       <c r="L29" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="18"/>
       <c r="Q29" s="19" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -4468,7 +4494,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G30" s="15">
         <v>16</v>
@@ -4480,26 +4506,26 @@
         <v>43</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K30" s="15">
         <v>85</v>
       </c>
       <c r="L30" s="49" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q30" s="19" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="353.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -4525,30 +4551,30 @@
         <v>16</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I31" s="45" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K31" s="15">
         <v>105</v>
       </c>
       <c r="L31" s="56" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P31" s="62" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="Q31" s="19" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -4568,36 +4594,36 @@
         <v>11</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G32" s="15">
         <v>12</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K32" s="15">
         <v>100</v>
       </c>
       <c r="L32" s="17" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P32" s="43" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q32" s="21" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -4617,36 +4643,36 @@
         <v>11</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G33" s="36">
         <v>12</v>
       </c>
       <c r="H33" s="36" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I33" s="46" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J33" s="36" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K33" s="36">
         <v>360</v>
       </c>
       <c r="L33" s="15" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P33" s="37" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q33" s="21" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -4666,36 +4692,36 @@
         <v>11</v>
       </c>
       <c r="F34" s="38" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G34" s="21">
         <v>12</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I34" s="40" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J34" s="21" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K34" s="21">
         <v>100</v>
       </c>
       <c r="L34" s="37" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="P34" s="38" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q34" s="21" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -4715,36 +4741,36 @@
         <v>11</v>
       </c>
       <c r="F35" s="38" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G35" s="21">
         <v>12</v>
       </c>
       <c r="H35" s="21" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I35" s="40" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J35" s="21" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K35" s="21">
         <v>360</v>
       </c>
       <c r="L35" s="37" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P35" s="38" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q35" s="21" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -4764,35 +4790,35 @@
         <v>21</v>
       </c>
       <c r="F36" s="38" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G36" s="34">
         <v>40</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I36" s="39" t="s">
         <v>14</v>
       </c>
       <c r="J36" s="34" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K36" s="34">
         <v>90</v>
       </c>
       <c r="L36" s="37" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="41" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q36" s="34"/>
     </row>
@@ -4817,10 +4843,10 @@
         <v>19</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I37" s="40" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J37" s="21">
         <v>15</v>
@@ -4829,20 +4855,20 @@
         <v>225</v>
       </c>
       <c r="L37" s="37" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="50" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q37" s="21" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="132" thickBot="1" x14ac:dyDescent="0.45">
@@ -4862,7 +4888,7 @@
         <v>11</v>
       </c>
       <c r="F38" s="38" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G38" s="21">
         <v>19</v>
@@ -4871,7 +4897,7 @@
         <v>12</v>
       </c>
       <c r="I38" s="40" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J38" s="21">
         <v>15</v>
@@ -4880,17 +4906,17 @@
         <v>172</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="66" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Q38" s="34"/>
     </row>
@@ -4911,16 +4937,16 @@
         <v>11</v>
       </c>
       <c r="F39" s="38" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G39" s="21">
         <v>21</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I39" s="40" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="J39" s="21">
         <v>15</v>
@@ -4929,15 +4955,15 @@
         <v>153</v>
       </c>
       <c r="L39" s="51" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Q39" s="34"/>
     </row>
@@ -4958,13 +4984,13 @@
         <v>11</v>
       </c>
       <c r="F40" s="38" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G40" s="21">
         <v>21</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I40" s="40" t="s">
         <v>14</v>
@@ -4976,10 +5002,10 @@
         <v>166</v>
       </c>
       <c r="L40" s="37" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5068,7 +5094,7 @@
         <v>240</v>
       </c>
       <c r="L42" s="50" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>69</v>
@@ -5150,38 +5176,38 @@
         <v>44</v>
       </c>
       <c r="F44" s="43" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G44" s="44">
         <v>8</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I44" s="40" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J44" s="21" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K44" s="21">
         <v>140</v>
       </c>
       <c r="L44" s="15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P44" s="50" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q44" s="61" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="353.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -5207,38 +5233,41 @@
         <v>16</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I45" s="65" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J45" s="21" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K45" s="21">
         <v>105</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>42</v>
       </c>
       <c r="P45" s="64" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="Q45" s="61" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:Q45" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}"/>
-  <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+  <conditionalFormatting sqref="M1:M22 M24:M1048576">
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M23">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -5265,16 +5294,16 @@
         <v>59</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G1" s="28">
         <v>21</v>
@@ -5283,29 +5312,29 @@
         <v>22</v>
       </c>
       <c r="I1" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="L1" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="N1" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="47" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q1" s="28" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -5316,16 +5345,16 @@
         <v>59</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G2" s="28">
         <v>21</v>
@@ -5334,29 +5363,29 @@
         <v>22</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K2" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="L2" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="47" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q2" s="28" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -5367,45 +5396,45 @@
         <v>38</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G3" s="28">
         <v>22</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J3" s="28">
         <v>25</v>
       </c>
       <c r="K3" s="30" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L3" s="31" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="47" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -5416,45 +5445,45 @@
         <v>38</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G4" s="28">
         <v>22</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J4" s="28">
         <v>25</v>
       </c>
       <c r="K4" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L4" s="31" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="47" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Q4" s="32" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -5467,8 +5496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5492,13 +5521,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="60" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D1" s="60" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E1" s="60" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F1" s="60" t="s">
         <v>36</v>
@@ -5673,7 +5702,7 @@
         <v>71</v>
       </c>
       <c r="M4" s="54" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2" t="s">
@@ -5724,7 +5753,7 @@
         <v>75</v>
       </c>
       <c r="M5" s="54" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -5771,7 +5800,7 @@
         <v>77</v>
       </c>
       <c r="M6" s="54" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -5803,30 +5832,30 @@
         <v>16</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I7" s="45" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K7" s="15">
         <v>105</v>
       </c>
       <c r="L7" s="56" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="P7" s="63" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="Q7" s="59" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -5868,10 +5897,10 @@
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="54" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="P8" s="18" t="s">
         <v>93</v>
@@ -5919,7 +5948,7 @@
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="14" t="s">
@@ -6023,7 +6052,7 @@
       <c r="P11" s="18"/>
       <c r="Q11" s="19"/>
     </row>
-    <row r="12" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" ht="174.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="12">
         <v>3</v>
       </c>
@@ -6057,18 +6086,20 @@
       <c r="K12" s="19">
         <v>180</v>
       </c>
-      <c r="L12" s="17" t="s">
-        <v>111</v>
+      <c r="L12" s="56" t="s">
+        <v>259</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>112</v>
+        <v>257</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>113</v>
+        <v>256</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="18"/>
-      <c r="Q12" s="19"/>
+      <c r="Q12" s="59" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="13" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="12">
@@ -6087,16 +6118,16 @@
         <v>21</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G13" s="15">
         <v>34</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J13" s="15" t="s">
         <v>101</v>
@@ -6105,16 +6136,16 @@
         <v>60</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="18"/>
       <c r="Q13" s="19" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -6134,16 +6165,16 @@
         <v>11</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G14" s="28">
         <v>16</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J14" s="28">
         <v>14</v>
@@ -6152,16 +6183,16 @@
         <v>85</v>
       </c>
       <c r="L14" s="47" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="53"/>
       <c r="Q14" s="28" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6181,7 +6212,7 @@
         <v>21</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G15" s="15">
         <v>8</v>
@@ -6190,29 +6221,29 @@
         <v>27</v>
       </c>
       <c r="I15" s="58" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K15" s="15">
         <v>140</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="P15" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q15" s="19" t="s">
         <v>154</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="P15" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q15" s="19" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6232,38 +6263,38 @@
         <v>11</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G16" s="15">
         <v>8</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I16" s="58" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K16" s="15">
         <v>140</v>
       </c>
       <c r="L16" s="14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="P16" s="52" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q16" s="19" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6283,16 +6314,16 @@
         <v>11</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G17" s="15">
         <v>8</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I17" s="58" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J17" s="15" t="s">
         <v>28</v>
@@ -6301,20 +6332,20 @@
         <v>140</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="P17" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q17" s="59" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -6334,7 +6365,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G18" s="15">
         <v>17</v>
@@ -6343,7 +6374,7 @@
         <v>30</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J18" s="15" t="s">
         <v>28</v>
@@ -6352,18 +6383,18 @@
         <v>120</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="18"/>
       <c r="Q18" s="19" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -6383,7 +6414,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G19" s="15">
         <v>16</v>
@@ -6395,26 +6426,26 @@
         <v>43</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K19" s="15">
         <v>85</v>
       </c>
       <c r="L19" s="49" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q19" s="19" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6440,30 +6471,30 @@
         <v>16</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I20" s="45" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K20" s="15">
         <v>105</v>
       </c>
       <c r="L20" s="56" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P20" s="62" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="Q20" s="19" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -6483,36 +6514,36 @@
         <v>11</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G21" s="15">
         <v>12</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K21" s="15">
         <v>100</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P21" s="43" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q21" s="21" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -6532,36 +6563,36 @@
         <v>11</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G22" s="36">
         <v>12</v>
       </c>
       <c r="H22" s="36" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I22" s="46" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K22" s="36">
         <v>360</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P22" s="37" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q22" s="21" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -6581,36 +6612,36 @@
         <v>11</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G23" s="21">
         <v>12</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I23" s="40" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K23" s="21">
         <v>100</v>
       </c>
       <c r="L23" s="37" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="P23" s="38" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q23" s="21" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -6630,36 +6661,36 @@
         <v>11</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G24" s="21">
         <v>12</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I24" s="40" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K24" s="21">
         <v>360</v>
       </c>
       <c r="L24" s="37" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P24" s="38" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q24" s="21" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -6679,35 +6710,35 @@
         <v>21</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G25" s="34">
         <v>40</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I25" s="39" t="s">
         <v>14</v>
       </c>
       <c r="J25" s="34" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K25" s="34">
         <v>90</v>
       </c>
       <c r="L25" s="37" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="41" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q25" s="34"/>
     </row>
@@ -6732,10 +6763,10 @@
         <v>19</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I26" s="40" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J26" s="21">
         <v>15</v>
@@ -6744,20 +6775,20 @@
         <v>225</v>
       </c>
       <c r="L26" s="37" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="50" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q26" s="21" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6777,7 +6808,7 @@
         <v>11</v>
       </c>
       <c r="F27" s="38" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G27" s="21">
         <v>19</v>
@@ -6786,7 +6817,7 @@
         <v>12</v>
       </c>
       <c r="I27" s="40" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J27" s="21">
         <v>15</v>
@@ -6795,17 +6826,17 @@
         <v>172</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="66" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Q27" s="34"/>
     </row>
@@ -6826,16 +6857,16 @@
         <v>11</v>
       </c>
       <c r="F28" s="38" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G28" s="21">
         <v>21</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I28" s="40" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="J28" s="21">
         <v>15</v>
@@ -6844,15 +6875,15 @@
         <v>153</v>
       </c>
       <c r="L28" s="51" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Q28" s="34"/>
     </row>
@@ -6873,13 +6904,13 @@
         <v>11</v>
       </c>
       <c r="F29" s="38" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G29" s="21">
         <v>21</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I29" s="40" t="s">
         <v>14</v>
@@ -6891,10 +6922,10 @@
         <v>166</v>
       </c>
       <c r="L29" s="37" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -6904,16 +6935,16 @@
   </sheetData>
   <autoFilter ref="A1:Q29" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="M1 M30:M1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M17 M19:M29">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:N1 M30:N1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6947,13 +6978,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>36</v>
@@ -7030,7 +7061,7 @@
         <v>82</v>
       </c>
       <c r="M2" s="54" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -7121,7 +7152,7 @@
         <v>240</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>68</v>
@@ -7173,7 +7204,7 @@
         <v>79</v>
       </c>
       <c r="M5" s="54" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2" t="s">
@@ -7224,7 +7255,7 @@
         <v>83</v>
       </c>
       <c r="M6" s="54" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -7250,38 +7281,38 @@
         <v>44</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G7" s="44">
         <v>8</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I7" s="40" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K7" s="21">
         <v>140</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P7" s="50" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q7" s="61" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -7307,37 +7338,37 @@
         <v>16</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I8" s="65" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K8" s="21">
         <v>105</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>42</v>
       </c>
       <c r="P8" s="64" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="Q8" s="61" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="M2:M8">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7365,13 +7396,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>36</v>
@@ -7448,7 +7479,7 @@
         <v>88</v>
       </c>
       <c r="M2" s="54" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -7495,7 +7526,7 @@
         <v>89</v>
       </c>
       <c r="M3" s="54" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -7586,7 +7617,7 @@
         <v>240</v>
       </c>
       <c r="L5" s="50" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>69</v>
@@ -7653,7 +7684,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M2:M6">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Overview_Studies.xlsx
+++ b/Overview_Studies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f2d186216cf91ab/Bidlung/University/M.S. Leiden University/M.S. Neuroscience (Research)/Internship Groningen/GitHub_Multiverse_meta/MetaAnalysis-Psilo-Cognition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCE28B44-A3E0-45E8-9F91-3493146621CB}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13BA26FC-1EE8-491B-98D0-C029456AB034}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="29010" windowHeight="15345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -2093,9 +2093,6 @@
     <t>-1.305</t>
   </si>
   <si>
-    <t>-0.4602659</t>
-  </si>
-  <si>
     <t>-0.2587441</t>
   </si>
   <si>
@@ -2113,6 +2110,9 @@
 mean RT placebo: 0.9138944 
 SD RT placebo: 0.2353612   
 </t>
+  </si>
+  <si>
+    <t>-0.4025393</t>
   </si>
 </sst>
 </file>
@@ -2657,17 +2657,7 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3040,8 +3030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4167,18 +4157,18 @@
         <v>180</v>
       </c>
       <c r="L23" s="56" t="s">
+        <v>258</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="N23" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="18"/>
       <c r="Q23" s="59" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -5264,10 +5254,10 @@
   </sheetData>
   <autoFilter ref="A1:Q45" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}"/>
   <conditionalFormatting sqref="M1:M22 M24:M1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M23">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -5496,8 +5486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView zoomScale="81" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6087,18 +6077,18 @@
         <v>180</v>
       </c>
       <c r="L12" s="56" t="s">
+        <v>258</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="18"/>
       <c r="Q12" s="59" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -6935,16 +6925,16 @@
   </sheetData>
   <autoFilter ref="A1:Q29" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="M1 M30:M1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M17 M19:M29">
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:N1 M30:N1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7368,7 +7358,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M2:M8">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7684,7 +7674,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M2:M6">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Overview_Studies.xlsx
+++ b/Overview_Studies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f2d186216cf91ab/Bidlung/University/M.S. Leiden University/M.S. Neuroscience (Research)/Internship Groningen/GitHub_Multiverse_meta/MetaAnalysis-Psilo-Cognition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13BA26FC-1EE8-491B-98D0-C029456AB034}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BF0D65D-DEB3-4A23-A65F-13EBB690C84A}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4230" yWindow="2895" windowWidth="21600" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="262">
   <si>
     <t>CognitiveFunction</t>
   </si>
@@ -1122,12 +1122,6 @@
 </t>
   </si>
   <si>
-    <t>0.06500986</t>
-  </si>
-  <si>
-    <t>-0.1907517</t>
-  </si>
-  <si>
     <t>decreased visibility of the second target with 300 ms lag in the attentional blink task</t>
   </si>
   <si>
@@ -2113,6 +2107,18 @@
   </si>
   <si>
     <t>-0.4025393</t>
+  </si>
+  <si>
+    <t>only included NOGo trials</t>
+  </si>
+  <si>
+    <t>-0.3069292</t>
+  </si>
+  <si>
+    <t>-0.2994538</t>
+  </si>
+  <si>
+    <t>only included NoGo trials</t>
   </si>
 </sst>
 </file>
@@ -3030,8 +3036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3058,13 +3064,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>234</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>236</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>36</v>
@@ -3239,7 +3245,7 @@
         <v>71</v>
       </c>
       <c r="M4" s="54" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2" t="s">
@@ -3290,7 +3296,7 @@
         <v>75</v>
       </c>
       <c r="M5" s="54" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -3337,7 +3343,7 @@
         <v>77</v>
       </c>
       <c r="M6" s="54" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -3384,7 +3390,7 @@
         <v>82</v>
       </c>
       <c r="M7" s="54" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -3401,7 +3407,7 @@
         <v>59</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>44</v>
@@ -3410,7 +3416,7 @@
         <v>44</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G8" s="28">
         <v>21</v>
@@ -3419,29 +3425,29 @@
         <v>22</v>
       </c>
       <c r="I8" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="K8" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="L8" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="K8" s="30" t="s">
+      <c r="M8" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="L8" s="31" t="s">
+      <c r="N8" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="47" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -3452,7 +3458,7 @@
         <v>59</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>44</v>
@@ -3461,7 +3467,7 @@
         <v>44</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G9" s="28">
         <v>21</v>
@@ -3470,29 +3476,29 @@
         <v>22</v>
       </c>
       <c r="I9" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="J9" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="J9" s="28" t="s">
-        <v>120</v>
-      </c>
       <c r="K9" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="L9" s="31" t="s">
+      <c r="N9" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="47" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q9" s="28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -3503,7 +3509,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D10" s="28" t="s">
         <v>44</v>
@@ -3512,36 +3518,36 @@
         <v>44</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G10" s="28">
         <v>22</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J10" s="28">
         <v>25</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L10" s="31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="47" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q10" s="32" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -3552,7 +3558,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>44</v>
@@ -3561,36 +3567,36 @@
         <v>44</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G11" s="28">
         <v>22</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I11" s="29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J11" s="28">
         <v>25</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L11" s="31" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="47" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q11" s="32" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -3675,7 +3681,7 @@
         <v>240</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>68</v>
@@ -3727,7 +3733,7 @@
         <v>79</v>
       </c>
       <c r="M14" s="54" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2" t="s">
@@ -3763,30 +3769,30 @@
         <v>16</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I15" s="45" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K15" s="15">
         <v>105</v>
       </c>
       <c r="L15" s="56" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="P15" s="63" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q15" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -3827,7 +3833,7 @@
         <v>83</v>
       </c>
       <c r="M16" s="54" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3874,7 +3880,7 @@
         <v>88</v>
       </c>
       <c r="M17" s="54" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3921,7 +3927,7 @@
         <v>89</v>
       </c>
       <c r="M18" s="54" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3969,7 +3975,7 @@
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="54" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="18" t="s">
@@ -4018,7 +4024,7 @@
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="14" t="s">
@@ -4113,14 +4119,16 @@
         <v>106</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>107</v>
+        <v>259</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>108</v>
+        <v>260</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="18"/>
-      <c r="Q22" s="19"/>
+      <c r="Q22" s="19" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="23" spans="1:17" ht="189" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="12">
@@ -4139,13 +4147,13 @@
         <v>21</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G23" s="15">
         <v>34</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I23" s="16" t="s">
         <v>43</v>
@@ -4157,18 +4165,18 @@
         <v>180</v>
       </c>
       <c r="L23" s="56" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="18"/>
       <c r="Q23" s="59" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -4188,16 +4196,16 @@
         <v>21</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G24" s="15">
         <v>34</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J24" s="15" t="s">
         <v>101</v>
@@ -4206,16 +4214,16 @@
         <v>60</v>
       </c>
       <c r="L24" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="18"/>
       <c r="Q24" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -4235,16 +4243,16 @@
         <v>11</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G25" s="28">
         <v>16</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J25" s="28">
         <v>14</v>
@@ -4253,16 +4261,16 @@
         <v>85</v>
       </c>
       <c r="L25" s="47" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="53"/>
       <c r="Q25" s="28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="146.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -4282,7 +4290,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G26" s="15">
         <v>8</v>
@@ -4291,29 +4299,29 @@
         <v>27</v>
       </c>
       <c r="I26" s="58" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K26" s="15">
         <v>140</v>
       </c>
       <c r="L26" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="P26" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="Q26" s="19" t="s">
         <v>152</v>
-      </c>
-      <c r="P26" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q26" s="19" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="146.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -4333,38 +4341,38 @@
         <v>11</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G27" s="15">
         <v>8</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I27" s="58" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K27" s="15">
         <v>140</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P27" s="52" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q27" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="146.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -4384,16 +4392,16 @@
         <v>11</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G28" s="15">
         <v>8</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I28" s="58" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J28" s="15" t="s">
         <v>28</v>
@@ -4402,20 +4410,20 @@
         <v>140</v>
       </c>
       <c r="L28" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P28" s="18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q28" s="59" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -4435,7 +4443,7 @@
         <v>11</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G29" s="15">
         <v>17</v>
@@ -4444,7 +4452,7 @@
         <v>30</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J29" s="15" t="s">
         <v>28</v>
@@ -4453,18 +4461,18 @@
         <v>120</v>
       </c>
       <c r="L29" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="18"/>
       <c r="Q29" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -4484,7 +4492,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G30" s="15">
         <v>16</v>
@@ -4496,26 +4504,26 @@
         <v>43</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K30" s="15">
         <v>85</v>
       </c>
       <c r="L30" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="N30" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="Q30" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="353.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -4541,30 +4549,30 @@
         <v>16</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I31" s="45" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K31" s="15">
         <v>105</v>
       </c>
       <c r="L31" s="56" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="P31" s="62" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q31" s="19" t="s">
         <v>181</v>
-      </c>
-      <c r="P31" s="62" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q31" s="19" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -4584,36 +4592,36 @@
         <v>11</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G32" s="15">
         <v>12</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K32" s="15">
         <v>100</v>
       </c>
       <c r="L32" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="P32" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q32" s="21" t="s">
         <v>196</v>
-      </c>
-      <c r="P32" s="43" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q32" s="21" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -4633,36 +4641,36 @@
         <v>11</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G33" s="36">
         <v>12</v>
       </c>
       <c r="H33" s="36" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I33" s="46" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J33" s="36" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K33" s="36">
         <v>360</v>
       </c>
       <c r="L33" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P33" s="37" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q33" s="21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -4682,36 +4690,36 @@
         <v>11</v>
       </c>
       <c r="F34" s="38" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G34" s="21">
         <v>12</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I34" s="40" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J34" s="21" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K34" s="21">
         <v>100</v>
       </c>
       <c r="L34" s="37" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P34" s="38" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q34" s="21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -4731,36 +4739,36 @@
         <v>11</v>
       </c>
       <c r="F35" s="38" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G35" s="21">
         <v>12</v>
       </c>
       <c r="H35" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I35" s="40" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J35" s="21" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K35" s="21">
         <v>360</v>
       </c>
       <c r="L35" s="37" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P35" s="38" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q35" s="21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -4780,35 +4788,35 @@
         <v>21</v>
       </c>
       <c r="F36" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G36" s="34">
         <v>40</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I36" s="39" t="s">
         <v>14</v>
       </c>
       <c r="J36" s="34" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K36" s="34">
         <v>90</v>
       </c>
       <c r="L36" s="37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q36" s="34"/>
     </row>
@@ -4833,10 +4841,10 @@
         <v>19</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I37" s="40" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J37" s="21">
         <v>15</v>
@@ -4845,20 +4853,20 @@
         <v>225</v>
       </c>
       <c r="L37" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="N37" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="50" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q37" s="21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="132" thickBot="1" x14ac:dyDescent="0.45">
@@ -4878,7 +4886,7 @@
         <v>11</v>
       </c>
       <c r="F38" s="38" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G38" s="21">
         <v>19</v>
@@ -4887,7 +4895,7 @@
         <v>12</v>
       </c>
       <c r="I38" s="40" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J38" s="21">
         <v>15</v>
@@ -4896,17 +4904,17 @@
         <v>172</v>
       </c>
       <c r="L38" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="N38" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="66" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="Q38" s="34"/>
     </row>
@@ -4927,16 +4935,16 @@
         <v>11</v>
       </c>
       <c r="F39" s="38" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G39" s="21">
         <v>21</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I39" s="40" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J39" s="21">
         <v>15</v>
@@ -4945,15 +4953,15 @@
         <v>153</v>
       </c>
       <c r="L39" s="51" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Q39" s="34"/>
     </row>
@@ -4974,13 +4982,13 @@
         <v>11</v>
       </c>
       <c r="F40" s="38" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G40" s="21">
         <v>21</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I40" s="40" t="s">
         <v>14</v>
@@ -4992,10 +5000,10 @@
         <v>166</v>
       </c>
       <c r="L40" s="37" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5084,7 +5092,7 @@
         <v>240</v>
       </c>
       <c r="L42" s="50" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>69</v>
@@ -5166,38 +5174,38 @@
         <v>44</v>
       </c>
       <c r="F44" s="43" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G44" s="44">
         <v>8</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I44" s="40" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J44" s="21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K44" s="21">
         <v>140</v>
       </c>
       <c r="L44" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P44" s="50" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q44" s="61" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="353.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -5223,32 +5231,32 @@
         <v>16</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I45" s="65" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J45" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K45" s="21">
         <v>105</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>42</v>
       </c>
       <c r="P45" s="64" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q45" s="61" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -5284,16 +5292,16 @@
         <v>59</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G1" s="28">
         <v>21</v>
@@ -5302,29 +5310,29 @@
         <v>22</v>
       </c>
       <c r="I1" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="K1" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="M1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="N1" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="47" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q1" s="28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -5335,16 +5343,16 @@
         <v>59</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G2" s="28">
         <v>21</v>
@@ -5353,29 +5361,29 @@
         <v>22</v>
       </c>
       <c r="I2" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="28" t="s">
-        <v>120</v>
-      </c>
       <c r="K2" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="N2" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="47" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q2" s="28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -5386,45 +5394,45 @@
         <v>38</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G3" s="28">
         <v>22</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J3" s="28">
         <v>25</v>
       </c>
       <c r="K3" s="30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L3" s="31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="47" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -5435,45 +5443,45 @@
         <v>38</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G4" s="28">
         <v>22</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J4" s="28">
         <v>25</v>
       </c>
       <c r="K4" s="30" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L4" s="31" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="47" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q4" s="32" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -5486,8 +5494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5511,13 +5519,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="60" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D1" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1" s="60" t="s">
         <v>234</v>
-      </c>
-      <c r="E1" s="60" t="s">
-        <v>236</v>
       </c>
       <c r="F1" s="60" t="s">
         <v>36</v>
@@ -5692,7 +5700,7 @@
         <v>71</v>
       </c>
       <c r="M4" s="54" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2" t="s">
@@ -5743,7 +5751,7 @@
         <v>75</v>
       </c>
       <c r="M5" s="54" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -5790,7 +5798,7 @@
         <v>77</v>
       </c>
       <c r="M6" s="54" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -5822,30 +5830,30 @@
         <v>16</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I7" s="45" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K7" s="15">
         <v>105</v>
       </c>
       <c r="L7" s="56" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="P7" s="63" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q7" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -5887,10 +5895,10 @@
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="54" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P8" s="18" t="s">
         <v>93</v>
@@ -5938,7 +5946,7 @@
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="14" t="s">
@@ -6033,14 +6041,16 @@
         <v>106</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>107</v>
+        <v>259</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>108</v>
+        <v>260</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="18"/>
-      <c r="Q11" s="19"/>
+      <c r="Q11" s="19" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="12" spans="1:17" ht="174.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="12">
@@ -6059,13 +6069,13 @@
         <v>21</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G12" s="15">
         <v>34</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I12" s="16" t="s">
         <v>43</v>
@@ -6077,18 +6087,18 @@
         <v>180</v>
       </c>
       <c r="L12" s="56" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="18"/>
       <c r="Q12" s="59" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -6108,16 +6118,16 @@
         <v>21</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G13" s="15">
         <v>34</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J13" s="15" t="s">
         <v>101</v>
@@ -6126,16 +6136,16 @@
         <v>60</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="18"/>
       <c r="Q13" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -6155,16 +6165,16 @@
         <v>11</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G14" s="28">
         <v>16</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J14" s="28">
         <v>14</v>
@@ -6173,16 +6183,16 @@
         <v>85</v>
       </c>
       <c r="L14" s="47" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="53"/>
       <c r="Q14" s="28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6202,7 +6212,7 @@
         <v>21</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G15" s="15">
         <v>8</v>
@@ -6211,29 +6221,29 @@
         <v>27</v>
       </c>
       <c r="I15" s="58" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K15" s="15">
         <v>140</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="P15" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="Q15" s="19" t="s">
         <v>152</v>
-      </c>
-      <c r="P15" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q15" s="19" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6253,38 +6263,38 @@
         <v>11</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G16" s="15">
         <v>8</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I16" s="58" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K16" s="15">
         <v>140</v>
       </c>
       <c r="L16" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P16" s="52" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q16" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6304,16 +6314,16 @@
         <v>11</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G17" s="15">
         <v>8</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I17" s="58" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J17" s="15" t="s">
         <v>28</v>
@@ -6322,20 +6332,20 @@
         <v>140</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P17" s="18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q17" s="59" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -6355,7 +6365,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G18" s="15">
         <v>17</v>
@@ -6364,7 +6374,7 @@
         <v>30</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J18" s="15" t="s">
         <v>28</v>
@@ -6373,18 +6383,18 @@
         <v>120</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="18"/>
       <c r="Q18" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -6404,7 +6414,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G19" s="15">
         <v>16</v>
@@ -6416,26 +6426,26 @@
         <v>43</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K19" s="15">
         <v>85</v>
       </c>
       <c r="L19" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="N19" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="Q19" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6461,30 +6471,30 @@
         <v>16</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I20" s="45" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K20" s="15">
         <v>105</v>
       </c>
       <c r="L20" s="56" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="P20" s="62" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q20" s="19" t="s">
         <v>181</v>
-      </c>
-      <c r="P20" s="62" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q20" s="19" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -6504,36 +6514,36 @@
         <v>11</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G21" s="15">
         <v>12</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K21" s="15">
         <v>100</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="P21" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q21" s="21" t="s">
         <v>196</v>
-      </c>
-      <c r="P21" s="43" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q21" s="21" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -6553,36 +6563,36 @@
         <v>11</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G22" s="36">
         <v>12</v>
       </c>
       <c r="H22" s="36" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I22" s="46" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K22" s="36">
         <v>360</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P22" s="37" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q22" s="21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -6602,36 +6612,36 @@
         <v>11</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G23" s="21">
         <v>12</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I23" s="40" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K23" s="21">
         <v>100</v>
       </c>
       <c r="L23" s="37" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P23" s="38" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q23" s="21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -6651,36 +6661,36 @@
         <v>11</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G24" s="21">
         <v>12</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I24" s="40" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K24" s="21">
         <v>360</v>
       </c>
       <c r="L24" s="37" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P24" s="38" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q24" s="21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -6700,35 +6710,35 @@
         <v>21</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G25" s="34">
         <v>40</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I25" s="39" t="s">
         <v>14</v>
       </c>
       <c r="J25" s="34" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K25" s="34">
         <v>90</v>
       </c>
       <c r="L25" s="37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q25" s="34"/>
     </row>
@@ -6753,10 +6763,10 @@
         <v>19</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I26" s="40" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J26" s="21">
         <v>15</v>
@@ -6765,20 +6775,20 @@
         <v>225</v>
       </c>
       <c r="L26" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="N26" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="50" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q26" s="21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6798,7 +6808,7 @@
         <v>11</v>
       </c>
       <c r="F27" s="38" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G27" s="21">
         <v>19</v>
@@ -6807,7 +6817,7 @@
         <v>12</v>
       </c>
       <c r="I27" s="40" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J27" s="21">
         <v>15</v>
@@ -6816,17 +6826,17 @@
         <v>172</v>
       </c>
       <c r="L27" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="N27" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="66" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="Q27" s="34"/>
     </row>
@@ -6847,16 +6857,16 @@
         <v>11</v>
       </c>
       <c r="F28" s="38" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G28" s="21">
         <v>21</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I28" s="40" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J28" s="21">
         <v>15</v>
@@ -6865,15 +6875,15 @@
         <v>153</v>
       </c>
       <c r="L28" s="51" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Q28" s="34"/>
     </row>
@@ -6894,13 +6904,13 @@
         <v>11</v>
       </c>
       <c r="F29" s="38" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G29" s="21">
         <v>21</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I29" s="40" t="s">
         <v>14</v>
@@ -6912,10 +6922,10 @@
         <v>166</v>
       </c>
       <c r="L29" s="37" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -6968,13 +6978,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>234</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>236</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>36</v>
@@ -7051,7 +7061,7 @@
         <v>82</v>
       </c>
       <c r="M2" s="54" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -7142,7 +7152,7 @@
         <v>240</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>68</v>
@@ -7194,7 +7204,7 @@
         <v>79</v>
       </c>
       <c r="M5" s="54" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2" t="s">
@@ -7245,7 +7255,7 @@
         <v>83</v>
       </c>
       <c r="M6" s="54" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -7271,38 +7281,38 @@
         <v>44</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G7" s="44">
         <v>8</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I7" s="40" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K7" s="21">
         <v>140</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P7" s="50" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q7" s="61" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -7328,32 +7338,32 @@
         <v>16</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I8" s="65" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K8" s="21">
         <v>105</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>42</v>
       </c>
       <c r="P8" s="64" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="61" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -7386,13 +7396,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>234</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>236</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>36</v>
@@ -7469,7 +7479,7 @@
         <v>88</v>
       </c>
       <c r="M2" s="54" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -7516,7 +7526,7 @@
         <v>89</v>
       </c>
       <c r="M3" s="54" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -7607,7 +7617,7 @@
         <v>240</v>
       </c>
       <c r="L5" s="50" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>69</v>

--- a/Overview_Studies.xlsx
+++ b/Overview_Studies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f2d186216cf91ab/Bidlung/University/M.S. Leiden University/M.S. Neuroscience (Research)/Internship Groningen/GitHub_Multiverse_meta/MetaAnalysis-Psilo-Cognition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BF0D65D-DEB3-4A23-A65F-13EBB690C84A}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1706FA1-15EB-4E5C-88D3-929855421817}"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="2895" windowWidth="21600" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5325" yWindow="3840" windowWidth="21600" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="263">
   <si>
     <t>CognitiveFunction</t>
   </si>
@@ -1100,12 +1100,6 @@
 </t>
   </si>
   <si>
-    <t>0.2281833</t>
-  </si>
-  <si>
-    <t>-0.01118468</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 No effect in Go/Nogo between groups</t>
   </si>
@@ -1140,12 +1134,6 @@
     <t>Figure 3F: Part A (median, 1st quartile, 3rd quartile)
 Psilo:   19.83, 17.85, 24.79
 Placebo: 17.52,  16.53, 21.16</t>
-  </si>
-  <si>
-    <t>0.5286334</t>
-  </si>
-  <si>
-    <t>Time to complete in Part A used as RT, as this part captures attention more purely compared to Part B of TMT</t>
   </si>
   <si>
     <t>No significant change</t>
@@ -2109,16 +2097,34 @@
     <t>-0.4025393</t>
   </si>
   <si>
-    <t>only included NOGo trials</t>
-  </si>
-  <si>
-    <t>-0.3069292</t>
-  </si>
-  <si>
     <t>-0.2994538</t>
   </si>
   <si>
-    <t>only included NoGo trials</t>
+    <t>0.7780865</t>
+  </si>
+  <si>
+    <t>-0.1000337</t>
+  </si>
+  <si>
+    <t>only included  incongruent trials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Part B (median, 1st quartile, 3rd quartile)
+# Psilo:   42.13, 36.71, 48.31
+# Placebo: 35.17,  32.08, 45.22</t>
+  </si>
+  <si>
+    <t>Time to complete in Part B used as RT, as this part captures attention more purely compared to Part A of TMT</t>
+  </si>
+  <si>
+    <t>0.7581123</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>only included ACC of NoGo trials</t>
   </si>
 </sst>
 </file>
@@ -2453,7 +2459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2658,12 +2664,38 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3037,7 +3069,7 @@
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3064,13 +3096,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>36</v>
@@ -3245,7 +3277,7 @@
         <v>71</v>
       </c>
       <c r="M4" s="54" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2" t="s">
@@ -3296,7 +3328,7 @@
         <v>75</v>
       </c>
       <c r="M5" s="54" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -3343,7 +3375,7 @@
         <v>77</v>
       </c>
       <c r="M6" s="54" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -3390,7 +3422,7 @@
         <v>82</v>
       </c>
       <c r="M7" s="54" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -3407,7 +3439,7 @@
         <v>59</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>44</v>
@@ -3416,7 +3448,7 @@
         <v>44</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G8" s="28">
         <v>21</v>
@@ -3425,29 +3457,29 @@
         <v>22</v>
       </c>
       <c r="I8" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="L8" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="M8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="K8" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="L8" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="47" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="28" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -3458,7 +3490,7 @@
         <v>59</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>44</v>
@@ -3467,7 +3499,7 @@
         <v>44</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G9" s="28">
         <v>21</v>
@@ -3476,29 +3508,29 @@
         <v>22</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K9" s="30" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L9" s="31" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="47" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q9" s="28" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -3509,7 +3541,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D10" s="28" t="s">
         <v>44</v>
@@ -3518,36 +3550,36 @@
         <v>44</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G10" s="28">
         <v>22</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J10" s="28">
         <v>25</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L10" s="31" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="47" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="Q10" s="32" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -3558,7 +3590,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>44</v>
@@ -3567,36 +3599,36 @@
         <v>44</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G11" s="28">
         <v>22</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I11" s="29" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J11" s="28">
         <v>25</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L11" s="31" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="47" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="Q11" s="32" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -3681,7 +3713,7 @@
         <v>240</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>68</v>
@@ -3733,7 +3765,7 @@
         <v>79</v>
       </c>
       <c r="M14" s="54" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2" t="s">
@@ -3769,30 +3801,30 @@
         <v>16</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I15" s="45" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K15" s="15">
         <v>105</v>
       </c>
       <c r="L15" s="56" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P15" s="63" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q15" s="59" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -3833,7 +3865,7 @@
         <v>83</v>
       </c>
       <c r="M16" s="54" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3880,7 +3912,7 @@
         <v>88</v>
       </c>
       <c r="M17" s="54" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3927,7 +3959,7 @@
         <v>89</v>
       </c>
       <c r="M18" s="54" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3975,7 +4007,7 @@
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="54" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="18" t="s">
@@ -4024,7 +4056,7 @@
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="14" t="s">
@@ -4072,14 +4104,16 @@
         <v>102</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>103</v>
+        <v>255</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>104</v>
+        <v>256</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="18"/>
-      <c r="Q21" s="19"/>
+      <c r="Q21" s="19" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="22" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="12">
@@ -4098,7 +4132,7 @@
         <v>21</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G22" s="15">
         <v>34</v>
@@ -4116,18 +4150,16 @@
         <v>150</v>
       </c>
       <c r="L22" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>259</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="18"/>
       <c r="Q22" s="19" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="189" thickBot="1" x14ac:dyDescent="0.45">
@@ -4147,13 +4179,13 @@
         <v>21</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G23" s="15">
         <v>34</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I23" s="16" t="s">
         <v>43</v>
@@ -4165,21 +4197,21 @@
         <v>180</v>
       </c>
       <c r="L23" s="56" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="18"/>
       <c r="Q23" s="59" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="12">
         <v>3</v>
       </c>
@@ -4196,16 +4228,16 @@
         <v>21</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G24" s="15">
         <v>34</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J24" s="15" t="s">
         <v>101</v>
@@ -4213,17 +4245,19 @@
       <c r="K24" s="19">
         <v>60</v>
       </c>
-      <c r="L24" s="22" t="s">
-        <v>112</v>
+      <c r="L24" s="70" t="s">
+        <v>258</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>113</v>
+        <v>260</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
-      <c r="P24" s="18"/>
+      <c r="P24" s="71" t="s">
+        <v>110</v>
+      </c>
       <c r="Q24" s="19" t="s">
-        <v>114</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -4243,16 +4277,16 @@
         <v>11</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G25" s="28">
         <v>16</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="J25" s="28">
         <v>14</v>
@@ -4261,16 +4295,16 @@
         <v>85</v>
       </c>
       <c r="L25" s="47" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="53"/>
       <c r="Q25" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="146.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -4290,7 +4324,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G26" s="15">
         <v>8</v>
@@ -4299,29 +4333,29 @@
         <v>27</v>
       </c>
       <c r="I26" s="58" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K26" s="15">
         <v>140</v>
       </c>
       <c r="L26" s="17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P26" s="18" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q26" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="146.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -4341,38 +4375,38 @@
         <v>11</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G27" s="15">
         <v>8</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I27" s="58" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K27" s="15">
         <v>140</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P27" s="52" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q27" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="146.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -4392,16 +4426,16 @@
         <v>11</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G28" s="15">
         <v>8</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I28" s="58" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="J28" s="15" t="s">
         <v>28</v>
@@ -4410,20 +4444,20 @@
         <v>140</v>
       </c>
       <c r="L28" s="17" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P28" s="18" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q28" s="59" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -4443,7 +4477,7 @@
         <v>11</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G29" s="15">
         <v>17</v>
@@ -4452,7 +4486,7 @@
         <v>30</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J29" s="15" t="s">
         <v>28</v>
@@ -4461,18 +4495,18 @@
         <v>120</v>
       </c>
       <c r="L29" s="17" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="18"/>
       <c r="Q29" s="19" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -4492,7 +4526,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G30" s="15">
         <v>16</v>
@@ -4504,26 +4538,26 @@
         <v>43</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K30" s="15">
         <v>85</v>
       </c>
       <c r="L30" s="49" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="14" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Q30" s="19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="353.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -4549,30 +4583,30 @@
         <v>16</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I31" s="45" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K31" s="15">
         <v>105</v>
       </c>
       <c r="L31" s="56" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P31" s="62" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q31" s="19" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -4592,36 +4626,36 @@
         <v>11</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G32" s="15">
         <v>12</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K32" s="15">
         <v>100</v>
       </c>
       <c r="L32" s="17" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="P32" s="43" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q32" s="21" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -4641,36 +4675,36 @@
         <v>11</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G33" s="36">
         <v>12</v>
       </c>
       <c r="H33" s="36" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I33" s="46" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J33" s="36" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K33" s="36">
         <v>360</v>
       </c>
       <c r="L33" s="15" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="P33" s="37" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q33" s="21" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -4690,36 +4724,36 @@
         <v>11</v>
       </c>
       <c r="F34" s="38" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G34" s="21">
         <v>12</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I34" s="40" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J34" s="21" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K34" s="21">
         <v>100</v>
       </c>
       <c r="L34" s="37" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P34" s="38" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q34" s="21" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -4739,36 +4773,36 @@
         <v>11</v>
       </c>
       <c r="F35" s="38" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G35" s="21">
         <v>12</v>
       </c>
       <c r="H35" s="21" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I35" s="40" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J35" s="21" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K35" s="21">
         <v>360</v>
       </c>
       <c r="L35" s="37" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P35" s="38" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q35" s="21" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -4788,35 +4822,35 @@
         <v>21</v>
       </c>
       <c r="F36" s="38" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G36" s="34">
         <v>40</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I36" s="39" t="s">
         <v>14</v>
       </c>
       <c r="J36" s="34" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K36" s="34">
         <v>90</v>
       </c>
       <c r="L36" s="37" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="41" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q36" s="34"/>
     </row>
@@ -4841,10 +4875,10 @@
         <v>19</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I37" s="40" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J37" s="21">
         <v>15</v>
@@ -4853,20 +4887,20 @@
         <v>225</v>
       </c>
       <c r="L37" s="37" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="50" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q37" s="21" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="132" thickBot="1" x14ac:dyDescent="0.45">
@@ -4886,7 +4920,7 @@
         <v>11</v>
       </c>
       <c r="F38" s="38" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G38" s="21">
         <v>19</v>
@@ -4895,7 +4929,7 @@
         <v>12</v>
       </c>
       <c r="I38" s="40" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="J38" s="21">
         <v>15</v>
@@ -4904,17 +4938,17 @@
         <v>172</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="66" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Q38" s="34"/>
     </row>
@@ -4935,16 +4969,16 @@
         <v>11</v>
       </c>
       <c r="F39" s="38" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G39" s="21">
         <v>21</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I39" s="40" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J39" s="21">
         <v>15</v>
@@ -4953,15 +4987,15 @@
         <v>153</v>
       </c>
       <c r="L39" s="51" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="Q39" s="34"/>
     </row>
@@ -4982,13 +5016,13 @@
         <v>11</v>
       </c>
       <c r="F40" s="38" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G40" s="21">
         <v>21</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I40" s="40" t="s">
         <v>14</v>
@@ -5000,10 +5034,10 @@
         <v>166</v>
       </c>
       <c r="L40" s="37" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5092,7 +5126,7 @@
         <v>240</v>
       </c>
       <c r="L42" s="50" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>69</v>
@@ -5174,38 +5208,38 @@
         <v>44</v>
       </c>
       <c r="F44" s="43" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G44" s="44">
         <v>8</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I44" s="40" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J44" s="21" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K44" s="21">
         <v>140</v>
       </c>
       <c r="L44" s="15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="P44" s="50" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q44" s="61" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="353.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -5231,41 +5265,44 @@
         <v>16</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I45" s="65" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J45" s="21" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K45" s="21">
         <v>105</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>42</v>
       </c>
       <c r="P45" s="64" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q45" s="61" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:Q45" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}"/>
-  <conditionalFormatting sqref="M1:M22 M24:M1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+  <conditionalFormatting sqref="M1:M22 M25:M1048576">
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M23">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M24">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -5292,16 +5329,16 @@
         <v>59</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G1" s="28">
         <v>21</v>
@@ -5310,29 +5347,29 @@
         <v>22</v>
       </c>
       <c r="I1" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="M1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="47" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q1" s="28" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -5343,16 +5380,16 @@
         <v>59</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G2" s="28">
         <v>21</v>
@@ -5361,29 +5398,29 @@
         <v>22</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K2" s="30" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="47" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q2" s="28" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -5394,45 +5431,45 @@
         <v>38</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G3" s="28">
         <v>22</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J3" s="28">
         <v>25</v>
       </c>
       <c r="K3" s="30" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L3" s="31" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="47" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -5443,45 +5480,45 @@
         <v>38</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G4" s="28">
         <v>22</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J4" s="28">
         <v>25</v>
       </c>
       <c r="K4" s="30" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L4" s="31" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="47" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="32" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -5495,7 +5532,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5519,13 +5556,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="60" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D1" s="60" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E1" s="60" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F1" s="60" t="s">
         <v>36</v>
@@ -5700,7 +5737,7 @@
         <v>71</v>
       </c>
       <c r="M4" s="54" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2" t="s">
@@ -5751,7 +5788,7 @@
         <v>75</v>
       </c>
       <c r="M5" s="54" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -5798,7 +5835,7 @@
         <v>77</v>
       </c>
       <c r="M6" s="54" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -5830,30 +5867,30 @@
         <v>16</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I7" s="45" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K7" s="15">
         <v>105</v>
       </c>
       <c r="L7" s="56" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P7" s="63" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q7" s="59" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -5895,10 +5932,10 @@
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="54" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="P8" s="18" t="s">
         <v>93</v>
@@ -5946,7 +5983,7 @@
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="14" t="s">
@@ -5994,14 +6031,16 @@
         <v>102</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>103</v>
+        <v>255</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>104</v>
+        <v>256</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="18"/>
-      <c r="Q10" s="19"/>
+      <c r="Q10" s="19" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="11" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="12">
@@ -6020,7 +6059,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G11" s="15">
         <v>34</v>
@@ -6029,7 +6068,7 @@
         <v>24</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>43</v>
+        <v>261</v>
       </c>
       <c r="J11" s="15" t="s">
         <v>101</v>
@@ -6038,18 +6077,16 @@
         <v>150</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>259</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="M11" s="2"/>
       <c r="N11" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="18"/>
       <c r="Q11" s="19" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="174.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -6069,13 +6106,13 @@
         <v>21</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G12" s="15">
         <v>34</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I12" s="16" t="s">
         <v>43</v>
@@ -6087,21 +6124,21 @@
         <v>180</v>
       </c>
       <c r="L12" s="56" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="18"/>
       <c r="Q12" s="59" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="243" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="12">
         <v>3</v>
       </c>
@@ -6118,16 +6155,16 @@
         <v>21</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G13" s="15">
         <v>34</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J13" s="15" t="s">
         <v>101</v>
@@ -6135,17 +6172,19 @@
       <c r="K13" s="19">
         <v>60</v>
       </c>
-      <c r="L13" s="22" t="s">
-        <v>112</v>
+      <c r="L13" s="70" t="s">
+        <v>258</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>113</v>
+        <v>260</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="18"/>
+      <c r="P13" s="71" t="s">
+        <v>110</v>
+      </c>
       <c r="Q13" s="19" t="s">
-        <v>114</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -6165,16 +6204,16 @@
         <v>11</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G14" s="28">
         <v>16</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="J14" s="28">
         <v>14</v>
@@ -6183,16 +6222,16 @@
         <v>85</v>
       </c>
       <c r="L14" s="47" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="53"/>
       <c r="Q14" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6212,7 +6251,7 @@
         <v>21</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G15" s="15">
         <v>8</v>
@@ -6221,29 +6260,29 @@
         <v>27</v>
       </c>
       <c r="I15" s="58" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K15" s="15">
         <v>140</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P15" s="18" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q15" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6263,38 +6302,38 @@
         <v>11</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G16" s="15">
         <v>8</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I16" s="58" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K16" s="15">
         <v>140</v>
       </c>
       <c r="L16" s="14" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P16" s="52" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q16" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6314,16 +6353,16 @@
         <v>11</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G17" s="15">
         <v>8</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I17" s="58" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="J17" s="15" t="s">
         <v>28</v>
@@ -6332,20 +6371,20 @@
         <v>140</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P17" s="18" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q17" s="59" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -6365,7 +6404,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G18" s="15">
         <v>17</v>
@@ -6374,7 +6413,7 @@
         <v>30</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J18" s="15" t="s">
         <v>28</v>
@@ -6383,18 +6422,18 @@
         <v>120</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="18"/>
       <c r="Q18" s="19" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -6414,7 +6453,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G19" s="15">
         <v>16</v>
@@ -6426,26 +6465,26 @@
         <v>43</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K19" s="15">
         <v>85</v>
       </c>
       <c r="L19" s="49" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="14" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Q19" s="19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6471,30 +6510,30 @@
         <v>16</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I20" s="45" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K20" s="15">
         <v>105</v>
       </c>
       <c r="L20" s="56" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P20" s="62" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q20" s="19" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -6514,36 +6553,36 @@
         <v>11</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G21" s="15">
         <v>12</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K21" s="15">
         <v>100</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="P21" s="43" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q21" s="21" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -6563,36 +6602,36 @@
         <v>11</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G22" s="36">
         <v>12</v>
       </c>
       <c r="H22" s="36" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I22" s="46" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K22" s="36">
         <v>360</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="P22" s="37" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q22" s="21" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -6612,36 +6651,36 @@
         <v>11</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G23" s="21">
         <v>12</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I23" s="40" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K23" s="21">
         <v>100</v>
       </c>
       <c r="L23" s="37" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P23" s="38" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q23" s="21" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -6661,36 +6700,36 @@
         <v>11</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G24" s="21">
         <v>12</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I24" s="40" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K24" s="21">
         <v>360</v>
       </c>
       <c r="L24" s="37" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P24" s="38" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q24" s="21" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -6710,35 +6749,35 @@
         <v>21</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G25" s="34">
         <v>40</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I25" s="39" t="s">
         <v>14</v>
       </c>
       <c r="J25" s="34" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K25" s="34">
         <v>90</v>
       </c>
       <c r="L25" s="37" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="41" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q25" s="34"/>
     </row>
@@ -6763,10 +6802,10 @@
         <v>19</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I26" s="40" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J26" s="21">
         <v>15</v>
@@ -6775,20 +6814,20 @@
         <v>225</v>
       </c>
       <c r="L26" s="37" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="50" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q26" s="21" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6808,7 +6847,7 @@
         <v>11</v>
       </c>
       <c r="F27" s="38" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G27" s="21">
         <v>19</v>
@@ -6817,7 +6856,7 @@
         <v>12</v>
       </c>
       <c r="I27" s="40" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="J27" s="21">
         <v>15</v>
@@ -6826,17 +6865,17 @@
         <v>172</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="66" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Q27" s="34"/>
     </row>
@@ -6857,16 +6896,16 @@
         <v>11</v>
       </c>
       <c r="F28" s="38" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G28" s="21">
         <v>21</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I28" s="40" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J28" s="21">
         <v>15</v>
@@ -6875,15 +6914,15 @@
         <v>153</v>
       </c>
       <c r="L28" s="51" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="Q28" s="34"/>
     </row>
@@ -6904,13 +6943,13 @@
         <v>11</v>
       </c>
       <c r="F29" s="38" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G29" s="21">
         <v>21</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I29" s="40" t="s">
         <v>14</v>
@@ -6922,10 +6961,10 @@
         <v>166</v>
       </c>
       <c r="L29" s="37" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -6935,16 +6974,16 @@
   </sheetData>
   <autoFilter ref="A1:Q29" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="M1 M30:M1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M17 M19:M29">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:N1 M30:N1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6978,13 +7017,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>36</v>
@@ -7061,7 +7100,7 @@
         <v>82</v>
       </c>
       <c r="M2" s="54" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -7152,7 +7191,7 @@
         <v>240</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>68</v>
@@ -7204,7 +7243,7 @@
         <v>79</v>
       </c>
       <c r="M5" s="54" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2" t="s">
@@ -7255,7 +7294,7 @@
         <v>83</v>
       </c>
       <c r="M6" s="54" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -7281,38 +7320,38 @@
         <v>44</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G7" s="44">
         <v>8</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I7" s="40" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K7" s="21">
         <v>140</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="P7" s="50" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q7" s="61" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -7338,37 +7377,37 @@
         <v>16</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I8" s="65" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K8" s="21">
         <v>105</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>42</v>
       </c>
       <c r="P8" s="64" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q8" s="61" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="M2:M8">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7396,13 +7435,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>36</v>
@@ -7479,7 +7518,7 @@
         <v>88</v>
       </c>
       <c r="M2" s="54" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -7526,7 +7565,7 @@
         <v>89</v>
       </c>
       <c r="M3" s="54" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -7617,7 +7656,7 @@
         <v>240</v>
       </c>
       <c r="L5" s="50" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>69</v>
@@ -7684,7 +7723,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M2:M6">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Overview_Studies.xlsx
+++ b/Overview_Studies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f2d186216cf91ab/Bidlung/University/M.S. Leiden University/M.S. Neuroscience (Research)/Internship Groningen/GitHub_Multiverse_meta/MetaAnalysis-Psilo-Cognition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1706FA1-15EB-4E5C-88D3-929855421817}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33B2DAD1-C004-40F7-A6AE-B0472B8B6FBC}"/>
   <bookViews>
-    <workbookView xWindow="5325" yWindow="3840" windowWidth="21600" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3180" yWindow="-18165" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -2459,7 +2459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2670,22 +2670,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3066,10 +3059,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3141,7 +3135,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -3190,7 +3184,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -3239,7 +3233,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="104.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" ht="104.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -3290,7 +3284,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -3337,7 +3331,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="12">
         <v>1</v>
       </c>
@@ -3384,7 +3378,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="12">
         <v>1</v>
       </c>
@@ -3431,7 +3425,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -3482,7 +3476,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="12">
         <v>4</v>
       </c>
@@ -3533,7 +3527,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="25">
         <v>4</v>
       </c>
@@ -3582,7 +3576,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="25">
         <v>4</v>
       </c>
@@ -3631,7 +3625,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="12">
         <v>1</v>
       </c>
@@ -3678,7 +3672,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="12">
         <v>1</v>
       </c>
@@ -3727,7 +3721,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="12">
         <v>1</v>
       </c>
@@ -3778,7 +3772,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="353.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" ht="353.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="12">
         <v>9</v>
       </c>
@@ -3827,7 +3821,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="12">
         <v>1</v>
       </c>
@@ -3874,7 +3868,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="12">
         <v>1</v>
       </c>
@@ -3921,7 +3915,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="12">
         <v>1</v>
       </c>
@@ -3968,7 +3962,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="12">
         <v>2</v>
       </c>
@@ -4017,7 +4011,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="12">
         <v>2</v>
       </c>
@@ -4066,7 +4060,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="25">
         <v>3</v>
       </c>
@@ -4115,7 +4109,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="12">
         <v>3</v>
       </c>
@@ -4162,7 +4156,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="189" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="12">
         <v>3</v>
       </c>
@@ -4211,7 +4205,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="63" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" ht="63" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="12">
         <v>3</v>
       </c>
@@ -4260,7 +4254,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" ht="246" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="25">
         <v>5</v>
       </c>
@@ -4303,11 +4297,11 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="53"/>
-      <c r="Q25" s="28" t="s">
+      <c r="Q25" s="72" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="146.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" ht="146.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="12">
         <v>6</v>
       </c>
@@ -4358,7 +4352,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="146.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" ht="146.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="12">
         <v>6</v>
       </c>
@@ -4409,7 +4403,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="146.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" ht="146.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="12">
         <v>6</v>
       </c>
@@ -4460,7 +4454,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="12">
         <v>7</v>
       </c>
@@ -4509,7 +4503,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="12">
         <v>8</v>
       </c>
@@ -4560,7 +4554,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="353.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" ht="353.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="33">
         <v>9</v>
       </c>
@@ -4609,7 +4603,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="12">
         <v>10</v>
       </c>
@@ -4658,7 +4652,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="12">
         <v>10</v>
       </c>
@@ -4707,7 +4701,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="12">
         <v>10</v>
       </c>
@@ -4756,7 +4750,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="12">
         <v>10</v>
       </c>
@@ -4805,7 +4799,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="12">
         <v>11</v>
       </c>
@@ -4854,7 +4848,7 @@
       </c>
       <c r="Q36" s="34"/>
     </row>
-    <row r="37" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="12">
         <v>12</v>
       </c>
@@ -4903,7 +4897,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="132" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:17" ht="132" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="12">
         <v>12</v>
       </c>
@@ -4952,7 +4946,7 @@
       </c>
       <c r="Q38" s="34"/>
     </row>
-    <row r="39" spans="1:17" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:17" ht="160.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="12">
         <v>12</v>
       </c>
@@ -4999,7 +4993,7 @@
       </c>
       <c r="Q39" s="34"/>
     </row>
-    <row r="40" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="12">
         <v>12</v>
       </c>
@@ -5044,7 +5038,7 @@
       <c r="P40" s="50"/>
       <c r="Q40" s="34"/>
     </row>
-    <row r="41" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="12">
         <v>1</v>
       </c>
@@ -5091,7 +5085,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="33">
         <v>1</v>
       </c>
@@ -5140,7 +5134,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="42">
         <v>1</v>
       </c>
@@ -5191,7 +5185,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="48" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="42">
         <v>6</v>
       </c>
@@ -5242,7 +5236,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="353.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:17" ht="353.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="42">
         <v>9</v>
       </c>
@@ -5294,15 +5288,21 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q45" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}"/>
+  <autoFilter ref="A1:Q45" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="5"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="M1:M22 M25:M1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M23">
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M24">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -5531,7 +5531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+    <sheetView zoomScale="81" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -6974,16 +6974,16 @@
   </sheetData>
   <autoFilter ref="A1:Q29" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="M1 M30:M1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M17 M19:M29">
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:N1 M30:N1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7407,7 +7407,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M2:M8">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7723,7 +7723,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M2:M6">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Overview_Studies.xlsx
+++ b/Overview_Studies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f2d186216cf91ab/Bidlung/University/M.S. Leiden University/M.S. Neuroscience (Research)/Internship Groningen/GitHub_Multiverse_meta/MetaAnalysis-Psilo-Cognition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33B2DAD1-C004-40F7-A6AE-B0472B8B6FBC}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A917C3E9-C886-4946-8014-7FDC4D9C281E}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="-18165" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2565" yWindow="-19875" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="264">
   <si>
     <t>CognitiveFunction</t>
   </si>
@@ -2125,6 +2125,9 @@
   </si>
   <si>
     <t>only included ACC of NoGo trials</t>
+  </si>
+  <si>
+    <t>only NoGo trials were included for the calcualtion of accuracy</t>
   </si>
 </sst>
 </file>
@@ -2459,7 +2462,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2671,6 +2674,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3059,11 +3065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O47" sqref="O47"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3072,7 +3077,7 @@
     <col min="3" max="4" width="27.140625" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="44.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.42578125" customWidth="1"/>
     <col min="12" max="12" width="38" customWidth="1"/>
     <col min="13" max="13" width="38.28515625" bestFit="1" customWidth="1"/>
@@ -3135,7 +3140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -3184,7 +3189,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -3233,7 +3238,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="104.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" ht="104.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -3284,7 +3289,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -3331,7 +3336,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="12">
         <v>1</v>
       </c>
@@ -3378,7 +3383,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="12">
         <v>1</v>
       </c>
@@ -3425,7 +3430,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -3476,7 +3481,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="12">
         <v>4</v>
       </c>
@@ -3527,7 +3532,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="25">
         <v>4</v>
       </c>
@@ -3576,7 +3581,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="25">
         <v>4</v>
       </c>
@@ -3625,7 +3630,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="12">
         <v>1</v>
       </c>
@@ -3672,7 +3677,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="12">
         <v>1</v>
       </c>
@@ -3721,7 +3726,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="12">
         <v>1</v>
       </c>
@@ -3772,7 +3777,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="353.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" ht="353.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="12">
         <v>9</v>
       </c>
@@ -3821,7 +3826,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="12">
         <v>1</v>
       </c>
@@ -3868,7 +3873,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="12">
         <v>1</v>
       </c>
@@ -3915,7 +3920,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="12">
         <v>1</v>
       </c>
@@ -3962,7 +3967,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="12">
         <v>2</v>
       </c>
@@ -4011,7 +4016,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="12">
         <v>2</v>
       </c>
@@ -4060,7 +4065,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="25">
         <v>3</v>
       </c>
@@ -4109,7 +4114,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="12">
         <v>3</v>
       </c>
@@ -4156,7 +4161,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" ht="189" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="12">
         <v>3</v>
       </c>
@@ -4205,7 +4210,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="63" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="12">
         <v>3</v>
       </c>
@@ -4288,7 +4293,7 @@
       <c r="K25" s="28">
         <v>85</v>
       </c>
-      <c r="L25" s="47" t="s">
+      <c r="L25" s="73" t="s">
         <v>138</v>
       </c>
       <c r="M25" s="2" t="s">
@@ -4301,7 +4306,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="146.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" ht="146.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="12">
         <v>6</v>
       </c>
@@ -4352,7 +4357,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="146.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" ht="146.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="12">
         <v>6</v>
       </c>
@@ -4403,7 +4408,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="146.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" ht="146.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="12">
         <v>6</v>
       </c>
@@ -4454,7 +4459,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="12">
         <v>7</v>
       </c>
@@ -4503,7 +4508,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="12">
         <v>8</v>
       </c>
@@ -4554,7 +4559,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="353.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" ht="353.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="33">
         <v>9</v>
       </c>
@@ -4603,7 +4608,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="12">
         <v>10</v>
       </c>
@@ -4652,7 +4657,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="12">
         <v>10</v>
       </c>
@@ -4701,7 +4706,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="12">
         <v>10</v>
       </c>
@@ -4750,7 +4755,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="12">
         <v>10</v>
       </c>
@@ -4799,7 +4804,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="12">
         <v>11</v>
       </c>
@@ -4846,9 +4851,11 @@
       <c r="P36" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="Q36" s="34"/>
-    </row>
-    <row r="37" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="Q36" s="34" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="12">
         <v>12</v>
       </c>
@@ -4897,7 +4904,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="132" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:17" ht="132" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="12">
         <v>12</v>
       </c>
@@ -4946,7 +4953,7 @@
       </c>
       <c r="Q38" s="34"/>
     </row>
-    <row r="39" spans="1:17" ht="160.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:17" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="12">
         <v>12</v>
       </c>
@@ -4993,7 +5000,7 @@
       </c>
       <c r="Q39" s="34"/>
     </row>
-    <row r="40" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="12">
         <v>12</v>
       </c>
@@ -5038,7 +5045,7 @@
       <c r="P40" s="50"/>
       <c r="Q40" s="34"/>
     </row>
-    <row r="41" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="12">
         <v>1</v>
       </c>
@@ -5085,7 +5092,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="33">
         <v>1</v>
       </c>
@@ -5134,7 +5141,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="42">
         <v>1</v>
       </c>
@@ -5185,7 +5192,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:17" ht="48" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="42">
         <v>6</v>
       </c>
@@ -5236,7 +5243,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="353.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:17" ht="353.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="42">
         <v>9</v>
       </c>
@@ -5288,13 +5295,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q45" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="5"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Q45" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}"/>
   <conditionalFormatting sqref="M1:M22 M25:M1048576">
     <cfRule type="duplicateValues" dxfId="8" priority="5"/>
   </conditionalFormatting>

--- a/Overview_Studies.xlsx
+++ b/Overview_Studies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f2d186216cf91ab/Bidlung/University/M.S. Leiden University/M.S. Neuroscience (Research)/Internship Groningen/GitHub_Multiverse_meta/MetaAnalysis-Psilo-Cognition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A917C3E9-C886-4946-8014-7FDC4D9C281E}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3606A4CE-F94B-497E-906E-F0CBFB3C57CC}"/>
   <bookViews>
-    <workbookView xWindow="2565" yWindow="-19875" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1950" yWindow="-17760" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="265">
   <si>
     <t>CognitiveFunction</t>
   </si>
@@ -2128,6 +2128,17 @@
   </si>
   <si>
     <t>only NoGo trials were included for the calcualtion of accuracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Table S3: (Mean; SEM; SD)
+Placebo: 
+RT ( 7910.71; 407.69; 1912.24)
+Total Correct (32.18; 1.61; 7.55)
+Psilocybin:
+RT (11671.8; 3736.43)
+Total Correct (30.33; 1.18; 5.53) 
+</t>
   </si>
 </sst>
 </file>
@@ -3068,7 +3079,7 @@
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4996,7 +5007,7 @@
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="3" t="s">
-        <v>223</v>
+        <v>264</v>
       </c>
       <c r="Q39" s="34"/>
     </row>

--- a/Overview_Studies.xlsx
+++ b/Overview_Studies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f2d186216cf91ab/Bidlung/University/M.S. Leiden University/M.S. Neuroscience (Research)/Internship Groningen/GitHub_Multiverse_meta/MetaAnalysis-Psilo-Cognition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3606A4CE-F94B-497E-906E-F0CBFB3C57CC}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC9630C8-854B-4273-94E6-83A0CA6E8504}"/>
   <bookViews>
-    <workbookView xWindow="-1950" yWindow="-17760" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21815" yWindow="0" windowWidth="8340" windowHeight="10155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="266">
   <si>
     <t>CognitiveFunction</t>
   </si>
@@ -2139,6 +2139,9 @@
 RT (11671.8; 3736.43)
 Total Correct (30.33; 1.18; 5.53) 
 </t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -3078,8 +3081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3799,7 +3802,7 @@
         <v>32</v>
       </c>
       <c r="D15" s="67" t="s">
-        <v>17</v>
+        <v>265</v>
       </c>
       <c r="E15" s="68" t="s">
         <v>11</v>

--- a/Overview_Studies.xlsx
+++ b/Overview_Studies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f2d186216cf91ab/Bidlung/University/M.S. Leiden University/M.S. Neuroscience (Research)/Internship Groningen/GitHub_Multiverse_meta/MetaAnalysis-Psilo-Cognition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC9630C8-854B-4273-94E6-83A0CA6E8504}"/>
+  <xr:revisionPtr revIDLastSave="318" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61738491-F295-40CE-B184-5F0411BB3EE9}"/>
   <bookViews>
-    <workbookView xWindow="21815" yWindow="0" windowWidth="8340" windowHeight="10155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13770" yWindow="-21600" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="262">
   <si>
     <t>CognitiveFunction</t>
   </si>
@@ -368,108 +368,6 @@
     <t>1.859629</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Figure S6 Response Times (median, -1.5IQR, +1.5IQR)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Placeo 0 Back: Mean405.07 Upper452.78 Lower 294.73
-Placebo 1 Back Mean 408.05 upper, 680.91 lower 324.55
-Placebo 2 Back mean 405.07 upper 774.85 lower 293.24 
-10mg 0 Back mean384.19 upper 539.26 lower 315.61
-10 Mg 1 Back mean 458.75 upper 680.91 lower 337.97
-10mg 2 Back mean 525.84 upper 753.98 lower 348.41
-20mg 0 Back mean 428.93 upper 624.25 lower 336.48
-20mg 1 Back mean 464.71 upper 691.35 lower, 314.12
-20mg 2 Back mean, 589.96 upper  776.34 lower 340.95
-30mg 0 Back mean 434.89 upper 497.51 lower 388.67
-30mg 1 Back mean 524.35 upper  668.99Bar32, 351.39
-30mg 2 Back mean 676.44 upper 867.30 lower 402.09
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Figure S6 Response Times: 2-back (1st quartile, median, 3rd quartile)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Placebo: 413.88, 446.17, 595.69
-10mg: 456.94, 553.83, 588.52
-20mg: 562.20, 614.83, 704.55
-30mg: 627.99, 694.98, 807.42
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Figure S4: Discriminality in the Letter-N-Back (1st quartile, median, 3rd quartile)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-0back:
-0mg(placebo): NA
-10mg: NA
-20mg: 1.00 0.96 0.93 
-30mg:1.00 0.93 0.90 
-400mg 1.00 0.97 0.93
-1Back:
-0mg(placebo): 1.00 0.94 0.90 
-10mg: 1.00 0.94 0.87 
-20mg:1.00 0.97 0.85 0.70 
-30mg: 1.00 0.97 0.77 0.59 
-400mg DXM:1.00 0.93 0.83
-2Back:
-0mg(placebo):NA
-10mg:1.00 0.93 0.86 0.77 
-20mg:1.00 0.95 0.87 0.77 0.67 
-30mg:1.00 0.87 0.80 0.67 0.54 
-400mg DXM:1.00 0.93 0.80 0.74
-</t>
-    </r>
-  </si>
-  <si>
     <t>Conflict monitoring</t>
   </si>
   <si>
@@ -555,61 +453,6 @@
   </si>
   <si>
     <t>-0.67</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>FIGURE S2
-2h:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-ACC (in %) +1st and 3rd quartiles 
-10mgPre:98.4324(96.8649-100.00)
-10mgPost:98.5946(96.8649-100)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">FIGURE S1
-NR of attempted trials median +1st and 3rd quartiles </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-2h:
-Placebo:
-68.90(75.30-62.20)
-10mg
-59.76(72.87-50.61)
-20mg
-49.39(59.15-37.50)
-30mg
-40.85( 52.13-33.23)</t>
-    </r>
   </si>
   <si>
     <t>measurement timepoint = 2h
@@ -1309,11 +1152,6 @@
     <t>0.469353</t>
   </si>
   <si>
-    <t>(-)Authors report the measurement timepoint to be 75–95 min after drug ingestion. We used the average of these values (85min)
-(-) N = 8 in each group
-(-)Cohen's d was calculated using the mean RT differences between the psilocybin and placebo groups, averaged across left and right visual fields (LVF and RVF) for each stimulus onset asynchrony (SOA) condition. We then computed an overall Cohen's d representing the average effect across both SOA conditions.</t>
-  </si>
-  <si>
     <t>administration of PY led to a significant
 decrease in the FAIR scores PV</t>
   </si>
@@ -1449,9 +1287,6 @@
   <si>
     <t>error rates eta2= 0.5381
 RT eta2= 0.378</t>
-  </si>
-  <si>
-    <t>(-) Since accuracy is inherently the complement of error rates (accuracy = 1 - error rate), we calculated Cohen's d based on the error rates. To align our interpretation with conventional standards where higher scores denote greater accuracy, we multiplied the calculated Cohen's d for error rates by -1. This adjustment ensures that our reported effect sizes are consistent and directly comparable to other measures of accuracy within our dataset</t>
   </si>
   <si>
     <t>RT increased (both conditions), Acc decreased (conflict condition),</t>
@@ -1756,10 +1591,6 @@
 </t>
   </si>
   <si>
-    <t>text: cohens' d Peformance score (105min):
-Med Dose: -1.27</t>
-  </si>
-  <si>
     <t>-1.27</t>
   </si>
   <si>
@@ -1784,9 +1615,6 @@
   </si>
   <si>
     <t>the only effect at T1 (100 min post-ingestion): reduced span length (impaired WM) in low dose vs plc contrast (not very low dose vs plc.)</t>
-  </si>
-  <si>
-    <t>spatial Span test (computerized corsis block)</t>
   </si>
   <si>
     <t>Span Length</t>
@@ -1862,17 +1690,11 @@
     <t>no sig effect on RT</t>
   </si>
   <si>
-    <t>emotional go/no-go</t>
-  </si>
-  <si>
     <t>1.5</t>
   </si>
   <si>
     <t>Placebo average RT: 491.72 SD: 80.31
 Psilocybin average RT: 476.82 SD: 93.34</t>
-  </si>
-  <si>
-    <t>0.08013025</t>
   </si>
   <si>
     <t>FIgure3: RT +95%CI goNogo:
@@ -1908,12 +1730,6 @@
 Response time: 
 Psilo: 1352.71 (± 142.36)
 Placebo: 1396.93 (± 131.59)</t>
-  </si>
-  <si>
-    <t>-0.3225834</t>
-  </si>
-  <si>
-    <t>-0.01628561</t>
   </si>
   <si>
     <r>
@@ -1939,10 +1755,6 @@
     </r>
   </si>
   <si>
-    <t>used immediate and not delayed version, to capture WM and not long term.
-Total correct/ total = r accuracy</t>
-  </si>
-  <si>
     <t>lower performance in psilocybin</t>
   </si>
   <si>
@@ -1962,9 +1774,6 @@
     <t>1.75</t>
   </si>
   <si>
-    <t>0.2545034</t>
-  </si>
-  <si>
     <t>Table S5: Cohens' d (Psilocybin - Placebo):
 Rt: 1.75
 Total Correct: -1.45
@@ -1984,17 +1793,6 @@
     <t>1.8</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Table S2: (Mean; SEM; SD)
-Placebo: 
-RT ( 7910.71; 407.69; 1912.24)
-Total Correct (32.18; 1.61; 7.55)
-Psilocybin:
-RT (11671.8; 3736.43)
-Total Correct (30.33; 1.18; 5.53) 
-</t>
-  </si>
-  <si>
     <t>higher RT in Psilo</t>
   </si>
   <si>
@@ -2053,9 +1851,6 @@
   </si>
   <si>
     <t xml:space="preserve"> -0.6233</t>
-  </si>
-  <si>
-    <t>-1.8965</t>
   </si>
   <si>
     <t xml:space="preserve">-Quality value: amount of attentively made decisions respective to the total amount of decisions.
@@ -2121,13 +1916,7 @@
     <t>0.7581123</t>
   </si>
   <si>
-    <t>Accuracy</t>
-  </si>
-  <si>
     <t>only included ACC of NoGo trials</t>
-  </si>
-  <si>
-    <t>only NoGo trials were included for the calcualtion of accuracy</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -2141,7 +1930,202 @@
 </t>
   </si>
   <si>
-    <t>Y</t>
+    <t>EF sensitivity (1-3)</t>
+  </si>
+  <si>
+    <t>1=pure (eg oncong -congruent)
+2= specific EF condition(eg incongruent)
+3= general EF(eg main effect of drug averaged across incong&amp; congruent)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Figure S6 Response Times: 2-back (median, -1.5IQR, +1.5IQR)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Placeo 0 Back: Mean405.07 Upper452.78 Lower 294.73
+Placebo 1 Back Mean 408.05 upper, 680.91 lower 324.55
+Placebo 2 Back mean 405.07 upper 774.85 lower 293.24 
+10mg 0 Back mean384.19 upper 539.26 lower 315.61
+10 Mg 1 Back mean 458.75 upper 680.91 lower 337.97
+10mg 2 Back mean 525.84 upper 753.98 lower 348.41
+20mg 0 Back mean 428.93 upper 624.25 lower 336.48
+20mg 1 Back mean 464.71 upper 691.35 lower, 314.12
+20mg 2 Back mean, 589.96 upper  776.34 lower 340.95
+30mg 0 Back mean 434.89 upper 497.51 lower 388.67
+30mg 1 Back mean 524.35 upper  668.99Bar32, 351.39
+30mg 2 Back mean 676.44 upper 867.30 lower 402.09
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Figure S6 Response Times: 2-back (1st quartile, median, 3rd quartile)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Placebo: 413.88, 446.17, 595.69
+10mg: 456.94, 553.83, 588.52
+20mg: 562.20, 614.83, 704.55
+30mg: 627.99, 694.98, 807.42
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Figure S4: Discriminality in the Letter-N-Back (1st quartile, median, 3rd quartile)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0back:
+0mg(placebo): NA
+10mg: NA
+20mg: 1.00 0.96 0.93 
+30mg:1.00 0.93 0.90 
+400mg 1.00 0.97 0.93
+1Back:
+0mg(placebo): 1.00 0.94 0.90 
+10mg: 1.00 0.94 0.87 
+20mg:1.00 0.97 0.85 0.70 
+30mg: 1.00 0.97 0.77 0.59 
+400mg DXM:1.00 0.93 0.83
+2Back:
+0mg(placebo):NA
+10mg:1.00 0.93 0.86 0.77 
+20mg:1.00 0.95 0.87 0.77 0.67 
+30mg:1.00 0.87 0.80 0.67 0.54 
+400mg DXM:1.00 0.93 0.80 0.74
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>FIGURE S2-
+2h:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+ACC (in %) +1st and 3rd quartiles 
+10mgPre:98.4324(96.8649-100.00)
+10mgPost:98.5946(96.8649-100)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">FIGURE S1
+NR of attempted trials median +1st and 3rd quartiles </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2h:
+Placebo:
+68.90(75.30-62.20)
+10mg
+59.76(72.87-50.61)
+20mg
+49.39(59.15-37.50)
+30mg
+40.85( 52.13-33.23)</t>
+    </r>
+  </si>
+  <si>
+    <t>(-) Since accuracy is inherently the complement of error rates (accuracy = 1 - error rate), we calculated Cohen's d based on the error rates. To align our interpretation with conventional standards where higher scores denote greater accuracy, we multiplied the calculated Cohen's d for error rates by -1. This adjustment ensures that our reported effect sizes are consistent and directly comparable to other measures of accuracy within our dataset
+Ef other = RT</t>
+  </si>
+  <si>
+    <t>only NoGo trials were included for the calcualtion of accuracy
+ES other = RT</t>
+  </si>
+  <si>
+    <t>(-)Authors report the measurement timepoint to be 75–95 min after drug ingestion. We used the average of these values (85min)
+(-) N = 8 in each group
+(-)Cohen's d was calculated using the differenc ein median RT between the valid and invalid trials. We used the differences between the psilocybin and placebo groups, averaged across left and right visual fields (LVF and RVF) for each stimulus onset asynchrony (SOA) condition. We then computed an overall Cohen's d representing the average effect across both SOA conditions.</t>
+  </si>
+  <si>
+    <t>-0.1969964</t>
+  </si>
+  <si>
+    <t>Q score (Acc):
+High dose (peak effect): d=-0.95</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>used immediate and not delayed version, to capture WM and not long term.
+Total correct/ total(60) = accuracy</t>
+  </si>
+  <si>
+    <t>-1,34</t>
+  </si>
+  <si>
+    <t>comment sensitivitý</t>
   </si>
 </sst>
 </file>
@@ -2230,7 +2214,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2282,6 +2266,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF8B8B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2476,7 +2466,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2622,9 +2612,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2651,9 +2638,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2678,9 +2662,6 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2693,12 +2674,270 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3079,10 +3318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A41" zoomScale="86" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3090,18 +3329,20 @@
     <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="27.140625" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.7109375" customWidth="1"/>
-    <col min="8" max="8" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
     <col min="12" max="12" width="38" customWidth="1"/>
-    <col min="13" max="13" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="45" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" customWidth="1"/>
     <col min="15" max="15" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="32.140625" customWidth="1"/>
     <col min="17" max="17" width="32.42578125" customWidth="1"/>
+    <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>46</v>
       </c>
@@ -3109,13 +3350,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>36</v>
@@ -3153,8 +3394,14 @@
       <c r="Q1" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R1" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="46.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -3164,7 +3411,7 @@
       <c r="C2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="65" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="15" t="s">
@@ -3179,7 +3426,7 @@
       <c r="H2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="57" t="s">
         <v>50</v>
       </c>
       <c r="J2" s="15">
@@ -3202,57 +3449,69 @@
       <c r="Q2" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R2" s="19">
+        <v>2</v>
+      </c>
+      <c r="S2" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="176.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12">
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="65" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G3" s="15">
         <v>20</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I3" s="16" t="s">
         <v>14</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K3" s="15">
         <v>240</v>
       </c>
       <c r="L3" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="14" t="s">
+      <c r="P3" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="Q3" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="104.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R3" s="19">
+        <v>3</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="306.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -3262,7 +3521,7 @@
       <c r="C4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="65" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="15" t="s">
@@ -3278,7 +3537,7 @@
         <v>12</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J4" s="15">
         <v>10</v>
@@ -3286,24 +3545,30 @@
       <c r="K4" s="15">
         <v>120</v>
       </c>
-      <c r="L4" s="56" t="s">
+      <c r="L4" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M4" s="54" t="s">
-        <v>236</v>
-      </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="72" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q4" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="P4" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R4" s="19">
+        <v>1</v>
+      </c>
+      <c r="S4" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -3313,10 +3578,10 @@
       <c r="C5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="66" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="14" t="s">
@@ -3329,7 +3594,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J5" s="15">
         <v>10</v>
@@ -3338,19 +3603,25 @@
         <v>240</v>
       </c>
       <c r="L5" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" s="54" t="s">
-        <v>235</v>
-      </c>
-      <c r="N5" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53" t="s">
+        <v>222</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" s="17"/>
       <c r="Q5" s="34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>74</v>
+      </c>
+      <c r="R5" s="19">
+        <v>1</v>
+      </c>
+      <c r="S5" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="12">
         <v>1</v>
       </c>
@@ -3360,10 +3631,10 @@
       <c r="C6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="68" t="s">
+      <c r="E6" s="66" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="14" t="s">
@@ -3376,7 +3647,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J6" s="15">
         <v>10</v>
@@ -3385,19 +3656,25 @@
         <v>360</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="M6" s="54" t="s">
-        <v>240</v>
-      </c>
-      <c r="N6" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53" t="s">
+        <v>227</v>
+      </c>
       <c r="O6" s="2"/>
       <c r="P6" s="17"/>
       <c r="Q6" s="34" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+      <c r="R6" s="19">
+        <v>1</v>
+      </c>
+      <c r="S6" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="12">
         <v>1</v>
       </c>
@@ -3423,7 +3700,7 @@
         <v>12</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J7" s="15">
         <v>20</v>
@@ -3432,27 +3709,33 @@
         <v>240</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="M7" s="54" t="s">
-        <v>238</v>
-      </c>
-      <c r="N7" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53" t="s">
+        <v>225</v>
+      </c>
       <c r="O7" s="2"/>
       <c r="P7" s="17"/>
       <c r="Q7" s="34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>74</v>
+      </c>
+      <c r="R7" s="19">
+        <v>1</v>
+      </c>
+      <c r="S7" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="12">
         <v>4</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>44</v>
@@ -3461,7 +3744,7 @@
         <v>44</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G8" s="28">
         <v>21</v>
@@ -3470,40 +3753,44 @@
         <v>22</v>
       </c>
       <c r="I8" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="K8" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="L8" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="K8" s="30" t="s">
+      <c r="M8" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="L8" s="31" t="s">
+      <c r="N8" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="47" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q8" s="28" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>118</v>
+      </c>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="12">
         <v>4</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>44</v>
@@ -3512,7 +3799,7 @@
         <v>44</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G9" s="28">
         <v>21</v>
@@ -3521,32 +3808,36 @@
         <v>22</v>
       </c>
       <c r="I9" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="J9" s="28" t="s">
-        <v>114</v>
-      </c>
       <c r="K9" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="L9" s="31" t="s">
+      <c r="N9" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="47" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q9" s="28" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>118</v>
+      </c>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="25">
         <v>4</v>
       </c>
@@ -3554,7 +3845,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="D10" s="28" t="s">
         <v>44</v>
@@ -3563,39 +3854,43 @@
         <v>44</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G10" s="28">
         <v>22</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J10" s="28">
         <v>25</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L10" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="47" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q10" s="32" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="25">
         <v>4</v>
       </c>
@@ -3603,7 +3898,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>44</v>
@@ -3612,39 +3907,43 @@
         <v>44</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G11" s="28">
         <v>22</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I11" s="29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J11" s="28">
         <v>25</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L11" s="31" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="47" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q11" s="32" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="12">
         <v>1</v>
       </c>
@@ -3690,13 +3989,19 @@
       <c r="Q12" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R12" s="19">
+        <v>2</v>
+      </c>
+      <c r="S12" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="12">
         <v>1</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>10</v>
@@ -3708,39 +4013,45 @@
         <v>44</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G13" s="15">
         <v>20</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I13" s="16" t="s">
         <v>14</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K13" s="15">
         <v>240</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q13" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="Q13" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R13" s="19">
+        <v>3</v>
+      </c>
+      <c r="S13" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="12">
         <v>1</v>
       </c>
@@ -3766,7 +4077,7 @@
         <v>12</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J14" s="15">
         <v>20</v>
@@ -3775,23 +4086,29 @@
         <v>120</v>
       </c>
       <c r="L14" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="M14" s="54" t="s">
-        <v>237</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="P14" s="17" t="s">
-        <v>81</v>
-      </c>
       <c r="Q14" s="19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="353.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>72</v>
+      </c>
+      <c r="R14" s="19">
+        <v>1</v>
+      </c>
+      <c r="S14" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="353.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="12">
         <v>9</v>
       </c>
@@ -3801,10 +4118,10 @@
       <c r="C15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="67" t="s">
-        <v>265</v>
-      </c>
-      <c r="E15" s="68" t="s">
+      <c r="D15" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="14" t="s">
@@ -3814,33 +4131,39 @@
         <v>16</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I15" s="45" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K15" s="15">
         <v>105</v>
       </c>
-      <c r="L15" s="56" t="s">
-        <v>179</v>
+      <c r="L15" s="55" t="s">
+        <v>257</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="P15" s="63" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q15" s="59" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>175</v>
+      </c>
+      <c r="P15" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q15" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="R15" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="S15" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="12">
         <v>1</v>
       </c>
@@ -3866,7 +4189,7 @@
         <v>12</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J16" s="15">
         <v>20</v>
@@ -3875,19 +4198,25 @@
         <v>360</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="M16" s="54" t="s">
-        <v>241</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53" t="s">
+        <v>228</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" s="17"/>
       <c r="Q16" s="19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+      <c r="R16" s="19">
+        <v>1</v>
+      </c>
+      <c r="S16" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="12">
         <v>1</v>
       </c>
@@ -3913,7 +4242,7 @@
         <v>12</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J17" s="15">
         <v>30</v>
@@ -3922,19 +4251,25 @@
         <v>240</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="M17" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53" t="s">
+        <v>226</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" s="14"/>
       <c r="Q17" s="19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>74</v>
+      </c>
+      <c r="R17" s="19">
+        <v>1</v>
+      </c>
+      <c r="S17" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="60.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="12">
         <v>1</v>
       </c>
@@ -3960,7 +4295,7 @@
         <v>12</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J18" s="15">
         <v>30</v>
@@ -3968,20 +4303,26 @@
       <c r="K18" s="15">
         <v>360</v>
       </c>
-      <c r="L18" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="M18" s="54" t="s">
-        <v>242</v>
-      </c>
-      <c r="N18" s="2"/>
+      <c r="L18" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53" t="s">
+        <v>229</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" s="15"/>
       <c r="Q18" s="19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+      <c r="R18" s="19">
+        <v>1</v>
+      </c>
+      <c r="S18" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="12">
         <v>2</v>
       </c>
@@ -3991,14 +4332,14 @@
       <c r="C19" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="67" t="s">
+      <c r="D19" s="65" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G19" s="15">
         <v>8</v>
@@ -4007,7 +4348,7 @@
         <v>19</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J19" s="15" t="s">
         <v>28</v>
@@ -4016,21 +4357,27 @@
         <v>120</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="N19" s="54" t="s">
-        <v>243</v>
+      <c r="N19" s="53" t="s">
+        <v>230</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q19" s="19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>92</v>
+      </c>
+      <c r="R19" s="19">
+        <v>1</v>
+      </c>
+      <c r="S19" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="264" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="12">
         <v>2</v>
       </c>
@@ -4040,14 +4387,14 @@
       <c r="C20" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="67" t="s">
+      <c r="D20" s="65" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G20" s="15">
         <v>8</v>
@@ -4056,7 +4403,7 @@
         <v>18</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J20" s="15" t="s">
         <v>28</v>
@@ -4065,26 +4412,32 @@
         <v>120</v>
       </c>
       <c r="L20" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="O20" s="2"/>
-      <c r="P20" s="14" t="s">
-        <v>98</v>
+      <c r="P20" s="72" t="s">
+        <v>96</v>
       </c>
       <c r="Q20" s="15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>97</v>
+      </c>
+      <c r="R20" s="19">
+        <v>1</v>
+      </c>
+      <c r="S20" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="25">
         <v>3</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>20</v>
@@ -4096,7 +4449,7 @@
         <v>21</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G21" s="15">
         <v>34</v>
@@ -4108,27 +4461,33 @@
         <v>43</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K21" s="15">
         <v>180</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="18"/>
       <c r="Q21" s="19" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>243</v>
+      </c>
+      <c r="R21" s="19">
+        <v>2</v>
+      </c>
+      <c r="S21" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="174.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="12">
         <v>3</v>
       </c>
@@ -4145,7 +4504,7 @@
         <v>21</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G22" s="15">
         <v>34</v>
@@ -4157,25 +4516,31 @@
         <v>43</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K22" s="15">
         <v>150</v>
       </c>
-      <c r="L22" s="17" t="s">
-        <v>104</v>
+      <c r="L22" s="55" t="s">
+        <v>102</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="18"/>
       <c r="Q22" s="19" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="189" thickBot="1" x14ac:dyDescent="0.45">
+        <v>247</v>
+      </c>
+      <c r="R22" s="19">
+        <v>2</v>
+      </c>
+      <c r="S22" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="189" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="12">
         <v>3</v>
       </c>
@@ -4192,39 +4557,45 @@
         <v>21</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G23" s="15">
         <v>34</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I23" s="16" t="s">
         <v>43</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K23" s="19">
         <v>180</v>
       </c>
-      <c r="L23" s="56" t="s">
-        <v>252</v>
+      <c r="L23" s="55" t="s">
+        <v>238</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="18"/>
-      <c r="Q23" s="59" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="63" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="Q23" s="58" t="s">
+        <v>237</v>
+      </c>
+      <c r="R23" s="19">
+        <v>1</v>
+      </c>
+      <c r="S23" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="12">
         <v>3</v>
       </c>
@@ -4241,39 +4612,45 @@
         <v>21</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G24" s="15">
         <v>34</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K24" s="19">
         <v>60</v>
       </c>
-      <c r="L24" s="70" t="s">
-        <v>258</v>
+      <c r="L24" s="67" t="s">
+        <v>244</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
-      <c r="P24" s="71" t="s">
-        <v>110</v>
+      <c r="P24" s="68" t="s">
+        <v>108</v>
       </c>
       <c r="Q24" s="19" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="246" thickBot="1" x14ac:dyDescent="0.45">
+        <v>245</v>
+      </c>
+      <c r="R24" s="19">
+        <v>2</v>
+      </c>
+      <c r="S24" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="274.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="25">
         <v>5</v>
       </c>
@@ -4283,23 +4660,23 @@
       <c r="C25" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="67" t="s">
+      <c r="D25" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="68" t="s">
+      <c r="E25" s="66" t="s">
         <v>11</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G25" s="28">
         <v>16</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="I25" s="28" t="s">
-        <v>137</v>
+        <v>134</v>
+      </c>
+      <c r="I25" s="69" t="s">
+        <v>135</v>
       </c>
       <c r="J25" s="28">
         <v>14</v>
@@ -4307,20 +4684,26 @@
       <c r="K25" s="28">
         <v>85</v>
       </c>
-      <c r="L25" s="73" t="s">
-        <v>138</v>
+      <c r="L25" s="70" t="s">
+        <v>136</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="72" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="146.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="P25" s="52"/>
+      <c r="Q25" s="69" t="s">
+        <v>255</v>
+      </c>
+      <c r="R25" s="19">
+        <v>1</v>
+      </c>
+      <c r="S25" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="189" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="12">
         <v>6</v>
       </c>
@@ -4337,7 +4720,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G26" s="15">
         <v>8</v>
@@ -4345,33 +4728,39 @@
       <c r="H26" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I26" s="58" t="s">
-        <v>245</v>
+      <c r="I26" s="57" t="s">
+        <v>231</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K26" s="15">
         <v>140</v>
       </c>
       <c r="L26" s="17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P26" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q26" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="O26" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="P26" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q26" s="19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="146.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R26" s="19">
+        <v>1</v>
+      </c>
+      <c r="S26" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="189" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="12">
         <v>6</v>
       </c>
@@ -4381,48 +4770,54 @@
       <c r="C27" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="67" t="s">
+      <c r="D27" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="68" t="s">
+      <c r="E27" s="66" t="s">
         <v>11</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G27" s="15">
         <v>8</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="I27" s="58" t="s">
-        <v>245</v>
+        <v>146</v>
+      </c>
+      <c r="I27" s="57" t="s">
+        <v>231</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K27" s="15">
         <v>140</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="P27" s="52" t="s">
-        <v>147</v>
+        <v>150</v>
+      </c>
+      <c r="P27" s="51" t="s">
+        <v>144</v>
       </c>
       <c r="Q27" s="19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="146.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="R27" s="19">
+        <v>1</v>
+      </c>
+      <c r="S27" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="189" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="12">
         <v>6</v>
       </c>
@@ -4432,23 +4827,23 @@
       <c r="C28" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="67" t="s">
+      <c r="D28" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="68" t="s">
+      <c r="E28" s="66" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G28" s="15">
         <v>8</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="I28" s="58" t="s">
-        <v>246</v>
+        <v>146</v>
+      </c>
+      <c r="I28" s="57" t="s">
+        <v>232</v>
       </c>
       <c r="J28" s="15" t="s">
         <v>28</v>
@@ -4457,23 +4852,29 @@
         <v>140</v>
       </c>
       <c r="L28" s="17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P28" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q28" s="59" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="Q28" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="R28" s="19">
+        <v>1</v>
+      </c>
+      <c r="S28" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="243" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="12">
         <v>7</v>
       </c>
@@ -4483,14 +4884,14 @@
       <c r="C29" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="67" t="s">
+      <c r="D29" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="68" t="s">
+      <c r="E29" s="66" t="s">
         <v>11</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G29" s="15">
         <v>17</v>
@@ -4499,7 +4900,7 @@
         <v>30</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J29" s="15" t="s">
         <v>28</v>
@@ -4508,38 +4909,44 @@
         <v>120</v>
       </c>
       <c r="L29" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>248</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>234</v>
+      </c>
       <c r="P29" s="18"/>
-      <c r="Q29" s="19" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="Q29" s="58" t="s">
+        <v>253</v>
+      </c>
+      <c r="R29" s="19">
+        <v>3</v>
+      </c>
+      <c r="S29" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="108" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="12">
         <v>8</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="67" t="s">
+      <c r="D30" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="68" t="s">
+      <c r="E30" s="66" t="s">
         <v>11</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G30" s="15">
         <v>16</v>
@@ -4551,29 +4958,35 @@
         <v>43</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K30" s="15">
         <v>85</v>
       </c>
-      <c r="L30" s="49" t="s">
-        <v>167</v>
+      <c r="L30" s="73" t="s">
+        <v>163</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="14" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Q30" s="19" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="353.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>167</v>
+      </c>
+      <c r="R30" s="19">
+        <v>2</v>
+      </c>
+      <c r="S30" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="353.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="33">
         <v>9</v>
       </c>
@@ -4583,10 +4996,10 @@
       <c r="C31" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="67" t="s">
+      <c r="D31" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="68" t="s">
+      <c r="E31" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F31" s="14" t="s">
@@ -4596,33 +5009,39 @@
         <v>16</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I31" s="45" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K31" s="15">
         <v>105</v>
       </c>
-      <c r="L31" s="56" t="s">
-        <v>174</v>
+      <c r="L31" s="55" t="s">
+        <v>170</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="P31" s="62" t="s">
-        <v>176</v>
+        <v>171</v>
+      </c>
+      <c r="P31" s="60" t="s">
+        <v>172</v>
       </c>
       <c r="Q31" s="19" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>173</v>
+      </c>
+      <c r="R31" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="S31" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="12">
         <v>10</v>
       </c>
@@ -4632,46 +5051,52 @@
       <c r="C32" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="67" t="s">
+      <c r="D32" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="68" t="s">
+      <c r="E32" s="66" t="s">
         <v>11</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G32" s="15">
         <v>12</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K32" s="15">
         <v>100</v>
       </c>
       <c r="L32" s="17" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="P32" s="43" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="Q32" s="21" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>186</v>
+      </c>
+      <c r="R32" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="S32" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="12">
         <v>10</v>
       </c>
@@ -4681,46 +5106,52 @@
       <c r="C33" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="67" t="s">
+      <c r="D33" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="68" t="s">
+      <c r="E33" s="66" t="s">
         <v>11</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G33" s="36">
         <v>12</v>
       </c>
-      <c r="H33" s="36" t="s">
-        <v>187</v>
+      <c r="H33" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="I33" s="46" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="J33" s="36" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K33" s="36">
         <v>360</v>
       </c>
       <c r="L33" s="15" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="P33" s="37" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="Q33" s="21" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>186</v>
+      </c>
+      <c r="R33" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="S33" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="12">
         <v>10</v>
       </c>
@@ -4730,46 +5161,52 @@
       <c r="C34" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="67" t="s">
+      <c r="D34" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="68" t="s">
+      <c r="E34" s="66" t="s">
         <v>11</v>
       </c>
       <c r="F34" s="38" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G34" s="21">
         <v>12</v>
       </c>
-      <c r="H34" s="21" t="s">
-        <v>187</v>
+      <c r="H34" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="I34" s="40" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="J34" s="21" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="K34" s="21">
         <v>100</v>
       </c>
       <c r="L34" s="37" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="P34" s="38" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="Q34" s="21" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>186</v>
+      </c>
+      <c r="R34" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="S34" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="12">
         <v>10</v>
       </c>
@@ -4779,46 +5216,52 @@
       <c r="C35" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="67" t="s">
+      <c r="D35" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="68" t="s">
+      <c r="E35" s="66" t="s">
         <v>11</v>
       </c>
       <c r="F35" s="38" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G35" s="21">
         <v>12</v>
       </c>
-      <c r="H35" s="21" t="s">
-        <v>187</v>
+      <c r="H35" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="I35" s="40" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="J35" s="21" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="K35" s="21">
         <v>360</v>
       </c>
       <c r="L35" s="37" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="P35" s="38" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="Q35" s="21" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>186</v>
+      </c>
+      <c r="R35" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="S35" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="48" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="12">
         <v>11</v>
       </c>
@@ -4835,41 +5278,47 @@
         <v>21</v>
       </c>
       <c r="F36" s="38" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G36" s="34">
         <v>40</v>
       </c>
-      <c r="H36" s="21" t="s">
-        <v>201</v>
+      <c r="H36" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="I36" s="39" t="s">
         <v>14</v>
       </c>
       <c r="J36" s="34" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="K36" s="34">
         <v>90</v>
       </c>
       <c r="L36" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>234</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>221</v>
+      </c>
       <c r="P36" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q36" s="34" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>197</v>
+      </c>
+      <c r="Q36" s="59" t="s">
+        <v>254</v>
+      </c>
+      <c r="R36" s="19">
+        <v>2</v>
+      </c>
+      <c r="S36" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="103.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="12">
         <v>12</v>
       </c>
@@ -4879,10 +5328,10 @@
       <c r="C37" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="67" t="s">
+      <c r="D37" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="68" t="s">
+      <c r="E37" s="66" t="s">
         <v>11</v>
       </c>
       <c r="F37" s="41"/>
@@ -4890,10 +5339,10 @@
         <v>19</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="I37" s="40" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="J37" s="21">
         <v>15</v>
@@ -4901,24 +5350,28 @@
       <c r="K37" s="21">
         <v>225</v>
       </c>
-      <c r="L37" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="O37" s="2"/>
-      <c r="P37" s="50" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q37" s="21" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="132" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L37" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="P37" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q37" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="R37" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="S37" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="132" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="12">
         <v>12</v>
       </c>
@@ -4928,14 +5381,14 @@
       <c r="C38" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="67" t="s">
+      <c r="D38" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="E38" s="68" t="s">
+      <c r="E38" s="66" t="s">
         <v>11</v>
       </c>
       <c r="F38" s="38" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="G38" s="21">
         <v>19</v>
@@ -4944,7 +5397,7 @@
         <v>12</v>
       </c>
       <c r="I38" s="40" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="J38" s="21">
         <v>15</v>
@@ -4953,21 +5406,25 @@
         <v>172</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>217</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
-      <c r="P38" s="66" t="s">
-        <v>218</v>
+      <c r="P38" s="64" t="s">
+        <v>206</v>
       </c>
       <c r="Q38" s="34"/>
-    </row>
-    <row r="39" spans="1:17" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R38" s="19">
+        <v>1</v>
+      </c>
+      <c r="S38" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="12">
         <v>12</v>
       </c>
@@ -4977,23 +5434,23 @@
       <c r="C39" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="67" t="s">
+      <c r="D39" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="68" t="s">
+      <c r="E39" s="66" t="s">
         <v>11</v>
       </c>
       <c r="F39" s="38" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="G39" s="21">
         <v>21</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="I39" s="40" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="J39" s="21">
         <v>15</v>
@@ -5001,20 +5458,26 @@
       <c r="K39" s="21">
         <v>153</v>
       </c>
-      <c r="L39" s="51" t="s">
-        <v>221</v>
+      <c r="L39" s="50" t="s">
+        <v>209</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="3" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="Q39" s="34"/>
-    </row>
-    <row r="40" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R39" s="19">
+        <v>1</v>
+      </c>
+      <c r="S39" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="12">
         <v>12</v>
       </c>
@@ -5024,20 +5487,20 @@
       <c r="C40" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="67" t="s">
+      <c r="D40" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="E40" s="68" t="s">
+      <c r="E40" s="66" t="s">
         <v>11</v>
       </c>
       <c r="F40" s="38" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="G40" s="21">
         <v>21</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="I40" s="40" t="s">
         <v>14</v>
@@ -5049,17 +5512,23 @@
         <v>166</v>
       </c>
       <c r="L40" s="37" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
-      <c r="P40" s="50"/>
+      <c r="P40" s="49"/>
       <c r="Q40" s="34"/>
-    </row>
-    <row r="41" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R40" s="19">
+        <v>1</v>
+      </c>
+      <c r="S40" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="12">
         <v>1</v>
       </c>
@@ -5091,7 +5560,7 @@
       <c r="K41" s="21">
         <v>180</v>
       </c>
-      <c r="L41" s="37" t="s">
+      <c r="L41" s="3" t="s">
         <v>56</v>
       </c>
       <c r="M41" s="2" t="s">
@@ -5099,19 +5568,25 @@
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="41" t="s">
-        <v>58</v>
+      <c r="P41" s="71" t="s">
+        <v>251</v>
       </c>
       <c r="Q41" s="34" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R41" s="19">
+        <v>2</v>
+      </c>
+      <c r="S41" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="33">
         <v>1</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C42" s="21" t="s">
         <v>10</v>
@@ -5123,13 +5598,13 @@
         <v>37</v>
       </c>
       <c r="F42" s="38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G42" s="21">
         <v>20</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I42" s="40" t="s">
         <v>14</v>
@@ -5140,22 +5615,28 @@
       <c r="K42" s="21">
         <v>240</v>
       </c>
-      <c r="L42" s="50" t="s">
-        <v>232</v>
+      <c r="L42" s="49" t="s">
+        <v>219</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q42" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="Q42" s="21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R42" s="19">
+        <v>3</v>
+      </c>
+      <c r="S42" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="42">
         <v>1</v>
       </c>
@@ -5181,7 +5662,7 @@
         <v>12</v>
       </c>
       <c r="I43" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J43" s="21">
         <v>30</v>
@@ -5190,23 +5671,29 @@
         <v>120</v>
       </c>
       <c r="L43" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="M43" s="53"/>
+      <c r="N43" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="O43" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="M43" s="54" t="s">
+      <c r="P43" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="P43" s="38" t="s">
-        <v>87</v>
-      </c>
       <c r="Q43" s="34" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="48" thickBot="1" x14ac:dyDescent="0.45">
+        <v>72</v>
+      </c>
+      <c r="R43" s="19">
+        <v>1</v>
+      </c>
+      <c r="S43" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="48" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="42">
         <v>6</v>
       </c>
@@ -5223,41 +5710,47 @@
         <v>44</v>
       </c>
       <c r="F44" s="43" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G44" s="44">
         <v>8</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I44" s="40" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J44" s="21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K44" s="21">
         <v>140</v>
       </c>
       <c r="L44" s="15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="P44" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q44" s="61" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="353.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>157</v>
+      </c>
+      <c r="P44" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q44" s="59" t="s">
+        <v>145</v>
+      </c>
+      <c r="R44" s="19">
+        <v>1</v>
+      </c>
+      <c r="S44" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="353.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="42">
         <v>9</v>
       </c>
@@ -5280,48 +5773,87 @@
         <v>16</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="I45" s="65" t="s">
-        <v>181</v>
+        <v>146</v>
+      </c>
+      <c r="I45" s="63" t="s">
+        <v>176</v>
       </c>
       <c r="J45" s="21" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="K45" s="21">
         <v>105</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P45" s="64" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q45" s="61" t="s">
-        <v>185</v>
+      <c r="P45" s="62" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q45" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="R45" s="19">
+        <v>1</v>
+      </c>
+      <c r="S45" s="19" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:Q45" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}"/>
   <conditionalFormatting sqref="M1:M22 M25:M1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M23">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M24">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4">
+    <cfRule type="duplicateValues" dxfId="29" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="28" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6">
+    <cfRule type="duplicateValues" dxfId="27" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="26" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14">
+    <cfRule type="duplicateValues" dxfId="25" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16">
+    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N17">
+    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N18">
+    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N43">
+    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O29">
+    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O36">
+    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="M3 M17" numberStoredAsText="1"/>
+    <ignoredError sqref="M3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -5341,19 +5873,19 @@
         <v>4</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G1" s="28">
         <v>21</v>
@@ -5362,29 +5894,29 @@
         <v>22</v>
       </c>
       <c r="I1" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="K1" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="M1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="N1" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="47" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q1" s="28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -5392,19 +5924,19 @@
         <v>4</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G2" s="28">
         <v>21</v>
@@ -5413,29 +5945,29 @@
         <v>22</v>
       </c>
       <c r="I2" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="J2" s="28" t="s">
-        <v>114</v>
-      </c>
       <c r="K2" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="N2" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="47" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q2" s="28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -5446,45 +5978,45 @@
         <v>38</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G3" s="28">
         <v>22</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J3" s="28">
         <v>25</v>
       </c>
       <c r="K3" s="30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L3" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="47" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -5495,45 +6027,45 @@
         <v>38</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G4" s="28">
         <v>22</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J4" s="28">
         <v>25</v>
       </c>
       <c r="K4" s="30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L4" s="31" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="47" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q4" s="32" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -5544,79 +6076,91 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
     <col min="6" max="6" width="26.28515625" customWidth="1"/>
     <col min="8" max="8" width="21.7109375" customWidth="1"/>
     <col min="9" max="9" width="20.5703125" customWidth="1"/>
     <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="78.85546875" style="57" customWidth="1"/>
+    <col min="12" max="12" width="78.85546875" style="56" customWidth="1"/>
     <col min="13" max="13" width="28.5703125" customWidth="1"/>
     <col min="14" max="14" width="27.28515625" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.42578125" customWidth="1"/>
+    <col min="17" max="17" width="17" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="145.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="60" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:19" s="75" customFormat="1" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="60" t="s">
-        <v>229</v>
-      </c>
-      <c r="D1" s="60" t="s">
-        <v>228</v>
-      </c>
-      <c r="E1" s="60" t="s">
-        <v>230</v>
-      </c>
-      <c r="F1" s="60" t="s">
+      <c r="C1" s="76" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1" s="76" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="M1" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="60" t="s">
+      <c r="N1" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="60" t="s">
+      <c r="O1" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="60" t="s">
+      <c r="P1" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="60" t="s">
+      <c r="Q1" s="76" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R1" s="76" t="s">
+        <v>249</v>
+      </c>
+      <c r="S1" s="76" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="32.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -5626,7 +6170,7 @@
       <c r="C2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="65" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="15" t="s">
@@ -5641,7 +6185,7 @@
       <c r="H2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="57" t="s">
         <v>50</v>
       </c>
       <c r="J2" s="15">
@@ -5664,57 +6208,69 @@
       <c r="Q2" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R2" s="19">
+        <v>2</v>
+      </c>
+      <c r="S2" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12">
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="65" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G3" s="15">
         <v>20</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I3" s="16" t="s">
         <v>14</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K3" s="15">
         <v>240</v>
       </c>
       <c r="L3" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="14" t="s">
+      <c r="P3" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="Q3" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R3" s="19">
+        <v>3</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -5724,7 +6280,7 @@
       <c r="C4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="65" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="15" t="s">
@@ -5740,7 +6296,7 @@
         <v>12</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J4" s="15">
         <v>10</v>
@@ -5748,24 +6304,30 @@
       <c r="K4" s="15">
         <v>120</v>
       </c>
-      <c r="L4" s="56" t="s">
+      <c r="L4" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M4" s="54" t="s">
-        <v>236</v>
-      </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="72" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q4" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="P4" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R4" s="19">
+        <v>1</v>
+      </c>
+      <c r="S4" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -5775,10 +6337,10 @@
       <c r="C5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="66" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="14" t="s">
@@ -5791,7 +6353,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J5" s="15">
         <v>10</v>
@@ -5800,19 +6362,25 @@
         <v>240</v>
       </c>
       <c r="L5" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" s="54" t="s">
-        <v>235</v>
-      </c>
-      <c r="N5" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53" t="s">
+        <v>222</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" s="17"/>
       <c r="Q5" s="34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>74</v>
+      </c>
+      <c r="R5" s="19">
+        <v>1</v>
+      </c>
+      <c r="S5" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="12">
         <v>1</v>
       </c>
@@ -5822,10 +6390,10 @@
       <c r="C6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="68" t="s">
+      <c r="E6" s="66" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="14" t="s">
@@ -5838,7 +6406,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J6" s="15">
         <v>10</v>
@@ -5847,19 +6415,25 @@
         <v>360</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="M6" s="54" t="s">
-        <v>240</v>
-      </c>
-      <c r="N6" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53" t="s">
+        <v>227</v>
+      </c>
       <c r="O6" s="2"/>
       <c r="P6" s="17"/>
       <c r="Q6" s="34" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+      <c r="R6" s="19">
+        <v>1</v>
+      </c>
+      <c r="S6" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="12">
         <v>9</v>
       </c>
@@ -5869,10 +6443,10 @@
       <c r="C7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="E7" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="14" t="s">
@@ -5882,33 +6456,39 @@
         <v>16</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I7" s="45" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K7" s="15">
         <v>105</v>
       </c>
-      <c r="L7" s="56" t="s">
-        <v>179</v>
+      <c r="L7" s="55" t="s">
+        <v>257</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="P7" s="63" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q7" s="59" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>175</v>
+      </c>
+      <c r="P7" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q7" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="R7" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="S7" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="12">
         <v>2</v>
       </c>
@@ -5918,14 +6498,14 @@
       <c r="C8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="65" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G8" s="15">
         <v>8</v>
@@ -5934,7 +6514,7 @@
         <v>19</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J8" s="15" t="s">
         <v>28</v>
@@ -5943,23 +6523,27 @@
         <v>120</v>
       </c>
       <c r="L8" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q8" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="54" t="s">
-        <v>243</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="P8" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q8" s="19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R8" s="19">
+        <v>1</v>
+      </c>
+      <c r="S8" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="12">
         <v>2</v>
       </c>
@@ -5969,14 +6553,14 @@
       <c r="C9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="65" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G9" s="15">
         <v>8</v>
@@ -5985,7 +6569,7 @@
         <v>18</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J9" s="15" t="s">
         <v>28</v>
@@ -5994,26 +6578,32 @@
         <v>120</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="O9" s="2"/>
-      <c r="P9" s="14" t="s">
-        <v>98</v>
+      <c r="P9" s="72" t="s">
+        <v>96</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>97</v>
+      </c>
+      <c r="R9" s="19">
+        <v>1</v>
+      </c>
+      <c r="S9" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="25">
         <v>3</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>20</v>
@@ -6025,7 +6615,7 @@
         <v>21</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G10" s="15">
         <v>34</v>
@@ -6037,27 +6627,33 @@
         <v>43</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K10" s="15">
         <v>180</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="18"/>
       <c r="Q10" s="19" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>243</v>
+      </c>
+      <c r="R10" s="19">
+        <v>2</v>
+      </c>
+      <c r="S10" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="12">
         <v>3</v>
       </c>
@@ -6074,7 +6670,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G11" s="15">
         <v>34</v>
@@ -6083,28 +6679,34 @@
         <v>24</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>261</v>
+        <v>43</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K11" s="15">
         <v>150</v>
       </c>
-      <c r="L11" s="17" t="s">
-        <v>104</v>
+      <c r="L11" s="55" t="s">
+        <v>102</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="18"/>
       <c r="Q11" s="19" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="174.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>247</v>
+      </c>
+      <c r="R11" s="19">
+        <v>2</v>
+      </c>
+      <c r="S11" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="174.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="12">
         <v>3</v>
       </c>
@@ -6121,39 +6723,45 @@
         <v>21</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G12" s="15">
         <v>34</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I12" s="16" t="s">
         <v>43</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K12" s="19">
         <v>180</v>
       </c>
-      <c r="L12" s="56" t="s">
-        <v>252</v>
+      <c r="L12" s="55" t="s">
+        <v>238</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="18"/>
-      <c r="Q12" s="59" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="243" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="Q12" s="58" t="s">
+        <v>237</v>
+      </c>
+      <c r="R12" s="19">
+        <v>1</v>
+      </c>
+      <c r="S12" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="243" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="12">
         <v>3</v>
       </c>
@@ -6170,39 +6778,45 @@
         <v>21</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G13" s="15">
         <v>34</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K13" s="19">
         <v>60</v>
       </c>
-      <c r="L13" s="70" t="s">
-        <v>258</v>
+      <c r="L13" s="67" t="s">
+        <v>244</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="71" t="s">
-        <v>110</v>
+      <c r="P13" s="68" t="s">
+        <v>108</v>
       </c>
       <c r="Q13" s="19" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>245</v>
+      </c>
+      <c r="R13" s="19">
+        <v>2</v>
+      </c>
+      <c r="S13" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="25">
         <v>5</v>
       </c>
@@ -6212,23 +6826,23 @@
       <c r="C14" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="67" t="s">
+      <c r="D14" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="68" t="s">
+      <c r="E14" s="66" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G14" s="28">
         <v>16</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>137</v>
+        <v>134</v>
+      </c>
+      <c r="I14" s="69" t="s">
+        <v>135</v>
       </c>
       <c r="J14" s="28">
         <v>14</v>
@@ -6236,20 +6850,26 @@
       <c r="K14" s="28">
         <v>85</v>
       </c>
-      <c r="L14" s="47" t="s">
-        <v>138</v>
+      <c r="L14" s="70" t="s">
+        <v>136</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="28" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="P14" s="52"/>
+      <c r="Q14" s="69" t="s">
+        <v>255</v>
+      </c>
+      <c r="R14" s="19">
+        <v>1</v>
+      </c>
+      <c r="S14" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="12">
         <v>6</v>
       </c>
@@ -6266,7 +6886,7 @@
         <v>21</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G15" s="15">
         <v>8</v>
@@ -6274,33 +6894,39 @@
       <c r="H15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="58" t="s">
-        <v>245</v>
+      <c r="I15" s="57" t="s">
+        <v>231</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K15" s="15">
         <v>140</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P15" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q15" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="O15" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="P15" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q15" s="19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R15" s="19">
+        <v>1</v>
+      </c>
+      <c r="S15" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="12">
         <v>6</v>
       </c>
@@ -6310,48 +6936,54 @@
       <c r="C16" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="67" t="s">
+      <c r="D16" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="68" t="s">
+      <c r="E16" s="66" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G16" s="15">
         <v>8</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="I16" s="58" t="s">
-        <v>245</v>
+        <v>146</v>
+      </c>
+      <c r="I16" s="57" t="s">
+        <v>231</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K16" s="15">
         <v>140</v>
       </c>
       <c r="L16" s="14" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="P16" s="52" t="s">
-        <v>147</v>
+        <v>150</v>
+      </c>
+      <c r="P16" s="51" t="s">
+        <v>144</v>
       </c>
       <c r="Q16" s="19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="R16" s="19">
+        <v>1</v>
+      </c>
+      <c r="S16" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="213" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="12">
         <v>6</v>
       </c>
@@ -6361,23 +6993,23 @@
       <c r="C17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="67" t="s">
+      <c r="D17" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="68" t="s">
+      <c r="E17" s="66" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G17" s="15">
         <v>8</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="I17" s="58" t="s">
-        <v>246</v>
+        <v>146</v>
+      </c>
+      <c r="I17" s="57" t="s">
+        <v>232</v>
       </c>
       <c r="J17" s="15" t="s">
         <v>28</v>
@@ -6386,23 +7018,29 @@
         <v>140</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P17" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q17" s="59" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="Q17" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="R17" s="19">
+        <v>1</v>
+      </c>
+      <c r="S17" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="12">
         <v>7</v>
       </c>
@@ -6412,14 +7050,14 @@
       <c r="C18" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="67" t="s">
+      <c r="D18" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="68" t="s">
+      <c r="E18" s="66" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G18" s="15">
         <v>17</v>
@@ -6428,7 +7066,7 @@
         <v>30</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J18" s="15" t="s">
         <v>28</v>
@@ -6437,38 +7075,44 @@
         <v>120</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>248</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>234</v>
+      </c>
       <c r="P18" s="18"/>
-      <c r="Q18" s="19" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="Q18" s="58" t="s">
+        <v>253</v>
+      </c>
+      <c r="R18" s="19">
+        <v>3</v>
+      </c>
+      <c r="S18" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="108" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="12">
         <v>8</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="67" t="s">
+      <c r="D19" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="68" t="s">
+      <c r="E19" s="66" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G19" s="15">
         <v>16</v>
@@ -6480,29 +7124,35 @@
         <v>43</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K19" s="15">
         <v>85</v>
       </c>
-      <c r="L19" s="49" t="s">
-        <v>167</v>
+      <c r="L19" s="73" t="s">
+        <v>163</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="14" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Q19" s="19" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>167</v>
+      </c>
+      <c r="R19" s="19">
+        <v>2</v>
+      </c>
+      <c r="S19" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="33">
         <v>9</v>
       </c>
@@ -6512,10 +7162,10 @@
       <c r="C20" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="67" t="s">
+      <c r="D20" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="68" t="s">
+      <c r="E20" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="14" t="s">
@@ -6525,33 +7175,39 @@
         <v>16</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I20" s="45" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K20" s="15">
         <v>105</v>
       </c>
-      <c r="L20" s="56" t="s">
-        <v>174</v>
+      <c r="L20" s="55" t="s">
+        <v>170</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="P20" s="62" t="s">
-        <v>176</v>
+        <v>171</v>
+      </c>
+      <c r="P20" s="60" t="s">
+        <v>172</v>
       </c>
       <c r="Q20" s="19" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>173</v>
+      </c>
+      <c r="R20" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="S20" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="12">
         <v>10</v>
       </c>
@@ -6561,46 +7217,52 @@
       <c r="C21" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="68" t="s">
+      <c r="E21" s="66" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G21" s="15">
         <v>12</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K21" s="15">
         <v>100</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="P21" s="43" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="Q21" s="21" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>186</v>
+      </c>
+      <c r="R21" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="S21" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="12">
         <v>10</v>
       </c>
@@ -6610,46 +7272,52 @@
       <c r="C22" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="67" t="s">
+      <c r="D22" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="68" t="s">
+      <c r="E22" s="66" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G22" s="36">
         <v>12</v>
       </c>
-      <c r="H22" s="36" t="s">
-        <v>187</v>
+      <c r="H22" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="I22" s="46" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K22" s="36">
         <v>360</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="P22" s="37" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="Q22" s="21" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>186</v>
+      </c>
+      <c r="R22" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="S22" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="12">
         <v>10</v>
       </c>
@@ -6659,46 +7327,52 @@
       <c r="C23" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="67" t="s">
+      <c r="D23" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="68" t="s">
+      <c r="E23" s="66" t="s">
         <v>11</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G23" s="21">
         <v>12</v>
       </c>
-      <c r="H23" s="21" t="s">
-        <v>187</v>
+      <c r="H23" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="I23" s="40" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="K23" s="21">
         <v>100</v>
       </c>
       <c r="L23" s="37" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="P23" s="38" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="Q23" s="21" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>186</v>
+      </c>
+      <c r="R23" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="S23" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="12">
         <v>10</v>
       </c>
@@ -6708,46 +7382,52 @@
       <c r="C24" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="67" t="s">
+      <c r="D24" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="68" t="s">
+      <c r="E24" s="66" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G24" s="21">
         <v>12</v>
       </c>
-      <c r="H24" s="21" t="s">
-        <v>187</v>
+      <c r="H24" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="I24" s="40" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="K24" s="21">
         <v>360</v>
       </c>
       <c r="L24" s="37" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="P24" s="38" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="Q24" s="21" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>186</v>
+      </c>
+      <c r="R24" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="S24" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="168" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="12">
         <v>11</v>
       </c>
@@ -6764,39 +7444,47 @@
         <v>21</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G25" s="34">
         <v>40</v>
       </c>
-      <c r="H25" s="21" t="s">
-        <v>201</v>
+      <c r="H25" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="I25" s="39" t="s">
         <v>14</v>
       </c>
       <c r="J25" s="34" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="K25" s="34">
         <v>90</v>
       </c>
       <c r="L25" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>234</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>221</v>
+      </c>
       <c r="P25" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q25" s="34"/>
-    </row>
-    <row r="26" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>197</v>
+      </c>
+      <c r="Q25" s="59" t="s">
+        <v>254</v>
+      </c>
+      <c r="R25" s="19">
+        <v>2</v>
+      </c>
+      <c r="S25" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="246" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="12">
         <v>12</v>
       </c>
@@ -6806,10 +7494,10 @@
       <c r="C26" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="67" t="s">
+      <c r="D26" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="68" t="s">
+      <c r="E26" s="66" t="s">
         <v>11</v>
       </c>
       <c r="F26" s="41"/>
@@ -6817,10 +7505,10 @@
         <v>19</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="I26" s="40" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="J26" s="21">
         <v>15</v>
@@ -6828,24 +7516,28 @@
       <c r="K26" s="21">
         <v>225</v>
       </c>
-      <c r="L26" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="O26" s="2"/>
-      <c r="P26" s="50" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q26" s="21" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L26" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="P26" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q26" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="R26" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="S26" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="213" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="12">
         <v>12</v>
       </c>
@@ -6855,14 +7547,14 @@
       <c r="C27" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="67" t="s">
+      <c r="D27" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="68" t="s">
+      <c r="E27" s="66" t="s">
         <v>11</v>
       </c>
       <c r="F27" s="38" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="G27" s="21">
         <v>19</v>
@@ -6871,7 +7563,7 @@
         <v>12</v>
       </c>
       <c r="I27" s="40" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="J27" s="21">
         <v>15</v>
@@ -6880,21 +7572,25 @@
         <v>172</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>217</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
-      <c r="P27" s="66" t="s">
-        <v>218</v>
+      <c r="P27" s="64" t="s">
+        <v>206</v>
       </c>
       <c r="Q27" s="34"/>
-    </row>
-    <row r="28" spans="1:17" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R27" s="19">
+        <v>1</v>
+      </c>
+      <c r="S27" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="12">
         <v>12</v>
       </c>
@@ -6904,23 +7600,23 @@
       <c r="C28" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="67" t="s">
+      <c r="D28" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="68" t="s">
+      <c r="E28" s="66" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="38" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="G28" s="21">
         <v>21</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="I28" s="40" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="J28" s="21">
         <v>15</v>
@@ -6928,20 +7624,26 @@
       <c r="K28" s="21">
         <v>153</v>
       </c>
-      <c r="L28" s="51" t="s">
-        <v>221</v>
+      <c r="L28" s="50" t="s">
+        <v>209</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="3" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="Q28" s="34"/>
-    </row>
-    <row r="29" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R28" s="19">
+        <v>1</v>
+      </c>
+      <c r="S28" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="12">
         <v>12</v>
       </c>
@@ -6951,20 +7653,20 @@
       <c r="C29" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="67" t="s">
+      <c r="D29" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="68" t="s">
+      <c r="E29" s="66" t="s">
         <v>11</v>
       </c>
       <c r="F29" s="38" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="G29" s="21">
         <v>21</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="I29" s="40" t="s">
         <v>14</v>
@@ -6976,40 +7678,65 @@
         <v>166</v>
       </c>
       <c r="L29" s="37" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
-      <c r="P29" s="50"/>
+      <c r="P29" s="49"/>
       <c r="Q29" s="34"/>
+      <c r="R29" s="19">
+        <v>1</v>
+      </c>
+      <c r="S29" s="19" t="s">
+        <v>250</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:Q29" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="M1 M30:M1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+  <conditionalFormatting sqref="M30:M1048576">
+    <cfRule type="duplicateValues" dxfId="18" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M17 M19:M29">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+  <conditionalFormatting sqref="M30:N1048576">
+    <cfRule type="duplicateValues" dxfId="17" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M18">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  <conditionalFormatting sqref="M14:M29 M2:M11">
+    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:N1 M30:N1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  <conditionalFormatting sqref="N4">
+    <cfRule type="duplicateValues" dxfId="15" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="14" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6">
+    <cfRule type="duplicateValues" dxfId="13" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12">
+    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13">
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18">
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O25">
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B5538A5-2CE0-400F-BF9C-B504D5DC3739}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView zoomScale="69" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="J1" zoomScale="69" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7024,7 +7751,7 @@
     <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>46</v>
       </c>
@@ -7032,13 +7759,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>36</v>
@@ -7067,17 +7794,23 @@
       <c r="N1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R1" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -7103,7 +7836,7 @@
         <v>12</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J2" s="15">
         <v>20</v>
@@ -7112,19 +7845,25 @@
         <v>240</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="M2" s="54" t="s">
-        <v>238</v>
-      </c>
-      <c r="N2" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53" t="s">
+        <v>225</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" s="17"/>
       <c r="Q2" s="34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>74</v>
+      </c>
+      <c r="R2" s="19">
+        <v>1</v>
+      </c>
+      <c r="S2" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -7170,13 +7909,19 @@
       <c r="Q3" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R3" s="19">
+        <v>2</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="12">
         <v>1</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>10</v>
@@ -7188,39 +7933,45 @@
         <v>44</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4" s="15">
         <v>20</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I4" s="16" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K4" s="15">
         <v>240</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q4" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="Q4" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R4" s="19">
+        <v>3</v>
+      </c>
+      <c r="S4" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -7246,7 +7997,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J5" s="15">
         <v>20</v>
@@ -7255,23 +8006,29 @@
         <v>120</v>
       </c>
       <c r="L5" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="M5" s="54" t="s">
-        <v>237</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="P5" s="17" t="s">
-        <v>81</v>
-      </c>
       <c r="Q5" s="19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>72</v>
+      </c>
+      <c r="R5" s="19">
+        <v>1</v>
+      </c>
+      <c r="S5" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="12">
         <v>1</v>
       </c>
@@ -7297,7 +8054,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J6" s="15">
         <v>20</v>
@@ -7306,19 +8063,25 @@
         <v>360</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="M6" s="54" t="s">
-        <v>241</v>
-      </c>
-      <c r="N6" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53" t="s">
+        <v>228</v>
+      </c>
       <c r="O6" s="2"/>
       <c r="P6" s="17"/>
       <c r="Q6" s="19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+      <c r="R6" s="19">
+        <v>1</v>
+      </c>
+      <c r="S6" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="213" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="42">
         <v>6</v>
       </c>
@@ -7335,41 +8098,47 @@
         <v>44</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G7" s="44">
         <v>8</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I7" s="40" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K7" s="21">
         <v>140</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="P7" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q7" s="61" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>157</v>
+      </c>
+      <c r="P7" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q7" s="59" t="s">
+        <v>145</v>
+      </c>
+      <c r="R7" s="19">
+        <v>1</v>
+      </c>
+      <c r="S7" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="42">
         <v>9</v>
       </c>
@@ -7392,37 +8161,52 @@
         <v>16</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="I8" s="65" t="s">
-        <v>181</v>
+        <v>146</v>
+      </c>
+      <c r="I8" s="63" t="s">
+        <v>176</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="K8" s="21">
         <v>105</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P8" s="64" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q8" s="61" t="s">
-        <v>185</v>
+      <c r="P8" s="62" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q8" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="R8" s="19">
+        <v>1</v>
+      </c>
+      <c r="S8" s="19" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="N2">
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6">
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M2:M8">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="20"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7430,10 +8214,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B928E5-8912-4A3C-9609-DB7127AEEA71}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7442,7 +8226,7 @@
     <col min="14" max="14" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>46</v>
       </c>
@@ -7450,13 +8234,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>36</v>
@@ -7494,8 +8278,14 @@
       <c r="Q1" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R1" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -7521,7 +8311,7 @@
         <v>12</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J2" s="15">
         <v>30</v>
@@ -7530,19 +8320,25 @@
         <v>240</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="M2" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="N2" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53" t="s">
+        <v>226</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" s="14"/>
       <c r="Q2" s="19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>74</v>
+      </c>
+      <c r="R2" s="19">
+        <v>1</v>
+      </c>
+      <c r="S2" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="189" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -7568,7 +8364,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J3" s="15">
         <v>30</v>
@@ -7576,20 +8372,26 @@
       <c r="K3" s="15">
         <v>360</v>
       </c>
-      <c r="L3" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="M3" s="54" t="s">
-        <v>242</v>
-      </c>
-      <c r="N3" s="2"/>
+      <c r="L3" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53" t="s">
+        <v>229</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+      <c r="R3" s="19">
+        <v>1</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -7621,7 +8423,7 @@
       <c r="K4" s="21">
         <v>180</v>
       </c>
-      <c r="L4" s="37" t="s">
+      <c r="L4" s="3" t="s">
         <v>56</v>
       </c>
       <c r="M4" s="2" t="s">
@@ -7629,19 +8431,25 @@
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="41" t="s">
-        <v>58</v>
+      <c r="P4" s="71" t="s">
+        <v>251</v>
       </c>
       <c r="Q4" s="34" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R4" s="19">
+        <v>2</v>
+      </c>
+      <c r="S4" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="33">
         <v>1</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>10</v>
@@ -7653,13 +8461,13 @@
         <v>37</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G5" s="21">
         <v>20</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I5" s="40" t="s">
         <v>14</v>
@@ -7670,22 +8478,28 @@
       <c r="K5" s="21">
         <v>240</v>
       </c>
-      <c r="L5" s="50" t="s">
-        <v>232</v>
+      <c r="L5" s="49" t="s">
+        <v>219</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-      <c r="P5" s="69" t="s">
+      <c r="P5" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q5" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="Q5" s="21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R5" s="19">
+        <v>3</v>
+      </c>
+      <c r="S5" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="42">
         <v>1</v>
       </c>
@@ -7711,7 +8525,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J6" s="21">
         <v>30</v>
@@ -7720,24 +8534,39 @@
         <v>120</v>
       </c>
       <c r="L6" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="M6" s="54" t="s">
+      <c r="P6" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="P6" s="38" t="s">
-        <v>87</v>
-      </c>
       <c r="Q6" s="34" t="s">
-        <v>74</v>
+        <v>72</v>
+      </c>
+      <c r="R6" s="19">
+        <v>1</v>
+      </c>
+      <c r="S6" s="19" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="M2:M6">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Overview_Studies.xlsx
+++ b/Overview_Studies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f2d186216cf91ab/Bidlung/University/M.S. Leiden University/M.S. Neuroscience (Research)/Internship Groningen/GitHub_Multiverse_meta/MetaAnalysis-Psilo-Cognition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="318" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61738491-F295-40CE-B184-5F0411BB3EE9}"/>
+  <xr:revisionPtr revIDLastSave="448" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3B8237B-4164-450D-AD93-94AD400D8CF7}"/>
   <bookViews>
-    <workbookView xWindow="13770" yWindow="-21600" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12810" yWindow="-21600" windowWidth="34605" windowHeight="20985" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Low Dose'!$A$1:$Q$29</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overview!$A$1:$Q$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overview!$A$1:$U$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="266">
   <si>
     <t>CognitiveFunction</t>
   </si>
@@ -199,9 +199,6 @@
   </si>
   <si>
     <t>Medium</t>
-  </si>
-  <si>
-    <t>1.394512</t>
   </si>
   <si>
     <t>ID</t>
@@ -242,9 +239,6 @@
 10mg: 456.94, 553.83, 588.52
 </t>
     </r>
-  </si>
-  <si>
-    <t>0.9158515</t>
   </si>
   <si>
     <r>
@@ -384,9 +378,6 @@
     <t>(∆RT = 31.9 ms, z = 6.46, p &lt; 0.0001),</t>
   </si>
   <si>
-    <t>1.4445</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -414,9 +405,6 @@
   <si>
     <t xml:space="preserve">20
 </t>
-  </si>
-  <si>
-    <t>2.086251</t>
   </si>
   <si>
     <t>2.531229</t>
@@ -1916,9 +1904,6 @@
     <t>0.7581123</t>
   </si>
   <si>
-    <t>only included ACC of NoGo trials</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 Table S3: (Mean; SEM; SD)
 Placebo: 
@@ -2040,6 +2025,51 @@
     </r>
   </si>
   <si>
+    <t>(-) Since accuracy is inherently the complement of error rates (accuracy = 1 - error rate), we calculated Cohen's d based on the error rates. To align our interpretation with conventional standards where higher scores denote greater accuracy, we multiplied the calculated Cohen's d for error rates by -1. This adjustment ensures that our reported effect sizes are consistent and directly comparable to other measures of accuracy within our dataset
+Ef other = RT</t>
+  </si>
+  <si>
+    <t>only NoGo trials were included for the calcualtion of accuracy
+ES other = RT</t>
+  </si>
+  <si>
+    <t>(-)Authors report the measurement timepoint to be 75–95 min after drug ingestion. We used the average of these values (85min)
+(-) N = 8 in each group
+(-)Cohen's d was calculated using the differenc ein median RT between the valid and invalid trials. We used the differences between the psilocybin and placebo groups, averaged across left and right visual fields (LVF and RVF) for each stimulus onset asynchrony (SOA) condition. We then computed an overall Cohen's d representing the average effect across both SOA conditions.</t>
+  </si>
+  <si>
+    <t>-0.1969964</t>
+  </si>
+  <si>
+    <t>Q score (Acc):
+High dose (peak effect): d=-0.95</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>used immediate and not delayed version, to capture WM and not long term.
+Total correct/ total(60) = accuracy</t>
+  </si>
+  <si>
+    <t>-1,34</t>
+  </si>
+  <si>
+    <t>comment sensitivitý</t>
+  </si>
+  <si>
+    <t>1: RT 0b-2b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: difference with lag1, substract from each lag, then averages. </t>
+  </si>
+  <si>
+    <t>y, could do 1</t>
+  </si>
+  <si>
+    <t>Improve possible</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2060,8 +2090,8 @@
       </rPr>
       <t xml:space="preserve">
 ACC (in %) +1st and 3rd quartiles 
-10mgPre:98.4324(96.8649-100.00)
-10mgPost:98.5946(96.8649-100)
+10mgPre:98.4324(96.86-100)
+10mgPost:98.5946(96.86-100)
 </t>
     </r>
     <r>
@@ -2095,37 +2125,19 @@
     </r>
   </si>
   <si>
-    <t>(-) Since accuracy is inherently the complement of error rates (accuracy = 1 - error rate), we calculated Cohen's d based on the error rates. To align our interpretation with conventional standards where higher scores denote greater accuracy, we multiplied the calculated Cohen's d for error rates by -1. This adjustment ensures that our reported effect sizes are consistent and directly comparable to other measures of accuracy within our dataset
-Ef other = RT</t>
-  </si>
-  <si>
-    <t>only NoGo trials were included for the calcualtion of accuracy
-ES other = RT</t>
-  </si>
-  <si>
-    <t>(-)Authors report the measurement timepoint to be 75–95 min after drug ingestion. We used the average of these values (85min)
-(-) N = 8 in each group
-(-)Cohen's d was calculated using the differenc ein median RT between the valid and invalid trials. We used the differences between the psilocybin and placebo groups, averaged across left and right visual fields (LVF and RVF) for each stimulus onset asynchrony (SOA) condition. We then computed an overall Cohen's d representing the average effect across both SOA conditions.</t>
-  </si>
-  <si>
-    <t>-0.1969964</t>
-  </si>
-  <si>
-    <t>Q score (Acc):
-High dose (peak effect): d=-0.95</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>used immediate and not delayed version, to capture WM and not long term.
-Total correct/ total(60) = accuracy</t>
-  </si>
-  <si>
-    <t>-1,34</t>
-  </si>
-  <si>
-    <t>comment sensitivitý</t>
+    <t>1.444</t>
+  </si>
+  <si>
+    <t>0.915</t>
+  </si>
+  <si>
+    <t>1.395</t>
+  </si>
+  <si>
+    <t>2.0862</t>
+  </si>
+  <si>
+    <t>only included  NoGo trials</t>
   </si>
 </sst>
 </file>
@@ -2135,7 +2147,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2206,15 +2218,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2269,14 +2274,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -2461,12 +2460,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2609,9 +2628,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2625,7 +2641,6 @@
     <xf numFmtId="43" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2686,10 +2701,25 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2697,7 +2727,207 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="53">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3318,45 +3548,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}">
-  <dimension ref="A1:S45"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="86" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="86" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="27.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" customWidth="1"/>
-    <col min="12" max="12" width="38" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
     <col min="14" max="14" width="17.5703125" customWidth="1"/>
-    <col min="15" max="15" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="32.140625" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" customWidth="1"/>
+    <col min="16" max="16" width="20.28515625" customWidth="1"/>
     <col min="17" max="17" width="32.42578125" customWidth="1"/>
     <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28" customWidth="1"/>
+    <col min="19" max="19" width="28" style="75" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="75"/>
+    <col min="21" max="21" width="18.28515625" style="75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>36</v>
@@ -3371,13 +3605,13 @@
         <v>7</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>3</v>
@@ -3395,13 +3629,17 @@
         <v>9</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>261</v>
+        <v>244</v>
+      </c>
+      <c r="S1" s="73" t="s">
+        <v>255</v>
+      </c>
+      <c r="T1" s="54"/>
+      <c r="U1" s="74" t="s">
+        <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="46.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:22" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -3411,14 +3649,14 @@
       <c r="C2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="63" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2" s="15">
         <v>19</v>
@@ -3426,8 +3664,8 @@
       <c r="H2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="57" t="s">
-        <v>50</v>
+      <c r="I2" s="55" t="s">
+        <v>49</v>
       </c>
       <c r="J2" s="15">
         <v>10</v>
@@ -3435,83 +3673,89 @@
       <c r="K2" s="15">
         <v>180</v>
       </c>
-      <c r="L2" s="17" t="s">
-        <v>51</v>
+      <c r="L2" s="53" t="s">
+        <v>50</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>52</v>
+        <v>262</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="18" t="s">
-        <v>53</v>
+      <c r="P2" s="66" t="s">
+        <v>51</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R2" s="19">
-        <v>2</v>
-      </c>
-      <c r="S2" s="19" t="s">
-        <v>250</v>
+        <v>1</v>
+      </c>
+      <c r="S2" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77" t="s">
+        <v>258</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="176.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:22" ht="276" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12">
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="63" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G3" s="15">
         <v>20</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I3" s="16" t="s">
         <v>14</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K3" s="15">
         <v>240</v>
       </c>
       <c r="L3" s="47" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>63</v>
+        <v>261</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="72" t="s">
-        <v>64</v>
+      <c r="P3" s="70" t="s">
+        <v>61</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R3" s="19">
         <v>3</v>
       </c>
-      <c r="S3" s="19" t="s">
-        <v>250</v>
-      </c>
+      <c r="S3" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
     </row>
-    <row r="4" spans="1:19" ht="306.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:22" ht="321.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -3521,7 +3765,7 @@
       <c r="C4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="63" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="15" t="s">
@@ -3537,7 +3781,7 @@
         <v>12</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J4" s="15">
         <v>10</v>
@@ -3545,30 +3789,32 @@
       <c r="K4" s="15">
         <v>120</v>
       </c>
-      <c r="L4" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53" t="s">
-        <v>223</v>
+      <c r="L4" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52" t="s">
+        <v>219</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="P4" s="72" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>72</v>
+        <v>67</v>
+      </c>
+      <c r="P4" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q4" s="56" t="s">
+        <v>68</v>
       </c>
       <c r="R4" s="19">
-        <v>1</v>
-      </c>
-      <c r="S4" s="19" t="s">
-        <v>250</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S4" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
     </row>
-    <row r="5" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -3578,10 +3824,10 @@
       <c r="C5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="64" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="14" t="s">
@@ -3594,7 +3840,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J5" s="15">
         <v>10</v>
@@ -3602,26 +3848,28 @@
       <c r="K5" s="15">
         <v>240</v>
       </c>
-      <c r="L5" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53" t="s">
-        <v>222</v>
+      <c r="L5" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52" t="s">
+        <v>218</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="17"/>
-      <c r="Q5" s="34" t="s">
-        <v>74</v>
+      <c r="Q5" s="57" t="s">
+        <v>70</v>
       </c>
       <c r="R5" s="19">
-        <v>1</v>
-      </c>
-      <c r="S5" s="19" t="s">
-        <v>250</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S5" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
     </row>
-    <row r="6" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="12">
         <v>1</v>
       </c>
@@ -3631,10 +3879,10 @@
       <c r="C6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="66" t="s">
+      <c r="E6" s="64" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="14" t="s">
@@ -3647,7 +3895,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J6" s="15">
         <v>10</v>
@@ -3656,25 +3904,27 @@
         <v>360</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53" t="s">
-        <v>227</v>
+        <v>71</v>
+      </c>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52" t="s">
+        <v>223</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="17"/>
       <c r="Q6" s="34" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="R6" s="19">
-        <v>1</v>
-      </c>
-      <c r="S6" s="19" t="s">
-        <v>250</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S6" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T6" s="77"/>
+      <c r="U6" s="77"/>
     </row>
-    <row r="7" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="12">
         <v>1</v>
       </c>
@@ -3700,7 +3950,7 @@
         <v>12</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J7" s="15">
         <v>20</v>
@@ -3709,349 +3959,369 @@
         <v>240</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53" t="s">
-        <v>225</v>
+        <v>76</v>
+      </c>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52" t="s">
+        <v>221</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="17"/>
       <c r="Q7" s="34" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="R7" s="19">
+        <v>3</v>
+      </c>
+      <c r="S7" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T7" s="77"/>
+      <c r="U7" s="77"/>
+    </row>
+    <row r="8" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="12">
         <v>1</v>
       </c>
-      <c r="S7" s="19" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="12">
-        <v>4</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="D8" s="28" t="s">
+      <c r="B8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E8" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="G8" s="28">
-        <v>21</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="J8" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="K8" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="L8" s="31" t="s">
-        <v>114</v>
+      <c r="F8" s="18"/>
+      <c r="G8" s="15">
+        <v>18</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="15">
+        <v>20</v>
+      </c>
+      <c r="K8" s="15">
+        <v>180</v>
+      </c>
+      <c r="L8" s="53" t="s">
+        <v>53</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>116</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q8" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19" t="s">
-        <v>250</v>
+      <c r="P8" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="R8" s="19">
+        <v>1</v>
+      </c>
+      <c r="S8" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T8" s="77" t="s">
+        <v>256</v>
+      </c>
+      <c r="U8" s="77" t="s">
+        <v>258</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="D9" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E9" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="G9" s="28">
-        <v>21</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="K9" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="L9" s="31" t="s">
-        <v>120</v>
+      <c r="F9" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="15">
+        <v>20</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="15">
+        <v>240</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>216</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>122</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q9" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19" t="s">
-        <v>250</v>
-      </c>
+      <c r="P9" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="R9" s="19">
+        <v>3</v>
+      </c>
+      <c r="S9" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T9" s="77"/>
+      <c r="U9" s="77"/>
     </row>
-    <row r="10" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="25">
-        <v>4</v>
+    <row r="10" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="12">
+        <v>1</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="D10" s="28" t="s">
+      <c r="C10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E10" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="G10" s="28">
-        <v>22</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="J10" s="28">
-        <v>25</v>
-      </c>
-      <c r="K10" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="L10" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q10" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19" t="s">
-        <v>250</v>
-      </c>
+      <c r="F10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="19">
+        <v>14</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="15">
+        <v>20</v>
+      </c>
+      <c r="K10" s="15">
+        <v>120</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="R10" s="19">
+        <v>3</v>
+      </c>
+      <c r="S10" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T10" s="77"/>
+      <c r="U10" s="77"/>
     </row>
-    <row r="11" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="25">
-        <v>4</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="G11" s="28">
-        <v>22</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="I11" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="J11" s="28">
-        <v>25</v>
-      </c>
-      <c r="K11" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="L11" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>132</v>
-      </c>
+    <row r="11" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="12">
+        <v>9</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="15">
+        <v>16</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="I11" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="K11" s="15">
+        <v>105</v>
+      </c>
+      <c r="L11" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q11" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19" t="s">
-        <v>250</v>
-      </c>
+      <c r="O11" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="P11" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q11" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="R11" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="S11" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T11" s="77"/>
+      <c r="U11" s="77"/>
     </row>
-    <row r="12" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="12">
         <v>1</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>13</v>
+      <c r="B12" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="28" t="s">
         <v>44</v>
       </c>
       <c r="E12" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="F12" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="G12" s="15">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="J12" s="15">
         <v>20</v>
       </c>
       <c r="K12" s="15">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52" t="s">
+        <v>224</v>
+      </c>
       <c r="O12" s="2"/>
-      <c r="P12" s="22" t="s">
-        <v>53</v>
-      </c>
+      <c r="P12" s="17"/>
       <c r="Q12" s="19" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="R12" s="19">
-        <v>2</v>
-      </c>
-      <c r="S12" s="19" t="s">
-        <v>250</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S12" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T12" s="77"/>
+      <c r="U12" s="77"/>
     </row>
-    <row r="13" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="12">
         <v>1</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>58</v>
+      <c r="B13" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>44</v>
+      <c r="D13" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>37</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="G13" s="15">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="J13" s="15">
+        <v>30</v>
       </c>
       <c r="K13" s="15">
         <v>240</v>
       </c>
-      <c r="L13" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="N13" s="2"/>
+      <c r="L13" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52" t="s">
+        <v>222</v>
+      </c>
       <c r="O13" s="2"/>
-      <c r="P13" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q13" s="15" t="s">
-        <v>65</v>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="R13" s="19">
         <v>3</v>
       </c>
-      <c r="S13" s="19" t="s">
-        <v>250</v>
-      </c>
+      <c r="S13" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T13" s="77"/>
+      <c r="U13" s="77"/>
     </row>
-    <row r="14" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="12">
         <v>1</v>
       </c>
@@ -4061,441 +4331,460 @@
       <c r="C14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>44</v>
+      <c r="D14" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>37</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="15">
         <v>14</v>
       </c>
       <c r="H14" s="15" t="s">
         <v>12</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J14" s="15">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K14" s="15">
-        <v>120</v>
-      </c>
-      <c r="L14" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53" t="s">
-        <v>224</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="P14" s="17" t="s">
-        <v>79</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="L14" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="15"/>
       <c r="Q14" s="19" t="s">
         <v>72</v>
       </c>
       <c r="R14" s="19">
-        <v>1</v>
-      </c>
-      <c r="S14" s="19" t="s">
-        <v>250</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S14" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T14" s="77"/>
+      <c r="U14" s="77"/>
     </row>
-    <row r="15" spans="1:19" ht="353.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="12">
-        <v>9</v>
-      </c>
-      <c r="B15" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="15">
+        <v>8</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="15">
+        <v>120</v>
+      </c>
+      <c r="L15" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="52" t="s">
+        <v>226</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q15" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="R15" s="19">
+        <v>2</v>
+      </c>
+      <c r="S15" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T15" s="77"/>
+      <c r="U15" s="77"/>
+      <c r="V15" s="76"/>
+    </row>
+    <row r="16" spans="1:22" ht="293.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="12">
+        <v>2</v>
+      </c>
+      <c r="B16" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="65" t="s">
+      <c r="C16" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E16" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="15">
-        <v>16</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="I15" s="45" t="s">
-        <v>168</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="K15" s="15">
-        <v>105</v>
-      </c>
-      <c r="L15" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="P15" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q15" s="58" t="s">
-        <v>173</v>
-      </c>
-      <c r="R15" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="S15" s="19" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="12">
-        <v>1</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>44</v>
-      </c>
       <c r="F16" s="14" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="G16" s="15">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="J16" s="15">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="K16" s="15">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53" t="s">
-        <v>228</v>
+        <v>91</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="O16" s="2"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="19" t="s">
-        <v>76</v>
+      <c r="P16" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q16" s="15" t="s">
+        <v>93</v>
       </c>
       <c r="R16" s="19">
         <v>1</v>
       </c>
-      <c r="S16" s="19" t="s">
-        <v>250</v>
-      </c>
+      <c r="S16" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T16" s="77"/>
+      <c r="U16" s="77"/>
     </row>
-    <row r="17" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="12">
-        <v>1</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>38</v>
+    <row r="17" spans="1:21" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="25">
+        <v>3</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>56</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>37</v>
+        <v>20</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="G17" s="15">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="J17" s="15">
-        <v>30</v>
+        <v>43</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>95</v>
       </c>
       <c r="K17" s="15">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53" t="s">
-        <v>226</v>
+        <v>96</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="O17" s="2"/>
-      <c r="P17" s="14"/>
+      <c r="P17" s="18"/>
       <c r="Q17" s="19" t="s">
-        <v>74</v>
+        <v>239</v>
       </c>
       <c r="R17" s="19">
-        <v>1</v>
-      </c>
-      <c r="S17" s="19" t="s">
-        <v>250</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S17" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T17" s="77"/>
+      <c r="U17" s="77"/>
     </row>
-    <row r="18" spans="1:19" ht="60.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:21" ht="288.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="12">
-        <v>1</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>38</v>
+        <v>3</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>23</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>37</v>
+        <v>20</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="G18" s="15">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="J18" s="15">
-        <v>30</v>
+        <v>43</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>95</v>
       </c>
       <c r="K18" s="15">
-        <v>360</v>
-      </c>
-      <c r="L18" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53" t="s">
-        <v>229</v>
+        <v>150</v>
+      </c>
+      <c r="L18" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="O18" s="2"/>
-      <c r="P18" s="15"/>
+      <c r="P18" s="18"/>
       <c r="Q18" s="19" t="s">
-        <v>76</v>
+        <v>265</v>
       </c>
       <c r="R18" s="19">
-        <v>1</v>
-      </c>
-      <c r="S18" s="19" t="s">
-        <v>250</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S18" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T18" s="77"/>
+      <c r="U18" s="77"/>
     </row>
-    <row r="19" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:21" ht="303" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="12">
-        <v>2</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>15</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="65" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="G19" s="15">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="15">
-        <v>120</v>
-      </c>
-      <c r="L19" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="53" t="s">
-        <v>230</v>
+        <v>95</v>
+      </c>
+      <c r="K19" s="19">
+        <v>180</v>
+      </c>
+      <c r="L19" s="53" t="s">
+        <v>234</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="O19" s="2"/>
-      <c r="P19" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q19" s="19" t="s">
-        <v>92</v>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="56" t="s">
+        <v>233</v>
       </c>
       <c r="R19" s="19">
         <v>1</v>
       </c>
-      <c r="S19" s="19" t="s">
-        <v>250</v>
+      <c r="S19" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T19" s="77" t="s">
+        <v>257</v>
+      </c>
+      <c r="U19" s="77">
+        <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="264" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:21" ht="108" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B20" s="24" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="15">
+        <v>34</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="K20" s="19">
+        <v>60</v>
+      </c>
+      <c r="L20" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q20" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="R20" s="19">
+        <v>2</v>
+      </c>
+      <c r="S20" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T20" s="77"/>
+      <c r="U20" s="77"/>
+    </row>
+    <row r="21" spans="1:21" ht="274.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="25">
+        <v>5</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="G21" s="28">
         <v>16</v>
       </c>
-      <c r="D20" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" s="15">
-        <v>8</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="15">
-        <v>120</v>
-      </c>
-      <c r="L20" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="O20" s="2"/>
-      <c r="P20" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q20" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="R20" s="19">
+      <c r="H21" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="I21" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="J21" s="28">
+        <v>14</v>
+      </c>
+      <c r="K21" s="28">
+        <v>85</v>
+      </c>
+      <c r="L21" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="R21" s="19">
         <v>1</v>
       </c>
-      <c r="S20" s="19" t="s">
-        <v>250</v>
-      </c>
+      <c r="S21" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T21" s="77"/>
+      <c r="U21" s="77"/>
     </row>
-    <row r="21" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="25">
-        <v>3</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G21" s="15">
-        <v>34</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="K21" s="15">
-        <v>180</v>
-      </c>
-      <c r="L21" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="O21" s="2"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="R21" s="19">
-        <v>2</v>
-      </c>
-      <c r="S21" s="19" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="174.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:21" ht="288.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="12">
-        <v>3</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>15</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>21</v>
@@ -4504,1357 +4793,1182 @@
         <v>21</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="G22" s="15">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>43</v>
+        <v>27</v>
+      </c>
+      <c r="I22" s="55" t="s">
+        <v>227</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="K22" s="15">
-        <v>150</v>
-      </c>
-      <c r="L22" s="55" t="s">
-        <v>102</v>
+        <v>140</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>137</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="O22" s="2"/>
-      <c r="P22" s="18"/>
+        <v>138</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P22" s="18" t="s">
+        <v>140</v>
+      </c>
       <c r="Q22" s="19" t="s">
-        <v>247</v>
+        <v>141</v>
       </c>
       <c r="R22" s="19">
         <v>2</v>
       </c>
-      <c r="S22" s="19" t="s">
-        <v>250</v>
-      </c>
+      <c r="S22" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T22" s="77"/>
+      <c r="U22" s="77"/>
     </row>
-    <row r="23" spans="1:19" ht="189" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:21" ht="288.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B23" s="24" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="D23" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="64" t="s">
+        <v>11</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="G23" s="15">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>43</v>
+        <v>142</v>
+      </c>
+      <c r="I23" s="55" t="s">
+        <v>227</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="K23" s="19">
-        <v>180</v>
-      </c>
-      <c r="L23" s="55" t="s">
-        <v>238</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>236</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="K23" s="15">
+        <v>140</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="O23" s="2"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="58" t="s">
-        <v>237</v>
+        <v>145</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="P23" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="19" t="s">
+        <v>141</v>
       </c>
       <c r="R23" s="19">
-        <v>1</v>
-      </c>
-      <c r="S23" s="19" t="s">
-        <v>250</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S23" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T23" s="77"/>
+      <c r="U23" s="77"/>
     </row>
-    <row r="24" spans="1:19" ht="63" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:21" ht="288.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B24" s="24" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="64" t="s">
+        <v>11</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="G24" s="15">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>107</v>
+        <v>142</v>
+      </c>
+      <c r="I24" s="55" t="s">
+        <v>228</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="K24" s="19">
-        <v>60</v>
-      </c>
-      <c r="L24" s="67" t="s">
-        <v>244</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="68" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q24" s="19" t="s">
-        <v>245</v>
+        <v>28</v>
+      </c>
+      <c r="K24" s="15">
+        <v>140</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="P24" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q24" s="56" t="s">
+        <v>141</v>
       </c>
       <c r="R24" s="19">
         <v>2</v>
       </c>
-      <c r="S24" s="19" t="s">
-        <v>250</v>
-      </c>
+      <c r="S24" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T24" s="77"/>
+      <c r="U24" s="77"/>
     </row>
-    <row r="25" spans="1:19" ht="274.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="25">
-        <v>5</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="65" t="s">
+    <row r="25" spans="1:21" ht="243" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="12">
+        <v>7</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="66" t="s">
+      <c r="E25" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="G25" s="28">
+      <c r="F25" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="G25" s="15">
+        <v>17</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="15">
+        <v>120</v>
+      </c>
+      <c r="L25" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="R25" s="19">
+        <v>3</v>
+      </c>
+      <c r="S25" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T25" s="77"/>
+      <c r="U25" s="77"/>
+    </row>
+    <row r="26" spans="1:21" ht="168" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="12">
+        <v>8</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="G26" s="15">
         <v>16</v>
       </c>
-      <c r="H25" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="I25" s="69" t="s">
-        <v>135</v>
-      </c>
-      <c r="J25" s="28">
-        <v>14</v>
-      </c>
-      <c r="K25" s="28">
+      <c r="H26" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="K26" s="15">
         <v>85</v>
       </c>
-      <c r="L25" s="70" t="s">
-        <v>136</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="69" t="s">
-        <v>255</v>
-      </c>
-      <c r="R25" s="19">
-        <v>1</v>
-      </c>
-      <c r="S25" s="19" t="s">
-        <v>250</v>
-      </c>
+      <c r="L26" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q26" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="R26" s="19">
+        <v>2</v>
+      </c>
+      <c r="S26" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T26" s="77"/>
+      <c r="U26" s="77"/>
     </row>
-    <row r="26" spans="1:19" ht="189" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="12">
-        <v>6</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="G26" s="15">
-        <v>8</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26" s="57" t="s">
-        <v>231</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="K26" s="15">
-        <v>140</v>
-      </c>
-      <c r="L26" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="P26" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q26" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="R26" s="19">
-        <v>1</v>
-      </c>
-      <c r="S26" s="19" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="189" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="12">
-        <v>6</v>
+    <row r="27" spans="1:21" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="33">
+        <v>9</v>
       </c>
       <c r="B27" s="24" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="66" t="s">
+      <c r="E27" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="G27" s="15">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="I27" s="57" t="s">
-        <v>231</v>
+        <v>142</v>
+      </c>
+      <c r="I27" s="45" t="s">
+        <v>164</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="K27" s="15">
-        <v>140</v>
-      </c>
-      <c r="L27" s="14" t="s">
-        <v>148</v>
+        <v>105</v>
+      </c>
+      <c r="L27" s="53" t="s">
+        <v>166</v>
       </c>
       <c r="M27" s="2"/>
-      <c r="N27" s="2" t="s">
-        <v>149</v>
-      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="P27" s="51" t="s">
-        <v>144</v>
+        <v>167</v>
+      </c>
+      <c r="P27" s="58" t="s">
+        <v>168</v>
       </c>
       <c r="Q27" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="R27" s="19">
-        <v>1</v>
-      </c>
-      <c r="S27" s="19" t="s">
-        <v>250</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="R27" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="S27" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T27" s="77"/>
+      <c r="U27" s="77"/>
     </row>
-    <row r="28" spans="1:19" ht="189" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:21" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="12">
-        <v>6</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="66" t="s">
+      <c r="E28" s="64" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="G28" s="15">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="I28" s="57" t="s">
-        <v>232</v>
+        <v>19</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>178</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="K28" s="15">
-        <v>140</v>
-      </c>
-      <c r="L28" s="17" t="s">
-        <v>151</v>
+        <v>100</v>
+      </c>
+      <c r="L28" s="53" t="s">
+        <v>179</v>
       </c>
       <c r="M28" s="2"/>
-      <c r="N28" s="2" t="s">
-        <v>152</v>
-      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="P28" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q28" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="R28" s="19">
-        <v>1</v>
-      </c>
-      <c r="S28" s="19" t="s">
-        <v>250</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="P28" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q28" s="72" t="s">
+        <v>182</v>
+      </c>
+      <c r="R28" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="S28" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T28" s="77"/>
+      <c r="U28" s="77"/>
     </row>
-    <row r="29" spans="1:19" ht="243" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:21" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="12">
-        <v>7</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="66" t="s">
+      <c r="E29" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="G29" s="15">
+      <c r="F29" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="G29" s="36">
+        <v>12</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="J29" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="K29" s="36">
+        <v>360</v>
+      </c>
+      <c r="L29" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="P29" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q29" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="R29" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="S29" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T29" s="77"/>
+      <c r="U29" s="77"/>
+    </row>
+    <row r="30" spans="1:21" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="12">
+        <v>10</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I29" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K29" s="15">
-        <v>120</v>
-      </c>
-      <c r="L29" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="58" t="s">
-        <v>253</v>
-      </c>
-      <c r="R29" s="19">
-        <v>3</v>
-      </c>
-      <c r="S29" s="19" t="s">
-        <v>250</v>
-      </c>
+      <c r="E30" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="G30" s="21">
+        <v>12</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="K30" s="21">
+        <v>100</v>
+      </c>
+      <c r="L30" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="P30" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q30" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="R30" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="S30" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T30" s="77"/>
+      <c r="U30" s="77"/>
     </row>
-    <row r="30" spans="1:19" ht="108" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="12">
-        <v>8</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="65" t="s">
+    <row r="31" spans="1:21" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="12">
+        <v>10</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="66" t="s">
+      <c r="E31" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="G30" s="15">
-        <v>16</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I30" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="J30" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="K30" s="15">
-        <v>85</v>
-      </c>
-      <c r="L30" s="73" t="s">
-        <v>163</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="O30" s="2"/>
-      <c r="P30" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q30" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="R30" s="19">
-        <v>2</v>
-      </c>
-      <c r="S30" s="19" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="353.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="33">
-        <v>9</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G31" s="15">
-        <v>16</v>
+      <c r="F31" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="G31" s="21">
+        <v>12</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="I31" s="45" t="s">
-        <v>168</v>
-      </c>
-      <c r="J31" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="K31" s="15">
-        <v>105</v>
-      </c>
-      <c r="L31" s="55" t="s">
-        <v>170</v>
+        <v>19</v>
+      </c>
+      <c r="I31" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="K31" s="21">
+        <v>360</v>
+      </c>
+      <c r="L31" s="37" t="s">
+        <v>188</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="P31" s="60" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q31" s="19" t="s">
-        <v>173</v>
+        <v>189</v>
+      </c>
+      <c r="P31" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q31" s="21" t="s">
+        <v>182</v>
       </c>
       <c r="R31" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="S31" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="S31" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T31" s="77"/>
+      <c r="U31" s="77"/>
+    </row>
+    <row r="32" spans="1:21" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="12">
+        <v>11</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="G32" s="34">
+        <v>40</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="K32" s="34">
+        <v>90</v>
+      </c>
+      <c r="L32" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2" t="s">
         <v>250</v>
       </c>
+      <c r="O32" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="P32" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q32" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="R32" s="19">
+        <v>2</v>
+      </c>
+      <c r="S32" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T32" s="77"/>
+      <c r="U32" s="77"/>
     </row>
-    <row r="32" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="12">
-        <v>10</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="G32" s="15">
+    <row r="33" spans="1:21" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="12">
         <v>12</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="J32" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="K32" s="15">
-        <v>100</v>
-      </c>
-      <c r="L32" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="P32" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q32" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="R32" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="S32" s="19" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="12">
-        <v>10</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="65" t="s">
+      <c r="C33" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="66" t="s">
+      <c r="E33" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="G33" s="36">
+      <c r="F33" s="41"/>
+      <c r="G33" s="21">
+        <v>19</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="I33" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="J33" s="21">
+        <v>15</v>
+      </c>
+      <c r="K33" s="21">
+        <v>225</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="O33" s="2"/>
+      <c r="P33" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q33" s="72" t="s">
+        <v>253</v>
+      </c>
+      <c r="R33" s="19">
+        <v>2</v>
+      </c>
+      <c r="S33" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T33" s="77"/>
+      <c r="U33" s="77"/>
+    </row>
+    <row r="34" spans="1:21" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="12">
         <v>12</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="B34" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="G34" s="21">
         <v>19</v>
       </c>
-      <c r="I33" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="J33" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="K33" s="36">
-        <v>360</v>
-      </c>
-      <c r="L33" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="P33" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q33" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="R33" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="S33" s="19" t="s">
-        <v>250</v>
-      </c>
+      <c r="H34" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="J34" s="21">
+        <v>15</v>
+      </c>
+      <c r="K34" s="21">
+        <v>172</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="62" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="19">
+        <v>3</v>
+      </c>
+      <c r="S34" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T34" s="77"/>
+      <c r="U34" s="77"/>
     </row>
-    <row r="34" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="12">
-        <v>10</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="65" t="s">
+    <row r="35" spans="1:21" ht="231.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="12">
+        <v>12</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="66" t="s">
+      <c r="E35" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="G34" s="21">
+      <c r="F35" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="G35" s="21">
+        <v>21</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="I35" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="J35" s="21">
+        <v>15</v>
+      </c>
+      <c r="K35" s="21">
+        <v>153</v>
+      </c>
+      <c r="L35" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="19">
+        <v>3</v>
+      </c>
+      <c r="S35" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T35" s="77"/>
+      <c r="U35" s="77"/>
+    </row>
+    <row r="36" spans="1:21" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="12">
         <v>12</v>
       </c>
-      <c r="H34" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I34" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="J34" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="K34" s="21">
-        <v>100</v>
-      </c>
-      <c r="L34" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="P34" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q34" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="R34" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="S34" s="19" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="12">
-        <v>10</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="65" t="s">
+      <c r="B36" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="66" t="s">
+      <c r="E36" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="G35" s="21">
-        <v>12</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I35" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="J35" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="K35" s="21">
-        <v>360</v>
-      </c>
-      <c r="L35" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="P35" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q35" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="R35" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="S35" s="19" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" ht="48" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="12">
-        <v>11</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" s="15" t="s">
+      <c r="F36" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="G36" s="21">
         <v>21</v>
       </c>
-      <c r="E36" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="G36" s="34">
-        <v>40</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I36" s="39" t="s">
+      <c r="H36" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="I36" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="J36" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="K36" s="34">
-        <v>90</v>
+      <c r="J36" s="21">
+        <v>15</v>
+      </c>
+      <c r="K36" s="21">
+        <v>166</v>
       </c>
       <c r="L36" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="P36" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q36" s="59" t="s">
-        <v>254</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="34"/>
       <c r="R36" s="19">
         <v>2</v>
       </c>
-      <c r="S36" s="19" t="s">
-        <v>250</v>
-      </c>
+      <c r="S36" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T36" s="77"/>
+      <c r="U36" s="77"/>
     </row>
-    <row r="37" spans="1:19" ht="103.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:21" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="12">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="66" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>37</v>
       </c>
       <c r="F37" s="41"/>
       <c r="G37" s="21">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="I37" s="40" t="s">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="J37" s="21">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K37" s="21">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="N37" s="2"/>
-      <c r="O37" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="P37" s="49" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q37" s="74" t="s">
-        <v>259</v>
-      </c>
-      <c r="R37" s="19" t="s">
+      <c r="O37" s="2"/>
+      <c r="P37" s="69" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q37" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="R37" s="19">
+        <v>1</v>
+      </c>
+      <c r="S37" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T37" s="77" t="s">
+        <v>256</v>
+      </c>
+      <c r="U37" s="77" t="s">
         <v>258</v>
       </c>
-      <c r="S37" s="19" t="s">
-        <v>250</v>
-      </c>
     </row>
-    <row r="38" spans="1:19" ht="132" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="12">
-        <v>12</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>38</v>
+    <row r="38" spans="1:21" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="33">
+        <v>1</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>56</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" s="66" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>37</v>
       </c>
       <c r="F38" s="38" t="s">
-        <v>202</v>
+        <v>57</v>
       </c>
       <c r="G38" s="21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I38" s="40" t="s">
-        <v>203</v>
+        <v>14</v>
       </c>
       <c r="J38" s="21">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K38" s="21">
-        <v>172</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>204</v>
+        <v>240</v>
+      </c>
+      <c r="L38" s="48" t="s">
+        <v>215</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>205</v>
+        <v>64</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
-      <c r="P38" s="64" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q38" s="34"/>
+      <c r="P38" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q38" s="21" t="s">
+        <v>62</v>
+      </c>
       <c r="R38" s="19">
+        <v>3</v>
+      </c>
+      <c r="S38" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T38" s="77"/>
+      <c r="U38" s="77"/>
+    </row>
+    <row r="39" spans="1:21" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="42">
         <v>1</v>
-      </c>
-      <c r="S38" s="19" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="12">
-        <v>12</v>
       </c>
       <c r="B39" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="66" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>37</v>
       </c>
       <c r="F39" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="G39" s="21">
-        <v>21</v>
+        <v>39</v>
+      </c>
+      <c r="G39" s="34">
+        <v>14</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="I39" s="40" t="s">
-        <v>208</v>
+        <v>65</v>
       </c>
       <c r="J39" s="21">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K39" s="21">
-        <v>153</v>
-      </c>
-      <c r="L39" s="50" t="s">
-        <v>209</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q39" s="34"/>
+        <v>120</v>
+      </c>
+      <c r="L39" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P39" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q39" s="34" t="s">
+        <v>68</v>
+      </c>
       <c r="R39" s="19">
-        <v>1</v>
-      </c>
-      <c r="S39" s="19" t="s">
-        <v>250</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S39" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T39" s="77"/>
+      <c r="U39" s="77"/>
     </row>
-    <row r="40" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="12">
-        <v>12</v>
+    <row r="40" spans="1:21" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="42">
+        <v>6</v>
       </c>
       <c r="B40" s="24" t="s">
         <v>15</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="G40" s="21">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="G40" s="44">
+        <v>8</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>212</v>
+        <v>142</v>
       </c>
       <c r="I40" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="J40" s="21">
+        <v>135</v>
+      </c>
+      <c r="J40" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="K40" s="21">
+        <v>140</v>
+      </c>
+      <c r="L40" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="P40" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q40" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="R40" s="19">
+        <v>2</v>
+      </c>
+      <c r="S40" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T40" s="77"/>
+      <c r="U40" s="77"/>
+    </row>
+    <row r="41" spans="1:21" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="42">
+        <v>9</v>
+      </c>
+      <c r="B41" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="K40" s="21">
-        <v>166</v>
-      </c>
-      <c r="L40" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="49"/>
-      <c r="Q40" s="34"/>
-      <c r="R40" s="19">
-        <v>1</v>
-      </c>
-      <c r="S40" s="19" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="12">
-        <v>1</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="C41" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F41" s="41"/>
-      <c r="G41" s="21">
-        <v>18</v>
+        <v>32</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="G41" s="44">
+        <v>16</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="I41" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="J41" s="21">
-        <v>30</v>
+        <v>142</v>
+      </c>
+      <c r="I41" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="J41" s="21" t="s">
+        <v>173</v>
       </c>
       <c r="K41" s="21">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="71" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q41" s="34" t="s">
-        <v>54</v>
+        <v>174</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P41" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q41" s="57" t="s">
+        <v>176</v>
       </c>
       <c r="R41" s="19">
         <v>2</v>
       </c>
-      <c r="S41" s="19" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="33">
-        <v>1</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E42" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F42" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="G42" s="21">
-        <v>20</v>
-      </c>
-      <c r="H42" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="I42" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="J42" s="21">
-        <v>30</v>
-      </c>
-      <c r="K42" s="21">
-        <v>240</v>
-      </c>
-      <c r="L42" s="49" t="s">
-        <v>219</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q42" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="R42" s="19">
-        <v>3</v>
-      </c>
-      <c r="S42" s="19" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="42">
-        <v>1</v>
-      </c>
-      <c r="B43" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F43" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="G43" s="34">
-        <v>14</v>
-      </c>
-      <c r="H43" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="I43" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="J43" s="21">
-        <v>30</v>
-      </c>
-      <c r="K43" s="21">
-        <v>120</v>
-      </c>
-      <c r="L43" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="M43" s="53"/>
-      <c r="N43" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="O43" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="P43" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q43" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="R43" s="19">
-        <v>1</v>
-      </c>
-      <c r="S43" s="19" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" ht="48" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="42">
-        <v>6</v>
-      </c>
-      <c r="B44" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E44" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="F44" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="G44" s="44">
-        <v>8</v>
-      </c>
-      <c r="H44" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="I44" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="J44" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="K44" s="21">
-        <v>140</v>
-      </c>
-      <c r="L44" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="O44" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="P44" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q44" s="59" t="s">
-        <v>145</v>
-      </c>
-      <c r="R44" s="19">
-        <v>1</v>
-      </c>
-      <c r="S44" s="19" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" ht="353.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="42">
-        <v>9</v>
-      </c>
-      <c r="B45" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E45" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="F45" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="G45" s="44">
-        <v>16</v>
-      </c>
-      <c r="H45" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="I45" s="63" t="s">
-        <v>176</v>
-      </c>
-      <c r="J45" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="K45" s="21">
-        <v>105</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="O45" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P45" s="62" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q45" s="59" t="s">
-        <v>180</v>
-      </c>
-      <c r="R45" s="19">
-        <v>1</v>
-      </c>
-      <c r="S45" s="19" t="s">
-        <v>250</v>
-      </c>
+      <c r="S41" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T41" s="77"/>
+      <c r="U41" s="77"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q45" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}"/>
-  <conditionalFormatting sqref="M1:M22 M25:M1048576">
-    <cfRule type="duplicateValues" dxfId="32" priority="16"/>
+  <autoFilter ref="A1:U41" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}"/>
+  <conditionalFormatting sqref="M21:M1048576 M1:M18">
+    <cfRule type="duplicateValues" dxfId="51" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M23">
-    <cfRule type="duplicateValues" dxfId="31" priority="14"/>
+  <conditionalFormatting sqref="M19">
+    <cfRule type="duplicateValues" dxfId="50" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M24">
-    <cfRule type="duplicateValues" dxfId="30" priority="12"/>
+  <conditionalFormatting sqref="M20">
+    <cfRule type="duplicateValues" dxfId="49" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="duplicateValues" dxfId="29" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="28" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="duplicateValues" dxfId="27" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="26" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N10">
+    <cfRule type="duplicateValues" dxfId="44" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N12">
+    <cfRule type="duplicateValues" dxfId="43" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N13">
+    <cfRule type="duplicateValues" dxfId="42" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="duplicateValues" dxfId="25" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N16">
-    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
+  <conditionalFormatting sqref="N39">
+    <cfRule type="duplicateValues" dxfId="40" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N17">
-    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
+  <conditionalFormatting sqref="O25">
+    <cfRule type="duplicateValues" dxfId="39" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N18">
-    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N43">
-    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O29">
-    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O36">
-    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
+  <conditionalFormatting sqref="O32">
+    <cfRule type="duplicateValues" dxfId="38" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="M3" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -5862,8 +5976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C34885-F57D-4289-A4BD-D56F75A94A93}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5873,19 +5987,19 @@
         <v>4</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G1" s="28">
         <v>21</v>
@@ -5894,29 +6008,29 @@
         <v>22</v>
       </c>
       <c r="I1" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="L1" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="M1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="47" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q1" s="28" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -5924,19 +6038,19 @@
         <v>4</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G2" s="28">
         <v>21</v>
@@ -5945,29 +6059,29 @@
         <v>22</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K2" s="30" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="47" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q2" s="28" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -5978,45 +6092,45 @@
         <v>38</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G3" s="28">
         <v>22</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="J3" s="28">
         <v>25</v>
       </c>
       <c r="K3" s="30" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L3" s="31" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="47" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -6027,45 +6141,45 @@
         <v>38</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G4" s="28">
         <v>22</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="J4" s="28">
         <v>25</v>
       </c>
       <c r="K4" s="30" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L4" s="31" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="47" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q4" s="32" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -6076,10 +6190,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="63" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6091,76 +6205,81 @@
     <col min="8" max="8" width="21.7109375" customWidth="1"/>
     <col min="9" max="9" width="20.5703125" customWidth="1"/>
     <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="78.85546875" style="56" customWidth="1"/>
+    <col min="12" max="12" width="78.85546875" customWidth="1"/>
     <col min="13" max="13" width="28.5703125" customWidth="1"/>
     <col min="14" max="14" width="27.28515625" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.42578125" customWidth="1"/>
     <col min="17" max="17" width="17" customWidth="1"/>
     <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="145.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="145.140625" style="75" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9.140625" style="75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="75" customFormat="1" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:22" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="76" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1" s="76" t="s">
-        <v>215</v>
-      </c>
-      <c r="E1" s="76" t="s">
-        <v>217</v>
-      </c>
-      <c r="F1" s="76" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="76" t="s">
+      <c r="K1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="76" t="s">
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="76" t="s">
+      <c r="N1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="76" t="s">
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="76" t="s">
+      <c r="P1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="76" t="s">
+      <c r="Q1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="76" t="s">
-        <v>249</v>
-      </c>
-      <c r="S1" s="76" t="s">
-        <v>261</v>
+      <c r="R1" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="S1" s="73" t="s">
+        <v>255</v>
+      </c>
+      <c r="T1" s="54"/>
+      <c r="U1" s="74" t="s">
+        <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="32.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:22" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -6170,14 +6289,14 @@
       <c r="C2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="63" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2" s="15">
         <v>19</v>
@@ -6185,8 +6304,8 @@
       <c r="H2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="57" t="s">
-        <v>50</v>
+      <c r="I2" s="55" t="s">
+        <v>49</v>
       </c>
       <c r="J2" s="15">
         <v>10</v>
@@ -6194,83 +6313,89 @@
       <c r="K2" s="15">
         <v>180</v>
       </c>
-      <c r="L2" s="17" t="s">
-        <v>51</v>
+      <c r="L2" s="53" t="s">
+        <v>50</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>52</v>
+        <v>262</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="18" t="s">
-        <v>53</v>
+      <c r="P2" s="66" t="s">
+        <v>51</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R2" s="19">
-        <v>2</v>
-      </c>
-      <c r="S2" s="19" t="s">
-        <v>250</v>
+        <v>1</v>
+      </c>
+      <c r="S2" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77" t="s">
+        <v>258</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:22" ht="276" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12">
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="63" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G3" s="15">
         <v>20</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I3" s="16" t="s">
         <v>14</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K3" s="15">
         <v>240</v>
       </c>
       <c r="L3" s="47" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>63</v>
+        <v>261</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="72" t="s">
-        <v>64</v>
+      <c r="P3" s="70" t="s">
+        <v>61</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R3" s="19">
         <v>3</v>
       </c>
-      <c r="S3" s="19" t="s">
-        <v>250</v>
-      </c>
+      <c r="S3" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
     </row>
-    <row r="4" spans="1:19" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:22" ht="321.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -6280,7 +6405,7 @@
       <c r="C4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="63" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="15" t="s">
@@ -6296,7 +6421,7 @@
         <v>12</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J4" s="15">
         <v>10</v>
@@ -6304,30 +6429,32 @@
       <c r="K4" s="15">
         <v>120</v>
       </c>
-      <c r="L4" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53" t="s">
-        <v>223</v>
+      <c r="L4" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52" t="s">
+        <v>219</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="P4" s="72" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>72</v>
+        <v>67</v>
+      </c>
+      <c r="P4" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q4" s="56" t="s">
+        <v>68</v>
       </c>
       <c r="R4" s="19">
-        <v>1</v>
-      </c>
-      <c r="S4" s="19" t="s">
-        <v>250</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S4" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
     </row>
-    <row r="5" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:22" ht="78" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -6337,10 +6464,10 @@
       <c r="C5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="64" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="14" t="s">
@@ -6353,7 +6480,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J5" s="15">
         <v>10</v>
@@ -6361,26 +6488,28 @@
       <c r="K5" s="15">
         <v>240</v>
       </c>
-      <c r="L5" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53" t="s">
-        <v>222</v>
+      <c r="L5" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52" t="s">
+        <v>218</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="17"/>
-      <c r="Q5" s="34" t="s">
-        <v>74</v>
+      <c r="Q5" s="57" t="s">
+        <v>70</v>
       </c>
       <c r="R5" s="19">
-        <v>1</v>
-      </c>
-      <c r="S5" s="19" t="s">
-        <v>250</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S5" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
     </row>
-    <row r="6" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:22" ht="45.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="12">
         <v>1</v>
       </c>
@@ -6390,10 +6519,10 @@
       <c r="C6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="66" t="s">
+      <c r="E6" s="64" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="14" t="s">
@@ -6406,7 +6535,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J6" s="15">
         <v>10</v>
@@ -6415,25 +6544,27 @@
         <v>360</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53" t="s">
-        <v>227</v>
+        <v>71</v>
+      </c>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52" t="s">
+        <v>223</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="17"/>
       <c r="Q6" s="34" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="R6" s="19">
-        <v>1</v>
-      </c>
-      <c r="S6" s="19" t="s">
-        <v>250</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S6" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T6" s="77"/>
+      <c r="U6" s="77"/>
     </row>
-    <row r="7" spans="1:19" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="12">
         <v>9</v>
       </c>
@@ -6443,7 +6574,7 @@
       <c r="C7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="63" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="16" t="s">
@@ -6456,39 +6587,41 @@
         <v>16</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I7" s="45" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K7" s="15">
         <v>105</v>
       </c>
-      <c r="L7" s="55" t="s">
-        <v>257</v>
+      <c r="L7" s="53" t="s">
+        <v>251</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="P7" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q7" s="58" t="s">
-        <v>173</v>
+        <v>171</v>
+      </c>
+      <c r="P7" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q7" s="56" t="s">
+        <v>169</v>
       </c>
       <c r="R7" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="S7" s="19" t="s">
-        <v>250</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="S7" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T7" s="77"/>
+      <c r="U7" s="77"/>
     </row>
-    <row r="8" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="12">
         <v>2</v>
       </c>
@@ -6498,14 +6631,14 @@
       <c r="C8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="63" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G8" s="15">
         <v>8</v>
@@ -6514,7 +6647,7 @@
         <v>19</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J8" s="15" t="s">
         <v>28</v>
@@ -6522,28 +6655,31 @@
       <c r="K8" s="15">
         <v>120</v>
       </c>
-      <c r="L8" s="17" t="s">
-        <v>90</v>
+      <c r="L8" s="53" t="s">
+        <v>86</v>
       </c>
       <c r="M8" s="2"/>
-      <c r="N8" s="53" t="s">
-        <v>230</v>
+      <c r="N8" s="52" t="s">
+        <v>226</v>
       </c>
       <c r="O8" s="2"/>
-      <c r="P8" s="18" t="s">
-        <v>91</v>
+      <c r="P8" s="66" t="s">
+        <v>87</v>
       </c>
       <c r="Q8" s="19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R8" s="19">
-        <v>1</v>
-      </c>
-      <c r="S8" s="19" t="s">
-        <v>250</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S8" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T8" s="77"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="76"/>
     </row>
-    <row r="9" spans="1:19" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:22" ht="293.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="12">
         <v>2</v>
       </c>
@@ -6553,14 +6689,14 @@
       <c r="C9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="63" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G9" s="15">
         <v>8</v>
@@ -6569,7 +6705,7 @@
         <v>18</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J9" s="15" t="s">
         <v>28</v>
@@ -6578,32 +6714,34 @@
         <v>120</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O9" s="2"/>
-      <c r="P9" s="72" t="s">
-        <v>96</v>
+      <c r="P9" s="70" t="s">
+        <v>92</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="R9" s="19">
         <v>1</v>
       </c>
-      <c r="S9" s="19" t="s">
-        <v>250</v>
-      </c>
+      <c r="S9" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T9" s="77"/>
+      <c r="U9" s="77"/>
     </row>
-    <row r="10" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:22" ht="45.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="25">
         <v>3</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>20</v>
@@ -6615,7 +6753,7 @@
         <v>21</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G10" s="15">
         <v>34</v>
@@ -6627,33 +6765,35 @@
         <v>43</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K10" s="15">
         <v>180</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="18"/>
       <c r="Q10" s="19" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="R10" s="19">
         <v>2</v>
       </c>
-      <c r="S10" s="19" t="s">
-        <v>250</v>
-      </c>
+      <c r="S10" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T10" s="77"/>
+      <c r="U10" s="77"/>
     </row>
-    <row r="11" spans="1:19" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:22" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="12">
         <v>3</v>
       </c>
@@ -6670,7 +6810,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G11" s="15">
         <v>34</v>
@@ -6682,31 +6822,33 @@
         <v>43</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K11" s="15">
         <v>150</v>
       </c>
-      <c r="L11" s="55" t="s">
-        <v>102</v>
+      <c r="L11" s="53" t="s">
+        <v>98</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="18"/>
       <c r="Q11" s="19" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="R11" s="19">
         <v>2</v>
       </c>
-      <c r="S11" s="19" t="s">
-        <v>250</v>
-      </c>
+      <c r="S11" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T11" s="77"/>
+      <c r="U11" s="77"/>
     </row>
-    <row r="12" spans="1:19" ht="174.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:22" ht="174.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="12">
         <v>3</v>
       </c>
@@ -6723,45 +6865,51 @@
         <v>21</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G12" s="15">
         <v>34</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I12" s="16" t="s">
         <v>43</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K12" s="19">
         <v>180</v>
       </c>
-      <c r="L12" s="55" t="s">
-        <v>238</v>
+      <c r="L12" s="53" t="s">
+        <v>234</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="18"/>
-      <c r="Q12" s="58" t="s">
-        <v>237</v>
+      <c r="Q12" s="56" t="s">
+        <v>233</v>
       </c>
       <c r="R12" s="19">
         <v>1</v>
       </c>
-      <c r="S12" s="19" t="s">
-        <v>250</v>
+      <c r="S12" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T12" s="77" t="s">
+        <v>257</v>
+      </c>
+      <c r="U12" s="77">
+        <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="243" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:22" ht="123" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="12">
         <v>3</v>
       </c>
@@ -6778,45 +6926,47 @@
         <v>21</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G13" s="15">
         <v>34</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K13" s="19">
         <v>60</v>
       </c>
-      <c r="L13" s="67" t="s">
-        <v>244</v>
+      <c r="L13" s="65" t="s">
+        <v>240</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="68" t="s">
-        <v>108</v>
+      <c r="P13" s="66" t="s">
+        <v>104</v>
       </c>
       <c r="Q13" s="19" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="R13" s="19">
         <v>2</v>
       </c>
-      <c r="S13" s="19" t="s">
-        <v>250</v>
-      </c>
+      <c r="S13" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T13" s="77"/>
+      <c r="U13" s="77"/>
     </row>
-    <row r="14" spans="1:19" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="25">
         <v>5</v>
       </c>
@@ -6826,23 +6976,23 @@
       <c r="C14" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="65" t="s">
+      <c r="D14" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="66" t="s">
+      <c r="E14" s="64" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G14" s="28">
         <v>16</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="I14" s="69" t="s">
-        <v>135</v>
+        <v>130</v>
+      </c>
+      <c r="I14" s="67" t="s">
+        <v>131</v>
       </c>
       <c r="J14" s="28">
         <v>14</v>
@@ -6850,26 +7000,28 @@
       <c r="K14" s="28">
         <v>85</v>
       </c>
-      <c r="L14" s="70" t="s">
-        <v>136</v>
+      <c r="L14" s="68" t="s">
+        <v>132</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="69" t="s">
-        <v>255</v>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="67" t="s">
+        <v>249</v>
       </c>
       <c r="R14" s="19">
         <v>1</v>
       </c>
-      <c r="S14" s="19" t="s">
-        <v>250</v>
-      </c>
+      <c r="S14" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T14" s="77"/>
+      <c r="U14" s="77"/>
     </row>
-    <row r="15" spans="1:19" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:22" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="12">
         <v>6</v>
       </c>
@@ -6886,7 +7038,7 @@
         <v>21</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G15" s="15">
         <v>8</v>
@@ -6894,39 +7046,41 @@
       <c r="H15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="57" t="s">
-        <v>231</v>
+      <c r="I15" s="55" t="s">
+        <v>227</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K15" s="15">
         <v>140</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="P15" s="18" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="Q15" s="19" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="R15" s="19">
-        <v>1</v>
-      </c>
-      <c r="S15" s="19" t="s">
-        <v>250</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S15" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T15" s="77"/>
+      <c r="U15" s="77"/>
     </row>
-    <row r="16" spans="1:19" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:22" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="12">
         <v>6</v>
       </c>
@@ -6936,54 +7090,56 @@
       <c r="C16" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="65" t="s">
+      <c r="D16" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="66" t="s">
+      <c r="E16" s="64" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G16" s="15">
         <v>8</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="I16" s="57" t="s">
-        <v>231</v>
+        <v>142</v>
+      </c>
+      <c r="I16" s="55" t="s">
+        <v>227</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K16" s="15">
         <v>140</v>
       </c>
       <c r="L16" s="14" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="P16" s="51" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="P16" s="50" t="s">
+        <v>140</v>
       </c>
       <c r="Q16" s="19" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="R16" s="19">
-        <v>1</v>
-      </c>
-      <c r="S16" s="19" t="s">
-        <v>250</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S16" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T16" s="77"/>
+      <c r="U16" s="77"/>
     </row>
-    <row r="17" spans="1:19" ht="213" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:21" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="12">
         <v>6</v>
       </c>
@@ -6993,23 +7149,23 @@
       <c r="C17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="65" t="s">
+      <c r="D17" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="66" t="s">
+      <c r="E17" s="64" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G17" s="15">
         <v>8</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="I17" s="57" t="s">
-        <v>232</v>
+        <v>142</v>
+      </c>
+      <c r="I17" s="55" t="s">
+        <v>228</v>
       </c>
       <c r="J17" s="15" t="s">
         <v>28</v>
@@ -7018,29 +7174,31 @@
         <v>140</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="P17" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q17" s="58" t="s">
-        <v>145</v>
+        <v>140</v>
+      </c>
+      <c r="Q17" s="56" t="s">
+        <v>141</v>
       </c>
       <c r="R17" s="19">
-        <v>1</v>
-      </c>
-      <c r="S17" s="19" t="s">
-        <v>250</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S17" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T17" s="77"/>
+      <c r="U17" s="77"/>
     </row>
-    <row r="18" spans="1:19" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:21" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="12">
         <v>7</v>
       </c>
@@ -7050,14 +7208,14 @@
       <c r="C18" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="65" t="s">
+      <c r="D18" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="66" t="s">
+      <c r="E18" s="64" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G18" s="15">
         <v>17</v>
@@ -7066,7 +7224,7 @@
         <v>30</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J18" s="15" t="s">
         <v>28</v>
@@ -7074,45 +7232,47 @@
       <c r="K18" s="15">
         <v>120</v>
       </c>
-      <c r="L18" s="17" t="s">
-        <v>160</v>
+      <c r="L18" s="53" t="s">
+        <v>156</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P18" s="18"/>
-      <c r="Q18" s="58" t="s">
-        <v>253</v>
+      <c r="Q18" s="56" t="s">
+        <v>247</v>
       </c>
       <c r="R18" s="19">
         <v>3</v>
       </c>
-      <c r="S18" s="19" t="s">
-        <v>250</v>
-      </c>
+      <c r="S18" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T18" s="77"/>
+      <c r="U18" s="77"/>
     </row>
-    <row r="19" spans="1:19" ht="108" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:21" ht="108" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="12">
         <v>8</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="65" t="s">
+      <c r="D19" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="66" t="s">
+      <c r="E19" s="64" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G19" s="15">
         <v>16</v>
@@ -7124,35 +7284,37 @@
         <v>43</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K19" s="15">
         <v>85</v>
       </c>
-      <c r="L19" s="73" t="s">
-        <v>163</v>
+      <c r="L19" s="71" t="s">
+        <v>159</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="14" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q19" s="19" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="R19" s="19">
         <v>2</v>
       </c>
-      <c r="S19" s="19" t="s">
-        <v>250</v>
-      </c>
+      <c r="S19" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T19" s="77"/>
+      <c r="U19" s="77"/>
     </row>
-    <row r="20" spans="1:19" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:21" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="33">
         <v>9</v>
       </c>
@@ -7162,7 +7324,7 @@
       <c r="C20" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="65" t="s">
+      <c r="D20" s="63" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="16" t="s">
@@ -7175,39 +7337,41 @@
         <v>16</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I20" s="45" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K20" s="15">
         <v>105</v>
       </c>
-      <c r="L20" s="55" t="s">
-        <v>170</v>
+      <c r="L20" s="53" t="s">
+        <v>166</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="P20" s="60" t="s">
-        <v>172</v>
+        <v>167</v>
+      </c>
+      <c r="P20" s="58" t="s">
+        <v>168</v>
       </c>
       <c r="Q20" s="19" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="R20" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="S20" s="19" t="s">
-        <v>250</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="S20" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T20" s="77"/>
+      <c r="U20" s="77"/>
     </row>
-    <row r="21" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:21" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="12">
         <v>10</v>
       </c>
@@ -7217,14 +7381,14 @@
       <c r="C21" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="65" t="s">
+      <c r="D21" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="66" t="s">
+      <c r="E21" s="64" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G21" s="15">
         <v>12</v>
@@ -7233,36 +7397,38 @@
         <v>19</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K21" s="15">
         <v>100</v>
       </c>
-      <c r="L21" s="17" t="s">
-        <v>183</v>
+      <c r="L21" s="53" t="s">
+        <v>179</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P21" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q21" s="21" t="s">
-        <v>186</v>
+        <v>181</v>
+      </c>
+      <c r="Q21" s="72" t="s">
+        <v>182</v>
       </c>
       <c r="R21" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="S21" s="19" t="s">
-        <v>250</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="S21" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T21" s="77"/>
+      <c r="U21" s="77"/>
     </row>
-    <row r="22" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="12">
         <v>10</v>
       </c>
@@ -7272,14 +7438,14 @@
       <c r="C22" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="65" t="s">
+      <c r="D22" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="66" t="s">
+      <c r="E22" s="64" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G22" s="36">
         <v>12</v>
@@ -7288,36 +7454,38 @@
         <v>19</v>
       </c>
       <c r="I22" s="46" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K22" s="36">
         <v>360</v>
       </c>
-      <c r="L22" s="15" t="s">
-        <v>187</v>
+      <c r="L22" s="63" t="s">
+        <v>183</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="P22" s="37" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Q22" s="21" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="R22" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="S22" s="19" t="s">
-        <v>250</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="S22" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T22" s="77"/>
+      <c r="U22" s="77"/>
     </row>
-    <row r="23" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="12">
         <v>10</v>
       </c>
@@ -7327,14 +7495,14 @@
       <c r="C23" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="65" t="s">
+      <c r="D23" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="66" t="s">
+      <c r="E23" s="64" t="s">
         <v>11</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G23" s="21">
         <v>12</v>
@@ -7343,36 +7511,38 @@
         <v>19</v>
       </c>
       <c r="I23" s="40" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K23" s="21">
         <v>100</v>
       </c>
       <c r="L23" s="37" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P23" s="38" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Q23" s="21" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="R23" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="S23" s="19" t="s">
-        <v>250</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="S23" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T23" s="77"/>
+      <c r="U23" s="77"/>
     </row>
-    <row r="24" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="12">
         <v>10</v>
       </c>
@@ -7382,14 +7552,14 @@
       <c r="C24" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="65" t="s">
+      <c r="D24" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="66" t="s">
+      <c r="E24" s="64" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G24" s="21">
         <v>12</v>
@@ -7398,36 +7568,38 @@
         <v>19</v>
       </c>
       <c r="I24" s="40" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K24" s="21">
         <v>360</v>
       </c>
       <c r="L24" s="37" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P24" s="38" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Q24" s="21" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="R24" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="S24" s="19" t="s">
-        <v>250</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="S24" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T24" s="77"/>
+      <c r="U24" s="77"/>
     </row>
-    <row r="25" spans="1:19" ht="168" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:21" ht="78" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="12">
         <v>11</v>
       </c>
@@ -7444,7 +7616,7 @@
         <v>21</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G25" s="34">
         <v>40</v>
@@ -7456,35 +7628,37 @@
         <v>14</v>
       </c>
       <c r="J25" s="34" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K25" s="34">
         <v>90</v>
       </c>
       <c r="L25" s="37" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P25" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q25" s="59" t="s">
-        <v>254</v>
+        <v>193</v>
+      </c>
+      <c r="Q25" s="57" t="s">
+        <v>248</v>
       </c>
       <c r="R25" s="19">
         <v>2</v>
       </c>
-      <c r="S25" s="19" t="s">
-        <v>250</v>
-      </c>
+      <c r="S25" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T25" s="77"/>
+      <c r="U25" s="77"/>
     </row>
-    <row r="26" spans="1:19" ht="246" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:21" ht="117.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="12">
         <v>12</v>
       </c>
@@ -7494,10 +7668,10 @@
       <c r="C26" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="65" t="s">
+      <c r="D26" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="66" t="s">
+      <c r="E26" s="64" t="s">
         <v>11</v>
       </c>
       <c r="F26" s="41"/>
@@ -7505,10 +7679,10 @@
         <v>19</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I26" s="40" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J26" s="21">
         <v>15</v>
@@ -7517,27 +7691,29 @@
         <v>225</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="P26" s="49" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q26" s="74" t="s">
-        <v>259</v>
-      </c>
-      <c r="R26" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="S26" s="19" t="s">
-        <v>250</v>
-      </c>
+      <c r="N26" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q26" s="72" t="s">
+        <v>253</v>
+      </c>
+      <c r="R26" s="19">
+        <v>2</v>
+      </c>
+      <c r="S26" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T26" s="77"/>
+      <c r="U26" s="77"/>
     </row>
-    <row r="27" spans="1:19" ht="213" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:21" ht="117.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="12">
         <v>12</v>
       </c>
@@ -7547,14 +7723,14 @@
       <c r="C27" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="65" t="s">
+      <c r="D27" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="66" t="s">
+      <c r="E27" s="64" t="s">
         <v>11</v>
       </c>
       <c r="F27" s="38" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G27" s="21">
         <v>19</v>
@@ -7563,7 +7739,7 @@
         <v>12</v>
       </c>
       <c r="I27" s="40" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J27" s="21">
         <v>15</v>
@@ -7572,25 +7748,27 @@
         <v>172</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
-      <c r="P27" s="64" t="s">
-        <v>206</v>
+      <c r="P27" s="62" t="s">
+        <v>202</v>
       </c>
       <c r="Q27" s="34"/>
       <c r="R27" s="19">
-        <v>1</v>
-      </c>
-      <c r="S27" s="19" t="s">
-        <v>250</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S27" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T27" s="77"/>
+      <c r="U27" s="77"/>
     </row>
-    <row r="28" spans="1:19" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:21" ht="231.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="12">
         <v>12</v>
       </c>
@@ -7600,23 +7778,23 @@
       <c r="C28" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="65" t="s">
+      <c r="D28" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="66" t="s">
+      <c r="E28" s="64" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="38" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G28" s="21">
         <v>21</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I28" s="40" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J28" s="21">
         <v>15</v>
@@ -7624,26 +7802,28 @@
       <c r="K28" s="21">
         <v>153</v>
       </c>
-      <c r="L28" s="50" t="s">
-        <v>209</v>
+      <c r="L28" s="49" t="s">
+        <v>205</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="Q28" s="34"/>
       <c r="R28" s="19">
-        <v>1</v>
-      </c>
-      <c r="S28" s="19" t="s">
-        <v>250</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S28" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T28" s="77"/>
+      <c r="U28" s="77"/>
     </row>
-    <row r="29" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="12">
         <v>12</v>
       </c>
@@ -7653,20 +7833,20 @@
       <c r="C29" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="65" t="s">
+      <c r="D29" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="66" t="s">
+      <c r="E29" s="64" t="s">
         <v>11</v>
       </c>
       <c r="F29" s="38" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G29" s="21">
         <v>21</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I29" s="40" t="s">
         <v>14</v>
@@ -7678,53 +7858,55 @@
         <v>166</v>
       </c>
       <c r="L29" s="37" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
-      <c r="P29" s="49"/>
+      <c r="P29" s="48"/>
       <c r="Q29" s="34"/>
       <c r="R29" s="19">
-        <v>1</v>
-      </c>
-      <c r="S29" s="19" t="s">
-        <v>250</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S29" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T29" s="77"/>
+      <c r="U29" s="77"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:Q29" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="M30:M1048576">
-    <cfRule type="duplicateValues" dxfId="18" priority="13"/>
+  <conditionalFormatting sqref="M1048565:M1048576">
+    <cfRule type="duplicateValues" dxfId="34" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M30:N1048576">
-    <cfRule type="duplicateValues" dxfId="17" priority="12"/>
+  <conditionalFormatting sqref="M1048565:N1048576">
+    <cfRule type="duplicateValues" dxfId="33" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14:M29 M2:M11">
-    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
+  <conditionalFormatting sqref="M14:M1048564 M1:M11">
+    <cfRule type="duplicateValues" dxfId="19" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="duplicateValues" dxfId="15" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="14" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="duplicateValues" dxfId="13" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O18">
-    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7733,10 +7915,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B5538A5-2CE0-400F-BF9C-B504D5DC3739}">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="69" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView zoomScale="69" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7751,21 +7933,21 @@
     <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>36</v>
@@ -7780,13 +7962,13 @@
         <v>7</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>3</v>
@@ -7794,23 +7976,27 @@
       <c r="N1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>261</v>
+      <c r="R1" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="S1" s="73" t="s">
+        <v>255</v>
+      </c>
+      <c r="T1" s="54"/>
+      <c r="U1" s="74" t="s">
+        <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" ht="345.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -7836,7 +8022,7 @@
         <v>12</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J2" s="15">
         <v>20</v>
@@ -7845,25 +8031,27 @@
         <v>240</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53" t="s">
-        <v>225</v>
+        <v>76</v>
+      </c>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52" t="s">
+        <v>221</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="17"/>
       <c r="Q2" s="34" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="R2" s="19">
-        <v>1</v>
-      </c>
-      <c r="S2" s="19" t="s">
-        <v>250</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S2" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
     </row>
-    <row r="3" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -7887,7 +8075,7 @@
         <v>40</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J3" s="15">
         <v>20</v>
@@ -7895,33 +8083,39 @@
       <c r="K3" s="15">
         <v>180</v>
       </c>
-      <c r="L3" s="17" t="s">
-        <v>55</v>
+      <c r="L3" s="53" t="s">
+        <v>53</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="22" t="s">
-        <v>53</v>
+      <c r="P3" s="65" t="s">
+        <v>51</v>
       </c>
       <c r="Q3" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R3" s="19">
-        <v>2</v>
-      </c>
-      <c r="S3" s="19" t="s">
-        <v>250</v>
+        <v>1</v>
+      </c>
+      <c r="S3" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T3" s="77" t="s">
+        <v>256</v>
+      </c>
+      <c r="U3" s="77" t="s">
+        <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" ht="345.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="12">
         <v>1</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>10</v>
@@ -7933,45 +8127,47 @@
         <v>44</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G4" s="15">
         <v>20</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I4" s="16" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K4" s="15">
         <v>240</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>67</v>
+        <v>264</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R4" s="19">
         <v>3</v>
       </c>
-      <c r="S4" s="19" t="s">
-        <v>250</v>
-      </c>
+      <c r="S4" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
     </row>
-    <row r="5" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" ht="345.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -7997,7 +8193,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J5" s="15">
         <v>20</v>
@@ -8006,29 +8202,31 @@
         <v>120</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53" t="s">
-        <v>224</v>
+        <v>73</v>
+      </c>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52" t="s">
+        <v>220</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P5" s="17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Q5" s="19" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="R5" s="19">
-        <v>1</v>
-      </c>
-      <c r="S5" s="19" t="s">
-        <v>250</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S5" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
     </row>
-    <row r="6" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" ht="345.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="12">
         <v>1</v>
       </c>
@@ -8054,7 +8252,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J6" s="15">
         <v>20</v>
@@ -8063,25 +8261,27 @@
         <v>360</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53" t="s">
-        <v>228</v>
+        <v>77</v>
+      </c>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52" t="s">
+        <v>224</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="17"/>
       <c r="Q6" s="19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="R6" s="19">
-        <v>1</v>
-      </c>
-      <c r="S6" s="19" t="s">
-        <v>250</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S6" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T6" s="77"/>
+      <c r="U6" s="77"/>
     </row>
-    <row r="7" spans="1:19" ht="213" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" ht="345.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="42">
         <v>6</v>
       </c>
@@ -8098,47 +8298,49 @@
         <v>44</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G7" s="44">
         <v>8</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I7" s="40" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K7" s="21">
         <v>140</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="P7" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q7" s="59" t="s">
-        <v>145</v>
+        <v>153</v>
+      </c>
+      <c r="P7" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q7" s="57" t="s">
+        <v>141</v>
       </c>
       <c r="R7" s="19">
-        <v>1</v>
-      </c>
-      <c r="S7" s="19" t="s">
-        <v>250</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S7" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T7" s="77"/>
+      <c r="U7" s="77"/>
     </row>
-    <row r="8" spans="1:19" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="42">
         <v>9</v>
       </c>
@@ -8161,52 +8363,54 @@
         <v>16</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="I8" s="63" t="s">
-        <v>176</v>
+        <v>142</v>
+      </c>
+      <c r="I8" s="61" t="s">
+        <v>172</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K8" s="21">
         <v>105</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P8" s="62" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q8" s="59" t="s">
-        <v>180</v>
+      <c r="P8" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q8" s="57" t="s">
+        <v>176</v>
       </c>
       <c r="R8" s="19">
-        <v>1</v>
-      </c>
-      <c r="S8" s="19" t="s">
-        <v>250</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S8" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T8" s="77"/>
+      <c r="U8" s="77"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="M1:M8">
+    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N2">
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M8">
-    <cfRule type="duplicateValues" dxfId="4" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8214,10 +8418,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B928E5-8912-4A3C-9609-DB7127AEEA71}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8226,21 +8430,21 @@
     <col min="14" max="14" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>36</v>
@@ -8255,13 +8459,13 @@
         <v>7</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>3</v>
@@ -8278,14 +8482,18 @@
       <c r="Q1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>261</v>
+      <c r="R1" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="S1" s="73" t="s">
+        <v>255</v>
+      </c>
+      <c r="T1" s="54"/>
+      <c r="U1" s="74" t="s">
+        <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" ht="345.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -8311,7 +8519,7 @@
         <v>12</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J2" s="15">
         <v>30</v>
@@ -8320,25 +8528,27 @@
         <v>240</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53" t="s">
-        <v>226</v>
+        <v>82</v>
+      </c>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52" t="s">
+        <v>222</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="14"/>
       <c r="Q2" s="19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="R2" s="19">
-        <v>1</v>
-      </c>
-      <c r="S2" s="19" t="s">
-        <v>250</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S2" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
     </row>
-    <row r="3" spans="1:19" ht="189" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" ht="345.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -8364,7 +8574,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J3" s="15">
         <v>30</v>
@@ -8372,26 +8582,28 @@
       <c r="K3" s="15">
         <v>360</v>
       </c>
-      <c r="L3" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53" t="s">
-        <v>229</v>
+      <c r="L3" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52" t="s">
+        <v>225</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="R3" s="19">
-        <v>1</v>
-      </c>
-      <c r="S3" s="19" t="s">
-        <v>250</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S3" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
     </row>
-    <row r="4" spans="1:19" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -8415,7 +8627,7 @@
         <v>40</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J4" s="21">
         <v>30</v>
@@ -8424,32 +8636,38 @@
         <v>180</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="71" t="s">
-        <v>251</v>
+      <c r="P4" s="69" t="s">
+        <v>246</v>
       </c>
       <c r="Q4" s="34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R4" s="19">
-        <v>2</v>
-      </c>
-      <c r="S4" s="19" t="s">
-        <v>250</v>
+        <v>1</v>
+      </c>
+      <c r="S4" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T4" s="77" t="s">
+        <v>256</v>
+      </c>
+      <c r="U4" s="77" t="s">
+        <v>258</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" ht="345.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="33">
         <v>1</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>10</v>
@@ -8461,13 +8679,13 @@
         <v>37</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G5" s="21">
         <v>20</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I5" s="40" t="s">
         <v>14</v>
@@ -8478,28 +8696,30 @@
       <c r="K5" s="21">
         <v>240</v>
       </c>
-      <c r="L5" s="49" t="s">
-        <v>219</v>
+      <c r="L5" s="48" t="s">
+        <v>215</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="38" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R5" s="19">
         <v>3</v>
       </c>
-      <c r="S5" s="19" t="s">
-        <v>250</v>
-      </c>
+      <c r="S5" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
     </row>
-    <row r="6" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="42">
         <v>1</v>
       </c>
@@ -8525,7 +8745,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J6" s="21">
         <v>30</v>
@@ -8534,30 +8754,32 @@
         <v>120</v>
       </c>
       <c r="L6" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53" t="s">
-        <v>83</v>
+        <v>78</v>
+      </c>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52" t="s">
+        <v>79</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="P6" s="38" t="s">
-        <v>85</v>
+        <v>80</v>
+      </c>
+      <c r="P6" s="79" t="s">
+        <v>81</v>
       </c>
       <c r="Q6" s="34" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="R6" s="19">
-        <v>1</v>
-      </c>
-      <c r="S6" s="19" t="s">
-        <v>250</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S6" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="T6" s="77"/>
+      <c r="U6" s="77"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="M2:M6">
+  <conditionalFormatting sqref="M1:M6">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2">

--- a/Overview_Studies.xlsx
+++ b/Overview_Studies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f2d186216cf91ab/Bidlung/University/M.S. Leiden University/M.S. Neuroscience (Research)/Internship Groningen/GitHub_Multiverse_meta/MetaAnalysis-Psilo-Cognition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="448" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3B8237B-4164-450D-AD93-94AD400D8CF7}"/>
+  <xr:revisionPtr revIDLastSave="458" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3245ECD-1FAE-4FF6-81FA-A378E395BF6E}"/>
   <bookViews>
-    <workbookView xWindow="-12810" yWindow="-21600" windowWidth="34605" windowHeight="20985" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7950" yWindow="-17865" windowWidth="21600" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="269">
   <si>
     <t>CognitiveFunction</t>
   </si>
@@ -2138,6 +2138,16 @@
   </si>
   <si>
     <t>only included  NoGo trials</t>
+  </si>
+  <si>
+    <t>Y, to 1: Nogo-Go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT, ACC
+</t>
+  </si>
+  <si>
+    <t>Y to 1, go-gng</t>
   </si>
 </sst>
 </file>
@@ -2727,217 +2737,7 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="53">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3551,7 +3351,7 @@
   <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5388,7 +5188,7 @@
       <c r="K32" s="34">
         <v>90</v>
       </c>
-      <c r="L32" s="37" t="s">
+      <c r="L32" s="3" t="s">
         <v>192</v>
       </c>
       <c r="M32" s="2"/>
@@ -5411,7 +5211,9 @@
         <v>245</v>
       </c>
       <c r="T32" s="77"/>
-      <c r="U32" s="77"/>
+      <c r="U32" s="77" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="33" spans="1:21" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="12">
@@ -5926,47 +5728,47 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:U41" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}"/>
-  <conditionalFormatting sqref="M21:M1048576 M1:M18">
-    <cfRule type="duplicateValues" dxfId="51" priority="16"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="M19">
-    <cfRule type="duplicateValues" dxfId="50" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20">
-    <cfRule type="duplicateValues" dxfId="49" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M21:M1048576 M1:M18">
+    <cfRule type="duplicateValues" dxfId="29" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="duplicateValues" dxfId="48" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="47" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="duplicateValues" dxfId="46" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="45" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="duplicateValues" dxfId="44" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="duplicateValues" dxfId="43" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="duplicateValues" dxfId="42" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="duplicateValues" dxfId="41" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N39">
-    <cfRule type="duplicateValues" dxfId="40" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25">
-    <cfRule type="duplicateValues" dxfId="39" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32">
-    <cfRule type="duplicateValues" dxfId="38" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6192,8 +5994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView zoomScale="63" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="N21" zoomScale="63" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7624,8 +7426,8 @@
       <c r="H25" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I25" s="39" t="s">
-        <v>14</v>
+      <c r="I25" s="61" t="s">
+        <v>267</v>
       </c>
       <c r="J25" s="34" t="s">
         <v>191</v>
@@ -7656,7 +7458,9 @@
         <v>245</v>
       </c>
       <c r="T25" s="77"/>
-      <c r="U25" s="77"/>
+      <c r="U25" s="77" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="26" spans="1:21" ht="117.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="12">
@@ -7878,35 +7682,35 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Q29" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="M12">
+    <cfRule type="duplicateValues" dxfId="17" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13">
+    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14:M1048564 M1:M11">
+    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M1048565:M1048576">
-    <cfRule type="duplicateValues" dxfId="34" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1048565:N1048576">
-    <cfRule type="duplicateValues" dxfId="33" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M14:M1048564 M1:M11">
-    <cfRule type="duplicateValues" dxfId="19" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="17" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="duplicateValues" dxfId="16" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M12">
-    <cfRule type="duplicateValues" dxfId="15" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M13">
-    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O18">
-    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8401,16 +8205,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M1:M8">
-    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2">
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8420,7 +8224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B928E5-8912-4A3C-9609-DB7127AEEA71}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>

--- a/Overview_Studies.xlsx
+++ b/Overview_Studies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f2d186216cf91ab/Bidlung/University/M.S. Leiden University/M.S. Neuroscience (Research)/Internship Groningen/GitHub_Multiverse_meta/MetaAnalysis-Psilo-Cognition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="458" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3245ECD-1FAE-4FF6-81FA-A378E395BF6E}"/>
+  <xr:revisionPtr revIDLastSave="514" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56693F94-A594-40BE-B084-BD612C5EE224}"/>
   <bookViews>
-    <workbookView xWindow="7950" yWindow="-17865" windowWidth="21600" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19065" yWindow="-16200" windowWidth="9870" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="267">
   <si>
     <t>CognitiveFunction</t>
   </si>
@@ -215,151 +215,6 @@
   <si>
     <t xml:space="preserve">RT, Discriminability
 </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Figure S6 Response Times: 2-back (1st quartile, median, 3rd quartile)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Placebo: 413.88, 446.17, 595.69
-10mg: 456.94, 553.83, 588.52
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Figure S6 Response Times: 2-back (1st quartile, median, 3rd quartile)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Placebo: 413.88, 446.17, 595.69
-10mg: 456.94, 553.83, 588.52
-20mg: 562.20, 614.83, 704.55
-30mg: 627.99, 694.98, 807.42
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Figure S4: Discriminality in the Letter-N-Back (1st quartile, median, 3rd quartile)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-0back:
-0mg(placebo): NA
-10mg: NA
-20mg: 1.00 0.96 0.93 
-30mg:1.00 0.93 0.90 
-400mg 1.00 0.97 0.93
-1Back:
-0mg(placebo): 1.00 0.94 0.90 
-10mg: 1.00 0.94 0.87 
-20mg:1.00 0.97 0.85 0.70 
-30mg: 1.00 0.97 0.77 0.59 
-400mg DXM:1.00 0.93 0.83
-2Back:
-0mg(placebo):NA
-10mg:1.00 0.93 0.86 0.77 
-20mg:1.00 0.95 0.87 0.77 0.67 
-30mg:1.00 0.87 0.80 0.67 0.54 
-400mg DXM:1.00 0.93 0.80 0.74
-</t>
-    </r>
-  </si>
-  <si>
-    <t>2-back was used for the calcualtion of EF</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Figure S6 Response Times: 2-back (1st quartile, median, 3rd quartile)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Placebo: 413.88, 446.17, 595.69
-20mg: 562.20, 614.83, 704.55
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Figure S6 Response Times: 2-back (1st quartile, median, 3rd quartile)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Placebo: 413.88, 446.17, 595.69
-30mg: 627.99, 694.98, 807.42</t>
-    </r>
-  </si>
-  <si>
-    <t>1.859629</t>
   </si>
   <si>
     <t>Conflict monitoring</t>
@@ -1645,12 +1500,6 @@
     </r>
   </si>
   <si>
-    <t>Med in paper = very low in our coding
-High in paper = low in our coding
-Ef other= Span length
-For assumptions underlying the calcualtions see R file!</t>
-  </si>
-  <si>
     <t>T360 Placebo: 7.81 ± 0.76
 T360 Med: 7.39 ± 0.64</t>
   </si>
@@ -1880,18 +1729,6 @@
     <t>-0.4025393</t>
   </si>
   <si>
-    <t>-0.2994538</t>
-  </si>
-  <si>
-    <t>0.7780865</t>
-  </si>
-  <si>
-    <t>-0.1000337</t>
-  </si>
-  <si>
-    <t>only included  incongruent trials</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 Part B (median, 1st quartile, 3rd quartile)
 # Psilo:   42.13, 36.71, 48.31
@@ -1921,108 +1758,6 @@
     <t>1=pure (eg oncong -congruent)
 2= specific EF condition(eg incongruent)
 3= general EF(eg main effect of drug averaged across incong&amp; congruent)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Figure S6 Response Times: 2-back (median, -1.5IQR, +1.5IQR)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Placeo 0 Back: Mean405.07 Upper452.78 Lower 294.73
-Placebo 1 Back Mean 408.05 upper, 680.91 lower 324.55
-Placebo 2 Back mean 405.07 upper 774.85 lower 293.24 
-10mg 0 Back mean384.19 upper 539.26 lower 315.61
-10 Mg 1 Back mean 458.75 upper 680.91 lower 337.97
-10mg 2 Back mean 525.84 upper 753.98 lower 348.41
-20mg 0 Back mean 428.93 upper 624.25 lower 336.48
-20mg 1 Back mean 464.71 upper 691.35 lower, 314.12
-20mg 2 Back mean, 589.96 upper  776.34 lower 340.95
-30mg 0 Back mean 434.89 upper 497.51 lower 388.67
-30mg 1 Back mean 524.35 upper  668.99Bar32, 351.39
-30mg 2 Back mean 676.44 upper 867.30 lower 402.09
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Figure S6 Response Times: 2-back (1st quartile, median, 3rd quartile)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Placebo: 413.88, 446.17, 595.69
-10mg: 456.94, 553.83, 588.52
-20mg: 562.20, 614.83, 704.55
-30mg: 627.99, 694.98, 807.42
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Figure S4: Discriminality in the Letter-N-Back (1st quartile, median, 3rd quartile)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-0back:
-0mg(placebo): NA
-10mg: NA
-20mg: 1.00 0.96 0.93 
-30mg:1.00 0.93 0.90 
-400mg 1.00 0.97 0.93
-1Back:
-0mg(placebo): 1.00 0.94 0.90 
-10mg: 1.00 0.94 0.87 
-20mg:1.00 0.97 0.85 0.70 
-30mg: 1.00 0.97 0.77 0.59 
-400mg DXM:1.00 0.93 0.83
-2Back:
-0mg(placebo):NA
-10mg:1.00 0.93 0.86 0.77 
-20mg:1.00 0.95 0.87 0.77 0.67 
-30mg:1.00 0.87 0.80 0.67 0.54 
-400mg DXM:1.00 0.93 0.80 0.74
-</t>
-    </r>
   </si>
   <si>
     <t>(-) Since accuracy is inherently the complement of error rates (accuracy = 1 - error rate), we calculated Cohen's d based on the error rates. To align our interpretation with conventional standards where higher scores denote greater accuracy, we multiplied the calculated Cohen's d for error rates by -1. This adjustment ensures that our reported effect sizes are consistent and directly comparable to other measures of accuracy within our dataset
@@ -2128,26 +1863,207 @@
     <t>1.444</t>
   </si>
   <si>
-    <t>0.915</t>
-  </si>
-  <si>
-    <t>1.395</t>
-  </si>
-  <si>
     <t>2.0862</t>
   </si>
   <si>
-    <t>only included  NoGo trials</t>
-  </si>
-  <si>
     <t>Y, to 1: Nogo-Go</t>
   </si>
   <si>
-    <t xml:space="preserve">RT, ACC
+    <t>Med in paper = very low in our coding
+High in paper = low in our coding
+For assumptions underlying the calcualtions see R file!
+-Acc = spanlength/9</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Figure S6 Response Times: 2-back (1st quartile, median, 3rd quartile)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Placebo: 413.88, 446.17, 595.69
+10mg: 456.94, 553.83, 588.52
+##0-back (1st quartile, median, 3rd quartile)
+#Placebo: 385.97, 444.44, 477.58
+#10mg: 395.71, 424.95, 467.84
+#20mg: 413.26, 463.94, 545.81
+#30mg: 450.29, 471.74, 510.72
 </t>
-  </si>
-  <si>
-    <t>Y to 1, go-gng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Figure S6 Response Times: 2-back (1st quartile, median, 3rd quartile)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Placebo: 413.88, 446.17, 595.69
+30mg: 627.99, 694.98, 807.42
+##0-back (1st quartile, median, 3rd quartile)
+#Placebo: 385.97, 444.44, 477.58
+#10mg: 395.71, 424.95, 467.84
+#20mg: 413.26, 463.94, 545.81
+#30mg: 450.29, 471.74, 510.72</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Figure S6 Response Times: 2-back (1st quartile, median, 3rd quartile)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Placebo: 413.88, 446.17, 595.69
+20mg: 562.20, 614.83, 704.55
+##0-back (1st quartile, median, 3rd quartile)
+#Placebo: 385.97, 444.44, 477.58
+#10mg: 395.71, 424.95, 467.84
+#20mg: 413.26, 463.94, 545.81
+#30mg: 450.29, 471.74, 510.72
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Figure S6 Response Times: 2-back (1st quartile, median, 3rd quartile)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Placebo: 413.88, 446.17, 595.69
+10mg: 456.94, 553.83, 588.52
+20mg: 562.20, 614.83, 704.55
+30mg: 627.99, 694.98, 807.42
+##0-back (1st quartile, median, 3rd quartile)
+#Placebo: 385.97, 444.44, 477.58
+#10mg: 395.71, 424.95, 467.84
+#20mg: 413.26, 463.94, 545.81
+#30mg: 450.29, 471.74, 510.72
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Figure S4: Discriminality in the Letter-N-Back (1st quartile, median, 3rd quartile)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0back:
+0mg(placebo): NA
+10mg: NA
+20mg: 1.00 0.96 0.93 
+30mg:1.00 0.93 0.90 
+400mg 1.00 0.97 0.93
+1Back:
+0mg(placebo): 1.00 0.94 0.90 
+10mg: 1.00 0.94 0.87 
+20mg:1.00 0.97 0.85 0.70 
+30mg: 1.00 0.97 0.77 0.59 
+400mg DXM:1.00 0.93 0.83
+2Back:
+0mg(placebo):NA
+10mg:1.00 0.93 0.86 0.77 
+20mg:1.00 0.95 0.87 0.77 0.67 
+30mg:1.00 0.87 0.80 0.67 0.54 
+400mg DXM:1.00 0.93 0.80 0.74
+</t>
+    </r>
+  </si>
+  <si>
+    <t>2-back-1-back was used for the calcualtion of EF</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>1.36</t>
+  </si>
+  <si>
+    <t>1.89</t>
+  </si>
+  <si>
+    <t>-0.1071133</t>
+  </si>
+  <si>
+    <t>0.5149263</t>
+  </si>
+  <si>
+    <t>cohens d based on  incongruent -congruent rials</t>
+  </si>
+  <si>
+    <t>1=pure (eg incong -congruent)
+2= specific EF condition(eg incongruent)
+3= general EF(eg main effect of drug averaged across incong&amp; congruent)</t>
+  </si>
+  <si>
+    <t>cohens d based on Nogo-Go trials</t>
+  </si>
+  <si>
+    <t>-0.009562515</t>
   </si>
 </sst>
 </file>
@@ -2495,7 +2411,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2699,9 +2615,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2737,7 +2650,247 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="56">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3350,7 +3503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}">
   <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="86" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -3371,9 +3524,9 @@
     <col min="16" max="16" width="20.28515625" customWidth="1"/>
     <col min="17" max="17" width="32.42578125" customWidth="1"/>
     <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28" style="75" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="75"/>
-    <col min="21" max="21" width="18.28515625" style="75" customWidth="1"/>
+    <col min="19" max="19" width="28" style="74" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="74"/>
+    <col min="21" max="21" width="18.28515625" style="74" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3384,13 +3537,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>36</v>
@@ -3429,14 +3582,14 @@
         <v>9</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="S1" s="73" t="s">
-        <v>255</v>
+        <v>233</v>
+      </c>
+      <c r="S1" s="72" t="s">
+        <v>243</v>
       </c>
       <c r="T1" s="54"/>
-      <c r="U1" s="74" t="s">
-        <v>259</v>
+      <c r="U1" s="73" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -3474,28 +3627,28 @@
         <v>180</v>
       </c>
       <c r="L2" s="53" t="s">
-        <v>50</v>
+        <v>253</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="66" t="s">
-        <v>51</v>
+      <c r="P2" s="65" t="s">
+        <v>256</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>52</v>
+        <v>257</v>
       </c>
       <c r="R2" s="19">
         <v>1</v>
       </c>
-      <c r="S2" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77" t="s">
-        <v>258</v>
+      <c r="S2" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="276" thickBot="1" x14ac:dyDescent="0.45">
@@ -3503,7 +3656,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>10</v>
@@ -3515,45 +3668,45 @@
         <v>11</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G3" s="15">
         <v>20</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I3" s="16" t="s">
         <v>14</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K3" s="15">
         <v>240</v>
       </c>
       <c r="L3" s="47" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="70" t="s">
-        <v>61</v>
+      <c r="P3" s="69" t="s">
+        <v>55</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="R3" s="19">
         <v>3</v>
       </c>
-      <c r="S3" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
+      <c r="S3" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
     </row>
     <row r="4" spans="1:22" ht="321.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="12">
@@ -3581,7 +3734,7 @@
         <v>12</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J4" s="15">
         <v>10</v>
@@ -3590,29 +3743,29 @@
         <v>120</v>
       </c>
       <c r="L4" s="53" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="M4" s="52"/>
       <c r="N4" s="52" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="P4" s="70" t="s">
-        <v>260</v>
+        <v>61</v>
+      </c>
+      <c r="P4" s="69" t="s">
+        <v>248</v>
       </c>
       <c r="Q4" s="56" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="R4" s="19">
         <v>3</v>
       </c>
-      <c r="S4" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
+      <c r="S4" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
     </row>
     <row r="5" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="12">
@@ -3640,7 +3793,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J5" s="15">
         <v>10</v>
@@ -3648,26 +3801,26 @@
       <c r="K5" s="15">
         <v>240</v>
       </c>
-      <c r="L5" s="78" t="s">
-        <v>69</v>
+      <c r="L5" s="77" t="s">
+        <v>63</v>
       </c>
       <c r="M5" s="52"/>
       <c r="N5" s="52" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="17"/>
       <c r="Q5" s="57" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="R5" s="19">
         <v>3</v>
       </c>
-      <c r="S5" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T5" s="77"/>
-      <c r="U5" s="77"/>
+      <c r="S5" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
     </row>
     <row r="6" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="12">
@@ -3695,7 +3848,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J6" s="15">
         <v>10</v>
@@ -3704,25 +3857,25 @@
         <v>360</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="M6" s="52"/>
       <c r="N6" s="52" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="17"/>
       <c r="Q6" s="34" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="R6" s="19">
         <v>3</v>
       </c>
-      <c r="S6" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T6" s="77"/>
-      <c r="U6" s="77"/>
+      <c r="S6" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
     </row>
     <row r="7" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="12">
@@ -3750,7 +3903,7 @@
         <v>12</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J7" s="15">
         <v>20</v>
@@ -3759,25 +3912,25 @@
         <v>240</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="M7" s="52"/>
       <c r="N7" s="52" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="17"/>
       <c r="Q7" s="34" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="R7" s="19">
         <v>3</v>
       </c>
-      <c r="S7" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T7" s="77"/>
-      <c r="U7" s="77"/>
+      <c r="S7" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T7" s="76"/>
+      <c r="U7" s="76"/>
     </row>
     <row r="8" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="12">
@@ -3812,30 +3965,30 @@
         <v>180</v>
       </c>
       <c r="L8" s="53" t="s">
-        <v>53</v>
+        <v>255</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="65" t="s">
-        <v>51</v>
+        <v>256</v>
       </c>
       <c r="Q8" s="19" t="s">
-        <v>52</v>
+        <v>257</v>
       </c>
       <c r="R8" s="19">
         <v>1</v>
       </c>
-      <c r="S8" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T8" s="77" t="s">
-        <v>256</v>
-      </c>
-      <c r="U8" s="77" t="s">
-        <v>258</v>
+      <c r="S8" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T8" s="76" t="s">
+        <v>244</v>
+      </c>
+      <c r="U8" s="76" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -3843,7 +3996,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>10</v>
@@ -3855,45 +4008,45 @@
         <v>44</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G9" s="15">
         <v>20</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I9" s="16" t="s">
         <v>14</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K9" s="15">
         <v>240</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="17" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="R9" s="19">
         <v>3</v>
       </c>
-      <c r="S9" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T9" s="77"/>
-      <c r="U9" s="77"/>
+      <c r="S9" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T9" s="76"/>
+      <c r="U9" s="76"/>
     </row>
     <row r="10" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="12">
@@ -3921,7 +4074,7 @@
         <v>12</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J10" s="15">
         <v>20</v>
@@ -3930,29 +4083,29 @@
         <v>120</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M10" s="52"/>
       <c r="N10" s="52" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="P10" s="17" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="R10" s="19">
         <v>3</v>
       </c>
-      <c r="S10" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T10" s="77"/>
-      <c r="U10" s="77"/>
+      <c r="S10" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T10" s="76"/>
+      <c r="U10" s="76"/>
     </row>
     <row r="11" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="12">
@@ -3977,39 +4130,39 @@
         <v>16</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="I11" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="J11" s="15" t="s">
         <v>164</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>170</v>
       </c>
       <c r="K11" s="15">
         <v>105</v>
       </c>
       <c r="L11" s="53" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="P11" s="59" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="Q11" s="56" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="R11" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="S11" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T11" s="77"/>
-      <c r="U11" s="77"/>
+        <v>240</v>
+      </c>
+      <c r="S11" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T11" s="76"/>
+      <c r="U11" s="76"/>
     </row>
     <row r="12" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="12">
@@ -4037,7 +4190,7 @@
         <v>12</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J12" s="15">
         <v>20</v>
@@ -4046,25 +4199,25 @@
         <v>360</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="M12" s="52"/>
       <c r="N12" s="52" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="17"/>
       <c r="Q12" s="19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="R12" s="19">
         <v>3</v>
       </c>
-      <c r="S12" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T12" s="77"/>
-      <c r="U12" s="77"/>
+      <c r="S12" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T12" s="76"/>
+      <c r="U12" s="76"/>
     </row>
     <row r="13" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="12">
@@ -4092,7 +4245,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J13" s="15">
         <v>30</v>
@@ -4101,25 +4254,25 @@
         <v>240</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="M13" s="52"/>
       <c r="N13" s="52" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="19" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="R13" s="19">
         <v>3</v>
       </c>
-      <c r="S13" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T13" s="77"/>
-      <c r="U13" s="77"/>
+      <c r="S13" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T13" s="76"/>
+      <c r="U13" s="76"/>
     </row>
     <row r="14" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="12">
@@ -4147,7 +4300,7 @@
         <v>12</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J14" s="15">
         <v>30</v>
@@ -4156,25 +4309,25 @@
         <v>360</v>
       </c>
       <c r="L14" s="63" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="M14" s="52"/>
       <c r="N14" s="52" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="15"/>
       <c r="Q14" s="19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="R14" s="19">
         <v>3</v>
       </c>
-      <c r="S14" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T14" s="77"/>
-      <c r="U14" s="77"/>
+      <c r="S14" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T14" s="76"/>
+      <c r="U14" s="76"/>
     </row>
     <row r="15" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="12">
@@ -4193,7 +4346,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G15" s="15">
         <v>8</v>
@@ -4202,7 +4355,7 @@
         <v>19</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J15" s="15" t="s">
         <v>28</v>
@@ -4211,28 +4364,28 @@
         <v>120</v>
       </c>
       <c r="L15" s="53" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="52" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="66" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="Q15" s="19" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="R15" s="19">
         <v>2</v>
       </c>
-      <c r="S15" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T15" s="77"/>
-      <c r="U15" s="77"/>
-      <c r="V15" s="76"/>
+      <c r="S15" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T15" s="76"/>
+      <c r="U15" s="76"/>
+      <c r="V15" s="75"/>
     </row>
     <row r="16" spans="1:22" ht="293.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="12">
@@ -4251,7 +4404,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G16" s="15">
         <v>8</v>
@@ -4260,7 +4413,7 @@
         <v>18</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="J16" s="15" t="s">
         <v>28</v>
@@ -4269,34 +4422,34 @@
         <v>120</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="O16" s="2"/>
-      <c r="P16" s="70" t="s">
-        <v>92</v>
+      <c r="P16" s="69" t="s">
+        <v>86</v>
       </c>
       <c r="Q16" s="15" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="R16" s="19">
         <v>1</v>
       </c>
-      <c r="S16" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T16" s="77"/>
-      <c r="U16" s="77"/>
+      <c r="S16" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T16" s="76"/>
+      <c r="U16" s="76"/>
     </row>
     <row r="17" spans="1:21" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="25">
         <v>3</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>20</v>
@@ -4308,7 +4461,7 @@
         <v>21</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G17" s="15">
         <v>34</v>
@@ -4320,33 +4473,33 @@
         <v>43</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K17" s="15">
         <v>180</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="18"/>
       <c r="Q17" s="19" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="R17" s="19">
-        <v>2</v>
-      </c>
-      <c r="S17" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T17" s="77"/>
-      <c r="U17" s="77"/>
+        <v>1</v>
+      </c>
+      <c r="S17" s="75" t="s">
+        <v>264</v>
+      </c>
+      <c r="T17" s="76"/>
+      <c r="U17" s="76"/>
     </row>
     <row r="18" spans="1:21" ht="288.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="12">
@@ -4365,7 +4518,7 @@
         <v>21</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G18" s="15">
         <v>34</v>
@@ -4377,17 +4530,17 @@
         <v>43</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K18" s="15">
         <v>150</v>
       </c>
       <c r="L18" s="53" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="18"/>
@@ -4395,13 +4548,13 @@
         <v>265</v>
       </c>
       <c r="R18" s="19">
-        <v>2</v>
-      </c>
-      <c r="S18" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T18" s="77"/>
-      <c r="U18" s="77"/>
+        <v>1</v>
+      </c>
+      <c r="S18" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T18" s="76"/>
+      <c r="U18" s="76"/>
     </row>
     <row r="19" spans="1:21" ht="303" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="12">
@@ -4420,47 +4573,47 @@
         <v>21</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G19" s="15">
         <v>34</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I19" s="16" t="s">
         <v>43</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K19" s="19">
         <v>180</v>
       </c>
       <c r="L19" s="53" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="18"/>
       <c r="Q19" s="56" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="R19" s="19">
         <v>1</v>
       </c>
-      <c r="S19" s="76" t="s">
+      <c r="S19" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T19" s="76" t="s">
         <v>245</v>
       </c>
-      <c r="T19" s="77" t="s">
-        <v>257</v>
-      </c>
-      <c r="U19" s="77">
+      <c r="U19" s="76">
         <v>1</v>
       </c>
     </row>
@@ -4481,45 +4634,45 @@
         <v>21</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G20" s="15">
         <v>34</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K20" s="19">
         <v>60</v>
       </c>
       <c r="L20" s="65" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="66" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="Q20" s="19" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="R20" s="19">
         <v>2</v>
       </c>
-      <c r="S20" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T20" s="77"/>
-      <c r="U20" s="77"/>
+      <c r="S20" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T20" s="76"/>
+      <c r="U20" s="76"/>
     </row>
     <row r="21" spans="1:21" ht="274.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="25">
@@ -4538,16 +4691,16 @@
         <v>11</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G21" s="28">
         <v>16</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I21" s="67" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="J21" s="28">
         <v>14</v>
@@ -4556,25 +4709,25 @@
         <v>85</v>
       </c>
       <c r="L21" s="68" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="51"/>
       <c r="Q21" s="67" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="R21" s="19">
         <v>1</v>
       </c>
-      <c r="S21" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T21" s="77"/>
-      <c r="U21" s="77"/>
+      <c r="S21" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T21" s="76"/>
+      <c r="U21" s="76"/>
     </row>
     <row r="22" spans="1:21" ht="288.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="12">
@@ -4593,7 +4746,7 @@
         <v>21</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G22" s="15">
         <v>8</v>
@@ -4602,38 +4755,38 @@
         <v>27</v>
       </c>
       <c r="I22" s="55" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="K22" s="15">
         <v>140</v>
       </c>
       <c r="L22" s="17" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="P22" s="18" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="19" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="R22" s="19">
         <v>2</v>
       </c>
-      <c r="S22" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T22" s="77"/>
-      <c r="U22" s="77"/>
+      <c r="S22" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T22" s="76"/>
+      <c r="U22" s="76"/>
     </row>
     <row r="23" spans="1:21" ht="288.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="12">
@@ -4652,47 +4805,47 @@
         <v>11</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G23" s="15">
         <v>8</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="I23" s="55" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="K23" s="15">
         <v>140</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="P23" s="50" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="Q23" s="19" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="R23" s="19">
         <v>2</v>
       </c>
-      <c r="S23" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T23" s="77"/>
-      <c r="U23" s="77"/>
+      <c r="S23" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T23" s="76"/>
+      <c r="U23" s="76"/>
     </row>
     <row r="24" spans="1:21" ht="288.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="12">
@@ -4711,16 +4864,16 @@
         <v>11</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G24" s="15">
         <v>8</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="I24" s="55" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="J24" s="15" t="s">
         <v>28</v>
@@ -4729,29 +4882,29 @@
         <v>140</v>
       </c>
       <c r="L24" s="17" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="P24" s="18" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="Q24" s="56" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="R24" s="19">
         <v>2</v>
       </c>
-      <c r="S24" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T24" s="77"/>
-      <c r="U24" s="77"/>
+      <c r="S24" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T24" s="76"/>
+      <c r="U24" s="76"/>
     </row>
     <row r="25" spans="1:21" ht="243" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="12">
@@ -4770,7 +4923,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G25" s="15">
         <v>17</v>
@@ -4779,7 +4932,7 @@
         <v>30</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="J25" s="15" t="s">
         <v>28</v>
@@ -4788,34 +4941,34 @@
         <v>120</v>
       </c>
       <c r="L25" s="53" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="P25" s="18"/>
       <c r="Q25" s="56" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="R25" s="19">
         <v>3</v>
       </c>
-      <c r="S25" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T25" s="77"/>
-      <c r="U25" s="77"/>
+      <c r="S25" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T25" s="76"/>
+      <c r="U25" s="76"/>
     </row>
     <row r="26" spans="1:21" ht="168" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="12">
         <v>8</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>31</v>
@@ -4827,7 +4980,7 @@
         <v>11</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G26" s="15">
         <v>16</v>
@@ -4839,35 +4992,35 @@
         <v>43</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="K26" s="15">
         <v>85</v>
       </c>
-      <c r="L26" s="71" t="s">
-        <v>159</v>
+      <c r="L26" s="70" t="s">
+        <v>153</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="14" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="Q26" s="19" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="R26" s="19">
         <v>2</v>
       </c>
-      <c r="S26" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T26" s="77"/>
-      <c r="U26" s="77"/>
+      <c r="S26" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T26" s="76"/>
+      <c r="U26" s="76"/>
     </row>
     <row r="27" spans="1:21" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="33">
@@ -4892,39 +5045,39 @@
         <v>16</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="I27" s="45" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="K27" s="15">
         <v>105</v>
       </c>
       <c r="L27" s="53" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="P27" s="58" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="Q27" s="19" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="R27" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="S27" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T27" s="77"/>
-      <c r="U27" s="77"/>
+        <v>240</v>
+      </c>
+      <c r="S27" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T27" s="76"/>
+      <c r="U27" s="76"/>
     </row>
     <row r="28" spans="1:21" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="12">
@@ -4943,7 +5096,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G28" s="15">
         <v>12</v>
@@ -4952,36 +5105,36 @@
         <v>19</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="K28" s="15">
         <v>100</v>
       </c>
       <c r="L28" s="53" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2" t="s">
-        <v>180</v>
-      </c>
+      <c r="N28" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q28" s="72" t="s">
-        <v>182</v>
-      </c>
-      <c r="R28" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q28" s="71" t="s">
         <v>252</v>
       </c>
-      <c r="S28" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T28" s="77"/>
-      <c r="U28" s="77"/>
+      <c r="R28" s="19">
+        <v>2</v>
+      </c>
+      <c r="S28" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T28" s="76"/>
+      <c r="U28" s="76"/>
     </row>
     <row r="29" spans="1:21" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="12">
@@ -5000,7 +5153,7 @@
         <v>11</v>
       </c>
       <c r="F29" s="35" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G29" s="36">
         <v>12</v>
@@ -5009,36 +5162,36 @@
         <v>19</v>
       </c>
       <c r="I29" s="46" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J29" s="36" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="K29" s="36">
         <v>360</v>
       </c>
       <c r="L29" s="63" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2" t="s">
-        <v>184</v>
-      </c>
+      <c r="N29" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q29" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="R29" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q29" s="71" t="s">
         <v>252</v>
       </c>
-      <c r="S29" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T29" s="77"/>
-      <c r="U29" s="77"/>
+      <c r="R29" s="19">
+        <v>2</v>
+      </c>
+      <c r="S29" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T29" s="76"/>
+      <c r="U29" s="76"/>
     </row>
     <row r="30" spans="1:21" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="12">
@@ -5057,7 +5210,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="38" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G30" s="21">
         <v>12</v>
@@ -5066,36 +5219,36 @@
         <v>19</v>
       </c>
       <c r="I30" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="J30" s="21" t="s">
         <v>178</v>
-      </c>
-      <c r="J30" s="21" t="s">
-        <v>185</v>
       </c>
       <c r="K30" s="21">
         <v>100</v>
       </c>
       <c r="L30" s="37" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2" t="s">
-        <v>187</v>
-      </c>
+      <c r="N30" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q30" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="R30" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q30" s="71" t="s">
         <v>252</v>
       </c>
-      <c r="S30" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T30" s="77"/>
-      <c r="U30" s="77"/>
+      <c r="R30" s="19">
+        <v>2</v>
+      </c>
+      <c r="S30" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T30" s="76"/>
+      <c r="U30" s="76"/>
     </row>
     <row r="31" spans="1:21" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="12">
@@ -5114,7 +5267,7 @@
         <v>11</v>
       </c>
       <c r="F31" s="38" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G31" s="21">
         <v>12</v>
@@ -5123,36 +5276,36 @@
         <v>19</v>
       </c>
       <c r="I31" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="J31" s="21" t="s">
         <v>178</v>
-      </c>
-      <c r="J31" s="21" t="s">
-        <v>185</v>
       </c>
       <c r="K31" s="21">
         <v>360</v>
       </c>
       <c r="L31" s="37" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2" t="s">
-        <v>189</v>
-      </c>
+      <c r="N31" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q31" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="R31" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q31" s="71" t="s">
         <v>252</v>
       </c>
-      <c r="S31" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T31" s="77"/>
-      <c r="U31" s="77"/>
+      <c r="R31" s="19">
+        <v>2</v>
+      </c>
+      <c r="S31" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T31" s="76"/>
+      <c r="U31" s="76"/>
     </row>
     <row r="32" spans="1:21" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="12">
@@ -5171,7 +5324,7 @@
         <v>21</v>
       </c>
       <c r="F32" s="38" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="G32" s="34">
         <v>40</v>
@@ -5183,36 +5336,36 @@
         <v>14</v>
       </c>
       <c r="J32" s="34" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="K32" s="34">
         <v>90</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="P32" s="41" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="Q32" s="57" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="R32" s="19">
         <v>2</v>
       </c>
-      <c r="S32" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T32" s="77"/>
-      <c r="U32" s="77" t="s">
-        <v>266</v>
+      <c r="S32" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T32" s="76"/>
+      <c r="U32" s="76" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -5236,10 +5389,10 @@
         <v>19</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="I33" s="40" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="J33" s="21">
         <v>15</v>
@@ -5248,27 +5401,27 @@
         <v>225</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q33" s="72" t="s">
-        <v>253</v>
+        <v>190</v>
+      </c>
+      <c r="Q33" s="71" t="s">
+        <v>241</v>
       </c>
       <c r="R33" s="19">
         <v>2</v>
       </c>
-      <c r="S33" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T33" s="77"/>
-      <c r="U33" s="77"/>
+      <c r="S33" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T33" s="76"/>
+      <c r="U33" s="76"/>
     </row>
     <row r="34" spans="1:21" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="12">
@@ -5287,7 +5440,7 @@
         <v>11</v>
       </c>
       <c r="F34" s="38" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G34" s="21">
         <v>19</v>
@@ -5296,7 +5449,7 @@
         <v>12</v>
       </c>
       <c r="I34" s="40" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="J34" s="21">
         <v>15</v>
@@ -5305,25 +5458,25 @@
         <v>172</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="62" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="Q34" s="34"/>
       <c r="R34" s="19">
         <v>3</v>
       </c>
-      <c r="S34" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T34" s="77"/>
-      <c r="U34" s="77"/>
+      <c r="S34" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T34" s="76"/>
+      <c r="U34" s="76"/>
     </row>
     <row r="35" spans="1:21" ht="231.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="12">
@@ -5342,16 +5495,16 @@
         <v>11</v>
       </c>
       <c r="F35" s="38" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G35" s="21">
         <v>21</v>
       </c>
       <c r="H35" s="21" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="I35" s="40" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="J35" s="21">
         <v>15</v>
@@ -5360,25 +5513,25 @@
         <v>153</v>
       </c>
       <c r="L35" s="49" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="3" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="Q35" s="34"/>
       <c r="R35" s="19">
         <v>3</v>
       </c>
-      <c r="S35" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T35" s="77"/>
-      <c r="U35" s="77"/>
+      <c r="S35" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T35" s="76"/>
+      <c r="U35" s="76"/>
     </row>
     <row r="36" spans="1:21" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="12">
@@ -5397,13 +5550,13 @@
         <v>11</v>
       </c>
       <c r="F36" s="38" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G36" s="21">
         <v>21</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="I36" s="40" t="s">
         <v>14</v>
@@ -5415,10 +5568,10 @@
         <v>166</v>
       </c>
       <c r="L36" s="37" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5427,11 +5580,11 @@
       <c r="R36" s="19">
         <v>2</v>
       </c>
-      <c r="S36" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T36" s="77"/>
-      <c r="U36" s="77"/>
+      <c r="S36" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T36" s="76"/>
+      <c r="U36" s="76"/>
     </row>
     <row r="37" spans="1:21" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="12">
@@ -5466,30 +5619,30 @@
         <v>180</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>55</v>
+        <v>260</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
-      <c r="P37" s="69" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q37" s="34" t="s">
-        <v>52</v>
+      <c r="P37" s="65" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q37" s="19" t="s">
+        <v>257</v>
       </c>
       <c r="R37" s="19">
         <v>1</v>
       </c>
-      <c r="S37" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T37" s="77" t="s">
-        <v>256</v>
-      </c>
-      <c r="U37" s="77" t="s">
-        <v>258</v>
+      <c r="S37" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T37" s="76" t="s">
+        <v>244</v>
+      </c>
+      <c r="U37" s="76" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -5497,7 +5650,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C38" s="21" t="s">
         <v>10</v>
@@ -5509,13 +5662,13 @@
         <v>37</v>
       </c>
       <c r="F38" s="38" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G38" s="21">
         <v>20</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I38" s="40" t="s">
         <v>14</v>
@@ -5527,27 +5680,27 @@
         <v>240</v>
       </c>
       <c r="L38" s="48" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="38" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="Q38" s="21" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="R38" s="19">
         <v>3</v>
       </c>
-      <c r="S38" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T38" s="77"/>
-      <c r="U38" s="77"/>
+      <c r="S38" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T38" s="76"/>
+      <c r="U38" s="76"/>
     </row>
     <row r="39" spans="1:21" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="42">
@@ -5575,7 +5728,7 @@
         <v>12</v>
       </c>
       <c r="I39" s="40" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J39" s="21">
         <v>30</v>
@@ -5584,29 +5737,29 @@
         <v>120</v>
       </c>
       <c r="L39" s="37" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="M39" s="52"/>
       <c r="N39" s="52" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="P39" s="79" t="s">
-        <v>81</v>
+        <v>74</v>
+      </c>
+      <c r="P39" s="78" t="s">
+        <v>75</v>
       </c>
       <c r="Q39" s="34" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="R39" s="19">
         <v>3</v>
       </c>
-      <c r="S39" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T39" s="77"/>
-      <c r="U39" s="77"/>
+      <c r="S39" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T39" s="76"/>
+      <c r="U39" s="76"/>
     </row>
     <row r="40" spans="1:21" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="42">
@@ -5625,47 +5778,47 @@
         <v>44</v>
       </c>
       <c r="F40" s="43" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G40" s="44">
         <v>8</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="I40" s="40" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="J40" s="21" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="K40" s="21">
         <v>140</v>
       </c>
       <c r="L40" s="15" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="P40" s="48" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="Q40" s="57" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="R40" s="19">
         <v>2</v>
       </c>
-      <c r="S40" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T40" s="77"/>
-      <c r="U40" s="77"/>
+      <c r="S40" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T40" s="76"/>
+      <c r="U40" s="76"/>
     </row>
     <row r="41" spans="1:21" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="42">
@@ -5690,85 +5843,85 @@
         <v>16</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="I41" s="61" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="J41" s="21" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="K41" s="21">
         <v>105</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="O41" s="2" t="s">
         <v>42</v>
       </c>
       <c r="P41" s="60" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="Q41" s="57" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="R41" s="19">
         <v>2</v>
       </c>
-      <c r="S41" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T41" s="77"/>
-      <c r="U41" s="77"/>
+      <c r="S41" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T41" s="76"/>
+      <c r="U41" s="76"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:U41" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}"/>
   <conditionalFormatting sqref="M19">
-    <cfRule type="duplicateValues" dxfId="31" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20">
-    <cfRule type="duplicateValues" dxfId="30" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21:M1048576 M1:M18">
-    <cfRule type="duplicateValues" dxfId="29" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="duplicateValues" dxfId="28" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="27" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="duplicateValues" dxfId="26" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="25" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="duplicateValues" dxfId="24" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="duplicateValues" dxfId="23" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="duplicateValues" dxfId="22" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="duplicateValues" dxfId="21" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N39">
-    <cfRule type="duplicateValues" dxfId="20" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25">
-    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32">
-    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5789,19 +5942,19 @@
         <v>4</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G1" s="28">
         <v>21</v>
@@ -5810,29 +5963,29 @@
         <v>22</v>
       </c>
       <c r="I1" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="47" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="Q1" s="28" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -5840,19 +5993,19 @@
         <v>4</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G2" s="28">
         <v>21</v>
@@ -5861,29 +6014,29 @@
         <v>22</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="K2" s="30" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="47" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="Q2" s="28" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -5894,45 +6047,45 @@
         <v>38</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G3" s="28">
         <v>22</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="J3" s="28">
         <v>25</v>
       </c>
       <c r="K3" s="30" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L3" s="31" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="47" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -5943,45 +6096,45 @@
         <v>38</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G4" s="28">
         <v>22</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="J4" s="28">
         <v>25</v>
       </c>
       <c r="K4" s="30" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="L4" s="31" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="47" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="Q4" s="32" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -5994,8 +6147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N21" zoomScale="63" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+    <sheetView topLeftCell="A4" zoomScale="31" zoomScaleNormal="29" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6014,8 +6167,8 @@
     <col min="16" max="16" width="19.42578125" customWidth="1"/>
     <col min="17" max="17" width="17" customWidth="1"/>
     <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="145.140625" style="75" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9.140625" style="75"/>
+    <col min="19" max="19" width="145.140625" style="74" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9.140625" style="74"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6026,13 +6179,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>36</v>
@@ -6071,14 +6224,14 @@
         <v>9</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="S1" s="73" t="s">
-        <v>255</v>
+        <v>233</v>
+      </c>
+      <c r="S1" s="72" t="s">
+        <v>243</v>
       </c>
       <c r="T1" s="54"/>
-      <c r="U1" s="74" t="s">
-        <v>259</v>
+      <c r="U1" s="73" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6116,28 +6269,28 @@
         <v>180</v>
       </c>
       <c r="L2" s="53" t="s">
-        <v>50</v>
+        <v>253</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="66" t="s">
-        <v>51</v>
+      <c r="P2" s="65" t="s">
+        <v>256</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>52</v>
+        <v>257</v>
       </c>
       <c r="R2" s="19">
         <v>1</v>
       </c>
-      <c r="S2" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77" t="s">
-        <v>258</v>
+      <c r="S2" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="276" thickBot="1" x14ac:dyDescent="0.45">
@@ -6145,7 +6298,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>10</v>
@@ -6157,45 +6310,45 @@
         <v>11</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G3" s="15">
         <v>20</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I3" s="16" t="s">
         <v>14</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K3" s="15">
         <v>240</v>
       </c>
       <c r="L3" s="47" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="70" t="s">
-        <v>61</v>
+      <c r="P3" s="69" t="s">
+        <v>55</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="R3" s="19">
         <v>3</v>
       </c>
-      <c r="S3" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
+      <c r="S3" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
     </row>
     <row r="4" spans="1:22" ht="321.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="12">
@@ -6223,7 +6376,7 @@
         <v>12</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J4" s="15">
         <v>10</v>
@@ -6232,29 +6385,29 @@
         <v>120</v>
       </c>
       <c r="L4" s="53" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="M4" s="52"/>
       <c r="N4" s="52" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="P4" s="70" t="s">
-        <v>260</v>
+        <v>61</v>
+      </c>
+      <c r="P4" s="69" t="s">
+        <v>248</v>
       </c>
       <c r="Q4" s="56" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="R4" s="19">
         <v>3</v>
       </c>
-      <c r="S4" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
+      <c r="S4" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
     </row>
     <row r="5" spans="1:22" ht="78" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="12">
@@ -6282,7 +6435,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J5" s="15">
         <v>10</v>
@@ -6290,26 +6443,26 @@
       <c r="K5" s="15">
         <v>240</v>
       </c>
-      <c r="L5" s="78" t="s">
-        <v>69</v>
+      <c r="L5" s="77" t="s">
+        <v>63</v>
       </c>
       <c r="M5" s="52"/>
       <c r="N5" s="52" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="17"/>
       <c r="Q5" s="57" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="R5" s="19">
         <v>3</v>
       </c>
-      <c r="S5" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T5" s="77"/>
-      <c r="U5" s="77"/>
+      <c r="S5" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
     </row>
     <row r="6" spans="1:22" ht="45.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="12">
@@ -6337,7 +6490,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J6" s="15">
         <v>10</v>
@@ -6346,25 +6499,25 @@
         <v>360</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="M6" s="52"/>
       <c r="N6" s="52" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="17"/>
       <c r="Q6" s="34" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="R6" s="19">
         <v>3</v>
       </c>
-      <c r="S6" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T6" s="77"/>
-      <c r="U6" s="77"/>
+      <c r="S6" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
     </row>
     <row r="7" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="12">
@@ -6389,39 +6542,39 @@
         <v>16</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="I7" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="J7" s="15" t="s">
         <v>164</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>170</v>
       </c>
       <c r="K7" s="15">
         <v>105</v>
       </c>
       <c r="L7" s="53" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="P7" s="59" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="Q7" s="56" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="R7" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="S7" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T7" s="77"/>
-      <c r="U7" s="77"/>
+        <v>240</v>
+      </c>
+      <c r="S7" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T7" s="76"/>
+      <c r="U7" s="76"/>
     </row>
     <row r="8" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="12">
@@ -6440,7 +6593,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G8" s="15">
         <v>8</v>
@@ -6449,7 +6602,7 @@
         <v>19</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J8" s="15" t="s">
         <v>28</v>
@@ -6458,28 +6611,28 @@
         <v>120</v>
       </c>
       <c r="L8" s="53" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="52" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="66" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="Q8" s="19" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="R8" s="19">
         <v>2</v>
       </c>
-      <c r="S8" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T8" s="77"/>
-      <c r="U8" s="77"/>
-      <c r="V8" s="76"/>
+      <c r="S8" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T8" s="76"/>
+      <c r="U8" s="76"/>
+      <c r="V8" s="75"/>
     </row>
     <row r="9" spans="1:22" ht="293.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="12">
@@ -6498,7 +6651,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G9" s="15">
         <v>8</v>
@@ -6507,7 +6660,7 @@
         <v>18</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="J9" s="15" t="s">
         <v>28</v>
@@ -6516,34 +6669,34 @@
         <v>120</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="O9" s="2"/>
-      <c r="P9" s="70" t="s">
-        <v>92</v>
+      <c r="P9" s="69" t="s">
+        <v>86</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="R9" s="19">
         <v>1</v>
       </c>
-      <c r="S9" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T9" s="77"/>
-      <c r="U9" s="77"/>
+      <c r="S9" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T9" s="76"/>
+      <c r="U9" s="76"/>
     </row>
     <row r="10" spans="1:22" ht="45.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="25">
         <v>3</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>20</v>
@@ -6555,7 +6708,7 @@
         <v>21</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G10" s="15">
         <v>34</v>
@@ -6567,33 +6720,33 @@
         <v>43</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K10" s="15">
         <v>180</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="18"/>
       <c r="Q10" s="19" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="R10" s="19">
-        <v>2</v>
-      </c>
-      <c r="S10" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T10" s="77"/>
-      <c r="U10" s="77"/>
+        <v>1</v>
+      </c>
+      <c r="S10" s="75" t="s">
+        <v>264</v>
+      </c>
+      <c r="T10" s="76"/>
+      <c r="U10" s="76"/>
     </row>
     <row r="11" spans="1:22" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="12">
@@ -6612,7 +6765,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G11" s="15">
         <v>34</v>
@@ -6624,17 +6777,17 @@
         <v>43</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K11" s="15">
         <v>150</v>
       </c>
       <c r="L11" s="53" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="18"/>
@@ -6642,13 +6795,13 @@
         <v>265</v>
       </c>
       <c r="R11" s="19">
-        <v>2</v>
-      </c>
-      <c r="S11" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T11" s="77"/>
-      <c r="U11" s="77"/>
+        <v>1</v>
+      </c>
+      <c r="S11" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T11" s="76"/>
+      <c r="U11" s="76"/>
     </row>
     <row r="12" spans="1:22" ht="174.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="12">
@@ -6667,47 +6820,47 @@
         <v>21</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G12" s="15">
         <v>34</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I12" s="16" t="s">
         <v>43</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K12" s="19">
         <v>180</v>
       </c>
       <c r="L12" s="53" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="18"/>
       <c r="Q12" s="56" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="R12" s="19">
         <v>1</v>
       </c>
-      <c r="S12" s="76" t="s">
+      <c r="S12" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T12" s="76" t="s">
         <v>245</v>
       </c>
-      <c r="T12" s="77" t="s">
-        <v>257</v>
-      </c>
-      <c r="U12" s="77">
+      <c r="U12" s="76">
         <v>1</v>
       </c>
     </row>
@@ -6728,45 +6881,45 @@
         <v>21</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G13" s="15">
         <v>34</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K13" s="19">
         <v>60</v>
       </c>
       <c r="L13" s="65" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="66" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="Q13" s="19" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="R13" s="19">
         <v>2</v>
       </c>
-      <c r="S13" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T13" s="77"/>
-      <c r="U13" s="77"/>
+      <c r="S13" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T13" s="76"/>
+      <c r="U13" s="76"/>
     </row>
     <row r="14" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="25">
@@ -6785,16 +6938,16 @@
         <v>11</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G14" s="28">
         <v>16</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I14" s="67" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="J14" s="28">
         <v>14</v>
@@ -6803,25 +6956,25 @@
         <v>85</v>
       </c>
       <c r="L14" s="68" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="51"/>
       <c r="Q14" s="67" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="R14" s="19">
         <v>1</v>
       </c>
-      <c r="S14" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T14" s="77"/>
-      <c r="U14" s="77"/>
+      <c r="S14" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T14" s="76"/>
+      <c r="U14" s="76"/>
     </row>
     <row r="15" spans="1:22" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="12">
@@ -6840,7 +6993,7 @@
         <v>21</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G15" s="15">
         <v>8</v>
@@ -6849,38 +7002,38 @@
         <v>27</v>
       </c>
       <c r="I15" s="55" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="K15" s="15">
         <v>140</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="P15" s="18" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="Q15" s="19" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="R15" s="19">
         <v>2</v>
       </c>
-      <c r="S15" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T15" s="77"/>
-      <c r="U15" s="77"/>
+      <c r="S15" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T15" s="76"/>
+      <c r="U15" s="76"/>
     </row>
     <row r="16" spans="1:22" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="12">
@@ -6899,47 +7052,47 @@
         <v>11</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G16" s="15">
         <v>8</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="I16" s="55" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="K16" s="15">
         <v>140</v>
       </c>
       <c r="L16" s="14" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="P16" s="50" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="Q16" s="19" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="R16" s="19">
         <v>2</v>
       </c>
-      <c r="S16" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T16" s="77"/>
-      <c r="U16" s="77"/>
+      <c r="S16" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T16" s="76"/>
+      <c r="U16" s="76"/>
     </row>
     <row r="17" spans="1:21" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="12">
@@ -6958,16 +7111,16 @@
         <v>11</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G17" s="15">
         <v>8</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="I17" s="55" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="J17" s="15" t="s">
         <v>28</v>
@@ -6976,29 +7129,29 @@
         <v>140</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="P17" s="18" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="Q17" s="56" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="R17" s="19">
         <v>2</v>
       </c>
-      <c r="S17" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T17" s="77"/>
-      <c r="U17" s="77"/>
+      <c r="S17" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T17" s="76"/>
+      <c r="U17" s="76"/>
     </row>
     <row r="18" spans="1:21" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="12">
@@ -7017,7 +7170,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G18" s="15">
         <v>17</v>
@@ -7026,7 +7179,7 @@
         <v>30</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="J18" s="15" t="s">
         <v>28</v>
@@ -7035,34 +7188,34 @@
         <v>120</v>
       </c>
       <c r="L18" s="53" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="P18" s="18"/>
       <c r="Q18" s="56" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="R18" s="19">
         <v>3</v>
       </c>
-      <c r="S18" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T18" s="77"/>
-      <c r="U18" s="77"/>
+      <c r="S18" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T18" s="76"/>
+      <c r="U18" s="76"/>
     </row>
     <row r="19" spans="1:21" ht="108" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="12">
         <v>8</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>31</v>
@@ -7074,7 +7227,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G19" s="15">
         <v>16</v>
@@ -7086,35 +7239,35 @@
         <v>43</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="K19" s="15">
         <v>85</v>
       </c>
-      <c r="L19" s="71" t="s">
-        <v>159</v>
+      <c r="L19" s="70" t="s">
+        <v>153</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="14" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="Q19" s="19" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="R19" s="19">
         <v>2</v>
       </c>
-      <c r="S19" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T19" s="77"/>
-      <c r="U19" s="77"/>
+      <c r="S19" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T19" s="76"/>
+      <c r="U19" s="76"/>
     </row>
     <row r="20" spans="1:21" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="33">
@@ -7139,41 +7292,41 @@
         <v>16</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="I20" s="45" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="K20" s="15">
         <v>105</v>
       </c>
       <c r="L20" s="53" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="P20" s="58" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="Q20" s="19" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="R20" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="S20" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T20" s="77"/>
-      <c r="U20" s="77"/>
+        <v>240</v>
+      </c>
+      <c r="S20" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T20" s="76"/>
+      <c r="U20" s="76"/>
     </row>
-    <row r="21" spans="1:21" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:21" ht="174.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="12">
         <v>10</v>
       </c>
@@ -7190,7 +7343,7 @@
         <v>11</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G21" s="15">
         <v>12</v>
@@ -7199,38 +7352,38 @@
         <v>19</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="K21" s="15">
         <v>100</v>
       </c>
       <c r="L21" s="53" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2" t="s">
-        <v>180</v>
-      </c>
+      <c r="N21" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q21" s="72" t="s">
-        <v>182</v>
-      </c>
-      <c r="R21" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q21" s="71" t="s">
         <v>252</v>
       </c>
-      <c r="S21" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T21" s="77"/>
-      <c r="U21" s="77"/>
+      <c r="R21" s="19">
+        <v>2</v>
+      </c>
+      <c r="S21" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T21" s="76"/>
+      <c r="U21" s="76"/>
     </row>
-    <row r="22" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:21" ht="174.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="12">
         <v>10</v>
       </c>
@@ -7247,7 +7400,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G22" s="36">
         <v>12</v>
@@ -7256,38 +7409,38 @@
         <v>19</v>
       </c>
       <c r="I22" s="46" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="K22" s="36">
         <v>360</v>
       </c>
       <c r="L22" s="63" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2" t="s">
-        <v>184</v>
-      </c>
+      <c r="N22" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q22" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="R22" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q22" s="71" t="s">
         <v>252</v>
       </c>
-      <c r="S22" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T22" s="77"/>
-      <c r="U22" s="77"/>
+      <c r="R22" s="19">
+        <v>2</v>
+      </c>
+      <c r="S22" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T22" s="76"/>
+      <c r="U22" s="76"/>
     </row>
-    <row r="23" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:21" ht="174.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="12">
         <v>10</v>
       </c>
@@ -7304,7 +7457,7 @@
         <v>11</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G23" s="21">
         <v>12</v>
@@ -7313,38 +7466,38 @@
         <v>19</v>
       </c>
       <c r="I23" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="J23" s="21" t="s">
         <v>178</v>
-      </c>
-      <c r="J23" s="21" t="s">
-        <v>185</v>
       </c>
       <c r="K23" s="21">
         <v>100</v>
       </c>
       <c r="L23" s="37" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2" t="s">
-        <v>187</v>
-      </c>
+      <c r="N23" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q23" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="R23" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q23" s="71" t="s">
         <v>252</v>
       </c>
-      <c r="S23" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T23" s="77"/>
-      <c r="U23" s="77"/>
+      <c r="R23" s="19">
+        <v>2</v>
+      </c>
+      <c r="S23" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T23" s="76"/>
+      <c r="U23" s="76"/>
     </row>
-    <row r="24" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:21" ht="174.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="12">
         <v>10</v>
       </c>
@@ -7361,7 +7514,7 @@
         <v>11</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G24" s="21">
         <v>12</v>
@@ -7370,36 +7523,36 @@
         <v>19</v>
       </c>
       <c r="I24" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="J24" s="21" t="s">
         <v>178</v>
-      </c>
-      <c r="J24" s="21" t="s">
-        <v>185</v>
       </c>
       <c r="K24" s="21">
         <v>360</v>
       </c>
       <c r="L24" s="37" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2" t="s">
-        <v>189</v>
-      </c>
+      <c r="N24" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q24" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="R24" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q24" s="71" t="s">
         <v>252</v>
       </c>
-      <c r="S24" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T24" s="77"/>
-      <c r="U24" s="77"/>
+      <c r="R24" s="19">
+        <v>2</v>
+      </c>
+      <c r="S24" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T24" s="76"/>
+      <c r="U24" s="76"/>
     </row>
     <row r="25" spans="1:21" ht="78" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="12">
@@ -7418,7 +7571,7 @@
         <v>21</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="G25" s="34">
         <v>40</v>
@@ -7426,43 +7579,43 @@
       <c r="H25" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I25" s="61" t="s">
-        <v>267</v>
+      <c r="I25" s="39" t="s">
+        <v>14</v>
       </c>
       <c r="J25" s="34" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="K25" s="34">
         <v>90</v>
       </c>
-      <c r="L25" s="37" t="s">
-        <v>192</v>
+      <c r="L25" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="P25" s="41" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="Q25" s="57" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="R25" s="19">
         <v>2</v>
       </c>
-      <c r="S25" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T25" s="77"/>
-      <c r="U25" s="77" t="s">
-        <v>268</v>
+      <c r="S25" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T25" s="76"/>
+      <c r="U25" s="76" t="s">
+        <v>251</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="117.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:21" ht="132" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="12">
         <v>12</v>
       </c>
@@ -7483,10 +7636,10 @@
         <v>19</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="I26" s="40" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="J26" s="21">
         <v>15</v>
@@ -7495,27 +7648,27 @@
         <v>225</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q26" s="72" t="s">
-        <v>253</v>
+        <v>190</v>
+      </c>
+      <c r="Q26" s="71" t="s">
+        <v>241</v>
       </c>
       <c r="R26" s="19">
         <v>2</v>
       </c>
-      <c r="S26" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T26" s="77"/>
-      <c r="U26" s="77"/>
+      <c r="S26" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T26" s="76"/>
+      <c r="U26" s="76"/>
     </row>
     <row r="27" spans="1:21" ht="117.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="12">
@@ -7534,7 +7687,7 @@
         <v>11</v>
       </c>
       <c r="F27" s="38" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G27" s="21">
         <v>19</v>
@@ -7543,7 +7696,7 @@
         <v>12</v>
       </c>
       <c r="I27" s="40" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="J27" s="21">
         <v>15</v>
@@ -7552,25 +7705,25 @@
         <v>172</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="62" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="Q27" s="34"/>
       <c r="R27" s="19">
         <v>3</v>
       </c>
-      <c r="S27" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T27" s="77"/>
-      <c r="U27" s="77"/>
+      <c r="S27" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T27" s="76"/>
+      <c r="U27" s="76"/>
     </row>
     <row r="28" spans="1:21" ht="231.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="12">
@@ -7589,16 +7742,16 @@
         <v>11</v>
       </c>
       <c r="F28" s="38" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G28" s="21">
         <v>21</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="I28" s="40" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="J28" s="21">
         <v>15</v>
@@ -7607,25 +7760,25 @@
         <v>153</v>
       </c>
       <c r="L28" s="49" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="3" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="Q28" s="34"/>
       <c r="R28" s="19">
         <v>3</v>
       </c>
-      <c r="S28" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T28" s="77"/>
-      <c r="U28" s="77"/>
+      <c r="S28" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T28" s="76"/>
+      <c r="U28" s="76"/>
     </row>
     <row r="29" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="12">
@@ -7644,13 +7797,13 @@
         <v>11</v>
       </c>
       <c r="F29" s="38" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G29" s="21">
         <v>21</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="I29" s="40" t="s">
         <v>14</v>
@@ -7662,10 +7815,10 @@
         <v>166</v>
       </c>
       <c r="L29" s="37" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -7674,37 +7827,39 @@
       <c r="R29" s="19">
         <v>2</v>
       </c>
-      <c r="S29" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T29" s="77"/>
-      <c r="U29" s="77"/>
+      <c r="S29" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T29" s="76"/>
+      <c r="U29" s="76"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q29" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="M30:M1048564">
+    <cfRule type="duplicateValues" dxfId="39" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1048565:M1048576">
+    <cfRule type="duplicateValues" dxfId="38" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1048565:N1048576">
+    <cfRule type="duplicateValues" dxfId="37" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14:M29 M1:M11">
+    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4">
+    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="13" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6">
+    <cfRule type="duplicateValues" dxfId="12" priority="5"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="duplicateValues" dxfId="17" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M14:M1048564 M1:M11">
-    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1048565:M1048576">
-    <cfRule type="duplicateValues" dxfId="14" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1048565:N1048576">
-    <cfRule type="duplicateValues" dxfId="13" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N4">
-    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N6">
-    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O18">
     <cfRule type="duplicateValues" dxfId="9" priority="2"/>
@@ -7722,7 +7877,7 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView zoomScale="69" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7745,13 +7900,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>36</v>
@@ -7790,14 +7945,14 @@
         <v>9</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="S1" s="73" t="s">
-        <v>255</v>
+        <v>233</v>
+      </c>
+      <c r="S1" s="72" t="s">
+        <v>243</v>
       </c>
       <c r="T1" s="54"/>
-      <c r="U1" s="74" t="s">
-        <v>259</v>
+      <c r="U1" s="73" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="345.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -7826,7 +7981,7 @@
         <v>12</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J2" s="15">
         <v>20</v>
@@ -7835,25 +7990,25 @@
         <v>240</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="M2" s="52"/>
       <c r="N2" s="52" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="17"/>
       <c r="Q2" s="34" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="R2" s="19">
         <v>3</v>
       </c>
-      <c r="S2" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
+      <c r="S2" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
     </row>
     <row r="3" spans="1:21" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12">
@@ -7888,30 +8043,30 @@
         <v>180</v>
       </c>
       <c r="L3" s="53" t="s">
-        <v>53</v>
+        <v>255</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="65" t="s">
-        <v>51</v>
+        <v>256</v>
       </c>
       <c r="Q3" s="19" t="s">
-        <v>52</v>
+        <v>257</v>
       </c>
       <c r="R3" s="19">
         <v>1</v>
       </c>
-      <c r="S3" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T3" s="77" t="s">
-        <v>256</v>
-      </c>
-      <c r="U3" s="77" t="s">
-        <v>258</v>
+      <c r="S3" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T3" s="76" t="s">
+        <v>244</v>
+      </c>
+      <c r="U3" s="76" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="345.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -7919,7 +8074,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>10</v>
@@ -7931,45 +8086,45 @@
         <v>44</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G4" s="15">
         <v>20</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I4" s="16" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K4" s="15">
         <v>240</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="17" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="R4" s="19">
         <v>3</v>
       </c>
-      <c r="S4" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
+      <c r="S4" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
     </row>
     <row r="5" spans="1:21" ht="345.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="12">
@@ -7997,7 +8152,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J5" s="15">
         <v>20</v>
@@ -8006,29 +8161,29 @@
         <v>120</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M5" s="52"/>
       <c r="N5" s="52" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="P5" s="17" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Q5" s="19" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="R5" s="19">
         <v>3</v>
       </c>
-      <c r="S5" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T5" s="77"/>
-      <c r="U5" s="77"/>
+      <c r="S5" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
     </row>
     <row r="6" spans="1:21" ht="345.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="12">
@@ -8056,7 +8211,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J6" s="15">
         <v>20</v>
@@ -8065,25 +8220,25 @@
         <v>360</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="M6" s="52"/>
       <c r="N6" s="52" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="17"/>
       <c r="Q6" s="19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="R6" s="19">
         <v>3</v>
       </c>
-      <c r="S6" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T6" s="77"/>
-      <c r="U6" s="77"/>
+      <c r="S6" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
     </row>
     <row r="7" spans="1:21" ht="345.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="42">
@@ -8102,47 +8257,47 @@
         <v>44</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G7" s="44">
         <v>8</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="I7" s="40" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="K7" s="21">
         <v>140</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="P7" s="48" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="Q7" s="57" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="R7" s="19">
         <v>2</v>
       </c>
-      <c r="S7" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T7" s="77"/>
-      <c r="U7" s="77"/>
+      <c r="S7" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T7" s="76"/>
+      <c r="U7" s="76"/>
     </row>
     <row r="8" spans="1:21" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="42">
@@ -8167,41 +8322,41 @@
         <v>16</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="I8" s="61" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="K8" s="21">
         <v>105</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>42</v>
       </c>
       <c r="P8" s="60" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="Q8" s="57" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="R8" s="19">
         <v>2</v>
       </c>
-      <c r="S8" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T8" s="77"/>
-      <c r="U8" s="77"/>
+      <c r="S8" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T8" s="76"/>
+      <c r="U8" s="76"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="M1:M8">
@@ -8225,7 +8380,7 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8242,13 +8397,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>36</v>
@@ -8287,14 +8442,14 @@
         <v>9</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="S1" s="73" t="s">
-        <v>255</v>
+        <v>233</v>
+      </c>
+      <c r="S1" s="72" t="s">
+        <v>243</v>
       </c>
       <c r="T1" s="54"/>
-      <c r="U1" s="74" t="s">
-        <v>259</v>
+      <c r="U1" s="73" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="345.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -8323,7 +8478,7 @@
         <v>12</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J2" s="15">
         <v>30</v>
@@ -8332,25 +8487,25 @@
         <v>240</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="M2" s="52"/>
       <c r="N2" s="52" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="14"/>
       <c r="Q2" s="19" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="R2" s="19">
         <v>3</v>
       </c>
-      <c r="S2" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
+      <c r="S2" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
     </row>
     <row r="3" spans="1:21" ht="345.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12">
@@ -8378,7 +8533,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J3" s="15">
         <v>30</v>
@@ -8387,25 +8542,25 @@
         <v>360</v>
       </c>
       <c r="L3" s="63" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="M3" s="52"/>
       <c r="N3" s="52" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="R3" s="19">
         <v>3</v>
       </c>
-      <c r="S3" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
+      <c r="S3" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
     </row>
     <row r="4" spans="1:21" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="12">
@@ -8440,30 +8595,30 @@
         <v>180</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>55</v>
+        <v>260</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="69" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q4" s="34" t="s">
-        <v>52</v>
+      <c r="P4" s="65" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>257</v>
       </c>
       <c r="R4" s="19">
         <v>1</v>
       </c>
-      <c r="S4" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T4" s="77" t="s">
-        <v>256</v>
-      </c>
-      <c r="U4" s="77" t="s">
-        <v>258</v>
+      <c r="S4" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T4" s="76" t="s">
+        <v>244</v>
+      </c>
+      <c r="U4" s="76" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="345.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -8471,7 +8626,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>10</v>
@@ -8483,13 +8638,13 @@
         <v>37</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G5" s="21">
         <v>20</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I5" s="40" t="s">
         <v>14</v>
@@ -8501,27 +8656,27 @@
         <v>240</v>
       </c>
       <c r="L5" s="48" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="38" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="R5" s="19">
         <v>3</v>
       </c>
-      <c r="S5" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T5" s="77"/>
-      <c r="U5" s="77"/>
+      <c r="S5" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
     </row>
     <row r="6" spans="1:21" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="42">
@@ -8549,7 +8704,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J6" s="21">
         <v>30</v>
@@ -8558,29 +8713,29 @@
         <v>120</v>
       </c>
       <c r="L6" s="37" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="M6" s="52"/>
       <c r="N6" s="52" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="P6" s="79" t="s">
-        <v>81</v>
+        <v>74</v>
+      </c>
+      <c r="P6" s="78" t="s">
+        <v>75</v>
       </c>
       <c r="Q6" s="34" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="R6" s="19">
         <v>3</v>
       </c>
-      <c r="S6" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T6" s="77"/>
-      <c r="U6" s="77"/>
+      <c r="S6" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="M1:M6">

--- a/Overview_Studies.xlsx
+++ b/Overview_Studies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f2d186216cf91ab/Bidlung/University/M.S. Leiden University/M.S. Neuroscience (Research)/Internship Groningen/GitHub_Multiverse_meta/MetaAnalysis-Psilo-Cognition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="514" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56693F94-A594-40BE-B084-BD612C5EE224}"/>
+  <xr:revisionPtr revIDLastSave="524" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B575E75-9BB5-468C-8CCB-2F3C49A12043}"/>
   <bookViews>
-    <workbookView xWindow="19065" yWindow="-16200" windowWidth="9870" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="269">
   <si>
     <t>CognitiveFunction</t>
   </si>
@@ -2064,6 +2064,13 @@
   </si>
   <si>
     <t>-0.009562515</t>
+  </si>
+  <si>
+    <t>-0.03309904</t>
+  </si>
+  <si>
+    <t>we  calcualted the results for RT and ACC of lag 7 - the average for lags 2,3 and 4.
+RT calcualted for T2</t>
   </si>
 </sst>
 </file>
@@ -2650,237 +2657,7 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="33">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3503,8 +3280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}">
   <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="86" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4602,7 +4379,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="18"/>
       <c r="Q19" s="56" t="s">
-        <v>226</v>
+        <v>268</v>
       </c>
       <c r="R19" s="19">
         <v>1</v>
@@ -5346,7 +5123,7 @@
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>210</v>
@@ -5358,15 +5135,13 @@
         <v>236</v>
       </c>
       <c r="R32" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S32" s="75" t="s">
         <v>234</v>
       </c>
       <c r="T32" s="76"/>
-      <c r="U32" s="76" t="s">
-        <v>251</v>
-      </c>
+      <c r="U32" s="76"/>
     </row>
     <row r="33" spans="1:21" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="12">
@@ -5882,46 +5657,46 @@
   </sheetData>
   <autoFilter ref="A1:U41" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}"/>
   <conditionalFormatting sqref="M19">
-    <cfRule type="duplicateValues" dxfId="55" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20">
-    <cfRule type="duplicateValues" dxfId="54" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21:M1048576 M1:M18">
-    <cfRule type="duplicateValues" dxfId="53" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="duplicateValues" dxfId="52" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="51" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="duplicateValues" dxfId="50" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="49" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="duplicateValues" dxfId="48" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="duplicateValues" dxfId="47" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="duplicateValues" dxfId="46" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="duplicateValues" dxfId="45" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N39">
-    <cfRule type="duplicateValues" dxfId="44" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25">
-    <cfRule type="duplicateValues" dxfId="43" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32">
-    <cfRule type="duplicateValues" dxfId="42" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7834,32 +7609,32 @@
       <c r="U29" s="76"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="M12">
+    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13">
+    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14:M29 M1:M11">
+    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M30:M1048564">
-    <cfRule type="duplicateValues" dxfId="39" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1048565:M1048576">
-    <cfRule type="duplicateValues" dxfId="38" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1048565:N1048576">
-    <cfRule type="duplicateValues" dxfId="37" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M14:M29 M1:M11">
-    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="13" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="duplicateValues" dxfId="12" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M12">
-    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M13">
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O18">
     <cfRule type="duplicateValues" dxfId="9" priority="2"/>

--- a/Overview_Studies.xlsx
+++ b/Overview_Studies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f2d186216cf91ab/Bidlung/University/M.S. Leiden University/M.S. Neuroscience (Research)/Internship Groningen/GitHub_Multiverse_meta/MetaAnalysis-Psilo-Cognition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="524" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B575E75-9BB5-468C-8CCB-2F3C49A12043}"/>
+  <xr:revisionPtr revIDLastSave="543" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E668372-9DE6-4B03-BFF0-2FC1D4AC06FE}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="17385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="266">
   <si>
     <t>CognitiveFunction</t>
   </si>
@@ -1707,13 +1707,6 @@
     <t>-1.305</t>
   </si>
   <si>
-    <t>-0.2587441</t>
-  </si>
-  <si>
-    <t>we only calcualted the results for lag 2,3 and 4 for RT &amp; ACC.
-RT calcualted for T2</t>
-  </si>
-  <si>
     <t xml:space="preserve">calculations based on raw data provided.
 mean accuracy Psilocybin: 0.3520737
 SD accuracy Psilocybin: 0.04880175 
@@ -1726,9 +1719,6 @@
 </t>
   </si>
   <si>
-    <t>-0.4025393</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 Part B (median, 1st quartile, 3rd quartile)
 # Psilo:   42.13, 36.71, 48.31
@@ -1771,9 +1761,6 @@
     <t>(-)Authors report the measurement timepoint to be 75–95 min after drug ingestion. We used the average of these values (85min)
 (-) N = 8 in each group
 (-)Cohen's d was calculated using the differenc ein median RT between the valid and invalid trials. We used the differences between the psilocybin and placebo groups, averaged across left and right visual fields (LVF and RVF) for each stimulus onset asynchrony (SOA) condition. We then computed an overall Cohen's d representing the average effect across both SOA conditions.</t>
-  </si>
-  <si>
-    <t>-0.1969964</t>
   </si>
   <si>
     <t>Q score (Acc):
@@ -1864,9 +1851,6 @@
   </si>
   <si>
     <t>2.0862</t>
-  </si>
-  <si>
-    <t>Y, to 1: Nogo-Go</t>
   </si>
   <si>
     <t>Med in paper = very low in our coding
@@ -2069,8 +2053,14 @@
     <t>-0.03309904</t>
   </si>
   <si>
+    <t>0.2985926</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.04110792</t>
+  </si>
+  <si>
     <t>we  calcualted the results for RT and ACC of lag 7 - the average for lags 2,3 and 4.
-RT calcualted for T2</t>
+RT calcualted only for T2.</t>
   </si>
 </sst>
 </file>
@@ -3280,8 +3270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}">
   <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView zoomScale="82" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3359,14 +3349,14 @@
         <v>9</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="S1" s="72" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="T1" s="54"/>
       <c r="U1" s="73" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -3404,28 +3394,28 @@
         <v>180</v>
       </c>
       <c r="L2" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="65" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="R2" s="19">
         <v>1</v>
       </c>
       <c r="S2" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T2" s="76"/>
       <c r="U2" s="76" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="276" thickBot="1" x14ac:dyDescent="0.45">
@@ -3466,7 +3456,7 @@
         <v>54</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -3480,7 +3470,7 @@
         <v>3</v>
       </c>
       <c r="S3" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T3" s="76"/>
       <c r="U3" s="76"/>
@@ -3530,7 +3520,7 @@
         <v>61</v>
       </c>
       <c r="P4" s="69" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Q4" s="56" t="s">
         <v>62</v>
@@ -3539,7 +3529,7 @@
         <v>3</v>
       </c>
       <c r="S4" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T4" s="76"/>
       <c r="U4" s="76"/>
@@ -3594,7 +3584,7 @@
         <v>3</v>
       </c>
       <c r="S5" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T5" s="76"/>
       <c r="U5" s="76"/>
@@ -3649,7 +3639,7 @@
         <v>3</v>
       </c>
       <c r="S6" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T6" s="76"/>
       <c r="U6" s="76"/>
@@ -3704,7 +3694,7 @@
         <v>3</v>
       </c>
       <c r="S7" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T7" s="76"/>
       <c r="U7" s="76"/>
@@ -3742,30 +3732,30 @@
         <v>180</v>
       </c>
       <c r="L8" s="53" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="65" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="Q8" s="19" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="R8" s="19">
         <v>1</v>
       </c>
       <c r="S8" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T8" s="76" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="U8" s="76" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -3806,7 +3796,7 @@
         <v>209</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -3820,7 +3810,7 @@
         <v>3</v>
       </c>
       <c r="S9" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T9" s="76"/>
       <c r="U9" s="76"/>
@@ -3879,7 +3869,7 @@
         <v>3</v>
       </c>
       <c r="S10" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T10" s="76"/>
       <c r="U10" s="76"/>
@@ -3919,7 +3909,7 @@
         <v>105</v>
       </c>
       <c r="L11" s="53" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3933,10 +3923,10 @@
         <v>163</v>
       </c>
       <c r="R11" s="19" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="S11" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T11" s="76"/>
       <c r="U11" s="76"/>
@@ -3991,7 +3981,7 @@
         <v>3</v>
       </c>
       <c r="S12" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T12" s="76"/>
       <c r="U12" s="76"/>
@@ -4046,7 +4036,7 @@
         <v>3</v>
       </c>
       <c r="S13" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T13" s="76"/>
       <c r="U13" s="76"/>
@@ -4101,7 +4091,7 @@
         <v>3</v>
       </c>
       <c r="S14" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T14" s="76"/>
       <c r="U14" s="76"/>
@@ -4158,7 +4148,7 @@
         <v>2</v>
       </c>
       <c r="S15" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T15" s="76"/>
       <c r="U15" s="76"/>
@@ -4216,7 +4206,7 @@
         <v>1</v>
       </c>
       <c r="S16" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T16" s="76"/>
       <c r="U16" s="76"/>
@@ -4259,21 +4249,21 @@
         <v>90</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="18"/>
       <c r="Q17" s="19" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="R17" s="19">
         <v>1</v>
       </c>
       <c r="S17" s="75" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="T17" s="76"/>
       <c r="U17" s="76"/>
@@ -4317,18 +4307,18 @@
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="18"/>
       <c r="Q18" s="19" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="R18" s="19">
         <v>1</v>
       </c>
       <c r="S18" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T18" s="76"/>
       <c r="U18" s="76"/>
@@ -4368,27 +4358,27 @@
         <v>180</v>
       </c>
       <c r="L19" s="53" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="18"/>
       <c r="Q19" s="56" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="R19" s="19">
         <v>1</v>
       </c>
       <c r="S19" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T19" s="76" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="U19" s="76">
         <v>1</v>
@@ -4429,10 +4419,10 @@
         <v>60</v>
       </c>
       <c r="L20" s="65" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4440,13 +4430,13 @@
         <v>98</v>
       </c>
       <c r="Q20" s="19" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="R20" s="19">
         <v>2</v>
       </c>
       <c r="S20" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T20" s="76"/>
       <c r="U20" s="76"/>
@@ -4495,13 +4485,13 @@
       <c r="O21" s="2"/>
       <c r="P21" s="51"/>
       <c r="Q21" s="67" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="R21" s="19">
         <v>1</v>
       </c>
       <c r="S21" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T21" s="76"/>
       <c r="U21" s="76"/>
@@ -4560,7 +4550,7 @@
         <v>2</v>
       </c>
       <c r="S22" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T22" s="76"/>
       <c r="U22" s="76"/>
@@ -4619,7 +4609,7 @@
         <v>2</v>
       </c>
       <c r="S23" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T23" s="76"/>
       <c r="U23" s="76"/>
@@ -4678,7 +4668,7 @@
         <v>2</v>
       </c>
       <c r="S24" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T24" s="76"/>
       <c r="U24" s="76"/>
@@ -4729,13 +4719,13 @@
       </c>
       <c r="P25" s="18"/>
       <c r="Q25" s="56" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="R25" s="19">
         <v>3</v>
       </c>
       <c r="S25" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T25" s="76"/>
       <c r="U25" s="76"/>
@@ -4794,7 +4784,7 @@
         <v>2</v>
       </c>
       <c r="S26" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T26" s="76"/>
       <c r="U26" s="76"/>
@@ -4848,10 +4838,10 @@
         <v>163</v>
       </c>
       <c r="R27" s="19" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="S27" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T27" s="76"/>
       <c r="U27" s="76"/>
@@ -4902,13 +4892,13 @@
         <v>175</v>
       </c>
       <c r="Q28" s="71" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="R28" s="19">
         <v>2</v>
       </c>
       <c r="S28" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T28" s="76"/>
       <c r="U28" s="76"/>
@@ -4959,13 +4949,13 @@
         <v>175</v>
       </c>
       <c r="Q29" s="71" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="R29" s="19">
         <v>2</v>
       </c>
       <c r="S29" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T29" s="76"/>
       <c r="U29" s="76"/>
@@ -5016,13 +5006,13 @@
         <v>175</v>
       </c>
       <c r="Q30" s="71" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="R30" s="19">
         <v>2</v>
       </c>
       <c r="S30" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T30" s="76"/>
       <c r="U30" s="76"/>
@@ -5073,13 +5063,13 @@
         <v>175</v>
       </c>
       <c r="Q31" s="71" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="R31" s="19">
         <v>2</v>
       </c>
       <c r="S31" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T31" s="76"/>
       <c r="U31" s="76"/>
@@ -5123,7 +5113,7 @@
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>210</v>
@@ -5132,13 +5122,13 @@
         <v>186</v>
       </c>
       <c r="Q32" s="57" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="R32" s="19">
         <v>1</v>
       </c>
       <c r="S32" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T32" s="76"/>
       <c r="U32" s="76"/>
@@ -5180,20 +5170,20 @@
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="48" t="s">
         <v>190</v>
       </c>
       <c r="Q33" s="71" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="R33" s="19">
         <v>2</v>
       </c>
       <c r="S33" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T33" s="76"/>
       <c r="U33" s="76"/>
@@ -5248,7 +5238,7 @@
         <v>3</v>
       </c>
       <c r="S34" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T34" s="76"/>
       <c r="U34" s="76"/>
@@ -5296,14 +5286,14 @@
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Q35" s="34"/>
       <c r="R35" s="19">
         <v>3</v>
       </c>
       <c r="S35" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T35" s="76"/>
       <c r="U35" s="76"/>
@@ -5356,7 +5346,7 @@
         <v>2</v>
       </c>
       <c r="S36" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T36" s="76"/>
       <c r="U36" s="76"/>
@@ -5394,30 +5384,30 @@
         <v>180</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="65" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="Q37" s="19" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="R37" s="19">
         <v>1</v>
       </c>
       <c r="S37" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T37" s="76" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="U37" s="76" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -5472,7 +5462,7 @@
         <v>3</v>
       </c>
       <c r="S38" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T38" s="76"/>
       <c r="U38" s="76"/>
@@ -5531,7 +5521,7 @@
         <v>3</v>
       </c>
       <c r="S39" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T39" s="76"/>
       <c r="U39" s="76"/>
@@ -5590,7 +5580,7 @@
         <v>2</v>
       </c>
       <c r="S40" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T40" s="76"/>
       <c r="U40" s="76"/>
@@ -5649,7 +5639,7 @@
         <v>2</v>
       </c>
       <c r="S41" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T41" s="76"/>
       <c r="U41" s="76"/>
@@ -5922,8 +5912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="31" zoomScaleNormal="29" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="57" zoomScaleNormal="29" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5999,14 +5989,14 @@
         <v>9</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="S1" s="72" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="T1" s="54"/>
       <c r="U1" s="73" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6044,28 +6034,28 @@
         <v>180</v>
       </c>
       <c r="L2" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="65" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="R2" s="19">
         <v>1</v>
       </c>
       <c r="S2" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T2" s="76"/>
       <c r="U2" s="76" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="276" thickBot="1" x14ac:dyDescent="0.45">
@@ -6106,7 +6096,7 @@
         <v>54</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -6120,7 +6110,7 @@
         <v>3</v>
       </c>
       <c r="S3" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T3" s="76"/>
       <c r="U3" s="76"/>
@@ -6170,7 +6160,7 @@
         <v>61</v>
       </c>
       <c r="P4" s="69" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Q4" s="56" t="s">
         <v>62</v>
@@ -6179,7 +6169,7 @@
         <v>3</v>
       </c>
       <c r="S4" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T4" s="76"/>
       <c r="U4" s="76"/>
@@ -6234,7 +6224,7 @@
         <v>3</v>
       </c>
       <c r="S5" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T5" s="76"/>
       <c r="U5" s="76"/>
@@ -6289,7 +6279,7 @@
         <v>3</v>
       </c>
       <c r="S6" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T6" s="76"/>
       <c r="U6" s="76"/>
@@ -6329,7 +6319,7 @@
         <v>105</v>
       </c>
       <c r="L7" s="53" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -6343,10 +6333,10 @@
         <v>163</v>
       </c>
       <c r="R7" s="19" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="S7" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T7" s="76"/>
       <c r="U7" s="76"/>
@@ -6403,7 +6393,7 @@
         <v>2</v>
       </c>
       <c r="S8" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T8" s="76"/>
       <c r="U8" s="76"/>
@@ -6461,7 +6451,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T9" s="76"/>
       <c r="U9" s="76"/>
@@ -6504,21 +6494,21 @@
         <v>90</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="18"/>
       <c r="Q10" s="19" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="R10" s="19">
         <v>1</v>
       </c>
       <c r="S10" s="75" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="T10" s="76"/>
       <c r="U10" s="76"/>
@@ -6562,18 +6552,18 @@
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="18"/>
       <c r="Q11" s="19" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="R11" s="19">
         <v>1</v>
       </c>
       <c r="S11" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T11" s="76"/>
       <c r="U11" s="76"/>
@@ -6613,27 +6603,27 @@
         <v>180</v>
       </c>
       <c r="L12" s="53" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="18"/>
       <c r="Q12" s="56" t="s">
-        <v>226</v>
+        <v>265</v>
       </c>
       <c r="R12" s="19">
         <v>1</v>
       </c>
       <c r="S12" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T12" s="76" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="U12" s="76">
         <v>1</v>
@@ -6674,10 +6664,10 @@
         <v>60</v>
       </c>
       <c r="L13" s="65" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -6685,13 +6675,13 @@
         <v>98</v>
       </c>
       <c r="Q13" s="19" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="R13" s="19">
         <v>2</v>
       </c>
       <c r="S13" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T13" s="76"/>
       <c r="U13" s="76"/>
@@ -6740,13 +6730,13 @@
       <c r="O14" s="2"/>
       <c r="P14" s="51"/>
       <c r="Q14" s="67" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="R14" s="19">
         <v>1</v>
       </c>
       <c r="S14" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T14" s="76"/>
       <c r="U14" s="76"/>
@@ -6805,7 +6795,7 @@
         <v>2</v>
       </c>
       <c r="S15" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T15" s="76"/>
       <c r="U15" s="76"/>
@@ -6864,7 +6854,7 @@
         <v>2</v>
       </c>
       <c r="S16" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T16" s="76"/>
       <c r="U16" s="76"/>
@@ -6923,7 +6913,7 @@
         <v>2</v>
       </c>
       <c r="S17" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T17" s="76"/>
       <c r="U17" s="76"/>
@@ -6974,13 +6964,13 @@
       </c>
       <c r="P18" s="18"/>
       <c r="Q18" s="56" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="R18" s="19">
         <v>3</v>
       </c>
       <c r="S18" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T18" s="76"/>
       <c r="U18" s="76"/>
@@ -7039,7 +7029,7 @@
         <v>2</v>
       </c>
       <c r="S19" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T19" s="76"/>
       <c r="U19" s="76"/>
@@ -7093,10 +7083,10 @@
         <v>163</v>
       </c>
       <c r="R20" s="19" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="S20" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T20" s="76"/>
       <c r="U20" s="76"/>
@@ -7147,13 +7137,13 @@
         <v>175</v>
       </c>
       <c r="Q21" s="71" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="R21" s="19">
         <v>2</v>
       </c>
       <c r="S21" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T21" s="76"/>
       <c r="U21" s="76"/>
@@ -7204,13 +7194,13 @@
         <v>175</v>
       </c>
       <c r="Q22" s="71" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="R22" s="19">
         <v>2</v>
       </c>
       <c r="S22" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T22" s="76"/>
       <c r="U22" s="76"/>
@@ -7261,13 +7251,13 @@
         <v>175</v>
       </c>
       <c r="Q23" s="71" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="R23" s="19">
         <v>2</v>
       </c>
       <c r="S23" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T23" s="76"/>
       <c r="U23" s="76"/>
@@ -7318,13 +7308,13 @@
         <v>175</v>
       </c>
       <c r="Q24" s="71" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="R24" s="19">
         <v>2</v>
       </c>
       <c r="S24" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T24" s="76"/>
       <c r="U24" s="76"/>
@@ -7368,7 +7358,7 @@
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>210</v>
@@ -7377,20 +7367,18 @@
         <v>186</v>
       </c>
       <c r="Q25" s="57" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="R25" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S25" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T25" s="76"/>
-      <c r="U25" s="76" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="132" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="U25" s="76"/>
+    </row>
+    <row r="26" spans="1:21" ht="117.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="12">
         <v>12</v>
       </c>
@@ -7427,20 +7415,20 @@
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="48" t="s">
         <v>190</v>
       </c>
       <c r="Q26" s="71" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="R26" s="19">
         <v>2</v>
       </c>
       <c r="S26" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T26" s="76"/>
       <c r="U26" s="76"/>
@@ -7495,7 +7483,7 @@
         <v>3</v>
       </c>
       <c r="S27" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T27" s="76"/>
       <c r="U27" s="76"/>
@@ -7543,14 +7531,14 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Q28" s="34"/>
       <c r="R28" s="19">
         <v>3</v>
       </c>
       <c r="S28" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T28" s="76"/>
       <c r="U28" s="76"/>
@@ -7603,7 +7591,7 @@
         <v>2</v>
       </c>
       <c r="S29" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T29" s="76"/>
       <c r="U29" s="76"/>
@@ -7619,13 +7607,13 @@
     <cfRule type="duplicateValues" dxfId="16" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M30:M1048564">
-    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1048565:M1048576">
-    <cfRule type="duplicateValues" dxfId="14" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1048565:N1048576">
-    <cfRule type="duplicateValues" dxfId="13" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
     <cfRule type="duplicateValues" dxfId="12" priority="7"/>
@@ -7652,7 +7640,7 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView zoomScale="69" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="A1:U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7720,14 +7708,14 @@
         <v>9</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="S1" s="72" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="T1" s="54"/>
       <c r="U1" s="73" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="345.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -7780,7 +7768,7 @@
         <v>3</v>
       </c>
       <c r="S2" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T2" s="76"/>
       <c r="U2" s="76"/>
@@ -7818,30 +7806,30 @@
         <v>180</v>
       </c>
       <c r="L3" s="53" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="65" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="Q3" s="19" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="R3" s="19">
         <v>1</v>
       </c>
       <c r="S3" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T3" s="76" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="U3" s="76" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="345.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -7882,7 +7870,7 @@
         <v>209</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -7896,7 +7884,7 @@
         <v>3</v>
       </c>
       <c r="S4" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T4" s="76"/>
       <c r="U4" s="76"/>
@@ -7955,7 +7943,7 @@
         <v>3</v>
       </c>
       <c r="S5" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T5" s="76"/>
       <c r="U5" s="76"/>
@@ -8010,7 +7998,7 @@
         <v>3</v>
       </c>
       <c r="S6" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T6" s="76"/>
       <c r="U6" s="76"/>
@@ -8069,7 +8057,7 @@
         <v>2</v>
       </c>
       <c r="S7" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T7" s="76"/>
       <c r="U7" s="76"/>
@@ -8128,7 +8116,7 @@
         <v>2</v>
       </c>
       <c r="S8" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T8" s="76"/>
       <c r="U8" s="76"/>
@@ -8155,7 +8143,7 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I2" sqref="A1:U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8217,14 +8205,14 @@
         <v>9</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="S1" s="72" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="T1" s="54"/>
       <c r="U1" s="73" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="345.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -8277,7 +8265,7 @@
         <v>3</v>
       </c>
       <c r="S2" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T2" s="76"/>
       <c r="U2" s="76"/>
@@ -8332,7 +8320,7 @@
         <v>3</v>
       </c>
       <c r="S3" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T3" s="76"/>
       <c r="U3" s="76"/>
@@ -8370,30 +8358,30 @@
         <v>180</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="65" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="R4" s="19">
         <v>1</v>
       </c>
       <c r="S4" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T4" s="76" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="U4" s="76" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="345.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -8448,7 +8436,7 @@
         <v>3</v>
       </c>
       <c r="S5" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T5" s="76"/>
       <c r="U5" s="76"/>
@@ -8507,7 +8495,7 @@
         <v>3</v>
       </c>
       <c r="S6" s="75" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T6" s="76"/>
       <c r="U6" s="76"/>

--- a/Overview_Studies.xlsx
+++ b/Overview_Studies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f2d186216cf91ab/Bidlung/University/M.S. Leiden University/M.S. Neuroscience (Research)/Internship Groningen/GitHub_Multiverse_meta/MetaAnalysis-Psilo-Cognition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="543" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E668372-9DE6-4B03-BFF0-2FC1D4AC06FE}"/>
+  <xr:revisionPtr revIDLastSave="583" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F985A0C0-E97E-435B-8481-090209D778B1}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="17385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-15420" windowWidth="25005" windowHeight="13365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="262">
   <si>
     <t>CognitiveFunction</t>
   </si>
@@ -1780,18 +1780,6 @@
     <t>comment sensitivitý</t>
   </si>
   <si>
-    <t>1: RT 0b-2b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1: difference with lag1, substract from each lag, then averages. </t>
-  </si>
-  <si>
-    <t>y, could do 1</t>
-  </si>
-  <si>
-    <t>Improve possible</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -2068,7 +2056,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -2406,7 +2394,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2561,7 +2549,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2647,7 +2635,37 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3270,8 +3288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}">
   <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="67" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3296,7 +3314,7 @@
     <col min="21" max="21" width="18.28515625" style="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>45</v>
       </c>
@@ -3355,9 +3373,7 @@
         <v>239</v>
       </c>
       <c r="T1" s="54"/>
-      <c r="U1" s="73" t="s">
-        <v>243</v>
-      </c>
+      <c r="U1" s="73"/>
     </row>
     <row r="2" spans="1:22" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="12">
@@ -3372,8 +3388,8 @@
       <c r="D2" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>11</v>
+      <c r="E2" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>48</v>
@@ -3394,18 +3410,18 @@
         <v>180</v>
       </c>
       <c r="L2" s="53" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="65" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="R2" s="19">
         <v>1</v>
@@ -3414,9 +3430,7 @@
         <v>231</v>
       </c>
       <c r="T2" s="76"/>
-      <c r="U2" s="76" t="s">
-        <v>242</v>
-      </c>
+      <c r="U2" s="76"/>
     </row>
     <row r="3" spans="1:22" ht="276" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12">
@@ -3431,8 +3445,8 @@
       <c r="D3" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>11</v>
+      <c r="E3" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>51</v>
@@ -3456,7 +3470,7 @@
         <v>54</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -3488,8 +3502,8 @@
       <c r="D4" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>11</v>
+      <c r="E4" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>39</v>
@@ -3520,7 +3534,7 @@
         <v>61</v>
       </c>
       <c r="P4" s="69" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="56" t="s">
         <v>62</v>
@@ -3547,8 +3561,8 @@
       <c r="D5" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="64" t="s">
-        <v>11</v>
+      <c r="E5" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>39</v>
@@ -3602,8 +3616,8 @@
       <c r="D6" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="64" t="s">
-        <v>11</v>
+      <c r="E6" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>39</v>
@@ -3709,7 +3723,7 @@
       <c r="C8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="28" t="s">
         <v>44</v>
       </c>
       <c r="E8" s="28" t="s">
@@ -3732,18 +3746,18 @@
         <v>180</v>
       </c>
       <c r="L8" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="65" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Q8" s="19" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="R8" s="19">
         <v>1</v>
@@ -3751,12 +3765,8 @@
       <c r="S8" s="75" t="s">
         <v>231</v>
       </c>
-      <c r="T8" s="76" t="s">
-        <v>240</v>
-      </c>
-      <c r="U8" s="76" t="s">
-        <v>242</v>
-      </c>
+      <c r="T8" s="76"/>
+      <c r="U8" s="76"/>
     </row>
     <row r="9" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="12">
@@ -3768,7 +3778,7 @@
       <c r="C9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="28" t="s">
         <v>44</v>
       </c>
       <c r="E9" s="28" t="s">
@@ -3796,7 +3806,7 @@
         <v>209</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -3825,7 +3835,7 @@
       <c r="C10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="28" t="s">
         <v>44</v>
       </c>
       <c r="E10" s="28" t="s">
@@ -3887,8 +3897,8 @@
       <c r="D11" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>11</v>
+      <c r="E11" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>41</v>
@@ -4109,8 +4119,8 @@
       <c r="D15" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>11</v>
+      <c r="E15" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>78</v>
@@ -4167,8 +4177,8 @@
       <c r="D16" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>11</v>
+      <c r="E16" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>83</v>
@@ -4249,21 +4259,21 @@
         <v>90</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="18"/>
       <c r="Q17" s="19" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="R17" s="19">
         <v>1</v>
       </c>
       <c r="S17" s="75" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="T17" s="76"/>
       <c r="U17" s="76"/>
@@ -4307,12 +4317,12 @@
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="18"/>
       <c r="Q18" s="19" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="R18" s="19">
         <v>1</v>
@@ -4361,15 +4371,15 @@
         <v>225</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="18"/>
       <c r="Q19" s="56" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="R19" s="19">
         <v>1</v>
@@ -4377,12 +4387,8 @@
       <c r="S19" s="75" t="s">
         <v>231</v>
       </c>
-      <c r="T19" s="76" t="s">
-        <v>241</v>
-      </c>
-      <c r="U19" s="76">
-        <v>1</v>
-      </c>
+      <c r="T19" s="76"/>
+      <c r="U19" s="76"/>
     </row>
     <row r="20" spans="1:21" ht="108" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="12">
@@ -4454,8 +4460,8 @@
       <c r="D21" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="64" t="s">
-        <v>11</v>
+      <c r="E21" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="F21" s="27" t="s">
         <v>123</v>
@@ -4568,8 +4574,8 @@
       <c r="D23" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="64" t="s">
-        <v>11</v>
+      <c r="E23" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="F23" s="14" t="s">
         <v>128</v>
@@ -4627,8 +4633,8 @@
       <c r="D24" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="64" t="s">
-        <v>11</v>
+      <c r="E24" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="F24" s="14" t="s">
         <v>128</v>
@@ -4686,8 +4692,8 @@
       <c r="D25" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="64" t="s">
-        <v>11</v>
+      <c r="E25" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>148</v>
@@ -4743,8 +4749,8 @@
       <c r="D26" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="64" t="s">
-        <v>11</v>
+      <c r="E26" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="F26" s="14" t="s">
         <v>151</v>
@@ -4802,8 +4808,8 @@
       <c r="D27" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="16" t="s">
-        <v>11</v>
+      <c r="E27" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="F27" s="14" t="s">
         <v>41</v>
@@ -4859,8 +4865,8 @@
       <c r="D28" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="64" t="s">
-        <v>11</v>
+      <c r="E28" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="F28" s="14" t="s">
         <v>171</v>
@@ -4892,7 +4898,7 @@
         <v>175</v>
       </c>
       <c r="Q28" s="71" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="R28" s="19">
         <v>2</v>
@@ -4916,8 +4922,8 @@
       <c r="D29" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="64" t="s">
-        <v>11</v>
+      <c r="E29" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="F29" s="35" t="s">
         <v>171</v>
@@ -4949,7 +4955,7 @@
         <v>175</v>
       </c>
       <c r="Q29" s="71" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="R29" s="19">
         <v>2</v>
@@ -4973,8 +4979,8 @@
       <c r="D30" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="64" t="s">
-        <v>11</v>
+      <c r="E30" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="F30" s="38" t="s">
         <v>171</v>
@@ -5006,7 +5012,7 @@
         <v>175</v>
       </c>
       <c r="Q30" s="71" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="R30" s="19">
         <v>2</v>
@@ -5030,8 +5036,8 @@
       <c r="D31" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="64" t="s">
-        <v>11</v>
+      <c r="E31" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="F31" s="38" t="s">
         <v>171</v>
@@ -5063,7 +5069,7 @@
         <v>175</v>
       </c>
       <c r="Q31" s="71" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="R31" s="19">
         <v>2</v>
@@ -5087,7 +5093,7 @@
       <c r="D32" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E32" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F32" s="38" t="s">
@@ -5113,7 +5119,7 @@
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>210</v>
@@ -5146,8 +5152,8 @@
       <c r="D33" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="64" t="s">
-        <v>11</v>
+      <c r="E33" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="F33" s="41"/>
       <c r="G33" s="21">
@@ -5201,8 +5207,8 @@
       <c r="D34" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="64" t="s">
-        <v>11</v>
+      <c r="E34" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="F34" s="38" t="s">
         <v>191</v>
@@ -5256,8 +5262,8 @@
       <c r="D35" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="64" t="s">
-        <v>11</v>
+      <c r="E35" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="F35" s="38" t="s">
         <v>191</v>
@@ -5311,8 +5317,8 @@
       <c r="D36" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E36" s="64" t="s">
-        <v>11</v>
+      <c r="E36" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="F36" s="38" t="s">
         <v>200</v>
@@ -5384,18 +5390,18 @@
         <v>180</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="65" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Q37" s="19" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="R37" s="19">
         <v>1</v>
@@ -5403,14 +5409,10 @@
       <c r="S37" s="75" t="s">
         <v>231</v>
       </c>
-      <c r="T37" s="76" t="s">
-        <v>240</v>
-      </c>
-      <c r="U37" s="76" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="T37" s="76"/>
+      <c r="U37" s="76"/>
+    </row>
+    <row r="38" spans="1:21" ht="276" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="33">
         <v>1</v>
       </c>
@@ -5420,7 +5422,7 @@
       <c r="C38" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="21" t="s">
         <v>37</v>
       </c>
       <c r="E38" s="21" t="s">
@@ -5452,7 +5454,7 @@
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
-      <c r="P38" s="38" t="s">
+      <c r="P38" s="78" t="s">
         <v>55</v>
       </c>
       <c r="Q38" s="21" t="s">
@@ -5477,7 +5479,7 @@
       <c r="C39" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="21" t="s">
         <v>37</v>
       </c>
       <c r="E39" s="21" t="s">
@@ -5536,7 +5538,7 @@
       <c r="C40" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="28" t="s">
         <v>44</v>
       </c>
       <c r="E40" s="28" t="s">
@@ -5595,7 +5597,7 @@
       <c r="C41" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="28" t="s">
         <v>44</v>
       </c>
       <c r="E41" s="28" t="s">
@@ -5647,46 +5649,46 @@
   </sheetData>
   <autoFilter ref="A1:U41" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}"/>
   <conditionalFormatting sqref="M19">
-    <cfRule type="duplicateValues" dxfId="32" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20">
-    <cfRule type="duplicateValues" dxfId="31" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21:M1048576 M1:M18">
-    <cfRule type="duplicateValues" dxfId="30" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="duplicateValues" dxfId="29" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="28" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="duplicateValues" dxfId="27" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="26" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="duplicateValues" dxfId="25" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N39">
-    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25">
-    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32">
-    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5696,7 +5698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C34885-F57D-4289-A4BD-D56F75A94A93}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
@@ -5910,10 +5912,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V29"/>
+  <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="57" zoomScaleNormal="29" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView topLeftCell="L1" zoomScale="59" zoomScaleNormal="29" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5936,7 +5938,7 @@
     <col min="20" max="21" width="9.140625" style="74"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>45</v>
       </c>
@@ -5995,9 +5997,7 @@
         <v>239</v>
       </c>
       <c r="T1" s="54"/>
-      <c r="U1" s="73" t="s">
-        <v>243</v>
-      </c>
+      <c r="U1" s="73"/>
     </row>
     <row r="2" spans="1:22" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="12">
@@ -6034,18 +6034,18 @@
         <v>180</v>
       </c>
       <c r="L2" s="53" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="65" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="R2" s="19">
         <v>1</v>
@@ -6054,9 +6054,7 @@
         <v>231</v>
       </c>
       <c r="T2" s="76"/>
-      <c r="U2" s="76" t="s">
-        <v>242</v>
-      </c>
+      <c r="U2" s="76"/>
     </row>
     <row r="3" spans="1:22" ht="276" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12">
@@ -6071,8 +6069,8 @@
       <c r="D3" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>11</v>
+      <c r="E3" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>51</v>
@@ -6096,7 +6094,7 @@
         <v>54</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -6128,8 +6126,8 @@
       <c r="D4" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>11</v>
+      <c r="E4" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>39</v>
@@ -6160,7 +6158,7 @@
         <v>61</v>
       </c>
       <c r="P4" s="69" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="56" t="s">
         <v>62</v>
@@ -6187,8 +6185,8 @@
       <c r="D5" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="64" t="s">
-        <v>11</v>
+      <c r="E5" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>39</v>
@@ -6242,8 +6240,8 @@
       <c r="D6" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="64" t="s">
-        <v>11</v>
+      <c r="E6" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>39</v>
@@ -6297,8 +6295,8 @@
       <c r="D7" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>11</v>
+      <c r="E7" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>41</v>
@@ -6354,8 +6352,8 @@
       <c r="D8" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>11</v>
+      <c r="E8" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>78</v>
@@ -6412,8 +6410,8 @@
       <c r="D9" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>11</v>
+      <c r="E9" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>83</v>
@@ -6456,111 +6454,113 @@
       <c r="T9" s="76"/>
       <c r="U9" s="76"/>
     </row>
-    <row r="10" spans="1:22" ht="45.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="25">
-        <v>3</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" s="15">
-        <v>34</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="K10" s="15">
-        <v>180</v>
-      </c>
-      <c r="L10" s="17" t="s">
-        <v>90</v>
+        <v>5</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="28">
+        <v>16</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="I10" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="J10" s="28">
+        <v>14</v>
+      </c>
+      <c r="K10" s="28">
+        <v>85</v>
+      </c>
+      <c r="L10" s="68" t="s">
+        <v>126</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>256</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="19" t="s">
-        <v>258</v>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="67" t="s">
+        <v>234</v>
       </c>
       <c r="R10" s="19">
         <v>1</v>
       </c>
       <c r="S10" s="75" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="T10" s="76"/>
       <c r="U10" s="76"/>
     </row>
     <row r="11" spans="1:22" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="12">
-        <v>3</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>15</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="D11" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="G11" s="15">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>43</v>
+        <v>136</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>220</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="K11" s="15">
-        <v>150</v>
-      </c>
-      <c r="L11" s="53" t="s">
-        <v>92</v>
+        <v>140</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>138</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="O11" s="2"/>
-      <c r="P11" s="18"/>
+        <v>139</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="P11" s="50" t="s">
+        <v>134</v>
+      </c>
       <c r="Q11" s="19" t="s">
-        <v>260</v>
+        <v>135</v>
       </c>
       <c r="R11" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S11" s="75" t="s">
         <v>231</v>
@@ -6568,117 +6568,115 @@
       <c r="T11" s="76"/>
       <c r="U11" s="76"/>
     </row>
-    <row r="12" spans="1:22" ht="174.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:22" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="D12" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="G12" s="15">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>43</v>
+        <v>136</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>221</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="K12" s="19">
-        <v>180</v>
-      </c>
-      <c r="L12" s="53" t="s">
-        <v>225</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>264</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="K12" s="15">
+        <v>140</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="O12" s="2"/>
-      <c r="P12" s="18"/>
+        <v>142</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P12" s="18" t="s">
+        <v>134</v>
+      </c>
       <c r="Q12" s="56" t="s">
-        <v>265</v>
+        <v>135</v>
       </c>
       <c r="R12" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S12" s="75" t="s">
         <v>231</v>
       </c>
-      <c r="T12" s="76" t="s">
-        <v>241</v>
-      </c>
-      <c r="U12" s="76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="123" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="T12" s="76"/>
+      <c r="U12" s="76"/>
+    </row>
+    <row r="13" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="12">
+        <v>7</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G13" s="15">
+        <v>17</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="15">
+        <v>120</v>
+      </c>
+      <c r="L13" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="56" t="s">
+        <v>232</v>
+      </c>
+      <c r="R13" s="19">
         <v>3</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="G13" s="15">
-        <v>34</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="K13" s="19">
-        <v>60</v>
-      </c>
-      <c r="L13" s="65" t="s">
-        <v>226</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q13" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="R13" s="19">
-        <v>2</v>
       </c>
       <c r="S13" s="75" t="s">
         <v>231</v>
@@ -6686,54 +6684,58 @@
       <c r="T13" s="76"/>
       <c r="U13" s="76"/>
     </row>
-    <row r="14" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="25">
-        <v>5</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>25</v>
+    <row r="14" spans="1:22" ht="108" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="12">
+        <v>8</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="D14" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="G14" s="28">
+      <c r="E14" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="15">
         <v>16</v>
       </c>
-      <c r="H14" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="I14" s="67" t="s">
-        <v>125</v>
-      </c>
-      <c r="J14" s="28">
-        <v>14</v>
-      </c>
-      <c r="K14" s="28">
+      <c r="H14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="K14" s="15">
         <v>85</v>
       </c>
-      <c r="L14" s="68" t="s">
-        <v>126</v>
+      <c r="L14" s="70" t="s">
+        <v>153</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="O14" s="2"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="67" t="s">
-        <v>234</v>
+      <c r="P14" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q14" s="19" t="s">
+        <v>157</v>
       </c>
       <c r="R14" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S14" s="75" t="s">
         <v>231</v>
@@ -6741,58 +6743,56 @@
       <c r="T14" s="76"/>
       <c r="U14" s="76"/>
     </row>
-    <row r="15" spans="1:22" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="12">
-        <v>6</v>
+    <row r="15" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="33">
+        <v>9</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>21</v>
+        <v>32</v>
+      </c>
+      <c r="D15" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="G15" s="15">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" s="55" t="s">
-        <v>220</v>
+        <v>136</v>
+      </c>
+      <c r="I15" s="45" t="s">
+        <v>158</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="K15" s="15">
-        <v>140</v>
-      </c>
-      <c r="L15" s="17" t="s">
-        <v>131</v>
+        <v>105</v>
+      </c>
+      <c r="L15" s="53" t="s">
+        <v>160</v>
       </c>
       <c r="M15" s="2"/>
-      <c r="N15" s="2" t="s">
-        <v>132</v>
-      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="P15" s="18" t="s">
-        <v>134</v>
+        <v>161</v>
+      </c>
+      <c r="P15" s="58" t="s">
+        <v>162</v>
       </c>
       <c r="Q15" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="R15" s="19">
-        <v>2</v>
+        <v>163</v>
+      </c>
+      <c r="R15" s="19" t="s">
+        <v>236</v>
       </c>
       <c r="S15" s="75" t="s">
         <v>231</v>
@@ -6800,55 +6800,53 @@
       <c r="T15" s="76"/>
       <c r="U15" s="76"/>
     </row>
-    <row r="16" spans="1:22" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:22" ht="174.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="12">
-        <v>6</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D16" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="64" t="s">
-        <v>11</v>
+      <c r="E16" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="G16" s="15">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="I16" s="55" t="s">
-        <v>220</v>
+        <v>19</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>172</v>
       </c>
       <c r="J16" s="15" t="s">
         <v>137</v>
       </c>
       <c r="K16" s="15">
-        <v>140</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>138</v>
+        <v>100</v>
+      </c>
+      <c r="L16" s="53" t="s">
+        <v>173</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="P16" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q16" s="19" t="s">
-        <v>135</v>
+        <v>174</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q16" s="71" t="s">
+        <v>243</v>
       </c>
       <c r="R16" s="19">
         <v>2</v>
@@ -6859,55 +6857,53 @@
       <c r="T16" s="76"/>
       <c r="U16" s="76"/>
     </row>
-    <row r="17" spans="1:21" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:21" ht="174.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="12">
-        <v>6</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D17" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="G17" s="15">
-        <v>8</v>
+      <c r="E17" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" s="36">
+        <v>12</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="I17" s="55" t="s">
-        <v>221</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="15">
-        <v>140</v>
-      </c>
-      <c r="L17" s="17" t="s">
-        <v>141</v>
+        <v>19</v>
+      </c>
+      <c r="I17" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="K17" s="36">
+        <v>360</v>
+      </c>
+      <c r="L17" s="63" t="s">
+        <v>176</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="P17" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q17" s="56" t="s">
-        <v>135</v>
+        <v>177</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q17" s="71" t="s">
+        <v>243</v>
       </c>
       <c r="R17" s="19">
         <v>2</v>
@@ -6918,56 +6914,56 @@
       <c r="T17" s="76"/>
       <c r="U17" s="76"/>
     </row>
-    <row r="18" spans="1:21" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:21" ht="174.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="12">
-        <v>7</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D18" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="G18" s="15">
-        <v>17</v>
+      <c r="E18" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18" s="21">
+        <v>12</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="15">
-        <v>120</v>
-      </c>
-      <c r="L18" s="53" t="s">
-        <v>150</v>
+        <v>19</v>
+      </c>
+      <c r="I18" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="K18" s="21">
+        <v>100</v>
+      </c>
+      <c r="L18" s="37" t="s">
+        <v>179</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="56" t="s">
-        <v>232</v>
+        <v>180</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q18" s="71" t="s">
+        <v>243</v>
       </c>
       <c r="R18" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S18" s="75" t="s">
         <v>231</v>
@@ -6975,55 +6971,53 @@
       <c r="T18" s="76"/>
       <c r="U18" s="76"/>
     </row>
-    <row r="19" spans="1:21" ht="108" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:21" ht="174.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="12">
-        <v>8</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>50</v>
+        <v>10</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D19" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="G19" s="15">
-        <v>16</v>
+      <c r="E19" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="G19" s="21">
+        <v>12</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="K19" s="15">
-        <v>85</v>
-      </c>
-      <c r="L19" s="70" t="s">
-        <v>153</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>154</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I19" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="K19" s="21">
+        <v>360</v>
+      </c>
+      <c r="L19" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="O19" s="2"/>
-      <c r="P19" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q19" s="19" t="s">
-        <v>157</v>
+      <c r="P19" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q19" s="71" t="s">
+        <v>243</v>
       </c>
       <c r="R19" s="19">
         <v>2</v>
@@ -7034,56 +7028,54 @@
       <c r="T19" s="76"/>
       <c r="U19" s="76"/>
     </row>
-    <row r="20" spans="1:21" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="33">
-        <v>9</v>
-      </c>
-      <c r="B20" s="24" t="s">
+    <row r="20" spans="1:21" ht="117.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="12">
+        <v>12</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="41"/>
+      <c r="G20" s="21">
+        <v>19</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="I20" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="J20" s="21">
         <v>15</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="15">
-        <v>16</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="I20" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="K20" s="15">
-        <v>105</v>
-      </c>
-      <c r="L20" s="53" t="s">
-        <v>160</v>
+      <c r="K20" s="21">
+        <v>225</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="P20" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q20" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="R20" s="19" t="s">
-        <v>236</v>
+      <c r="N20" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q20" s="71" t="s">
+        <v>237</v>
+      </c>
+      <c r="R20" s="19">
+        <v>2</v>
       </c>
       <c r="S20" s="75" t="s">
         <v>231</v>
@@ -7091,56 +7083,54 @@
       <c r="T20" s="76"/>
       <c r="U20" s="76"/>
     </row>
-    <row r="21" spans="1:21" ht="174.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:21" ht="117.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="12">
-        <v>10</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>33</v>
+        <v>12</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="D21" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="G21" s="15">
+      <c r="E21" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="G21" s="21">
+        <v>19</v>
+      </c>
+      <c r="H21" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" s="16" t="s">
+      <c r="I21" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="J21" s="21">
+        <v>15</v>
+      </c>
+      <c r="K21" s="21">
         <v>172</v>
       </c>
-      <c r="J21" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="K21" s="15">
-        <v>100</v>
-      </c>
-      <c r="L21" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2" t="s">
-        <v>174</v>
-      </c>
+      <c r="L21" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
-      <c r="P21" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q21" s="71" t="s">
-        <v>247</v>
-      </c>
+      <c r="P21" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q21" s="34"/>
       <c r="R21" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S21" s="75" t="s">
         <v>231</v>
@@ -7148,56 +7138,54 @@
       <c r="T21" s="76"/>
       <c r="U21" s="76"/>
     </row>
-    <row r="22" spans="1:21" ht="174.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:21" ht="231.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="12">
-        <v>10</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>33</v>
+        <v>12</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="D22" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="G22" s="36">
-        <v>12</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I22" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="J22" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="K22" s="36">
-        <v>360</v>
-      </c>
-      <c r="L22" s="63" t="s">
-        <v>176</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2" t="s">
-        <v>177</v>
-      </c>
+      <c r="E22" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="G22" s="21">
+        <v>21</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="I22" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="J22" s="21">
+        <v>15</v>
+      </c>
+      <c r="K22" s="21">
+        <v>153</v>
+      </c>
+      <c r="L22" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q22" s="71" t="s">
-        <v>247</v>
-      </c>
+      <c r="P22" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q22" s="34"/>
       <c r="R22" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S22" s="75" t="s">
         <v>231</v>
@@ -7205,54 +7193,50 @@
       <c r="T22" s="76"/>
       <c r="U22" s="76"/>
     </row>
-    <row r="23" spans="1:21" ht="174.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="12">
-        <v>10</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>33</v>
+        <v>12</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="D23" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="64" t="s">
-        <v>11</v>
+      <c r="E23" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="G23" s="21">
-        <v>12</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>201</v>
       </c>
       <c r="I23" s="40" t="s">
-        <v>172</v>
-      </c>
-      <c r="J23" s="21" t="s">
-        <v>178</v>
+        <v>14</v>
+      </c>
+      <c r="J23" s="21">
+        <v>15</v>
       </c>
       <c r="K23" s="21">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c r="L23" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2" t="s">
-        <v>180</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
-      <c r="P23" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q23" s="71" t="s">
-        <v>247</v>
-      </c>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="34"/>
       <c r="R23" s="19">
         <v>2</v>
       </c>
@@ -7308,7 +7292,7 @@
         <v>175</v>
       </c>
       <c r="Q24" s="71" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="R24" s="19">
         <v>2</v>
@@ -7358,7 +7342,7 @@
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>210</v>
@@ -7596,38 +7580,391 @@
       <c r="T29" s="76"/>
       <c r="U29" s="76"/>
     </row>
+    <row r="30" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="25">
+        <v>3</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" s="15">
+        <v>34</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="K30" s="15">
+        <v>180</v>
+      </c>
+      <c r="L30" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="R30" s="19">
+        <v>1</v>
+      </c>
+      <c r="S30" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="T30" s="76"/>
+      <c r="U30" s="76"/>
+    </row>
+    <row r="31" spans="1:21" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="12">
+        <v>3</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G31" s="15">
+        <v>34</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="K31" s="15">
+        <v>150</v>
+      </c>
+      <c r="L31" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="R31" s="19">
+        <v>1</v>
+      </c>
+      <c r="S31" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T31" s="76"/>
+      <c r="U31" s="76"/>
+    </row>
+    <row r="32" spans="1:21" ht="174.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="12">
+        <v>3</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32" s="15">
+        <v>34</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="K32" s="19">
+        <v>180</v>
+      </c>
+      <c r="L32" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="56" t="s">
+        <v>261</v>
+      </c>
+      <c r="R32" s="19">
+        <v>1</v>
+      </c>
+      <c r="S32" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T32" s="76"/>
+      <c r="U32" s="76"/>
+    </row>
+    <row r="33" spans="1:21" ht="123" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="12">
+        <v>3</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33" s="15">
+        <v>34</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="K33" s="19">
+        <v>60</v>
+      </c>
+      <c r="L33" s="65" t="s">
+        <v>226</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q33" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="R33" s="19">
+        <v>2</v>
+      </c>
+      <c r="S33" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T33" s="76"/>
+      <c r="U33" s="76"/>
+    </row>
+    <row r="34" spans="1:21" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="12">
+        <v>6</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G34" s="15">
+        <v>8</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="K34" s="15">
+        <v>140</v>
+      </c>
+      <c r="L34" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="P34" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q34" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="R34" s="19">
+        <v>2</v>
+      </c>
+      <c r="S34" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T34" s="76"/>
+      <c r="U34" s="76"/>
+    </row>
+    <row r="35" spans="1:21" ht="78" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="12">
+        <v>11</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="G35" s="34">
+        <v>40</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="K35" s="34">
+        <v>90</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="P35" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q35" s="57" t="s">
+        <v>233</v>
+      </c>
+      <c r="R35" s="19">
+        <v>1</v>
+      </c>
+      <c r="S35" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T35" s="76"/>
+      <c r="U35" s="76"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="M12">
-    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
+  <conditionalFormatting sqref="M1:M23">
+    <cfRule type="duplicateValues" dxfId="21" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M13">
-    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
+  <conditionalFormatting sqref="M24:M29">
+    <cfRule type="duplicateValues" dxfId="20" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14:M29 M1:M11">
-    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
+  <conditionalFormatting sqref="M32">
+    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M30:M1048564">
-    <cfRule type="duplicateValues" dxfId="15" priority="24"/>
+  <conditionalFormatting sqref="M33">
+    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M34:M35 M30:M31">
+    <cfRule type="duplicateValues" dxfId="17" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M36:M1048564">
+    <cfRule type="duplicateValues" dxfId="16" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1048565:M1048576">
-    <cfRule type="duplicateValues" dxfId="14" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1048565:N1048576">
-    <cfRule type="duplicateValues" dxfId="13" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
+    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
     <cfRule type="duplicateValues" dxfId="12" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
+  <conditionalFormatting sqref="N6">
     <cfRule type="duplicateValues" dxfId="11" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N6">
+  <conditionalFormatting sqref="O13">
     <cfRule type="duplicateValues" dxfId="10" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O18">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+  <conditionalFormatting sqref="O25">
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O25">
+  <conditionalFormatting sqref="O35">
     <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7639,8 +7976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B5538A5-2CE0-400F-BF9C-B504D5DC3739}">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView zoomScale="69" workbookViewId="0">
-      <selection activeCell="D2" sqref="A1:U8"/>
+    <sheetView topLeftCell="L1" zoomScale="69" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7714,9 +8051,7 @@
         <v>239</v>
       </c>
       <c r="T1" s="54"/>
-      <c r="U1" s="73" t="s">
-        <v>243</v>
-      </c>
+      <c r="U1" s="73"/>
     </row>
     <row r="2" spans="1:21" ht="345.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="12">
@@ -7783,7 +8118,7 @@
       <c r="C3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="28" t="s">
         <v>44</v>
       </c>
       <c r="E3" s="28" t="s">
@@ -7806,18 +8141,18 @@
         <v>180</v>
       </c>
       <c r="L3" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="65" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Q3" s="19" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="R3" s="19">
         <v>1</v>
@@ -7825,12 +8160,8 @@
       <c r="S3" s="75" t="s">
         <v>231</v>
       </c>
-      <c r="T3" s="76" t="s">
-        <v>240</v>
-      </c>
-      <c r="U3" s="76" t="s">
-        <v>242</v>
-      </c>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
     </row>
     <row r="4" spans="1:21" ht="345.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="12">
@@ -7842,7 +8173,7 @@
       <c r="C4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="28" t="s">
         <v>44</v>
       </c>
       <c r="E4" s="28" t="s">
@@ -7870,7 +8201,7 @@
         <v>209</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -7899,7 +8230,7 @@
       <c r="C5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="28" t="s">
         <v>44</v>
       </c>
       <c r="E5" s="28" t="s">
@@ -8013,7 +8344,7 @@
       <c r="C7" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="28" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="28" t="s">
@@ -8072,7 +8403,7 @@
       <c r="C8" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="28" t="s">
         <v>44</v>
       </c>
       <c r="E8" s="28" t="s">
@@ -8143,7 +8474,7 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="A1:U6"/>
+      <selection activeCell="T1" sqref="T1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8211,9 +8542,7 @@
         <v>239</v>
       </c>
       <c r="T1" s="54"/>
-      <c r="U1" s="73" t="s">
-        <v>243</v>
-      </c>
+      <c r="U1" s="73"/>
     </row>
     <row r="2" spans="1:21" ht="345.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="12">
@@ -8358,18 +8687,18 @@
         <v>180</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="65" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="R4" s="19">
         <v>1</v>
@@ -8377,12 +8706,8 @@
       <c r="S4" s="75" t="s">
         <v>231</v>
       </c>
-      <c r="T4" s="76" t="s">
-        <v>240</v>
-      </c>
-      <c r="U4" s="76" t="s">
-        <v>242</v>
-      </c>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
     </row>
     <row r="5" spans="1:21" ht="345.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="33">
@@ -8394,7 +8719,7 @@
       <c r="C5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="21" t="s">
         <v>37</v>
       </c>
       <c r="E5" s="21" t="s">
@@ -8451,7 +8776,7 @@
       <c r="C6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="21" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="21" t="s">

--- a/Overview_Studies.xlsx
+++ b/Overview_Studies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f2d186216cf91ab/Bidlung/University/M.S. Leiden University/M.S. Neuroscience (Research)/Internship Groningen/GitHub_Multiverse_meta/MetaAnalysis-Psilo-Cognition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="583" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F985A0C0-E97E-435B-8481-090209D778B1}"/>
+  <xr:revisionPtr revIDLastSave="584" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0800A3AB-032C-471E-93B6-011876A7691E}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-15420" windowWidth="25005" windowHeight="13365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="263">
   <si>
     <t>CognitiveFunction</t>
   </si>
@@ -2049,6 +2049,9 @@
   <si>
     <t>we  calcualted the results for RT and ACC of lag 7 - the average for lags 2,3 and 4.
 RT calcualted only for T2.</t>
+  </si>
+  <si>
+    <t>EF_sensitivity</t>
   </si>
 </sst>
 </file>
@@ -3288,8 +3291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}">
   <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="67" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3367,7 +3370,7 @@
         <v>9</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="S1" s="72" t="s">
         <v>239</v>

--- a/Overview_Studies.xlsx
+++ b/Overview_Studies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f2d186216cf91ab/Bidlung/University/M.S. Leiden University/M.S. Neuroscience (Research)/Internship Groningen/GitHub_Multiverse_meta/MetaAnalysis-Psilo-Cognition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="584" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0800A3AB-032C-471E-93B6-011876A7691E}"/>
+  <xr:revisionPtr revIDLastSave="617" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF530F7E-DA80-4F11-A046-A5F1EE82C1CA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3735" yWindow="-15015" windowWidth="21600" windowHeight="13860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Low Dose'!$A$1:$Q$29</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overview!$A$1:$U$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overview!$A$1:$U$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="268">
   <si>
     <t>CognitiveFunction</t>
   </si>
@@ -2052,6 +2052,24 @@
   </si>
   <si>
     <t>EF_sensitivity</t>
+  </si>
+  <si>
+    <t>Vollenweider et al. (1998)</t>
+  </si>
+  <si>
+    <t>delayed response task (DRT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Figure 2:
+Ketanserin
+RT (Pla + Pla)  0.71 (±0.07)- RT Pla + Psi  1.10 (±0.12)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">increased RT </t>
+  </si>
+  <si>
+    <t>Took ketanserin gorup</t>
   </si>
 </sst>
 </file>
@@ -2399,7 +2417,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2632,6 +2650,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3289,10 +3310,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}">
-  <dimension ref="A1:V41"/>
+  <dimension ref="A1:V42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3306,7 +3328,7 @@
     <col min="9" max="9" width="11.42578125" customWidth="1"/>
     <col min="10" max="10" width="15.85546875" customWidth="1"/>
     <col min="12" max="12" width="23.85546875" customWidth="1"/>
-    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" customWidth="1"/>
     <col min="14" max="14" width="17.5703125" customWidth="1"/>
     <col min="15" max="15" width="15.7109375" customWidth="1"/>
     <col min="16" max="16" width="20.28515625" customWidth="1"/>
@@ -3430,7 +3452,7 @@
         <v>1</v>
       </c>
       <c r="S2" s="75" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="T2" s="76"/>
       <c r="U2" s="76"/>
@@ -3487,7 +3509,7 @@
         <v>3</v>
       </c>
       <c r="S3" s="75" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="T3" s="76"/>
       <c r="U3" s="76"/>
@@ -3546,7 +3568,7 @@
         <v>3</v>
       </c>
       <c r="S4" s="75" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="T4" s="76"/>
       <c r="U4" s="76"/>
@@ -3601,7 +3623,7 @@
         <v>3</v>
       </c>
       <c r="S5" s="75" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="T5" s="76"/>
       <c r="U5" s="76"/>
@@ -3656,7 +3678,7 @@
         <v>3</v>
       </c>
       <c r="S6" s="75" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="T6" s="76"/>
       <c r="U6" s="76"/>
@@ -3711,7 +3733,7 @@
         <v>3</v>
       </c>
       <c r="S7" s="75" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="T7" s="76"/>
       <c r="U7" s="76"/>
@@ -3766,7 +3788,7 @@
         <v>1</v>
       </c>
       <c r="S8" s="75" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="T8" s="76"/>
       <c r="U8" s="76"/>
@@ -3823,7 +3845,7 @@
         <v>3</v>
       </c>
       <c r="S9" s="75" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="T9" s="76"/>
       <c r="U9" s="76"/>
@@ -3882,7 +3904,7 @@
         <v>3</v>
       </c>
       <c r="S10" s="75" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="T10" s="76"/>
       <c r="U10" s="76"/>
@@ -3939,7 +3961,7 @@
         <v>236</v>
       </c>
       <c r="S11" s="75" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="T11" s="76"/>
       <c r="U11" s="76"/>
@@ -3994,7 +4016,7 @@
         <v>3</v>
       </c>
       <c r="S12" s="75" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="T12" s="76"/>
       <c r="U12" s="76"/>
@@ -4049,7 +4071,7 @@
         <v>3</v>
       </c>
       <c r="S13" s="75" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="T13" s="76"/>
       <c r="U13" s="76"/>
@@ -4104,7 +4126,7 @@
         <v>3</v>
       </c>
       <c r="S14" s="75" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="T14" s="76"/>
       <c r="U14" s="76"/>
@@ -4161,7 +4183,7 @@
         <v>2</v>
       </c>
       <c r="S15" s="75" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="T15" s="76"/>
       <c r="U15" s="76"/>
@@ -4219,7 +4241,7 @@
         <v>1</v>
       </c>
       <c r="S16" s="75" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="T16" s="76"/>
       <c r="U16" s="76"/>
@@ -4331,7 +4353,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="75" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="T18" s="76"/>
       <c r="U18" s="76"/>
@@ -4388,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="S19" s="75" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="T19" s="76"/>
       <c r="U19" s="76"/>
@@ -4421,8 +4443,8 @@
       <c r="I20" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="J20" s="15" t="s">
-        <v>89</v>
+      <c r="J20" s="15">
+        <v>0.79500000000000004</v>
       </c>
       <c r="K20" s="19">
         <v>60</v>
@@ -4445,7 +4467,7 @@
         <v>2</v>
       </c>
       <c r="S20" s="75" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="T20" s="76"/>
       <c r="U20" s="76"/>
@@ -4500,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="S21" s="75" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="T21" s="76"/>
       <c r="U21" s="76"/>
@@ -4559,7 +4581,7 @@
         <v>2</v>
       </c>
       <c r="S22" s="75" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="T22" s="76"/>
       <c r="U22" s="76"/>
@@ -4618,7 +4640,7 @@
         <v>2</v>
       </c>
       <c r="S23" s="75" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="T23" s="76"/>
       <c r="U23" s="76"/>
@@ -4677,7 +4699,7 @@
         <v>2</v>
       </c>
       <c r="S24" s="75" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="T24" s="76"/>
       <c r="U24" s="76"/>
@@ -4734,7 +4756,7 @@
         <v>3</v>
       </c>
       <c r="S25" s="75" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="T25" s="76"/>
       <c r="U25" s="76"/>
@@ -4793,7 +4815,7 @@
         <v>2</v>
       </c>
       <c r="S26" s="75" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="T26" s="76"/>
       <c r="U26" s="76"/>
@@ -4850,7 +4872,7 @@
         <v>236</v>
       </c>
       <c r="S27" s="75" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="T27" s="76"/>
       <c r="U27" s="76"/>
@@ -4907,7 +4929,7 @@
         <v>2</v>
       </c>
       <c r="S28" s="75" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="T28" s="76"/>
       <c r="U28" s="76"/>
@@ -4964,7 +4986,7 @@
         <v>2</v>
       </c>
       <c r="S29" s="75" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="T29" s="76"/>
       <c r="U29" s="76"/>
@@ -5021,7 +5043,7 @@
         <v>2</v>
       </c>
       <c r="S30" s="75" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="T30" s="76"/>
       <c r="U30" s="76"/>
@@ -5078,7 +5100,7 @@
         <v>2</v>
       </c>
       <c r="S31" s="75" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="T31" s="76"/>
       <c r="U31" s="76"/>
@@ -5137,7 +5159,7 @@
         <v>1</v>
       </c>
       <c r="S32" s="75" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="T32" s="76"/>
       <c r="U32" s="76"/>
@@ -5192,7 +5214,7 @@
         <v>2</v>
       </c>
       <c r="S33" s="75" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="T33" s="76"/>
       <c r="U33" s="76"/>
@@ -5247,7 +5269,7 @@
         <v>3</v>
       </c>
       <c r="S34" s="75" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="T34" s="76"/>
       <c r="U34" s="76"/>
@@ -5302,7 +5324,7 @@
         <v>3</v>
       </c>
       <c r="S35" s="75" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="T35" s="76"/>
       <c r="U35" s="76"/>
@@ -5355,7 +5377,7 @@
         <v>2</v>
       </c>
       <c r="S36" s="75" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="T36" s="76"/>
       <c r="U36" s="76"/>
@@ -5410,7 +5432,7 @@
         <v>1</v>
       </c>
       <c r="S37" s="75" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="T37" s="76"/>
       <c r="U37" s="76"/>
@@ -5467,7 +5489,7 @@
         <v>3</v>
       </c>
       <c r="S38" s="75" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="T38" s="76"/>
       <c r="U38" s="76"/>
@@ -5526,7 +5548,7 @@
         <v>3</v>
       </c>
       <c r="S39" s="75" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="T39" s="76"/>
       <c r="U39" s="76"/>
@@ -5585,7 +5607,7 @@
         <v>2</v>
       </c>
       <c r="S40" s="75" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="T40" s="76"/>
       <c r="U40" s="76"/>
@@ -5644,20 +5666,71 @@
         <v>2</v>
       </c>
       <c r="S41" s="75" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="T41" s="76"/>
       <c r="U41" s="76"/>
     </row>
+    <row r="42" spans="1:21" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="79">
+        <v>13</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="G42" s="21">
+        <v>25</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21">
+        <v>17.5</v>
+      </c>
+      <c r="K42" s="21">
+        <v>80</v>
+      </c>
+      <c r="L42" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="M42" s="21">
+        <v>1.78</v>
+      </c>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="R42" s="21"/>
+      <c r="S42" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="T42" s="21"/>
+      <c r="U42" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:U41" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}"/>
+  <autoFilter ref="A1:U42" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}"/>
   <conditionalFormatting sqref="M19">
     <cfRule type="duplicateValues" dxfId="35" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20">
     <cfRule type="duplicateValues" dxfId="34" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M21:M1048576 M1:M18">
+  <conditionalFormatting sqref="M21:M41 M1:M18 M43:M1048576">
     <cfRule type="duplicateValues" dxfId="33" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
@@ -5694,6 +5767,7 @@
     <cfRule type="duplicateValues" dxfId="22" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Overview_Studies.xlsx
+++ b/Overview_Studies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f2d186216cf91ab/Bidlung/University/M.S. Leiden University/M.S. Neuroscience (Research)/Internship Groningen/GitHub_Multiverse_meta/MetaAnalysis-Psilo-Cognition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="617" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF530F7E-DA80-4F11-A046-A5F1EE82C1CA}"/>
+  <xr:revisionPtr revIDLastSave="621" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEFDCAF8-C9B6-4E10-AB80-A61AFDB54A17}"/>
   <bookViews>
     <workbookView xWindow="3735" yWindow="-15015" windowWidth="21600" windowHeight="13860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2060,16 +2060,22 @@
     <t>delayed response task (DRT)</t>
   </si>
   <si>
-    <t xml:space="preserve">Figure 2:
-Ketanserin
-RT (Pla + Pla)  0.71 (±0.07)- RT Pla + Psi  1.10 (±0.12)
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">increased RT </t>
   </si>
   <si>
-    <t>Took ketanserin gorup</t>
+    <t>Figure 2:  mean(+/- se)
+Ketanserin:
+Pla-pla: 0.71 (0.06)
+Pla-psil: 1.08 (0.14)
+Risperidone:
+Pla-pla: 0.79 (0.07)
+Pla-psil: 1.15 (0.07)
+Haloperidol:
+Pla-pla: 0.75 (0.04)
+Pla-psil: 1.23 (0.17)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Took cohens d across 3 groups. </t>
   </si>
 </sst>
 </file>
@@ -2651,7 +2657,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3313,8 +3319,8 @@
   <dimension ref="A1:V42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="58" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5671,7 +5677,7 @@
       <c r="T41" s="76"/>
       <c r="U41" s="76"/>
     </row>
-    <row r="42" spans="1:21" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:21" ht="186.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="79">
         <v>13</v>
       </c>
@@ -5688,7 +5694,7 @@
         <v>17</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G42" s="21">
         <v>25</v>
@@ -5704,10 +5710,10 @@
         <v>80</v>
       </c>
       <c r="L42" s="71" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M42" s="21">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="N42" s="21"/>
       <c r="O42" s="21"/>

--- a/Overview_Studies.xlsx
+++ b/Overview_Studies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f2d186216cf91ab/Bidlung/University/M.S. Leiden University/M.S. Neuroscience (Research)/Internship Groningen/GitHub_Multiverse_meta/MetaAnalysis-Psilo-Cognition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="715" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0C2A6F0-AC63-41A0-8892-9E84C9FCF2DA}"/>
+  <xr:revisionPtr revIDLastSave="716" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98452E8E-EB6F-4102-88AA-FB9120152768}"/>
   <bookViews>
     <workbookView xWindow="6255" yWindow="-14295" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3087,8 +3087,8 @@
   <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="58" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N39" sqref="N39"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Overview_Studies.xlsx
+++ b/Overview_Studies.xlsx
@@ -5,19 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f2d186216cf91ab/Bidlung/University/M.S. Leiden University/M.S. Neuroscience (Research)/Internship Groningen/GitHub_Multiverse_meta/MetaAnalysis-Psilo-Cognition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f2d186216cf91ab/Bidlung/University/M.S. Leiden University/M.S. Neuroscience (Research)/Internship Groningen/Meta analysis Literature final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="716" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98452E8E-EB6F-4102-88AA-FB9120152768}"/>
+  <xr:revisionPtr revIDLastSave="627" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BD43E6B-2684-4DD7-824B-0A403F71A762}"/>
   <bookViews>
-    <workbookView xWindow="6255" yWindow="-14295" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
     <sheet name="Excluded" sheetId="5" r:id="rId2"/>
+    <sheet name="Low Dose" sheetId="1" r:id="rId3"/>
+    <sheet name="Mid Dose" sheetId="2" r:id="rId4"/>
+    <sheet name="High Dose" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overview!$A$1:$V$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Low Dose'!$A$1:$Q$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overview!$A$1:$U$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="268">
   <si>
     <t>CognitiveFunction</t>
   </si>
@@ -66,6 +70,9 @@
     <t>N_final</t>
   </si>
   <si>
+    <t>Timepoint (min)</t>
+  </si>
+  <si>
     <t>ES_final_RT</t>
   </si>
   <si>
@@ -88,6 +95,10 @@
   </si>
   <si>
     <t>Barrett et al. (2017)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low
+</t>
   </si>
   <si>
     <t>DSST</t>
@@ -1415,6 +1426,10 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">
+(-) EF other: Performance score</t>
+  </si>
+  <si>
     <t xml:space="preserve">15.05
 </t>
   </si>
@@ -1727,6 +1742,14 @@
 </t>
   </si>
   <si>
+    <t>EF sensitivity (1-3)</t>
+  </si>
+  <si>
+    <t>1=pure (eg oncong -congruent)
+2= specific EF condition(eg incongruent)
+3= general EF(eg main effect of drug averaged across incong&amp; congruent)</t>
+  </si>
+  <si>
     <t>(-) Since accuracy is inherently the complement of error rates (accuracy = 1 - error rate), we calculated Cohen's d based on the error rates. To align our interpretation with conventional standards where higher scores denote greater accuracy, we multiplied the calculated Cohen's d for error rates by -1. This adjustment ensures that our reported effect sizes are consistent and directly comparable to other measures of accuracy within our dataset
 Ef other = RT</t>
   </si>
@@ -1744,8 +1767,14 @@
 High dose (peak effect): d=-0.95</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>used immediate and not delayed version, to capture WM and not long term.
 Total correct/ total(60) = accuracy</t>
+  </si>
+  <si>
+    <t>-1,34</t>
   </si>
   <si>
     <t>comment sensitivitý</t>
@@ -2047,19 +2076,6 @@
   </si>
   <si>
     <t xml:space="preserve">Took cohens d across 3 groups. </t>
-  </si>
-  <si>
-    <t>(-) EF_sensitivity = NA
-(-) EF other: Performance score</t>
-  </si>
-  <si>
-    <t>ES_ID</t>
-  </si>
-  <si>
-    <t>Timepoint</t>
-  </si>
-  <si>
-    <t>-1.34</t>
   </si>
 </sst>
 </file>
@@ -2407,7 +2423,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2596,6 +2612,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2641,18 +2660,232 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3083,2592 +3316,2461 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:W42"/>
+  <dimension ref="A1:V42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="58" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" customWidth="1"/>
-    <col min="13" max="13" width="23.85546875" customWidth="1"/>
-    <col min="14" max="14" width="18.140625" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" customWidth="1"/>
-    <col min="17" max="17" width="20.28515625" customWidth="1"/>
-    <col min="18" max="18" width="32.42578125" customWidth="1"/>
-    <col min="19" max="19" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28" style="73" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="73"/>
-    <col min="22" max="22" width="18.28515625" style="73" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" customWidth="1"/>
+    <col min="16" max="16" width="20.28515625" customWidth="1"/>
+    <col min="17" max="17" width="32.42578125" customWidth="1"/>
+    <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28" style="74" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="74"/>
+    <col min="21" max="21" width="18.28515625" style="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="T1" s="71" t="s">
-        <v>232</v>
-      </c>
-      <c r="U1" s="54"/>
-      <c r="V1" s="72"/>
-    </row>
-    <row r="2" spans="1:23" ht="132" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S1" s="72" t="s">
+        <v>239</v>
+      </c>
+      <c r="T1" s="54"/>
+      <c r="U1" s="73"/>
+    </row>
+    <row r="2" spans="1:22" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="78">
+      <c r="B2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="15">
+        <v>19</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="15">
+        <v>10</v>
+      </c>
+      <c r="K2" s="15">
+        <v>180</v>
+      </c>
+      <c r="L2" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="65" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="R2" s="19">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="15">
-        <v>19</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="15">
-        <v>10</v>
-      </c>
-      <c r="L2" s="15">
-        <v>180</v>
-      </c>
-      <c r="M2" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="64" t="s">
-        <v>240</v>
-      </c>
-      <c r="R2" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="S2" s="19">
-        <v>1</v>
-      </c>
-      <c r="T2" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-    </row>
-    <row r="3" spans="1:23" ht="276" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S2" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+    </row>
+    <row r="3" spans="1:22" ht="276" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="78">
-        <v>2</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>9</v>
+      <c r="B3" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="E3" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="15">
+        <v>17</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="15">
         <v>20</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="15">
+      <c r="H3" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="15">
         <v>240</v>
       </c>
-      <c r="M3" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>234</v>
-      </c>
+      <c r="L3" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="68" t="s">
-        <v>53</v>
-      </c>
-      <c r="R3" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="S3" s="19">
+      <c r="P3" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" s="19">
         <v>3</v>
       </c>
-      <c r="T3" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-    </row>
-    <row r="4" spans="1:23" ht="321.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S3" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+    </row>
+    <row r="4" spans="1:22" ht="321.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="78">
+      <c r="B4" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="15">
+        <v>14</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="15">
+        <v>10</v>
+      </c>
+      <c r="K4" s="15">
+        <v>120</v>
+      </c>
+      <c r="L4" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q4" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="R4" s="19">
         <v>3</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="15">
-        <v>14</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" s="15">
-        <v>10</v>
-      </c>
-      <c r="L4" s="15">
-        <v>120</v>
-      </c>
-      <c r="M4" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52" t="s">
-        <v>209</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q4" s="68" t="s">
-        <v>233</v>
-      </c>
-      <c r="R4" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="S4" s="19">
-        <v>3</v>
-      </c>
-      <c r="T4" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="U4" s="75"/>
-      <c r="V4" s="75"/>
-    </row>
-    <row r="5" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S4" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+    </row>
+    <row r="5" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="12">
         <v>1</v>
       </c>
-      <c r="B5" s="78">
-        <v>4</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>9</v>
+      <c r="B5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="E5" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="15">
+        <v>17</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="15">
         <v>14</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="H5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="15">
         <v>10</v>
       </c>
-      <c r="J5" s="16" t="s">
-        <v>57</v>
-      </c>
       <c r="K5" s="15">
-        <v>10</v>
-      </c>
-      <c r="L5" s="15">
         <v>240</v>
       </c>
-      <c r="M5" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52" t="s">
-        <v>208</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="S5" s="19">
+      <c r="L5" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52" t="s">
+        <v>211</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="R5" s="19">
         <v>3</v>
       </c>
-      <c r="T5" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
-    </row>
-    <row r="6" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S5" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+    </row>
+    <row r="6" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="12">
         <v>1</v>
       </c>
-      <c r="B6" s="78">
-        <v>5</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>9</v>
+      <c r="B6" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="E6" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="15">
+        <v>17</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="15">
         <v>14</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="H6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="15">
         <v>10</v>
       </c>
-      <c r="J6" s="16" t="s">
-        <v>57</v>
-      </c>
       <c r="K6" s="15">
-        <v>10</v>
-      </c>
-      <c r="L6" s="15">
         <v>360</v>
       </c>
-      <c r="M6" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52" t="s">
-        <v>213</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="S6" s="19">
+      <c r="L6" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="R6" s="19">
         <v>3</v>
       </c>
-      <c r="T6" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="U6" s="75"/>
-      <c r="V6" s="75"/>
-    </row>
-    <row r="7" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S6" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+    </row>
+    <row r="7" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="78">
-        <v>6</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>9</v>
+      <c r="B7" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>44</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="15">
+        <v>44</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="15">
         <v>14</v>
       </c>
-      <c r="I7" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>57</v>
+      <c r="H7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="15">
+        <v>20</v>
       </c>
       <c r="K7" s="15">
-        <v>20</v>
-      </c>
-      <c r="L7" s="15">
         <v>240</v>
       </c>
-      <c r="M7" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52" t="s">
-        <v>211</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="S7" s="19">
+      <c r="L7" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="R7" s="19">
         <v>3</v>
       </c>
-      <c r="T7" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="U7" s="75"/>
-      <c r="V7" s="75"/>
-    </row>
-    <row r="8" spans="1:23" ht="409.6" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S7" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="T7" s="76"/>
+      <c r="U7" s="76"/>
+    </row>
+    <row r="8" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="12">
         <v>1</v>
       </c>
-      <c r="B8" s="78">
-        <v>7</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>9</v>
+      <c r="B8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>44</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="15">
+        <v>44</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="15">
         <v>18</v>
       </c>
-      <c r="I8" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>47</v>
+      <c r="H8" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="15">
+        <v>20</v>
       </c>
       <c r="K8" s="15">
-        <v>20</v>
-      </c>
-      <c r="L8" s="15">
         <v>180</v>
       </c>
-      <c r="M8" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>243</v>
-      </c>
+      <c r="L8" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="64" t="s">
-        <v>240</v>
-      </c>
-      <c r="R8" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="S8" s="19">
+      <c r="P8" s="65" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="R8" s="19">
         <v>1</v>
       </c>
-      <c r="T8" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="U8" s="75"/>
-      <c r="V8" s="75"/>
-    </row>
-    <row r="9" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S8" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="T8" s="76"/>
+      <c r="U8" s="76"/>
+    </row>
+    <row r="9" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="12">
         <v>1</v>
       </c>
-      <c r="B9" s="78">
-        <v>8</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>9</v>
+      <c r="B9" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>44</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="15">
+        <v>44</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="15">
         <v>20</v>
       </c>
-      <c r="I9" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="15" t="s">
+      <c r="H9" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="15">
+        <v>240</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="L9" s="15">
-        <v>240</v>
-      </c>
-      <c r="M9" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="R9" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="S9" s="19">
+      <c r="Q9" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="R9" s="19">
         <v>3</v>
       </c>
-      <c r="T9" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="U9" s="75"/>
-      <c r="V9" s="75"/>
-    </row>
-    <row r="10" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S9" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="T9" s="76"/>
+      <c r="U9" s="76"/>
+    </row>
+    <row r="10" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="12">
         <v>1</v>
       </c>
-      <c r="B10" s="78">
-        <v>9</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>9</v>
+      <c r="B10" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>44</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="19">
+        <v>44</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="19">
         <v>14</v>
       </c>
-      <c r="I10" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>57</v>
+      <c r="H10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="15">
+        <v>20</v>
       </c>
       <c r="K10" s="15">
-        <v>20</v>
-      </c>
-      <c r="L10" s="15">
         <v>120</v>
       </c>
-      <c r="M10" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52" t="s">
-        <v>210</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q10" s="17" t="s">
+      <c r="L10" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="R10" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="S10" s="19">
+      <c r="M10" s="52"/>
+      <c r="N10" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P10" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="R10" s="19">
         <v>3</v>
       </c>
-      <c r="T10" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="U10" s="75"/>
-      <c r="V10" s="75"/>
-    </row>
-    <row r="11" spans="1:23" ht="409.6" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S10" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="T10" s="76"/>
+      <c r="U10" s="76"/>
+    </row>
+    <row r="11" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="B11" s="78">
-        <v>10</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>30</v>
+      <c r="B11" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="E11" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="15">
+        <v>17</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="15">
         <v>16</v>
       </c>
-      <c r="I11" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="J11" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="L11" s="15">
+      <c r="H11" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="I11" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="K11" s="15">
         <v>105</v>
       </c>
-      <c r="M11" s="53" t="s">
-        <v>230</v>
-      </c>
+      <c r="L11" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2" t="s">
+      <c r="O11" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="P11" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="Q11" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="R11" s="56" t="s">
-        <v>261</v>
-      </c>
-      <c r="S11" s="19"/>
-      <c r="T11" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="U11" s="75"/>
-      <c r="V11" s="75"/>
-    </row>
-    <row r="12" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="Q11" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="R11" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="S11" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="T11" s="76"/>
+      <c r="U11" s="76"/>
+    </row>
+    <row r="12" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="12">
         <v>1</v>
       </c>
-      <c r="B12" s="78">
-        <v>11</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>9</v>
+      <c r="B12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>44</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="15">
+        <v>44</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="15">
         <v>14</v>
       </c>
-      <c r="I12" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>57</v>
+      <c r="H12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="15">
+        <v>20</v>
       </c>
       <c r="K12" s="15">
-        <v>20</v>
-      </c>
-      <c r="L12" s="15">
         <v>360</v>
       </c>
-      <c r="M12" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52" t="s">
-        <v>214</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="S12" s="19">
+      <c r="L12" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="R12" s="19">
         <v>3</v>
       </c>
-      <c r="T12" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="U12" s="75"/>
-      <c r="V12" s="75"/>
-    </row>
-    <row r="13" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S12" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="T12" s="76"/>
+      <c r="U12" s="76"/>
+    </row>
+    <row r="13" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="12">
         <v>1</v>
       </c>
-      <c r="B13" s="78">
+      <c r="B13" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="15">
+        <v>14</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="15">
-        <v>14</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>57</v>
+      <c r="I13" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" s="15">
+        <v>30</v>
       </c>
       <c r="K13" s="15">
-        <v>30</v>
-      </c>
-      <c r="L13" s="15">
         <v>240</v>
       </c>
-      <c r="M13" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="S13" s="19">
+      <c r="L13" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="R13" s="19">
         <v>3</v>
       </c>
-      <c r="T13" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="U13" s="75"/>
-      <c r="V13" s="75"/>
-    </row>
-    <row r="14" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S13" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="T13" s="76"/>
+      <c r="U13" s="76"/>
+    </row>
+    <row r="14" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="12">
         <v>1</v>
       </c>
-      <c r="B14" s="78">
-        <v>13</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>9</v>
+      <c r="B14" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>37</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="15">
+      <c r="F14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="15">
         <v>14</v>
       </c>
-      <c r="I14" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>57</v>
+      <c r="H14" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J14" s="15">
+        <v>30</v>
       </c>
       <c r="K14" s="15">
-        <v>30</v>
-      </c>
-      <c r="L14" s="15">
         <v>360</v>
       </c>
-      <c r="M14" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52" t="s">
-        <v>215</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="S14" s="19">
+      <c r="L14" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="R14" s="19">
         <v>3</v>
       </c>
-      <c r="T14" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="U14" s="75"/>
-      <c r="V14" s="75"/>
-    </row>
-    <row r="15" spans="1:23" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S14" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="T14" s="76"/>
+      <c r="U14" s="76"/>
+    </row>
+    <row r="15" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="12">
         <v>2</v>
       </c>
-      <c r="B15" s="78">
-        <v>14</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>14</v>
+      <c r="B15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="E15" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H15" s="15">
+        <v>17</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="15">
         <v>8</v>
       </c>
-      <c r="I15" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" s="15">
+      <c r="H15" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="15">
         <v>120</v>
       </c>
-      <c r="M15" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="R15" s="19" t="s">
+      <c r="L15" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="S15" s="19">
+      <c r="M15" s="2"/>
+      <c r="N15" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q15" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="R15" s="19">
         <v>2</v>
       </c>
-      <c r="T15" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="U15" s="75"/>
+      <c r="S15" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="T15" s="76"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="75"/>
-      <c r="W15" s="74"/>
-    </row>
-    <row r="16" spans="1:23" ht="293.25" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:22" ht="293.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="12">
         <v>2</v>
       </c>
-      <c r="B16" s="78">
+      <c r="B16" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>14</v>
+      <c r="C16" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="E16" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="H16" s="15">
+        <v>17</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="15">
         <v>8</v>
       </c>
+      <c r="H16" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="I16" s="15" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="K16" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16" s="15">
+        <v>28</v>
+      </c>
+      <c r="K16" s="15">
         <v>120</v>
       </c>
-      <c r="M16" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="R16" s="15" t="s">
+      <c r="L16" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="S16" s="19">
+      <c r="M16" s="2"/>
+      <c r="N16" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q16" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="R16" s="19">
         <v>1</v>
       </c>
-      <c r="T16" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="U16" s="75"/>
-      <c r="V16" s="75"/>
-    </row>
-    <row r="17" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S16" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="T16" s="76"/>
+      <c r="U16" s="76"/>
+    </row>
+    <row r="17" spans="1:21" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="25">
         <v>3</v>
       </c>
-      <c r="B17" s="80">
-        <v>16</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>48</v>
+      <c r="B17" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H17" s="15">
+        <v>21</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="15">
         <v>34</v>
       </c>
-      <c r="I17" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="L17" s="15">
+      <c r="H17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="15">
         <v>180</v>
       </c>
-      <c r="M17" s="17" t="s">
-        <v>88</v>
+      <c r="L17" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="S17" s="19">
+        <v>252</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="R17" s="19">
         <v>1</v>
       </c>
-      <c r="T17" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="U17" s="75"/>
-      <c r="V17" s="75"/>
-    </row>
-    <row r="18" spans="1:22" ht="288.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S17" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="T17" s="76"/>
+      <c r="U17" s="76"/>
+    </row>
+    <row r="18" spans="1:21" ht="288.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="12">
         <v>3</v>
       </c>
-      <c r="B18" s="78">
-        <v>17</v>
-      </c>
-      <c r="C18" s="26" t="s">
+      <c r="B18" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>18</v>
-      </c>
       <c r="E18" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="15">
+        <v>34</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="H18" s="15">
-        <v>34</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="L18" s="15">
+      <c r="K18" s="15">
         <v>150</v>
       </c>
-      <c r="M18" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="S18" s="19">
+      <c r="L18" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="R18" s="19">
         <v>1</v>
       </c>
-      <c r="T18" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="U18" s="75"/>
-      <c r="V18" s="75"/>
-    </row>
-    <row r="19" spans="1:22" ht="303" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S18" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="T18" s="76"/>
+      <c r="U18" s="76"/>
+    </row>
+    <row r="19" spans="1:21" ht="303" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="12">
         <v>3</v>
       </c>
-      <c r="B19" s="78">
-        <v>18</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>13</v>
+      <c r="B19" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" s="15">
+        <v>21</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="15">
         <v>34</v>
       </c>
-      <c r="I19" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="L19" s="19">
+      <c r="H19" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="K19" s="19">
         <v>180</v>
       </c>
-      <c r="M19" s="53" t="s">
-        <v>222</v>
+      <c r="L19" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="56" t="s">
-        <v>254</v>
-      </c>
-      <c r="S19" s="19">
+        <v>259</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="56" t="s">
+        <v>261</v>
+      </c>
+      <c r="R19" s="19">
         <v>1</v>
       </c>
-      <c r="T19" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="U19" s="75"/>
-      <c r="V19" s="75"/>
-    </row>
-    <row r="20" spans="1:22" ht="108" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S19" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="T19" s="76"/>
+      <c r="U19" s="76"/>
+    </row>
+    <row r="20" spans="1:21" ht="108" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="12">
         <v>3</v>
       </c>
-      <c r="B20" s="78">
-        <v>19</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>13</v>
+      <c r="B20" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="H20" s="15">
+        <v>21</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="15">
         <v>34</v>
       </c>
-      <c r="I20" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="J20" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="K20" s="15">
+      <c r="H20" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="J20" s="15">
         <v>0.79500000000000004</v>
       </c>
-      <c r="L20" s="19">
+      <c r="K20" s="19">
         <v>60</v>
       </c>
-      <c r="M20" s="64" t="s">
-        <v>223</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>225</v>
-      </c>
+      <c r="L20" s="65" t="s">
+        <v>226</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="65" t="s">
-        <v>96</v>
-      </c>
-      <c r="R20" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="S20" s="19">
+      <c r="P20" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q20" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="R20" s="19">
         <v>2</v>
       </c>
-      <c r="T20" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="U20" s="75"/>
-      <c r="V20" s="75"/>
-    </row>
-    <row r="21" spans="1:22" ht="274.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S20" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="T20" s="76"/>
+      <c r="U20" s="76"/>
+    </row>
+    <row r="21" spans="1:21" ht="274.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="25">
         <v>5</v>
       </c>
-      <c r="B21" s="80">
-        <v>20</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>23</v>
+      <c r="B21" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="E21" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="H21" s="28">
+        <v>17</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" s="28">
         <v>16</v>
       </c>
-      <c r="I21" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="J21" s="66" t="s">
-        <v>123</v>
+      <c r="H21" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="I21" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="J21" s="28">
+        <v>14</v>
       </c>
       <c r="K21" s="28">
-        <v>14</v>
-      </c>
-      <c r="L21" s="28">
         <v>85</v>
       </c>
-      <c r="M21" s="67" t="s">
-        <v>124</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="L21" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="66" t="s">
-        <v>229</v>
-      </c>
-      <c r="S21" s="19">
+      <c r="P21" s="51"/>
+      <c r="Q21" s="67" t="s">
+        <v>234</v>
+      </c>
+      <c r="R21" s="19">
         <v>1</v>
       </c>
-      <c r="T21" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="U21" s="75"/>
-      <c r="V21" s="75"/>
-    </row>
-    <row r="22" spans="1:22" ht="288.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S21" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="T21" s="76"/>
+      <c r="U21" s="76"/>
+    </row>
+    <row r="22" spans="1:21" ht="288.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="12">
         <v>6</v>
       </c>
-      <c r="B22" s="78">
+      <c r="B22" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>24</v>
-      </c>
       <c r="E22" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="H22" s="15">
+        <v>21</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" s="15">
         <v>8</v>
       </c>
-      <c r="I22" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J22" s="55" t="s">
-        <v>217</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="L22" s="15">
+      <c r="H22" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="K22" s="15">
         <v>140</v>
       </c>
-      <c r="M22" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="N22" s="2"/>
+      <c r="L22" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="O22" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q22" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="R22" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="S22" s="19">
+      <c r="P22" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q22" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="R22" s="19">
         <v>2</v>
       </c>
-      <c r="T22" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="U22" s="75"/>
-      <c r="V22" s="75"/>
-    </row>
-    <row r="23" spans="1:22" ht="288.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S22" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="T22" s="76"/>
+      <c r="U22" s="76"/>
+    </row>
+    <row r="23" spans="1:21" ht="288.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="12">
         <v>6</v>
       </c>
-      <c r="B23" s="78">
-        <v>22</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>24</v>
+      <c r="B23" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="E23" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="H23" s="15">
+        <v>17</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="15">
         <v>8</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="H23" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="I23" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="15">
+        <v>140</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="J23" s="55" t="s">
-        <v>217</v>
-      </c>
-      <c r="K23" s="15" t="s">
+      <c r="Q23" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="L23" s="15">
-        <v>140</v>
-      </c>
-      <c r="M23" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q23" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="R23" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="S23" s="19">
+      <c r="R23" s="19">
         <v>2</v>
       </c>
-      <c r="T23" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="U23" s="75"/>
-      <c r="V23" s="75"/>
-    </row>
-    <row r="24" spans="1:22" ht="288.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S23" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="T23" s="76"/>
+      <c r="U23" s="76"/>
+    </row>
+    <row r="24" spans="1:21" ht="288.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="12">
         <v>6</v>
       </c>
-      <c r="B24" s="78">
-        <v>23</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>24</v>
+      <c r="B24" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="E24" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="H24" s="15">
+        <v>17</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" s="15">
         <v>8</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="H24" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="I24" s="55" t="s">
+        <v>221</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="15">
+        <v>140</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P24" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="J24" s="55" t="s">
-        <v>218</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="15">
-        <v>140</v>
-      </c>
-      <c r="M24" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q24" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="R24" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="S24" s="19">
+      <c r="Q24" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="R24" s="19">
         <v>2</v>
       </c>
-      <c r="T24" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="U24" s="75"/>
-      <c r="V24" s="75"/>
-    </row>
-    <row r="25" spans="1:22" ht="243" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S24" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="T24" s="76"/>
+      <c r="U24" s="76"/>
+    </row>
+    <row r="25" spans="1:21" ht="243" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="12">
         <v>7</v>
       </c>
-      <c r="B25" s="78">
-        <v>24</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>27</v>
+      <c r="B25" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="E25" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="H25" s="15">
-        <v>17</v>
-      </c>
-      <c r="I25" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G25" s="15">
+        <v>17</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="J25" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J25" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L25" s="15">
+      <c r="K25" s="15">
         <v>120</v>
       </c>
-      <c r="M25" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="N25" s="2"/>
+      <c r="L25" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="O25" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="56" t="s">
-        <v>227</v>
-      </c>
-      <c r="S25" s="19">
+        <v>223</v>
+      </c>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="56" t="s">
+        <v>232</v>
+      </c>
+      <c r="R25" s="19">
         <v>3</v>
       </c>
-      <c r="T25" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="U25" s="75"/>
-      <c r="V25" s="75"/>
-    </row>
-    <row r="26" spans="1:22" ht="168" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S25" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="T25" s="76"/>
+      <c r="U25" s="76"/>
+    </row>
+    <row r="26" spans="1:21" ht="168" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="12">
         <v>8</v>
       </c>
-      <c r="B26" s="78">
-        <v>25</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>29</v>
+      <c r="B26" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="E26" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="H26" s="15">
+        <v>17</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="15">
         <v>16</v>
       </c>
-      <c r="I26" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="L26" s="15">
+      <c r="H26" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="K26" s="15">
         <v>85</v>
       </c>
-      <c r="M26" s="69" t="s">
-        <v>151</v>
+      <c r="L26" s="70" t="s">
+        <v>153</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="R26" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="S26" s="19">
+      <c r="O26" s="2"/>
+      <c r="P26" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q26" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="R26" s="19">
         <v>2</v>
       </c>
-      <c r="T26" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="U26" s="75"/>
-      <c r="V26" s="75"/>
-    </row>
-    <row r="27" spans="1:22" ht="409.6" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S26" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="T26" s="76"/>
+      <c r="U26" s="76"/>
+    </row>
+    <row r="27" spans="1:21" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="33">
         <v>9</v>
       </c>
-      <c r="B27" s="78">
-        <v>26</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>30</v>
+      <c r="B27" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="E27" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H27" s="15">
+        <v>17</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="15">
         <v>16</v>
       </c>
-      <c r="I27" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="J27" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="K27" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="L27" s="15">
+      <c r="H27" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="I27" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="K27" s="15">
         <v>105</v>
       </c>
-      <c r="M27" s="53" t="s">
-        <v>158</v>
-      </c>
+      <c r="L27" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q27" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="R27" s="56" t="s">
-        <v>261</v>
-      </c>
-      <c r="S27" s="19"/>
-      <c r="T27" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="U27" s="75"/>
-      <c r="V27" s="75"/>
-    </row>
-    <row r="28" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="O27" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="P27" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q27" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="R27" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="S27" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="T27" s="76"/>
+      <c r="U27" s="76"/>
+    </row>
+    <row r="28" spans="1:21" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="12">
         <v>10</v>
       </c>
-      <c r="B28" s="78">
-        <v>27</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>31</v>
+      <c r="B28" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="E28" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="H28" s="15">
+        <v>17</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="G28" s="15">
         <v>12</v>
       </c>
-      <c r="I28" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="K28" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="L28" s="15">
+      <c r="H28" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K28" s="15">
         <v>100</v>
       </c>
-      <c r="M28" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="R28" s="70" t="s">
-        <v>236</v>
-      </c>
-      <c r="S28" s="19">
+      <c r="L28" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q28" s="71" t="s">
+        <v>243</v>
+      </c>
+      <c r="R28" s="19">
         <v>2</v>
       </c>
-      <c r="T28" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="U28" s="75"/>
-      <c r="V28" s="75"/>
-    </row>
-    <row r="29" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S28" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="T28" s="76"/>
+      <c r="U28" s="76"/>
+    </row>
+    <row r="29" spans="1:21" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="12">
         <v>10</v>
       </c>
-      <c r="B29" s="78">
-        <v>28</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>31</v>
+      <c r="B29" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="E29" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="H29" s="36">
+        <v>17</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="G29" s="36">
         <v>12</v>
       </c>
-      <c r="I29" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="K29" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="L29" s="36">
+      <c r="H29" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="J29" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="K29" s="36">
         <v>360</v>
       </c>
-      <c r="M29" s="63" t="s">
-        <v>173</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="R29" s="70" t="s">
-        <v>236</v>
-      </c>
-      <c r="S29" s="19">
+      <c r="L29" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="O29" s="2"/>
+      <c r="P29" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q29" s="71" t="s">
+        <v>243</v>
+      </c>
+      <c r="R29" s="19">
         <v>2</v>
       </c>
-      <c r="T29" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="U29" s="75"/>
-      <c r="V29" s="75"/>
-    </row>
-    <row r="30" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S29" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="T29" s="76"/>
+      <c r="U29" s="76"/>
+    </row>
+    <row r="30" spans="1:21" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="12">
         <v>10</v>
       </c>
-      <c r="B30" s="78">
-        <v>29</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>31</v>
+      <c r="B30" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="E30" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="H30" s="21">
+        <v>17</v>
+      </c>
+      <c r="F30" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="G30" s="21">
         <v>12</v>
       </c>
-      <c r="I30" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="K30" s="21" t="s">
+      <c r="H30" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="K30" s="21">
+        <v>100</v>
+      </c>
+      <c r="L30" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="L30" s="21">
-        <v>100</v>
-      </c>
-      <c r="M30" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="R30" s="70" t="s">
-        <v>236</v>
-      </c>
-      <c r="S30" s="19">
+      <c r="Q30" s="71" t="s">
+        <v>243</v>
+      </c>
+      <c r="R30" s="19">
         <v>2</v>
       </c>
-      <c r="T30" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="U30" s="75"/>
-      <c r="V30" s="75"/>
-    </row>
-    <row r="31" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S30" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="T30" s="76"/>
+      <c r="U30" s="76"/>
+    </row>
+    <row r="31" spans="1:21" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="12">
         <v>10</v>
       </c>
-      <c r="B31" s="78">
-        <v>30</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>31</v>
+      <c r="B31" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="E31" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="H31" s="21">
+        <v>17</v>
+      </c>
+      <c r="F31" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="G31" s="21">
         <v>12</v>
       </c>
-      <c r="I31" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="K31" s="21" t="s">
+      <c r="H31" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="K31" s="21">
+        <v>360</v>
+      </c>
+      <c r="L31" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="L31" s="21">
-        <v>360</v>
-      </c>
-      <c r="M31" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="R31" s="70" t="s">
-        <v>236</v>
-      </c>
-      <c r="S31" s="19">
+      <c r="Q31" s="71" t="s">
+        <v>243</v>
+      </c>
+      <c r="R31" s="19">
         <v>2</v>
       </c>
-      <c r="T31" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="U31" s="75"/>
-      <c r="V31" s="75"/>
-    </row>
-    <row r="32" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S31" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="T31" s="76"/>
+      <c r="U31" s="76"/>
+    </row>
+    <row r="32" spans="1:21" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="12">
         <v>11</v>
       </c>
-      <c r="B32" s="78">
-        <v>31</v>
-      </c>
-      <c r="C32" s="26" t="s">
+      <c r="B32" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="15" t="s">
-        <v>32</v>
-      </c>
       <c r="E32" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="H32" s="34">
+        <v>21</v>
+      </c>
+      <c r="F32" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="G32" s="34">
         <v>40</v>
       </c>
-      <c r="I32" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J32" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="K32" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="L32" s="34">
+      <c r="H32" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="K32" s="34">
         <v>90</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="N32" s="2"/>
+      <c r="L32" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="O32" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q32" s="41" t="s">
-        <v>183</v>
-      </c>
-      <c r="R32" s="57" t="s">
-        <v>228</v>
-      </c>
-      <c r="S32" s="19">
+        <v>210</v>
+      </c>
+      <c r="P32" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q32" s="57" t="s">
+        <v>233</v>
+      </c>
+      <c r="R32" s="19">
         <v>1</v>
       </c>
-      <c r="T32" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="U32" s="75"/>
-      <c r="V32" s="75"/>
-    </row>
-    <row r="33" spans="1:22" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S32" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="T32" s="76"/>
+      <c r="U32" s="76"/>
+    </row>
+    <row r="33" spans="1:21" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="12">
         <v>12</v>
       </c>
-      <c r="B33" s="78">
-        <v>32</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>33</v>
+      <c r="B33" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="E33" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="41"/>
+      <c r="G33" s="21">
+        <v>19</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="I33" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="J33" s="21">
         <v>15</v>
       </c>
-      <c r="F33" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="41"/>
-      <c r="H33" s="21">
-        <v>19</v>
-      </c>
-      <c r="I33" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="J33" s="40" t="s">
-        <v>185</v>
-      </c>
       <c r="K33" s="21">
-        <v>15</v>
-      </c>
-      <c r="L33" s="21">
         <v>225</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="48" t="s">
-        <v>187</v>
-      </c>
-      <c r="R33" s="70" t="s">
-        <v>231</v>
-      </c>
-      <c r="S33" s="19">
+      <c r="L33" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="O33" s="2"/>
+      <c r="P33" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q33" s="71" t="s">
+        <v>237</v>
+      </c>
+      <c r="R33" s="19">
         <v>2</v>
       </c>
-      <c r="T33" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="U33" s="75"/>
-      <c r="V33" s="75"/>
-    </row>
-    <row r="34" spans="1:22" ht="160.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S33" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="T33" s="76"/>
+      <c r="U33" s="76"/>
+    </row>
+    <row r="34" spans="1:21" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="12">
         <v>12</v>
       </c>
-      <c r="B34" s="78">
-        <v>33</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>33</v>
+      <c r="B34" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="E34" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="G34" s="21">
+        <v>19</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="J34" s="21">
         <v>15</v>
       </c>
-      <c r="F34" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="H34" s="21">
-        <v>19</v>
-      </c>
-      <c r="I34" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="J34" s="40" t="s">
-        <v>189</v>
-      </c>
       <c r="K34" s="21">
-        <v>15</v>
-      </c>
-      <c r="L34" s="21">
         <v>172</v>
       </c>
-      <c r="M34" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>191</v>
-      </c>
+      <c r="L34" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="R34" s="34"/>
-      <c r="S34" s="19">
+      <c r="P34" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="19">
         <v>3</v>
       </c>
-      <c r="T34" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="U34" s="75"/>
-      <c r="V34" s="75"/>
-    </row>
-    <row r="35" spans="1:22" ht="231.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S34" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="T34" s="76"/>
+      <c r="U34" s="76"/>
+    </row>
+    <row r="35" spans="1:21" ht="231.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="12">
         <v>12</v>
       </c>
-      <c r="B35" s="78">
-        <v>34</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>33</v>
+      <c r="B35" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="E35" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="G35" s="21">
+        <v>21</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="I35" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="J35" s="21">
         <v>15</v>
       </c>
-      <c r="F35" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="H35" s="21">
-        <v>21</v>
-      </c>
-      <c r="I35" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="J35" s="40" t="s">
-        <v>194</v>
-      </c>
       <c r="K35" s="21">
-        <v>15</v>
-      </c>
-      <c r="L35" s="21">
         <v>153</v>
       </c>
-      <c r="M35" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>196</v>
-      </c>
+      <c r="L35" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="R35" s="34"/>
-      <c r="S35" s="19">
+      <c r="P35" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="19">
         <v>3</v>
       </c>
-      <c r="T35" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="U35" s="75"/>
-      <c r="V35" s="75"/>
-    </row>
-    <row r="36" spans="1:22" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S35" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="T35" s="76"/>
+      <c r="U35" s="76"/>
+    </row>
+    <row r="36" spans="1:21" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="12">
         <v>12</v>
       </c>
-      <c r="B36" s="78">
+      <c r="B36" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>33</v>
+      <c r="D36" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="E36" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="G36" s="21">
+        <v>21</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="I36" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" s="21">
         <v>15</v>
       </c>
-      <c r="F36" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="H36" s="21">
-        <v>21</v>
-      </c>
-      <c r="I36" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="J36" s="40" t="s">
-        <v>12</v>
-      </c>
       <c r="K36" s="21">
-        <v>15</v>
-      </c>
-      <c r="L36" s="21">
         <v>166</v>
       </c>
-      <c r="M36" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>204</v>
-      </c>
+      <c r="L36" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="48"/>
-      <c r="R36" s="34"/>
-      <c r="S36" s="19">
+      <c r="P36" s="48"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="19">
         <v>2</v>
       </c>
-      <c r="T36" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="U36" s="75"/>
-      <c r="V36" s="75"/>
-    </row>
-    <row r="37" spans="1:22" ht="409.6" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S36" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="T36" s="76"/>
+      <c r="U36" s="76"/>
+    </row>
+    <row r="37" spans="1:21" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="12">
         <v>1</v>
       </c>
-      <c r="B37" s="78">
-        <v>36</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>11</v>
+      <c r="B37" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>10</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F37" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G37" s="41"/>
-      <c r="H37" s="21">
+        <v>37</v>
+      </c>
+      <c r="F37" s="41"/>
+      <c r="G37" s="21">
         <v>18</v>
       </c>
-      <c r="I37" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="J37" s="40" t="s">
-        <v>47</v>
+      <c r="H37" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I37" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="J37" s="21">
+        <v>30</v>
       </c>
       <c r="K37" s="21">
-        <v>30</v>
-      </c>
-      <c r="L37" s="21">
         <v>180</v>
       </c>
-      <c r="M37" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>244</v>
-      </c>
+      <c r="L37" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="64" t="s">
-        <v>240</v>
-      </c>
-      <c r="R37" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="S37" s="19">
+      <c r="P37" s="65" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q37" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="R37" s="19">
         <v>1</v>
       </c>
-      <c r="T37" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="U37" s="75"/>
-      <c r="V37" s="75"/>
-    </row>
-    <row r="38" spans="1:22" ht="276" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S37" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="T37" s="76"/>
+      <c r="U37" s="76"/>
+    </row>
+    <row r="38" spans="1:21" ht="276" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="33">
         <v>1</v>
       </c>
-      <c r="B38" s="78">
+      <c r="B38" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>9</v>
-      </c>
       <c r="E38" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G38" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="H38" s="21">
+        <v>37</v>
+      </c>
+      <c r="F38" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="G38" s="21">
         <v>20</v>
       </c>
-      <c r="I38" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="J38" s="40" t="s">
-        <v>12</v>
+      <c r="H38" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="I38" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38" s="21">
+        <v>30</v>
       </c>
       <c r="K38" s="21">
-        <v>30</v>
-      </c>
-      <c r="L38" s="21">
         <v>240</v>
       </c>
-      <c r="M38" s="48" t="s">
-        <v>205</v>
-      </c>
-      <c r="N38" s="2" t="s">
+      <c r="L38" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q38" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="R38" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="S38" s="19">
+      <c r="R38" s="19">
         <v>3</v>
       </c>
-      <c r="T38" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="U38" s="75"/>
-      <c r="V38" s="75"/>
-    </row>
-    <row r="39" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S38" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="T38" s="76"/>
+      <c r="U38" s="76"/>
+    </row>
+    <row r="39" spans="1:21" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="42">
         <v>1</v>
       </c>
-      <c r="B39" s="78">
+      <c r="B39" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="23" t="s">
-        <v>36</v>
+      <c r="C39" s="21" t="s">
+        <v>10</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G39" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="H39" s="34">
+      <c r="F39" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" s="34">
         <v>14</v>
       </c>
-      <c r="I39" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="J39" s="40" t="s">
-        <v>57</v>
+      <c r="H39" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="J39" s="21">
+        <v>30</v>
       </c>
       <c r="K39" s="21">
-        <v>30</v>
-      </c>
-      <c r="L39" s="21">
         <v>120</v>
       </c>
-      <c r="M39" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="P39" s="2" t="s">
+      <c r="L39" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="Q39" s="77" t="s">
+      <c r="M39" s="52"/>
+      <c r="N39" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="R39" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="S39" s="19">
+      <c r="O39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P39" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q39" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="R39" s="19">
         <v>3</v>
       </c>
-      <c r="T39" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="U39" s="75"/>
-      <c r="V39" s="75"/>
-    </row>
-    <row r="40" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S39" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="T39" s="76"/>
+      <c r="U39" s="76"/>
+    </row>
+    <row r="40" spans="1:21" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="42">
         <v>6</v>
       </c>
-      <c r="B40" s="78">
-        <v>39</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>24</v>
+      <c r="B40" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>44</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F40" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="G40" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="H40" s="44">
+        <v>44</v>
+      </c>
+      <c r="F40" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="G40" s="44">
         <v>8</v>
       </c>
-      <c r="I40" s="21" t="s">
+      <c r="H40" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="I40" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="J40" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="K40" s="21">
+        <v>140</v>
+      </c>
+      <c r="L40" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="P40" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="J40" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="K40" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="L40" s="21">
-        <v>140</v>
-      </c>
-      <c r="M40" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q40" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="R40" s="57" t="s">
-        <v>133</v>
-      </c>
-      <c r="S40" s="19">
+      <c r="Q40" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="R40" s="19">
         <v>2</v>
       </c>
-      <c r="T40" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="U40" s="75"/>
-      <c r="V40" s="75"/>
-    </row>
-    <row r="41" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S40" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="T40" s="76"/>
+      <c r="U40" s="76"/>
+    </row>
+    <row r="41" spans="1:21" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="42">
         <v>9</v>
       </c>
-      <c r="B41" s="78">
-        <v>40</v>
-      </c>
-      <c r="C41" s="24" t="s">
+      <c r="B41" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="G41" s="44">
+        <v>16</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="I41" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="J41" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="K41" s="21">
+        <v>105</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P41" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q41" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="R41" s="19">
+        <v>2</v>
+      </c>
+      <c r="S41" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="T41" s="76"/>
+      <c r="U41" s="76"/>
+    </row>
+    <row r="42" spans="1:21" ht="186.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="79">
         <v>13</v>
       </c>
-      <c r="D41" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E41" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F41" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="G41" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="H41" s="44">
-        <v>16</v>
-      </c>
-      <c r="I41" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="J41" s="61" t="s">
-        <v>163</v>
-      </c>
-      <c r="K41" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="L41" s="21">
-        <v>105</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="P41" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q41" s="60" t="s">
-        <v>160</v>
-      </c>
-      <c r="R41" s="57" t="s">
-        <v>167</v>
-      </c>
-      <c r="S41" s="19">
-        <v>2</v>
-      </c>
-      <c r="T41" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="U41" s="75"/>
-      <c r="V41" s="75"/>
-    </row>
-    <row r="42" spans="1:22" ht="186.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="78">
+      <c r="B42" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="78">
-        <v>41</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>11</v>
+      <c r="C42" s="21" t="s">
+        <v>263</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>256</v>
+        <v>17</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="H42" s="21">
+        <v>265</v>
+      </c>
+      <c r="G42" s="21">
         <v>25</v>
       </c>
-      <c r="I42" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="J42" s="21"/>
+      <c r="H42" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21">
+        <v>17.5</v>
+      </c>
       <c r="K42" s="21">
-        <v>17.5</v>
-      </c>
-      <c r="L42" s="21">
         <v>80</v>
       </c>
-      <c r="M42" s="70" t="s">
-        <v>259</v>
-      </c>
-      <c r="N42" s="21">
+      <c r="L42" s="71" t="s">
+        <v>266</v>
+      </c>
+      <c r="M42" s="21">
         <v>1.75</v>
       </c>
+      <c r="N42" s="21"/>
       <c r="O42" s="21"/>
       <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
-      <c r="R42" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="S42" s="21">
-        <v>3</v>
-      </c>
-      <c r="T42" s="74" t="s">
-        <v>248</v>
-      </c>
+      <c r="Q42" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="R42" s="21"/>
+      <c r="S42" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="T42" s="21"/>
       <c r="U42" s="21"/>
-      <c r="V42" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V42" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}">
-    <filterColumn colId="14">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="N19">
-    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+  <autoFilter ref="A1:U42" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}"/>
+  <conditionalFormatting sqref="M19">
+    <cfRule type="duplicateValues" dxfId="35" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N20">
-    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
+  <conditionalFormatting sqref="M20">
+    <cfRule type="duplicateValues" dxfId="34" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N21:N41 N1:N18 N43:N1048576">
-    <cfRule type="duplicateValues" dxfId="11" priority="16"/>
+  <conditionalFormatting sqref="M21:M41 M1:M18 M43:M1048576">
+    <cfRule type="duplicateValues" dxfId="33" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+  <conditionalFormatting sqref="N4">
+    <cfRule type="duplicateValues" dxfId="32" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="31" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O6">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+  <conditionalFormatting sqref="N6">
+    <cfRule type="duplicateValues" dxfId="30" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O7">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="29" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O10">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  <conditionalFormatting sqref="N10">
+    <cfRule type="duplicateValues" dxfId="28" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O12">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  <conditionalFormatting sqref="N12">
+    <cfRule type="duplicateValues" dxfId="27" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O13">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  <conditionalFormatting sqref="N13">
+    <cfRule type="duplicateValues" dxfId="26" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O14">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  <conditionalFormatting sqref="N14">
+    <cfRule type="duplicateValues" dxfId="25" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O39">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  <conditionalFormatting sqref="N39">
+    <cfRule type="duplicateValues" dxfId="24" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P25">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="O25">
+    <cfRule type="duplicateValues" dxfId="23" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P32">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="O32">
+    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5680,7 +5782,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5690,50 +5792,50 @@
         <v>4</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D1" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="27" t="s">
         <v>99</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>97</v>
       </c>
       <c r="G1" s="28">
         <v>21</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L1" s="31" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="47" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q1" s="28" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -5741,50 +5843,50 @@
         <v>4</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D2" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="27" t="s">
         <v>99</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>97</v>
       </c>
       <c r="G2" s="28">
         <v>21</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K2" s="30" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="47" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q2" s="28" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -5792,48 +5894,48 @@
         <v>4</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G3" s="28">
         <v>22</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J3" s="28">
         <v>25</v>
       </c>
       <c r="K3" s="30" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L3" s="31" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="47" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -5841,52 +5943,2978 @@
         <v>4</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G4" s="28">
         <v>22</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J4" s="28">
         <v>25</v>
       </c>
       <c r="K4" s="30" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L4" s="31" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="47" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q4" s="32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V35"/>
+  <sheetViews>
+    <sheetView topLeftCell="M1" zoomScale="59" zoomScaleNormal="29" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="78.85546875" customWidth="1"/>
+    <col min="13" max="13" width="28.5703125" customWidth="1"/>
+    <col min="14" max="14" width="27.28515625" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.42578125" customWidth="1"/>
+    <col min="17" max="17" width="17" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="145.140625" style="74" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9.140625" style="74"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="S1" s="72" t="s">
+        <v>239</v>
+      </c>
+      <c r="T1" s="54"/>
+      <c r="U1" s="73"/>
+    </row>
+    <row r="2" spans="1:22" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="15">
+        <v>19</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="15">
+        <v>10</v>
+      </c>
+      <c r="K2" s="15">
+        <v>180</v>
+      </c>
+      <c r="L2" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="65" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="R2" s="19">
+        <v>1</v>
+      </c>
+      <c r="S2" s="75"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+    </row>
+    <row r="3" spans="1:22" ht="276" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="15">
+        <v>20</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="15">
+        <v>240</v>
+      </c>
+      <c r="L3" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" s="19">
+        <v>3</v>
+      </c>
+      <c r="S3" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+    </row>
+    <row r="4" spans="1:22" ht="321.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="15">
+        <v>14</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="15">
+        <v>10</v>
+      </c>
+      <c r="K4" s="15">
+        <v>120</v>
+      </c>
+      <c r="L4" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q4" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="R4" s="19">
+        <v>3</v>
+      </c>
+      <c r="S4" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+    </row>
+    <row r="5" spans="1:22" ht="78" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="12">
+        <v>1</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="15">
+        <v>14</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="15">
+        <v>10</v>
+      </c>
+      <c r="K5" s="15">
+        <v>240</v>
+      </c>
+      <c r="L5" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52" t="s">
+        <v>211</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="R5" s="19">
+        <v>3</v>
+      </c>
+      <c r="S5" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+    </row>
+    <row r="6" spans="1:22" ht="45.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="12">
+        <v>1</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="15">
+        <v>14</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="15">
+        <v>10</v>
+      </c>
+      <c r="K6" s="15">
+        <v>360</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="R6" s="19">
+        <v>3</v>
+      </c>
+      <c r="S6" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+    </row>
+    <row r="7" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="12">
+        <v>9</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="15">
+        <v>16</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="I7" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="K7" s="15">
+        <v>105</v>
+      </c>
+      <c r="L7" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="P7" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q7" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="R7" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="S7" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T7" s="76"/>
+      <c r="U7" s="76"/>
+    </row>
+    <row r="8" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="12">
+        <v>2</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="15">
+        <v>8</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="15">
+        <v>120</v>
+      </c>
+      <c r="L8" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="R8" s="19">
+        <v>2</v>
+      </c>
+      <c r="S8" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T8" s="76"/>
+      <c r="U8" s="76"/>
+      <c r="V8" s="75"/>
+    </row>
+    <row r="9" spans="1:22" ht="293.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="12">
+        <v>2</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="15">
+        <v>8</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="15">
+        <v>120</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="R9" s="19">
+        <v>1</v>
+      </c>
+      <c r="S9" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T9" s="76"/>
+      <c r="U9" s="76"/>
+    </row>
+    <row r="10" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="25">
+        <v>5</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="28">
+        <v>16</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="I10" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="J10" s="28">
+        <v>14</v>
+      </c>
+      <c r="K10" s="28">
+        <v>85</v>
+      </c>
+      <c r="L10" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="67" t="s">
+        <v>234</v>
+      </c>
+      <c r="R10" s="19">
+        <v>1</v>
+      </c>
+      <c r="S10" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T10" s="76"/>
+      <c r="U10" s="76"/>
+    </row>
+    <row r="11" spans="1:22" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="12">
+        <v>6</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="15">
+        <v>8</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K11" s="15">
+        <v>140</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="P11" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q11" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="R11" s="19">
+        <v>2</v>
+      </c>
+      <c r="S11" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T11" s="76"/>
+      <c r="U11" s="76"/>
+    </row>
+    <row r="12" spans="1:22" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="12">
+        <v>6</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" s="15">
+        <v>8</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>221</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="15">
+        <v>140</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P12" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q12" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="R12" s="19">
+        <v>2</v>
+      </c>
+      <c r="S12" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T12" s="76"/>
+      <c r="U12" s="76"/>
+    </row>
+    <row r="13" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="12">
+        <v>7</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G13" s="15">
+        <v>17</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="15">
+        <v>120</v>
+      </c>
+      <c r="L13" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="56" t="s">
+        <v>232</v>
+      </c>
+      <c r="R13" s="19">
+        <v>3</v>
+      </c>
+      <c r="S13" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T13" s="76"/>
+      <c r="U13" s="76"/>
+    </row>
+    <row r="14" spans="1:22" ht="108" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="12">
+        <v>8</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="15">
+        <v>16</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="K14" s="15">
+        <v>85</v>
+      </c>
+      <c r="L14" s="70" t="s">
+        <v>153</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q14" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="R14" s="19">
+        <v>2</v>
+      </c>
+      <c r="S14" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T14" s="76"/>
+      <c r="U14" s="76"/>
+    </row>
+    <row r="15" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="33">
+        <v>9</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="15">
+        <v>16</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="I15" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="K15" s="15">
+        <v>105</v>
+      </c>
+      <c r="L15" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="P15" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q15" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="R15" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="S15" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T15" s="76"/>
+      <c r="U15" s="76"/>
+    </row>
+    <row r="16" spans="1:22" ht="174.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="12">
+        <v>10</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" s="15">
+        <v>12</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K16" s="15">
+        <v>100</v>
+      </c>
+      <c r="L16" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q16" s="71" t="s">
+        <v>243</v>
+      </c>
+      <c r="R16" s="19">
+        <v>2</v>
+      </c>
+      <c r="S16" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T16" s="76"/>
+      <c r="U16" s="76"/>
+    </row>
+    <row r="17" spans="1:21" ht="174.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="12">
+        <v>10</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" s="36">
+        <v>12</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="K17" s="36">
+        <v>360</v>
+      </c>
+      <c r="L17" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q17" s="71" t="s">
+        <v>243</v>
+      </c>
+      <c r="R17" s="19">
+        <v>2</v>
+      </c>
+      <c r="S17" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T17" s="76"/>
+      <c r="U17" s="76"/>
+    </row>
+    <row r="18" spans="1:21" ht="174.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="12">
+        <v>10</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18" s="21">
+        <v>12</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="K18" s="21">
+        <v>100</v>
+      </c>
+      <c r="L18" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q18" s="71" t="s">
+        <v>243</v>
+      </c>
+      <c r="R18" s="19">
+        <v>2</v>
+      </c>
+      <c r="S18" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T18" s="76"/>
+      <c r="U18" s="76"/>
+    </row>
+    <row r="19" spans="1:21" ht="174.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="12">
+        <v>10</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="G19" s="21">
+        <v>12</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="K19" s="21">
+        <v>360</v>
+      </c>
+      <c r="L19" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q19" s="71" t="s">
+        <v>243</v>
+      </c>
+      <c r="R19" s="19">
+        <v>2</v>
+      </c>
+      <c r="S19" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T19" s="76"/>
+      <c r="U19" s="76"/>
+    </row>
+    <row r="20" spans="1:21" ht="117.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="12">
+        <v>12</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="41"/>
+      <c r="G20" s="21">
+        <v>19</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="I20" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="J20" s="21">
+        <v>15</v>
+      </c>
+      <c r="K20" s="21">
+        <v>225</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q20" s="71" t="s">
+        <v>237</v>
+      </c>
+      <c r="R20" s="19">
+        <v>2</v>
+      </c>
+      <c r="S20" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T20" s="76"/>
+      <c r="U20" s="76"/>
+    </row>
+    <row r="21" spans="1:21" ht="117.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="12">
+        <v>12</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="G21" s="21">
+        <v>19</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="J21" s="21">
+        <v>15</v>
+      </c>
+      <c r="K21" s="21">
+        <v>172</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="19">
+        <v>3</v>
+      </c>
+      <c r="S21" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T21" s="76"/>
+      <c r="U21" s="76"/>
+    </row>
+    <row r="22" spans="1:21" ht="231.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="12">
+        <v>12</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="G22" s="21">
+        <v>21</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="I22" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="J22" s="21">
+        <v>15</v>
+      </c>
+      <c r="K22" s="21">
+        <v>153</v>
+      </c>
+      <c r="L22" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="19">
+        <v>3</v>
+      </c>
+      <c r="S22" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T22" s="76"/>
+      <c r="U22" s="76"/>
+    </row>
+    <row r="23" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="12">
+        <v>12</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23" s="21">
+        <v>21</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="I23" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="21">
+        <v>15</v>
+      </c>
+      <c r="K23" s="21">
+        <v>166</v>
+      </c>
+      <c r="L23" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="19">
+        <v>2</v>
+      </c>
+      <c r="S23" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T23" s="76"/>
+      <c r="U23" s="76"/>
+    </row>
+    <row r="24" spans="1:21" ht="174.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="12">
+        <v>10</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="G24" s="21">
+        <v>12</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="K24" s="21">
+        <v>360</v>
+      </c>
+      <c r="L24" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q24" s="71" t="s">
+        <v>243</v>
+      </c>
+      <c r="R24" s="19">
+        <v>2</v>
+      </c>
+      <c r="S24" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T24" s="76"/>
+      <c r="U24" s="76"/>
+    </row>
+    <row r="25" spans="1:21" ht="78" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="12">
+        <v>11</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="G25" s="34">
+        <v>40</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="K25" s="34">
+        <v>90</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="P25" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q25" s="57" t="s">
+        <v>233</v>
+      </c>
+      <c r="R25" s="19">
+        <v>1</v>
+      </c>
+      <c r="S25" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T25" s="76"/>
+      <c r="U25" s="76"/>
+    </row>
+    <row r="26" spans="1:21" ht="117.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="12">
+        <v>12</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="41"/>
+      <c r="G26" s="21">
+        <v>19</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="I26" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="J26" s="21">
+        <v>15</v>
+      </c>
+      <c r="K26" s="21">
+        <v>225</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q26" s="71" t="s">
+        <v>237</v>
+      </c>
+      <c r="R26" s="19">
+        <v>2</v>
+      </c>
+      <c r="S26" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T26" s="76"/>
+      <c r="U26" s="76"/>
+    </row>
+    <row r="27" spans="1:21" ht="117.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="12">
+        <v>12</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="G27" s="21">
+        <v>19</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="J27" s="21">
+        <v>15</v>
+      </c>
+      <c r="K27" s="21">
+        <v>172</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="19">
+        <v>3</v>
+      </c>
+      <c r="S27" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T27" s="76"/>
+      <c r="U27" s="76"/>
+    </row>
+    <row r="28" spans="1:21" ht="231.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="12">
+        <v>12</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="G28" s="21">
+        <v>21</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="I28" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="J28" s="21">
+        <v>15</v>
+      </c>
+      <c r="K28" s="21">
+        <v>153</v>
+      </c>
+      <c r="L28" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="19">
+        <v>3</v>
+      </c>
+      <c r="S28" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T28" s="76"/>
+      <c r="U28" s="76"/>
+    </row>
+    <row r="29" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="12">
+        <v>12</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="G29" s="21">
+        <v>21</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="I29" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="21">
+        <v>15</v>
+      </c>
+      <c r="K29" s="21">
+        <v>166</v>
+      </c>
+      <c r="L29" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="19">
+        <v>2</v>
+      </c>
+      <c r="S29" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T29" s="76"/>
+      <c r="U29" s="76"/>
+    </row>
+    <row r="30" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="25">
+        <v>3</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" s="15">
+        <v>34</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="K30" s="15">
+        <v>180</v>
+      </c>
+      <c r="L30" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="R30" s="19">
+        <v>1</v>
+      </c>
+      <c r="S30" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="T30" s="76"/>
+      <c r="U30" s="76"/>
+    </row>
+    <row r="31" spans="1:21" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="12">
+        <v>3</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G31" s="15">
+        <v>34</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="K31" s="15">
+        <v>150</v>
+      </c>
+      <c r="L31" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="R31" s="19">
+        <v>1</v>
+      </c>
+      <c r="S31" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T31" s="76"/>
+      <c r="U31" s="76"/>
+    </row>
+    <row r="32" spans="1:21" ht="174.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="12">
+        <v>3</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32" s="15">
+        <v>34</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="K32" s="19">
+        <v>180</v>
+      </c>
+      <c r="L32" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="56" t="s">
+        <v>261</v>
+      </c>
+      <c r="R32" s="19">
+        <v>1</v>
+      </c>
+      <c r="S32" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T32" s="76"/>
+      <c r="U32" s="76"/>
+    </row>
+    <row r="33" spans="1:21" ht="123" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="12">
+        <v>3</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33" s="15">
+        <v>34</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="K33" s="19">
+        <v>60</v>
+      </c>
+      <c r="L33" s="65" t="s">
+        <v>226</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q33" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="R33" s="19">
+        <v>2</v>
+      </c>
+      <c r="S33" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T33" s="76"/>
+      <c r="U33" s="76"/>
+    </row>
+    <row r="34" spans="1:21" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="12">
+        <v>6</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G34" s="15">
+        <v>8</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="K34" s="15">
+        <v>140</v>
+      </c>
+      <c r="L34" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="P34" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q34" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="R34" s="19">
+        <v>2</v>
+      </c>
+      <c r="S34" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T34" s="76"/>
+      <c r="U34" s="76"/>
+    </row>
+    <row r="35" spans="1:21" ht="78" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="12">
+        <v>11</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="G35" s="34">
+        <v>40</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="K35" s="34">
+        <v>90</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="P35" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q35" s="57" t="s">
+        <v>233</v>
+      </c>
+      <c r="R35" s="19">
+        <v>1</v>
+      </c>
+      <c r="S35" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T35" s="76"/>
+      <c r="U35" s="76"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="M1:M23">
+    <cfRule type="duplicateValues" dxfId="21" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M24:M29">
+    <cfRule type="duplicateValues" dxfId="20" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M32">
+    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M33">
+    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M34:M35 M30:M31">
+    <cfRule type="duplicateValues" dxfId="17" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M36:M1048564">
+    <cfRule type="duplicateValues" dxfId="16" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1048565:M1048576">
+    <cfRule type="duplicateValues" dxfId="15" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1048565:N1048576">
+    <cfRule type="duplicateValues" dxfId="14" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4">
+    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6">
+    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O13">
+    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O25">
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O35">
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B5538A5-2CE0-400F-BF9C-B504D5DC3739}">
+  <dimension ref="A1:U8"/>
+  <sheetViews>
+    <sheetView topLeftCell="L1" zoomScale="69" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="108.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="S1" s="72" t="s">
+        <v>239</v>
+      </c>
+      <c r="T1" s="54"/>
+      <c r="U1" s="73"/>
+    </row>
+    <row r="2" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="15">
+        <v>14</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="15">
+        <v>20</v>
+      </c>
+      <c r="K2" s="15">
+        <v>240</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2" s="19">
+        <v>3</v>
+      </c>
+      <c r="S2" s="75"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+    </row>
+    <row r="3" spans="1:21" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="15">
+        <v>18</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="15">
+        <v>20</v>
+      </c>
+      <c r="K3" s="15">
+        <v>180</v>
+      </c>
+      <c r="L3" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="65" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="R3" s="19">
+        <v>1</v>
+      </c>
+      <c r="S3" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+    </row>
+    <row r="4" spans="1:21" ht="345.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="15">
+        <v>20</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="15">
+        <v>240</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="R4" s="19">
+        <v>3</v>
+      </c>
+      <c r="S4" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+    </row>
+    <row r="5" spans="1:21" ht="345.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="12">
+        <v>1</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="19">
+        <v>14</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="15">
+        <v>20</v>
+      </c>
+      <c r="K5" s="15">
+        <v>120</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="R5" s="19">
+        <v>3</v>
+      </c>
+      <c r="S5" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+    </row>
+    <row r="6" spans="1:21" ht="345.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="12">
+        <v>1</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="15">
+        <v>14</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="15">
+        <v>20</v>
+      </c>
+      <c r="K6" s="15">
+        <v>360</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="R6" s="19">
+        <v>3</v>
+      </c>
+      <c r="S6" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+    </row>
+    <row r="7" spans="1:21" ht="345.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="42">
+        <v>6</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" s="44">
+        <v>8</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="K7" s="21">
+        <v>140</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="P7" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q7" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="R7" s="19">
+        <v>2</v>
+      </c>
+      <c r="S7" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T7" s="76"/>
+      <c r="U7" s="76"/>
+    </row>
+    <row r="8" spans="1:21" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="42">
+        <v>9</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="44">
+        <v>16</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="I8" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="K8" s="21">
+        <v>105</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q8" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="R8" s="19">
+        <v>2</v>
+      </c>
+      <c r="S8" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T8" s="76"/>
+      <c r="U8" s="76"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="M1:M8">
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2">
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B928E5-8912-4A3C-9609-DB7127AEEA71}">
+  <dimension ref="A1:U6"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="S1" s="72" t="s">
+        <v>239</v>
+      </c>
+      <c r="T1" s="54"/>
+      <c r="U1" s="73"/>
+    </row>
+    <row r="2" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="15">
+        <v>14</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="15">
+        <v>30</v>
+      </c>
+      <c r="K2" s="15">
+        <v>240</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2" s="19">
+        <v>3</v>
+      </c>
+      <c r="S2" s="75"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+    </row>
+    <row r="3" spans="1:21" ht="345.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="15">
+        <v>14</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="15">
+        <v>30</v>
+      </c>
+      <c r="K3" s="15">
+        <v>360</v>
+      </c>
+      <c r="L3" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="R3" s="19">
+        <v>3</v>
+      </c>
+      <c r="S3" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+    </row>
+    <row r="4" spans="1:21" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="41"/>
+      <c r="G4" s="21">
+        <v>18</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="21">
+        <v>30</v>
+      </c>
+      <c r="K4" s="21">
+        <v>180</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="65" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="R4" s="19">
+        <v>1</v>
+      </c>
+      <c r="S4" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+    </row>
+    <row r="5" spans="1:21" ht="345.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="33">
+        <v>1</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="21">
+        <v>20</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="21">
+        <v>30</v>
+      </c>
+      <c r="K5" s="21">
+        <v>240</v>
+      </c>
+      <c r="L5" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q5" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="R5" s="19">
+        <v>3</v>
+      </c>
+      <c r="S5" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+    </row>
+    <row r="6" spans="1:21" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="42">
+        <v>1</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="34">
+        <v>14</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="21">
+        <v>30</v>
+      </c>
+      <c r="K6" s="21">
+        <v>120</v>
+      </c>
+      <c r="L6" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q6" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="R6" s="19">
+        <v>3</v>
+      </c>
+      <c r="S6" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="M1:M6">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Overview_Studies.xlsx
+++ b/Overview_Studies.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f2d186216cf91ab/Bidlung/University/M.S. Leiden University/M.S. Neuroscience (Research)/Internship Groningen/Meta analysis Literature final/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f2d186216cf91ab/Bidlung/University/M.S. Leiden University/M.S. Neuroscience (Research)/Internship Groningen/GitHub_Multiverse_meta/MetaAnalysis-Psilo-Cognition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="627" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BD43E6B-2684-4DD7-824B-0A403F71A762}"/>
+  <xr:revisionPtr revIDLastSave="634" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34B272F0-9865-4FE5-8ECE-D5905CF8D327}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Low Dose'!$A$1:$Q$29</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overview!$A$1:$U$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overview!$A$1:$V$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="270">
   <si>
     <t>CognitiveFunction</t>
   </si>
@@ -2076,6 +2076,12 @@
   </si>
   <si>
     <t xml:space="preserve">Took cohens d across 3 groups. </t>
+  </si>
+  <si>
+    <t>ES_ID</t>
+  </si>
+  <si>
+    <t>Timepoint</t>
   </si>
 </sst>
 </file>
@@ -2423,7 +2429,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2658,6 +2664,12 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3316,2460 +3328,2504 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}">
-  <dimension ref="A1:V42"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="58" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I42" sqref="I42"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
-    <col min="12" max="12" width="23.85546875" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" customWidth="1"/>
-    <col min="16" max="16" width="20.28515625" customWidth="1"/>
-    <col min="17" max="17" width="32.42578125" customWidth="1"/>
-    <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28" style="74" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="74"/>
-    <col min="21" max="21" width="18.28515625" style="74" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="13" max="13" width="23.85546875" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1"/>
+    <col min="17" max="17" width="20.28515625" customWidth="1"/>
+    <col min="18" max="18" width="32.42578125" customWidth="1"/>
+    <col min="19" max="19" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28" style="74" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="74"/>
+    <col min="22" max="22" width="18.28515625" style="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="80" t="s">
+        <v>268</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="S1" s="72" t="s">
+      <c r="T1" s="72" t="s">
         <v>239</v>
       </c>
-      <c r="T1" s="54"/>
-      <c r="U1" s="73"/>
-    </row>
-    <row r="2" spans="1:22" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="U1" s="54"/>
+      <c r="V1" s="73"/>
+    </row>
+    <row r="2" spans="1:23" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="63" t="s">
-        <v>17</v>
-      </c>
       <c r="E2" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="15">
+      <c r="H2" s="15">
         <v>19</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="I2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="J2" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="15">
+      <c r="K2" s="15">
         <v>10</v>
       </c>
-      <c r="K2" s="15">
+      <c r="L2" s="15">
         <v>180</v>
       </c>
-      <c r="L2" s="53" t="s">
+      <c r="M2" s="53" t="s">
         <v>244</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="65" t="s">
+      <c r="P2" s="2"/>
+      <c r="Q2" s="65" t="s">
         <v>247</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="R2" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="R2" s="19">
+      <c r="S2" s="19">
         <v>1</v>
       </c>
-      <c r="S2" s="75" t="s">
+      <c r="T2" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="T2" s="76"/>
       <c r="U2" s="76"/>
-    </row>
-    <row r="3" spans="1:22" ht="276" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V2" s="76"/>
+    </row>
+    <row r="3" spans="1:23" ht="276" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="D3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="63" t="s">
-        <v>17</v>
-      </c>
       <c r="E3" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="15">
+      <c r="H3" s="15">
         <v>20</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="I3" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="J3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="K3" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="15">
+      <c r="L3" s="15">
         <v>240</v>
       </c>
-      <c r="L3" s="47" t="s">
+      <c r="M3" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="69" t="s">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="R3" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="R3" s="19">
+      <c r="S3" s="19">
         <v>3</v>
       </c>
-      <c r="S3" s="75" t="s">
+      <c r="T3" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="T3" s="76"/>
       <c r="U3" s="76"/>
-    </row>
-    <row r="4" spans="1:22" ht="321.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V3" s="76"/>
+    </row>
+    <row r="4" spans="1:23" ht="321.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="79"/>
+      <c r="C4" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="D4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="63" t="s">
-        <v>17</v>
-      </c>
       <c r="E4" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="15">
+      <c r="H4" s="15">
         <v>14</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="I4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="J4" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="15">
+      <c r="K4" s="15">
         <v>10</v>
       </c>
-      <c r="K4" s="15">
+      <c r="L4" s="15">
         <v>120</v>
       </c>
-      <c r="L4" s="53" t="s">
+      <c r="M4" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52" t="s">
+      <c r="N4" s="52"/>
+      <c r="O4" s="52" t="s">
         <v>212</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="Q4" s="69" t="s">
         <v>240</v>
       </c>
-      <c r="Q4" s="56" t="s">
+      <c r="R4" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="R4" s="19">
+      <c r="S4" s="19">
         <v>3</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="T4" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="T4" s="76"/>
       <c r="U4" s="76"/>
-    </row>
-    <row r="5" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V4" s="76"/>
+    </row>
+    <row r="5" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="12">
         <v>1</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="79"/>
+      <c r="C5" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="63" t="s">
-        <v>17</v>
-      </c>
       <c r="E5" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="15">
+      <c r="H5" s="15">
         <v>14</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="I5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="J5" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="15">
+      <c r="K5" s="15">
         <v>10</v>
       </c>
-      <c r="K5" s="15">
+      <c r="L5" s="15">
         <v>240</v>
       </c>
-      <c r="L5" s="77" t="s">
+      <c r="M5" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52" t="s">
+      <c r="N5" s="52"/>
+      <c r="O5" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="57" t="s">
+      <c r="P5" s="2"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="R5" s="19">
+      <c r="S5" s="19">
         <v>3</v>
       </c>
-      <c r="S5" s="75" t="s">
+      <c r="T5" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="T5" s="76"/>
       <c r="U5" s="76"/>
-    </row>
-    <row r="6" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V5" s="76"/>
+    </row>
+    <row r="6" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="12">
         <v>1</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="79"/>
+      <c r="C6" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="D6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="63" t="s">
-        <v>17</v>
-      </c>
       <c r="E6" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="15">
+      <c r="H6" s="15">
         <v>14</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="I6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="J6" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="15">
+      <c r="K6" s="15">
         <v>10</v>
       </c>
-      <c r="K6" s="15">
+      <c r="L6" s="15">
         <v>360</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="M6" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52" t="s">
+      <c r="N6" s="52"/>
+      <c r="O6" s="52" t="s">
         <v>216</v>
       </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="34" t="s">
+      <c r="P6" s="2"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="R6" s="19">
+      <c r="S6" s="19">
         <v>3</v>
       </c>
-      <c r="S6" s="75" t="s">
+      <c r="T6" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="T6" s="76"/>
       <c r="U6" s="76"/>
-    </row>
-    <row r="7" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V6" s="76"/>
+    </row>
+    <row r="7" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="79"/>
+      <c r="C7" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="D7" s="15" t="s">
         <v>10</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>44</v>
       </c>
       <c r="E7" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="15">
+      <c r="H7" s="15">
         <v>14</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="I7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="J7" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="15">
+      <c r="K7" s="15">
         <v>20</v>
       </c>
-      <c r="K7" s="15">
+      <c r="L7" s="15">
         <v>240</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="M7" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52" t="s">
+      <c r="N7" s="52"/>
+      <c r="O7" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="34" t="s">
+      <c r="P7" s="2"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="R7" s="19">
+      <c r="S7" s="19">
         <v>3</v>
       </c>
-      <c r="S7" s="75" t="s">
+      <c r="T7" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="T7" s="76"/>
       <c r="U7" s="76"/>
-    </row>
-    <row r="8" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V7" s="76"/>
+    </row>
+    <row r="8" spans="1:23" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="12">
         <v>1</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="79"/>
+      <c r="C8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="D8" s="15" t="s">
         <v>10</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>44</v>
       </c>
       <c r="E8" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="15">
+      <c r="F8" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="15">
         <v>18</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="I8" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="J8" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="15">
+      <c r="K8" s="15">
         <v>20</v>
       </c>
-      <c r="K8" s="15">
+      <c r="L8" s="15">
         <v>180</v>
       </c>
-      <c r="L8" s="53" t="s">
+      <c r="M8" s="53" t="s">
         <v>246</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="65" t="s">
+      <c r="P8" s="2"/>
+      <c r="Q8" s="65" t="s">
         <v>247</v>
       </c>
-      <c r="Q8" s="19" t="s">
+      <c r="R8" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="R8" s="19">
+      <c r="S8" s="19">
         <v>1</v>
       </c>
-      <c r="S8" s="75" t="s">
+      <c r="T8" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="T8" s="76"/>
       <c r="U8" s="76"/>
-    </row>
-    <row r="9" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V8" s="76"/>
+    </row>
+    <row r="9" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="12">
         <v>1</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="79"/>
+      <c r="C9" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="D9" s="15" t="s">
         <v>10</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>44</v>
       </c>
       <c r="E9" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="15">
+      <c r="H9" s="15">
         <v>20</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="I9" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="J9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="K9" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="K9" s="15">
+      <c r="L9" s="15">
         <v>240</v>
       </c>
-      <c r="L9" s="22" t="s">
+      <c r="M9" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="17" t="s">
+      <c r="P9" s="2"/>
+      <c r="Q9" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="Q9" s="15" t="s">
+      <c r="R9" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="R9" s="19">
+      <c r="S9" s="19">
         <v>3</v>
       </c>
-      <c r="S9" s="75" t="s">
+      <c r="T9" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="T9" s="76"/>
       <c r="U9" s="76"/>
-    </row>
-    <row r="10" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V9" s="76"/>
+    </row>
+    <row r="10" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="12">
         <v>1</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="79"/>
+      <c r="C10" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="D10" s="15" t="s">
         <v>10</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>44</v>
       </c>
       <c r="E10" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="19">
+      <c r="H10" s="19">
         <v>14</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="I10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="J10" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="15">
+      <c r="K10" s="15">
         <v>20</v>
       </c>
-      <c r="K10" s="15">
+      <c r="L10" s="15">
         <v>120</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="M10" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52" t="s">
+      <c r="N10" s="52"/>
+      <c r="O10" s="52" t="s">
         <v>213</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="17" t="s">
+      <c r="Q10" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="Q10" s="19" t="s">
+      <c r="R10" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="R10" s="19">
+      <c r="S10" s="19">
         <v>3</v>
       </c>
-      <c r="S10" s="75" t="s">
+      <c r="T10" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="T10" s="76"/>
       <c r="U10" s="76"/>
-    </row>
-    <row r="11" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V10" s="76"/>
+    </row>
+    <row r="11" spans="1:23" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="79"/>
+      <c r="C11" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="D11" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="63" t="s">
-        <v>17</v>
-      </c>
       <c r="E11" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="15">
+      <c r="H11" s="15">
         <v>16</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="I11" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="I11" s="45" t="s">
+      <c r="J11" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="K11" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="K11" s="15">
+      <c r="L11" s="15">
         <v>105</v>
       </c>
-      <c r="L11" s="53" t="s">
+      <c r="M11" s="53" t="s">
         <v>235</v>
       </c>
-      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="2" t="s">
+      <c r="O11" s="2"/>
+      <c r="P11" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="P11" s="59" t="s">
+      <c r="Q11" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="Q11" s="56" t="s">
+      <c r="R11" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="R11" s="19" t="s">
+      <c r="S11" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="S11" s="75" t="s">
+      <c r="T11" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="T11" s="76"/>
       <c r="U11" s="76"/>
-    </row>
-    <row r="12" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V11" s="76"/>
+    </row>
+    <row r="12" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="12">
         <v>1</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="79"/>
+      <c r="C12" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="D12" s="15" t="s">
         <v>10</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>44</v>
       </c>
       <c r="E12" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="15">
+      <c r="H12" s="15">
         <v>14</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="I12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="J12" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="J12" s="15">
+      <c r="K12" s="15">
         <v>20</v>
       </c>
-      <c r="K12" s="15">
+      <c r="L12" s="15">
         <v>360</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="M12" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52" t="s">
+      <c r="N12" s="52"/>
+      <c r="O12" s="52" t="s">
         <v>217</v>
       </c>
-      <c r="O12" s="2"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="19" t="s">
+      <c r="P12" s="2"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="R12" s="19">
+      <c r="S12" s="19">
         <v>3</v>
       </c>
-      <c r="S12" s="75" t="s">
+      <c r="T12" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="T12" s="76"/>
       <c r="U12" s="76"/>
-    </row>
-    <row r="13" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V12" s="76"/>
+    </row>
+    <row r="13" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="12">
         <v>1</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="79"/>
+      <c r="C13" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="D13" s="15" t="s">
         <v>10</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>37</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="15">
+      <c r="H13" s="15">
         <v>14</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="I13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="J13" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="J13" s="15">
+      <c r="K13" s="15">
         <v>30</v>
       </c>
-      <c r="K13" s="15">
+      <c r="L13" s="15">
         <v>240</v>
       </c>
-      <c r="L13" s="17" t="s">
+      <c r="M13" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52" t="s">
+      <c r="N13" s="52"/>
+      <c r="O13" s="52" t="s">
         <v>215</v>
       </c>
-      <c r="O13" s="2"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="19" t="s">
+      <c r="P13" s="2"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="R13" s="19">
+      <c r="S13" s="19">
         <v>3</v>
       </c>
-      <c r="S13" s="75" t="s">
+      <c r="T13" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="T13" s="76"/>
       <c r="U13" s="76"/>
-    </row>
-    <row r="14" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V13" s="76"/>
+    </row>
+    <row r="14" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="12">
         <v>1</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="79"/>
+      <c r="C14" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="D14" s="15" t="s">
         <v>10</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>37</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="15">
+      <c r="H14" s="15">
         <v>14</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="I14" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="J14" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="J14" s="15">
+      <c r="K14" s="15">
         <v>30</v>
       </c>
-      <c r="K14" s="15">
+      <c r="L14" s="15">
         <v>360</v>
       </c>
-      <c r="L14" s="63" t="s">
+      <c r="M14" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52" t="s">
+      <c r="N14" s="52"/>
+      <c r="O14" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="O14" s="2"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="19" t="s">
+      <c r="P14" s="2"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="R14" s="19">
+      <c r="S14" s="19">
         <v>3</v>
       </c>
-      <c r="S14" s="75" t="s">
+      <c r="T14" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="T14" s="76"/>
       <c r="U14" s="76"/>
-    </row>
-    <row r="15" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V14" s="76"/>
+    </row>
+    <row r="15" spans="1:23" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="12">
         <v>2</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="79"/>
+      <c r="C15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="D15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="63" t="s">
-        <v>17</v>
-      </c>
       <c r="E15" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="15">
+      <c r="H15" s="15">
         <v>8</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="I15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="J15" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="K15" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="15">
+      <c r="L15" s="15">
         <v>120</v>
       </c>
-      <c r="L15" s="53" t="s">
+      <c r="M15" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="52" t="s">
+      <c r="N15" s="2"/>
+      <c r="O15" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="O15" s="2"/>
-      <c r="P15" s="66" t="s">
+      <c r="P15" s="2"/>
+      <c r="Q15" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="Q15" s="19" t="s">
+      <c r="R15" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="R15" s="19">
+      <c r="S15" s="19">
         <v>2</v>
       </c>
-      <c r="S15" s="75" t="s">
+      <c r="T15" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="T15" s="76"/>
       <c r="U15" s="76"/>
-      <c r="V15" s="75"/>
-    </row>
-    <row r="16" spans="1:22" ht="293.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V15" s="76"/>
+      <c r="W15" s="75"/>
+    </row>
+    <row r="16" spans="1:23" ht="293.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="12">
         <v>2</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="79"/>
+      <c r="C16" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="D16" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="63" t="s">
-        <v>17</v>
-      </c>
       <c r="E16" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="G16" s="15">
+      <c r="H16" s="15">
         <v>8</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="I16" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="J16" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="J16" s="15" t="s">
+      <c r="K16" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="15">
+      <c r="L16" s="15">
         <v>120</v>
       </c>
-      <c r="L16" s="17" t="s">
+      <c r="M16" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2" t="s">
+      <c r="N16" s="2"/>
+      <c r="O16" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="O16" s="2"/>
-      <c r="P16" s="69" t="s">
+      <c r="P16" s="2"/>
+      <c r="Q16" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="Q16" s="15" t="s">
+      <c r="R16" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="R16" s="19">
+      <c r="S16" s="19">
         <v>1</v>
       </c>
-      <c r="S16" s="75" t="s">
+      <c r="T16" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="T16" s="76"/>
       <c r="U16" s="76"/>
-    </row>
-    <row r="17" spans="1:21" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V16" s="76"/>
+    </row>
+    <row r="17" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="25">
         <v>3</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="81"/>
+      <c r="C17" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="D17" s="15" t="s">
         <v>20</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>21</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="G17" s="15">
+      <c r="H17" s="15">
         <v>34</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="I17" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="J17" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="K17" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="K17" s="15">
+      <c r="L17" s="15">
         <v>180</v>
       </c>
-      <c r="L17" s="17" t="s">
+      <c r="M17" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="O17" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="O17" s="2"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="19" t="s">
+      <c r="P17" s="2"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="R17" s="19">
+      <c r="S17" s="19">
         <v>1</v>
       </c>
-      <c r="S17" s="75" t="s">
+      <c r="T17" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="T17" s="76"/>
       <c r="U17" s="76"/>
-    </row>
-    <row r="18" spans="1:21" ht="288.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V17" s="76"/>
+    </row>
+    <row r="18" spans="1:22" ht="288.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="12">
         <v>3</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="79"/>
+      <c r="C18" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="D18" s="15" t="s">
         <v>20</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>21</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="G18" s="15">
+      <c r="H18" s="15">
         <v>34</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="I18" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="16" t="s">
+      <c r="J18" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="J18" s="15" t="s">
+      <c r="K18" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="K18" s="15">
+      <c r="L18" s="15">
         <v>150</v>
       </c>
-      <c r="L18" s="53" t="s">
+      <c r="M18" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2" t="s">
+      <c r="N18" s="2"/>
+      <c r="O18" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="O18" s="2"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="19" t="s">
+      <c r="P18" s="2"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="R18" s="19">
+      <c r="S18" s="19">
         <v>1</v>
       </c>
-      <c r="S18" s="75" t="s">
+      <c r="T18" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="T18" s="76"/>
       <c r="U18" s="76"/>
-    </row>
-    <row r="19" spans="1:21" ht="303" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V18" s="76"/>
+    </row>
+    <row r="19" spans="1:22" ht="303" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="12">
         <v>3</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="79"/>
+      <c r="C19" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="D19" s="15" t="s">
         <v>20</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>21</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="G19" s="15">
+      <c r="H19" s="15">
         <v>34</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="I19" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="I19" s="16" t="s">
+      <c r="J19" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="K19" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="K19" s="19">
+      <c r="L19" s="19">
         <v>180</v>
       </c>
-      <c r="L19" s="53" t="s">
+      <c r="M19" s="53" t="s">
         <v>225</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="N19" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="O19" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="O19" s="2"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="56" t="s">
+      <c r="P19" s="2"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="56" t="s">
         <v>261</v>
       </c>
-      <c r="R19" s="19">
+      <c r="S19" s="19">
         <v>1</v>
       </c>
-      <c r="S19" s="75" t="s">
+      <c r="T19" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="T19" s="76"/>
       <c r="U19" s="76"/>
-    </row>
-    <row r="20" spans="1:21" ht="108" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V19" s="76"/>
+    </row>
+    <row r="20" spans="1:22" ht="108" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="12">
         <v>3</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="79"/>
+      <c r="C20" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="D20" s="15" t="s">
         <v>20</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>21</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="15">
+      <c r="H20" s="15">
         <v>34</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="I20" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="I20" s="16" t="s">
+      <c r="J20" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="J20" s="15">
+      <c r="K20" s="15">
         <v>0.79500000000000004</v>
       </c>
-      <c r="K20" s="19">
+      <c r="L20" s="19">
         <v>60</v>
       </c>
-      <c r="L20" s="65" t="s">
+      <c r="M20" s="65" t="s">
         <v>226</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="N20" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="66" t="s">
+      <c r="P20" s="2"/>
+      <c r="Q20" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="Q20" s="19" t="s">
+      <c r="R20" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="R20" s="19">
+      <c r="S20" s="19">
         <v>2</v>
       </c>
-      <c r="S20" s="75" t="s">
+      <c r="T20" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="T20" s="76"/>
       <c r="U20" s="76"/>
-    </row>
-    <row r="21" spans="1:21" ht="274.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V20" s="76"/>
+    </row>
+    <row r="21" spans="1:22" ht="274.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="25">
         <v>5</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="81"/>
+      <c r="C21" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="D21" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="63" t="s">
-        <v>17</v>
-      </c>
       <c r="E21" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="G21" s="28">
+      <c r="H21" s="28">
         <v>16</v>
       </c>
-      <c r="H21" s="28" t="s">
+      <c r="I21" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="I21" s="67" t="s">
+      <c r="J21" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="J21" s="28">
+      <c r="K21" s="28">
         <v>14</v>
       </c>
-      <c r="K21" s="28">
+      <c r="L21" s="28">
         <v>85</v>
       </c>
-      <c r="L21" s="68" t="s">
+      <c r="M21" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="N21" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="67" t="s">
+      <c r="P21" s="2"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="67" t="s">
         <v>234</v>
       </c>
-      <c r="R21" s="19">
+      <c r="S21" s="19">
         <v>1</v>
       </c>
-      <c r="S21" s="75" t="s">
+      <c r="T21" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="T21" s="76"/>
       <c r="U21" s="76"/>
-    </row>
-    <row r="22" spans="1:21" ht="288.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V21" s="76"/>
+    </row>
+    <row r="22" spans="1:22" ht="288.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="12">
         <v>6</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="79"/>
+      <c r="C22" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="D22" s="15" t="s">
         <v>26</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>21</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="G22" s="15">
+      <c r="H22" s="15">
         <v>8</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="I22" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="55" t="s">
+      <c r="J22" s="55" t="s">
         <v>220</v>
       </c>
-      <c r="J22" s="15" t="s">
+      <c r="K22" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="K22" s="15">
+      <c r="L22" s="15">
         <v>140</v>
       </c>
-      <c r="L22" s="17" t="s">
+      <c r="M22" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2" t="s">
+      <c r="N22" s="2"/>
+      <c r="O22" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="P22" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="P22" s="18" t="s">
+      <c r="Q22" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="Q22" s="19" t="s">
+      <c r="R22" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="R22" s="19">
+      <c r="S22" s="19">
         <v>2</v>
       </c>
-      <c r="S22" s="75" t="s">
+      <c r="T22" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="T22" s="76"/>
       <c r="U22" s="76"/>
-    </row>
-    <row r="23" spans="1:21" ht="288.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V22" s="76"/>
+    </row>
+    <row r="23" spans="1:22" ht="288.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="12">
         <v>6</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="79"/>
+      <c r="C23" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="D23" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="63" t="s">
-        <v>17</v>
-      </c>
       <c r="E23" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="G23" s="15">
+      <c r="H23" s="15">
         <v>8</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="I23" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="I23" s="55" t="s">
+      <c r="J23" s="55" t="s">
         <v>220</v>
       </c>
-      <c r="J23" s="15" t="s">
+      <c r="K23" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="K23" s="15">
+      <c r="L23" s="15">
         <v>140</v>
       </c>
-      <c r="L23" s="14" t="s">
+      <c r="M23" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2" t="s">
+      <c r="N23" s="2"/>
+      <c r="O23" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="P23" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="P23" s="50" t="s">
+      <c r="Q23" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="Q23" s="19" t="s">
+      <c r="R23" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="R23" s="19">
+      <c r="S23" s="19">
         <v>2</v>
       </c>
-      <c r="S23" s="75" t="s">
+      <c r="T23" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="T23" s="76"/>
       <c r="U23" s="76"/>
-    </row>
-    <row r="24" spans="1:21" ht="288.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V23" s="76"/>
+    </row>
+    <row r="24" spans="1:22" ht="288.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="12">
         <v>6</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="79"/>
+      <c r="C24" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="D24" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="63" t="s">
-        <v>17</v>
-      </c>
       <c r="E24" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="G24" s="15">
+      <c r="H24" s="15">
         <v>8</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="I24" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="I24" s="55" t="s">
+      <c r="J24" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="J24" s="15" t="s">
+      <c r="K24" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="15">
+      <c r="L24" s="15">
         <v>140</v>
       </c>
-      <c r="L24" s="17" t="s">
+      <c r="M24" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2" t="s">
+      <c r="N24" s="2"/>
+      <c r="O24" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="P24" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="P24" s="18" t="s">
+      <c r="Q24" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="Q24" s="56" t="s">
+      <c r="R24" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="R24" s="19">
+      <c r="S24" s="19">
         <v>2</v>
       </c>
-      <c r="S24" s="75" t="s">
+      <c r="T24" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="T24" s="76"/>
       <c r="U24" s="76"/>
-    </row>
-    <row r="25" spans="1:21" ht="243" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V24" s="76"/>
+    </row>
+    <row r="25" spans="1:22" ht="243" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="12">
         <v>7</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="79"/>
+      <c r="C25" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="D25" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="63" t="s">
-        <v>17</v>
-      </c>
       <c r="E25" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="G25" s="15">
-        <v>17</v>
-      </c>
-      <c r="H25" s="15" t="s">
+      <c r="H25" s="15">
+        <v>17</v>
+      </c>
+      <c r="I25" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I25" s="16" t="s">
+      <c r="J25" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="J25" s="15" t="s">
+      <c r="K25" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="15">
+      <c r="L25" s="15">
         <v>120</v>
       </c>
-      <c r="L25" s="53" t="s">
+      <c r="M25" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2" t="s">
+      <c r="N25" s="2"/>
+      <c r="O25" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="P25" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="56" t="s">
+      <c r="Q25" s="18"/>
+      <c r="R25" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="R25" s="19">
+      <c r="S25" s="19">
         <v>3</v>
       </c>
-      <c r="S25" s="75" t="s">
+      <c r="T25" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="T25" s="76"/>
       <c r="U25" s="76"/>
-    </row>
-    <row r="26" spans="1:21" ht="168" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V25" s="76"/>
+    </row>
+    <row r="26" spans="1:22" ht="168" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="12">
         <v>8</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="79"/>
+      <c r="C26" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="D26" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="63" t="s">
-        <v>17</v>
-      </c>
       <c r="E26" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="G26" s="15">
+      <c r="H26" s="15">
         <v>16</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="I26" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="45" t="s">
+      <c r="J26" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="J26" s="15" t="s">
+      <c r="K26" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="K26" s="15">
+      <c r="L26" s="15">
         <v>85</v>
       </c>
-      <c r="L26" s="70" t="s">
+      <c r="M26" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="N26" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="N26" s="2" t="s">
+      <c r="O26" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="O26" s="2"/>
-      <c r="P26" s="14" t="s">
+      <c r="P26" s="2"/>
+      <c r="Q26" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="Q26" s="19" t="s">
+      <c r="R26" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="R26" s="19">
+      <c r="S26" s="19">
         <v>2</v>
       </c>
-      <c r="S26" s="75" t="s">
+      <c r="T26" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="T26" s="76"/>
       <c r="U26" s="76"/>
-    </row>
-    <row r="27" spans="1:21" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V26" s="76"/>
+    </row>
+    <row r="27" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="33">
         <v>9</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="79"/>
+      <c r="C27" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="D27" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="63" t="s">
-        <v>17</v>
-      </c>
       <c r="E27" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G27" s="15">
+      <c r="H27" s="15">
         <v>16</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="I27" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="I27" s="45" t="s">
+      <c r="J27" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="J27" s="15" t="s">
+      <c r="K27" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="K27" s="15">
+      <c r="L27" s="15">
         <v>105</v>
       </c>
-      <c r="L27" s="53" t="s">
+      <c r="M27" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-      <c r="O27" s="2" t="s">
+      <c r="O27" s="2"/>
+      <c r="P27" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="P27" s="58" t="s">
+      <c r="Q27" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="Q27" s="19" t="s">
+      <c r="R27" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="R27" s="19" t="s">
+      <c r="S27" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="S27" s="75" t="s">
+      <c r="T27" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="T27" s="76"/>
       <c r="U27" s="76"/>
-    </row>
-    <row r="28" spans="1:21" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V27" s="76"/>
+    </row>
+    <row r="28" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="12">
         <v>10</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="79"/>
+      <c r="C28" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="D28" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="63" t="s">
-        <v>17</v>
-      </c>
       <c r="E28" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="G28" s="15">
+      <c r="H28" s="15">
         <v>12</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="I28" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="16" t="s">
+      <c r="J28" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="J28" s="15" t="s">
+      <c r="K28" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="K28" s="15">
+      <c r="L28" s="15">
         <v>100</v>
       </c>
-      <c r="L28" s="53" t="s">
+      <c r="M28" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2" t="s">
+      <c r="N28" s="2"/>
+      <c r="O28" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="O28" s="2"/>
-      <c r="P28" s="43" t="s">
+      <c r="P28" s="2"/>
+      <c r="Q28" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="Q28" s="71" t="s">
+      <c r="R28" s="71" t="s">
         <v>243</v>
       </c>
-      <c r="R28" s="19">
+      <c r="S28" s="19">
         <v>2</v>
       </c>
-      <c r="S28" s="75" t="s">
+      <c r="T28" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="T28" s="76"/>
       <c r="U28" s="76"/>
-    </row>
-    <row r="29" spans="1:21" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V28" s="76"/>
+    </row>
+    <row r="29" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="12">
         <v>10</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="79"/>
+      <c r="C29" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="D29" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="63" t="s">
-        <v>17</v>
-      </c>
       <c r="E29" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="35" t="s">
+      <c r="F29" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="G29" s="36">
+      <c r="H29" s="36">
         <v>12</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="I29" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I29" s="46" t="s">
+      <c r="J29" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="J29" s="36" t="s">
+      <c r="K29" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="K29" s="36">
+      <c r="L29" s="36">
         <v>360</v>
       </c>
-      <c r="L29" s="63" t="s">
+      <c r="M29" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2" t="s">
+      <c r="N29" s="2"/>
+      <c r="O29" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="O29" s="2"/>
-      <c r="P29" s="37" t="s">
+      <c r="P29" s="2"/>
+      <c r="Q29" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="Q29" s="71" t="s">
+      <c r="R29" s="71" t="s">
         <v>243</v>
       </c>
-      <c r="R29" s="19">
+      <c r="S29" s="19">
         <v>2</v>
       </c>
-      <c r="S29" s="75" t="s">
+      <c r="T29" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="T29" s="76"/>
       <c r="U29" s="76"/>
-    </row>
-    <row r="30" spans="1:21" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V29" s="76"/>
+    </row>
+    <row r="30" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="12">
         <v>10</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="79"/>
+      <c r="C30" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="D30" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="63" t="s">
-        <v>17</v>
-      </c>
       <c r="E30" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="38" t="s">
+      <c r="F30" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="G30" s="21">
+      <c r="H30" s="21">
         <v>12</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="I30" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="40" t="s">
+      <c r="J30" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="J30" s="21" t="s">
+      <c r="K30" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="K30" s="21">
+      <c r="L30" s="21">
         <v>100</v>
       </c>
-      <c r="L30" s="37" t="s">
+      <c r="M30" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2" t="s">
+      <c r="N30" s="2"/>
+      <c r="O30" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="O30" s="2"/>
-      <c r="P30" s="38" t="s">
+      <c r="P30" s="2"/>
+      <c r="Q30" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="Q30" s="71" t="s">
+      <c r="R30" s="71" t="s">
         <v>243</v>
       </c>
-      <c r="R30" s="19">
+      <c r="S30" s="19">
         <v>2</v>
       </c>
-      <c r="S30" s="75" t="s">
+      <c r="T30" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="T30" s="76"/>
       <c r="U30" s="76"/>
-    </row>
-    <row r="31" spans="1:21" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V30" s="76"/>
+    </row>
+    <row r="31" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="12">
         <v>10</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="79"/>
+      <c r="C31" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="D31" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="63" t="s">
-        <v>17</v>
-      </c>
       <c r="E31" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="38" t="s">
+      <c r="F31" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="G31" s="21">
+      <c r="H31" s="21">
         <v>12</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="I31" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I31" s="40" t="s">
+      <c r="J31" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="J31" s="21" t="s">
+      <c r="K31" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="K31" s="21">
+      <c r="L31" s="21">
         <v>360</v>
       </c>
-      <c r="L31" s="37" t="s">
+      <c r="M31" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2" t="s">
+      <c r="N31" s="2"/>
+      <c r="O31" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="O31" s="2"/>
-      <c r="P31" s="38" t="s">
+      <c r="P31" s="2"/>
+      <c r="Q31" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="Q31" s="71" t="s">
+      <c r="R31" s="71" t="s">
         <v>243</v>
       </c>
-      <c r="R31" s="19">
+      <c r="S31" s="19">
         <v>2</v>
       </c>
-      <c r="S31" s="75" t="s">
+      <c r="T31" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="T31" s="76"/>
       <c r="U31" s="76"/>
-    </row>
-    <row r="32" spans="1:21" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V31" s="76"/>
+    </row>
+    <row r="32" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="12">
         <v>11</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="79"/>
+      <c r="C32" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="D32" s="15" t="s">
         <v>34</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>21</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="38" t="s">
+      <c r="F32" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="G32" s="34">
+      <c r="H32" s="34">
         <v>40</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="I32" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I32" s="39" t="s">
+      <c r="J32" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="J32" s="34" t="s">
+      <c r="K32" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="K32" s="34">
+      <c r="L32" s="34">
         <v>90</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="M32" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2" t="s">
+      <c r="N32" s="2"/>
+      <c r="O32" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="O32" s="2" t="s">
+      <c r="P32" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="P32" s="41" t="s">
+      <c r="Q32" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="Q32" s="57" t="s">
+      <c r="R32" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="R32" s="19">
+      <c r="S32" s="19">
         <v>1</v>
       </c>
-      <c r="S32" s="75" t="s">
+      <c r="T32" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="T32" s="76"/>
       <c r="U32" s="76"/>
-    </row>
-    <row r="33" spans="1:21" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V32" s="76"/>
+    </row>
+    <row r="33" spans="1:22" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="12">
         <v>12</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="79"/>
+      <c r="C33" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="D33" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="63" t="s">
-        <v>17</v>
-      </c>
       <c r="E33" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="41"/>
-      <c r="G33" s="21">
+      <c r="F33" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="41"/>
+      <c r="H33" s="21">
         <v>19</v>
       </c>
-      <c r="H33" s="21" t="s">
+      <c r="I33" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="I33" s="40" t="s">
+      <c r="J33" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="J33" s="21">
+      <c r="K33" s="21">
         <v>15</v>
       </c>
-      <c r="K33" s="21">
+      <c r="L33" s="21">
         <v>225</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="M33" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2" t="s">
+      <c r="N33" s="2"/>
+      <c r="O33" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="O33" s="2"/>
-      <c r="P33" s="48" t="s">
+      <c r="P33" s="2"/>
+      <c r="Q33" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="Q33" s="71" t="s">
+      <c r="R33" s="71" t="s">
         <v>237</v>
       </c>
-      <c r="R33" s="19">
+      <c r="S33" s="19">
         <v>2</v>
       </c>
-      <c r="S33" s="75" t="s">
+      <c r="T33" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="T33" s="76"/>
       <c r="U33" s="76"/>
-    </row>
-    <row r="34" spans="1:21" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V33" s="76"/>
+    </row>
+    <row r="34" spans="1:22" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="12">
         <v>12</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="79"/>
+      <c r="C34" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="D34" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="63" t="s">
-        <v>17</v>
-      </c>
       <c r="E34" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="38" t="s">
+      <c r="F34" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="G34" s="21">
+      <c r="H34" s="21">
         <v>19</v>
       </c>
-      <c r="H34" s="21" t="s">
+      <c r="I34" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I34" s="40" t="s">
+      <c r="J34" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="J34" s="21">
+      <c r="K34" s="21">
         <v>15</v>
       </c>
-      <c r="K34" s="21">
+      <c r="L34" s="21">
         <v>172</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="M34" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="M34" s="2" t="s">
+      <c r="N34" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
-      <c r="P34" s="62" t="s">
+      <c r="P34" s="2"/>
+      <c r="Q34" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="Q34" s="34"/>
-      <c r="R34" s="19">
+      <c r="R34" s="34"/>
+      <c r="S34" s="19">
         <v>3</v>
       </c>
-      <c r="S34" s="75" t="s">
+      <c r="T34" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="T34" s="76"/>
       <c r="U34" s="76"/>
-    </row>
-    <row r="35" spans="1:21" ht="231.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V34" s="76"/>
+    </row>
+    <row r="35" spans="1:22" ht="231.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="12">
         <v>12</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="79"/>
+      <c r="C35" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="D35" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="63" t="s">
-        <v>17</v>
-      </c>
       <c r="E35" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="F35" s="38" t="s">
+      <c r="F35" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="G35" s="21">
+      <c r="H35" s="21">
         <v>21</v>
       </c>
-      <c r="H35" s="21" t="s">
+      <c r="I35" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="I35" s="40" t="s">
+      <c r="J35" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="J35" s="21">
+      <c r="K35" s="21">
         <v>15</v>
       </c>
-      <c r="K35" s="21">
+      <c r="L35" s="21">
         <v>153</v>
       </c>
-      <c r="L35" s="49" t="s">
+      <c r="M35" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="M35" s="2" t="s">
+      <c r="N35" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
-      <c r="P35" s="3" t="s">
+      <c r="P35" s="2"/>
+      <c r="Q35" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Q35" s="34"/>
-      <c r="R35" s="19">
+      <c r="R35" s="34"/>
+      <c r="S35" s="19">
         <v>3</v>
       </c>
-      <c r="S35" s="75" t="s">
+      <c r="T35" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="T35" s="76"/>
       <c r="U35" s="76"/>
-    </row>
-    <row r="36" spans="1:21" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V35" s="76"/>
+    </row>
+    <row r="36" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="12">
         <v>12</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="79"/>
+      <c r="C36" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="D36" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="63" t="s">
-        <v>17</v>
-      </c>
       <c r="E36" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="38" t="s">
+      <c r="F36" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="G36" s="21">
+      <c r="H36" s="21">
         <v>21</v>
       </c>
-      <c r="H36" s="21" t="s">
+      <c r="I36" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="I36" s="40" t="s">
+      <c r="J36" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="J36" s="21">
+      <c r="K36" s="21">
         <v>15</v>
       </c>
-      <c r="K36" s="21">
+      <c r="L36" s="21">
         <v>166</v>
       </c>
-      <c r="L36" s="37" t="s">
+      <c r="M36" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="M36" s="2" t="s">
+      <c r="N36" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
-      <c r="P36" s="48"/>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="19">
+      <c r="P36" s="2"/>
+      <c r="Q36" s="48"/>
+      <c r="R36" s="34"/>
+      <c r="S36" s="19">
         <v>2</v>
       </c>
-      <c r="S36" s="75" t="s">
+      <c r="T36" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="T36" s="76"/>
       <c r="U36" s="76"/>
-    </row>
-    <row r="37" spans="1:21" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V36" s="76"/>
+    </row>
+    <row r="37" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="12">
         <v>1</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="79"/>
+      <c r="C37" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="D37" s="21" t="s">
         <v>10</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>37</v>
       </c>
       <c r="E37" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="41"/>
-      <c r="G37" s="21">
+      <c r="F37" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" s="41"/>
+      <c r="H37" s="21">
         <v>18</v>
       </c>
-      <c r="H37" s="21" t="s">
+      <c r="I37" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="I37" s="40" t="s">
+      <c r="J37" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="J37" s="21">
+      <c r="K37" s="21">
         <v>30</v>
       </c>
-      <c r="K37" s="21">
+      <c r="L37" s="21">
         <v>180</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="M37" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="M37" s="2" t="s">
+      <c r="N37" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
-      <c r="P37" s="65" t="s">
+      <c r="P37" s="2"/>
+      <c r="Q37" s="65" t="s">
         <v>247</v>
       </c>
-      <c r="Q37" s="19" t="s">
+      <c r="R37" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="R37" s="19">
+      <c r="S37" s="19">
         <v>1</v>
       </c>
-      <c r="S37" s="75" t="s">
+      <c r="T37" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="T37" s="76"/>
       <c r="U37" s="76"/>
-    </row>
-    <row r="38" spans="1:21" ht="276" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V37" s="76"/>
+    </row>
+    <row r="38" spans="1:22" ht="276" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="33">
         <v>1</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="79"/>
+      <c r="C38" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="D38" s="21" t="s">
         <v>10</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>37</v>
       </c>
       <c r="E38" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F38" s="38" t="s">
+      <c r="F38" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="G38" s="21">
+      <c r="H38" s="21">
         <v>20</v>
       </c>
-      <c r="H38" s="21" t="s">
+      <c r="I38" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="I38" s="40" t="s">
+      <c r="J38" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="J38" s="21">
+      <c r="K38" s="21">
         <v>30</v>
       </c>
-      <c r="K38" s="21">
+      <c r="L38" s="21">
         <v>240</v>
       </c>
-      <c r="L38" s="48" t="s">
+      <c r="M38" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="M38" s="2" t="s">
+      <c r="N38" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
-      <c r="P38" s="78" t="s">
+      <c r="P38" s="2"/>
+      <c r="Q38" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="Q38" s="21" t="s">
+      <c r="R38" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="R38" s="19">
+      <c r="S38" s="19">
         <v>3</v>
       </c>
-      <c r="S38" s="75" t="s">
+      <c r="T38" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="T38" s="76"/>
       <c r="U38" s="76"/>
-    </row>
-    <row r="39" spans="1:21" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V38" s="76"/>
+    </row>
+    <row r="39" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="42">
         <v>1</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="79"/>
+      <c r="C39" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="D39" s="21" t="s">
         <v>10</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>37</v>
       </c>
       <c r="E39" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F39" s="38" t="s">
+      <c r="F39" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="G39" s="34">
+      <c r="H39" s="34">
         <v>14</v>
       </c>
-      <c r="H39" s="21" t="s">
+      <c r="I39" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="40" t="s">
+      <c r="J39" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="J39" s="21">
+      <c r="K39" s="21">
         <v>30</v>
       </c>
-      <c r="K39" s="21">
+      <c r="L39" s="21">
         <v>120</v>
       </c>
-      <c r="L39" s="37" t="s">
+      <c r="M39" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="M39" s="52"/>
-      <c r="N39" s="52" t="s">
+      <c r="N39" s="52"/>
+      <c r="O39" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="O39" s="2" t="s">
+      <c r="P39" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P39" s="78" t="s">
+      <c r="Q39" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="Q39" s="34" t="s">
+      <c r="R39" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="R39" s="19">
+      <c r="S39" s="19">
         <v>3</v>
       </c>
-      <c r="S39" s="75" t="s">
+      <c r="T39" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="T39" s="76"/>
       <c r="U39" s="76"/>
-    </row>
-    <row r="40" spans="1:21" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V39" s="76"/>
+    </row>
+    <row r="40" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="42">
         <v>6</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="79"/>
+      <c r="C40" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="D40" s="21" t="s">
         <v>26</v>
-      </c>
-      <c r="D40" s="28" t="s">
-        <v>44</v>
       </c>
       <c r="E40" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F40" s="43" t="s">
+      <c r="F40" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G40" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="G40" s="44">
+      <c r="H40" s="44">
         <v>8</v>
       </c>
-      <c r="H40" s="21" t="s">
+      <c r="I40" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="I40" s="40" t="s">
+      <c r="J40" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="J40" s="21" t="s">
+      <c r="K40" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="K40" s="21">
+      <c r="L40" s="21">
         <v>140</v>
       </c>
-      <c r="L40" s="15" t="s">
+      <c r="M40" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2" t="s">
+      <c r="N40" s="2"/>
+      <c r="O40" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="O40" s="2" t="s">
+      <c r="P40" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="P40" s="48" t="s">
+      <c r="Q40" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="Q40" s="57" t="s">
+      <c r="R40" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="R40" s="19">
+      <c r="S40" s="19">
         <v>2</v>
       </c>
-      <c r="S40" s="75" t="s">
+      <c r="T40" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="T40" s="76"/>
       <c r="U40" s="76"/>
-    </row>
-    <row r="41" spans="1:21" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V40" s="76"/>
+    </row>
+    <row r="41" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="42">
         <v>9</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="79"/>
+      <c r="C41" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="D41" s="21" t="s">
         <v>32</v>
-      </c>
-      <c r="D41" s="28" t="s">
-        <v>44</v>
       </c>
       <c r="E41" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F41" s="43" t="s">
+      <c r="F41" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G41" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="G41" s="44">
+      <c r="H41" s="44">
         <v>16</v>
       </c>
-      <c r="H41" s="21" t="s">
+      <c r="I41" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="I41" s="61" t="s">
+      <c r="J41" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="J41" s="21" t="s">
+      <c r="K41" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="K41" s="21">
+      <c r="L41" s="21">
         <v>105</v>
       </c>
-      <c r="L41" s="3" t="s">
+      <c r="M41" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2" t="s">
+      <c r="N41" s="2"/>
+      <c r="O41" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="O41" s="2" t="s">
+      <c r="P41" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P41" s="60" t="s">
+      <c r="Q41" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="Q41" s="57" t="s">
+      <c r="R41" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="R41" s="19">
+      <c r="S41" s="19">
         <v>2</v>
       </c>
-      <c r="S41" s="75" t="s">
+      <c r="T41" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="T41" s="76"/>
       <c r="U41" s="76"/>
-    </row>
-    <row r="42" spans="1:21" ht="186.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V41" s="76"/>
+    </row>
+    <row r="42" spans="1:22" ht="186.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="79">
         <v>13</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="79"/>
+      <c r="C42" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="D42" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="D42" s="21" t="s">
-        <v>17</v>
-      </c>
       <c r="E42" s="21" t="s">
         <v>17</v>
       </c>
       <c r="F42" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="G42" s="21">
+      <c r="H42" s="21">
         <v>25</v>
       </c>
-      <c r="H42" s="21" t="s">
+      <c r="I42" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21">
+      <c r="J42" s="21"/>
+      <c r="K42" s="21">
         <v>17.5</v>
       </c>
-      <c r="K42" s="21">
+      <c r="L42" s="21">
         <v>80</v>
       </c>
-      <c r="L42" s="71" t="s">
+      <c r="M42" s="71" t="s">
         <v>266</v>
       </c>
-      <c r="M42" s="21">
+      <c r="N42" s="21">
         <v>1.75</v>
       </c>
-      <c r="N42" s="21"/>
       <c r="O42" s="21"/>
       <c r="P42" s="21"/>
-      <c r="Q42" s="21" t="s">
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="R42" s="21"/>
-      <c r="S42" s="75" t="s">
+      <c r="S42" s="21"/>
+      <c r="T42" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="T42" s="21"/>
       <c r="U42" s="21"/>
+      <c r="V42" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U42" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}"/>
-  <conditionalFormatting sqref="M19">
+  <autoFilter ref="A1:V42" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}"/>
+  <conditionalFormatting sqref="N19">
     <cfRule type="duplicateValues" dxfId="35" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M20">
+  <conditionalFormatting sqref="N20">
     <cfRule type="duplicateValues" dxfId="34" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M21:M41 M1:M18 M43:M1048576">
+  <conditionalFormatting sqref="N21:N41 N1:N18 N43:N1048576">
     <cfRule type="duplicateValues" dxfId="33" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N4">
+  <conditionalFormatting sqref="O4">
     <cfRule type="duplicateValues" dxfId="32" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
+  <conditionalFormatting sqref="O5">
     <cfRule type="duplicateValues" dxfId="31" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N6">
+  <conditionalFormatting sqref="O6">
     <cfRule type="duplicateValues" dxfId="30" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
+  <conditionalFormatting sqref="O7">
     <cfRule type="duplicateValues" dxfId="29" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N10">
+  <conditionalFormatting sqref="O10">
     <cfRule type="duplicateValues" dxfId="28" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N12">
+  <conditionalFormatting sqref="O12">
     <cfRule type="duplicateValues" dxfId="27" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N13">
+  <conditionalFormatting sqref="O13">
     <cfRule type="duplicateValues" dxfId="26" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N14">
+  <conditionalFormatting sqref="O14">
     <cfRule type="duplicateValues" dxfId="25" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N39">
+  <conditionalFormatting sqref="O39">
     <cfRule type="duplicateValues" dxfId="24" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O25">
+  <conditionalFormatting sqref="P25">
     <cfRule type="duplicateValues" dxfId="23" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O32">
+  <conditionalFormatting sqref="P32">
     <cfRule type="duplicateValues" dxfId="22" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Overview_Studies.xlsx
+++ b/Overview_Studies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f2d186216cf91ab/Bidlung/University/M.S. Leiden University/M.S. Neuroscience (Research)/Internship Groningen/GitHub_Multiverse_meta/MetaAnalysis-Psilo-Cognition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="634" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34B272F0-9865-4FE5-8ECE-D5905CF8D327}"/>
+  <xr:revisionPtr revIDLastSave="637" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DCC559D-C3F5-47F0-A458-212C7FF60D02}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="271">
   <si>
     <t>CognitiveFunction</t>
   </si>
@@ -2082,6 +2082,9 @@
   </si>
   <si>
     <t>Timepoint</t>
+  </si>
+  <si>
+    <t>-1.34</t>
   </si>
 </sst>
 </file>
@@ -3331,8 +3334,8 @@
   <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="58" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5254,7 +5257,7 @@
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="48" t="s">

--- a/Overview_Studies.xlsx
+++ b/Overview_Studies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f2d186216cf91ab/Bidlung/University/M.S. Leiden University/M.S. Neuroscience (Research)/Internship Groningen/GitHub_Multiverse_meta/MetaAnalysis-Psilo-Cognition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="637" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DCC559D-C3F5-47F0-A458-212C7FF60D02}"/>
+  <xr:revisionPtr revIDLastSave="678" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69DF6B97-1B2C-4888-894E-EDC136C21F93}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3334,8 +3334,8 @@
   <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="58" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O34" sqref="O34"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3428,7 +3428,9 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="79"/>
+      <c r="B2" s="79">
+        <v>1</v>
+      </c>
       <c r="C2" s="13" t="s">
         <v>13</v>
       </c>
@@ -3486,7 +3488,9 @@
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="79"/>
+      <c r="B3" s="79">
+        <v>2</v>
+      </c>
       <c r="C3" s="20" t="s">
         <v>50</v>
       </c>
@@ -3544,7 +3548,9 @@
       <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="79"/>
+      <c r="B4" s="79">
+        <v>3</v>
+      </c>
       <c r="C4" s="23" t="s">
         <v>38</v>
       </c>
@@ -3604,7 +3610,9 @@
       <c r="A5" s="12">
         <v>1</v>
       </c>
-      <c r="B5" s="79"/>
+      <c r="B5" s="79">
+        <v>4</v>
+      </c>
       <c r="C5" s="23" t="s">
         <v>38</v>
       </c>
@@ -3660,7 +3668,9 @@
       <c r="A6" s="12">
         <v>1</v>
       </c>
-      <c r="B6" s="79"/>
+      <c r="B6" s="79">
+        <v>5</v>
+      </c>
       <c r="C6" s="23" t="s">
         <v>38</v>
       </c>
@@ -3716,7 +3726,9 @@
       <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="79"/>
+      <c r="B7" s="79">
+        <v>6</v>
+      </c>
       <c r="C7" s="23" t="s">
         <v>38</v>
       </c>
@@ -3772,7 +3784,9 @@
       <c r="A8" s="12">
         <v>1</v>
       </c>
-      <c r="B8" s="79"/>
+      <c r="B8" s="79">
+        <v>7</v>
+      </c>
       <c r="C8" s="13" t="s">
         <v>13</v>
       </c>
@@ -3828,7 +3842,9 @@
       <c r="A9" s="12">
         <v>1</v>
       </c>
-      <c r="B9" s="79"/>
+      <c r="B9" s="79">
+        <v>8</v>
+      </c>
       <c r="C9" s="20" t="s">
         <v>50</v>
       </c>
@@ -3886,7 +3902,9 @@
       <c r="A10" s="12">
         <v>1</v>
       </c>
-      <c r="B10" s="79"/>
+      <c r="B10" s="79">
+        <v>9</v>
+      </c>
       <c r="C10" s="23" t="s">
         <v>38</v>
       </c>
@@ -3946,7 +3964,9 @@
       <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="B11" s="79"/>
+      <c r="B11" s="79">
+        <v>10</v>
+      </c>
       <c r="C11" s="24" t="s">
         <v>15</v>
       </c>
@@ -4004,7 +4024,9 @@
       <c r="A12" s="12">
         <v>1</v>
       </c>
-      <c r="B12" s="79"/>
+      <c r="B12" s="79">
+        <v>11</v>
+      </c>
       <c r="C12" s="23" t="s">
         <v>38</v>
       </c>
@@ -4060,7 +4082,9 @@
       <c r="A13" s="12">
         <v>1</v>
       </c>
-      <c r="B13" s="79"/>
+      <c r="B13" s="79">
+        <v>12</v>
+      </c>
       <c r="C13" s="23" t="s">
         <v>38</v>
       </c>
@@ -4116,7 +4140,9 @@
       <c r="A14" s="12">
         <v>1</v>
       </c>
-      <c r="B14" s="79"/>
+      <c r="B14" s="79">
+        <v>13</v>
+      </c>
       <c r="C14" s="23" t="s">
         <v>38</v>
       </c>
@@ -4172,7 +4198,9 @@
       <c r="A15" s="12">
         <v>2</v>
       </c>
-      <c r="B15" s="79"/>
+      <c r="B15" s="79">
+        <v>14</v>
+      </c>
       <c r="C15" s="13" t="s">
         <v>13</v>
       </c>
@@ -4231,7 +4259,9 @@
       <c r="A16" s="12">
         <v>2</v>
       </c>
-      <c r="B16" s="79"/>
+      <c r="B16" s="79">
+        <v>15</v>
+      </c>
       <c r="C16" s="24" t="s">
         <v>15</v>
       </c>
@@ -4289,7 +4319,9 @@
       <c r="A17" s="25">
         <v>3</v>
       </c>
-      <c r="B17" s="81"/>
+      <c r="B17" s="81">
+        <v>16</v>
+      </c>
       <c r="C17" s="20" t="s">
         <v>50</v>
       </c>
@@ -4347,7 +4379,9 @@
       <c r="A18" s="12">
         <v>3</v>
       </c>
-      <c r="B18" s="79"/>
+      <c r="B18" s="79">
+        <v>17</v>
+      </c>
       <c r="C18" s="26" t="s">
         <v>23</v>
       </c>
@@ -4403,7 +4437,9 @@
       <c r="A19" s="12">
         <v>3</v>
       </c>
-      <c r="B19" s="79"/>
+      <c r="B19" s="79">
+        <v>18</v>
+      </c>
       <c r="C19" s="24" t="s">
         <v>15</v>
       </c>
@@ -4461,7 +4497,9 @@
       <c r="A20" s="12">
         <v>3</v>
       </c>
-      <c r="B20" s="79"/>
+      <c r="B20" s="79">
+        <v>19</v>
+      </c>
       <c r="C20" s="24" t="s">
         <v>15</v>
       </c>
@@ -4519,7 +4557,9 @@
       <c r="A21" s="25">
         <v>5</v>
       </c>
-      <c r="B21" s="81"/>
+      <c r="B21" s="81">
+        <v>20</v>
+      </c>
       <c r="C21" s="24" t="s">
         <v>15</v>
       </c>
@@ -4575,7 +4615,9 @@
       <c r="A22" s="12">
         <v>6</v>
       </c>
-      <c r="B22" s="79"/>
+      <c r="B22" s="79">
+        <v>21</v>
+      </c>
       <c r="C22" s="24" t="s">
         <v>15</v>
       </c>
@@ -4635,7 +4677,9 @@
       <c r="A23" s="12">
         <v>6</v>
       </c>
-      <c r="B23" s="79"/>
+      <c r="B23" s="79">
+        <v>22</v>
+      </c>
       <c r="C23" s="24" t="s">
         <v>15</v>
       </c>
@@ -4695,7 +4739,9 @@
       <c r="A24" s="12">
         <v>6</v>
       </c>
-      <c r="B24" s="79"/>
+      <c r="B24" s="79">
+        <v>23</v>
+      </c>
       <c r="C24" s="24" t="s">
         <v>15</v>
       </c>
@@ -4755,7 +4801,9 @@
       <c r="A25" s="12">
         <v>7</v>
       </c>
-      <c r="B25" s="79"/>
+      <c r="B25" s="79">
+        <v>24</v>
+      </c>
       <c r="C25" s="26" t="s">
         <v>23</v>
       </c>
@@ -4813,7 +4861,9 @@
       <c r="A26" s="12">
         <v>8</v>
       </c>
-      <c r="B26" s="79"/>
+      <c r="B26" s="79">
+        <v>25</v>
+      </c>
       <c r="C26" s="20" t="s">
         <v>50</v>
       </c>
@@ -4873,7 +4923,9 @@
       <c r="A27" s="33">
         <v>9</v>
       </c>
-      <c r="B27" s="79"/>
+      <c r="B27" s="79">
+        <v>26</v>
+      </c>
       <c r="C27" s="24" t="s">
         <v>15</v>
       </c>
@@ -4931,7 +4983,9 @@
       <c r="A28" s="12">
         <v>10</v>
       </c>
-      <c r="B28" s="79"/>
+      <c r="B28" s="79">
+        <v>27</v>
+      </c>
       <c r="C28" s="13" t="s">
         <v>13</v>
       </c>
@@ -4989,7 +5043,9 @@
       <c r="A29" s="12">
         <v>10</v>
       </c>
-      <c r="B29" s="79"/>
+      <c r="B29" s="79">
+        <v>28</v>
+      </c>
       <c r="C29" s="13" t="s">
         <v>13</v>
       </c>
@@ -5047,7 +5103,9 @@
       <c r="A30" s="12">
         <v>10</v>
       </c>
-      <c r="B30" s="79"/>
+      <c r="B30" s="79">
+        <v>29</v>
+      </c>
       <c r="C30" s="13" t="s">
         <v>13</v>
       </c>
@@ -5105,7 +5163,9 @@
       <c r="A31" s="12">
         <v>10</v>
       </c>
-      <c r="B31" s="79"/>
+      <c r="B31" s="79">
+        <v>30</v>
+      </c>
       <c r="C31" s="13" t="s">
         <v>13</v>
       </c>
@@ -5163,7 +5223,9 @@
       <c r="A32" s="12">
         <v>11</v>
       </c>
-      <c r="B32" s="79"/>
+      <c r="B32" s="79">
+        <v>31</v>
+      </c>
       <c r="C32" s="26" t="s">
         <v>23</v>
       </c>
@@ -5223,7 +5285,9 @@
       <c r="A33" s="12">
         <v>12</v>
       </c>
-      <c r="B33" s="79"/>
+      <c r="B33" s="79">
+        <v>32</v>
+      </c>
       <c r="C33" s="13" t="s">
         <v>13</v>
       </c>
@@ -5279,7 +5343,9 @@
       <c r="A34" s="12">
         <v>12</v>
       </c>
-      <c r="B34" s="79"/>
+      <c r="B34" s="79">
+        <v>33</v>
+      </c>
       <c r="C34" s="23" t="s">
         <v>38</v>
       </c>
@@ -5335,7 +5401,9 @@
       <c r="A35" s="12">
         <v>12</v>
       </c>
-      <c r="B35" s="79"/>
+      <c r="B35" s="79">
+        <v>34</v>
+      </c>
       <c r="C35" s="23" t="s">
         <v>38</v>
       </c>
@@ -5391,7 +5459,9 @@
       <c r="A36" s="12">
         <v>12</v>
       </c>
-      <c r="B36" s="79"/>
+      <c r="B36" s="79">
+        <v>35</v>
+      </c>
       <c r="C36" s="24" t="s">
         <v>15</v>
       </c>
@@ -5445,7 +5515,9 @@
       <c r="A37" s="12">
         <v>1</v>
       </c>
-      <c r="B37" s="79"/>
+      <c r="B37" s="79">
+        <v>36</v>
+      </c>
       <c r="C37" s="13" t="s">
         <v>13</v>
       </c>
@@ -5501,7 +5573,9 @@
       <c r="A38" s="33">
         <v>1</v>
       </c>
-      <c r="B38" s="79"/>
+      <c r="B38" s="79">
+        <v>37</v>
+      </c>
       <c r="C38" s="20" t="s">
         <v>50</v>
       </c>
@@ -5559,7 +5633,9 @@
       <c r="A39" s="42">
         <v>1</v>
       </c>
-      <c r="B39" s="79"/>
+      <c r="B39" s="79">
+        <v>38</v>
+      </c>
       <c r="C39" s="23" t="s">
         <v>38</v>
       </c>
@@ -5619,7 +5695,9 @@
       <c r="A40" s="42">
         <v>6</v>
       </c>
-      <c r="B40" s="79"/>
+      <c r="B40" s="79">
+        <v>39</v>
+      </c>
       <c r="C40" s="24" t="s">
         <v>15</v>
       </c>
@@ -5679,7 +5757,9 @@
       <c r="A41" s="42">
         <v>9</v>
       </c>
-      <c r="B41" s="79"/>
+      <c r="B41" s="79">
+        <v>40</v>
+      </c>
       <c r="C41" s="24" t="s">
         <v>15</v>
       </c>
@@ -5739,7 +5819,9 @@
       <c r="A42" s="79">
         <v>13</v>
       </c>
-      <c r="B42" s="79"/>
+      <c r="B42" s="79">
+        <v>41</v>
+      </c>
       <c r="C42" s="13" t="s">
         <v>13</v>
       </c>

--- a/Overview_Studies.xlsx
+++ b/Overview_Studies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f2d186216cf91ab/Bidlung/University/M.S. Leiden University/M.S. Neuroscience (Research)/Internship Groningen/GitHub_Multiverse_meta/MetaAnalysis-Psilo-Cognition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="678" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69DF6B97-1B2C-4888-894E-EDC136C21F93}"/>
+  <xr:revisionPtr revIDLastSave="681" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2339B3C2-3B33-472D-B6D8-ACF2315A27AF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1725" yWindow="-17835" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -3331,11 +3331,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="58" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I41" sqref="I41"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3544,7 +3545,7 @@
       <c r="U3" s="76"/>
       <c r="V3" s="76"/>
     </row>
-    <row r="4" spans="1:23" ht="321.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" ht="321.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -3606,7 +3607,7 @@
       <c r="U4" s="76"/>
       <c r="V4" s="76"/>
     </row>
-    <row r="5" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -3664,7 +3665,7 @@
       <c r="U5" s="76"/>
       <c r="V5" s="76"/>
     </row>
-    <row r="6" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="12">
         <v>1</v>
       </c>
@@ -3722,7 +3723,7 @@
       <c r="U6" s="76"/>
       <c r="V6" s="76"/>
     </row>
-    <row r="7" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="12">
         <v>1</v>
       </c>
@@ -3898,7 +3899,7 @@
       <c r="U9" s="76"/>
       <c r="V9" s="76"/>
     </row>
-    <row r="10" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="12">
         <v>1</v>
       </c>
@@ -3960,7 +3961,7 @@
       <c r="U10" s="76"/>
       <c r="V10" s="76"/>
     </row>
-    <row r="11" spans="1:23" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:23" ht="409.6" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="12">
         <v>9</v>
       </c>
@@ -4020,7 +4021,7 @@
       <c r="U11" s="76"/>
       <c r="V11" s="76"/>
     </row>
-    <row r="12" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="12">
         <v>1</v>
       </c>
@@ -4078,7 +4079,7 @@
       <c r="U12" s="76"/>
       <c r="V12" s="76"/>
     </row>
-    <row r="13" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="12">
         <v>1</v>
       </c>
@@ -4136,7 +4137,7 @@
       <c r="U13" s="76"/>
       <c r="V13" s="76"/>
     </row>
-    <row r="14" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="12">
         <v>1</v>
       </c>
@@ -4194,7 +4195,7 @@
       <c r="U14" s="76"/>
       <c r="V14" s="76"/>
     </row>
-    <row r="15" spans="1:23" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:23" ht="409.6" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="12">
         <v>2</v>
       </c>
@@ -4255,7 +4256,7 @@
       <c r="V15" s="76"/>
       <c r="W15" s="75"/>
     </row>
-    <row r="16" spans="1:23" ht="293.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:23" ht="293.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="12">
         <v>2</v>
       </c>
@@ -4375,7 +4376,7 @@
       <c r="U17" s="76"/>
       <c r="V17" s="76"/>
     </row>
-    <row r="18" spans="1:22" ht="288.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:22" ht="288.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="12">
         <v>3</v>
       </c>
@@ -4611,7 +4612,7 @@
       <c r="U21" s="76"/>
       <c r="V21" s="76"/>
     </row>
-    <row r="22" spans="1:22" ht="288.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:22" ht="288.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="12">
         <v>6</v>
       </c>
@@ -4673,7 +4674,7 @@
       <c r="U22" s="76"/>
       <c r="V22" s="76"/>
     </row>
-    <row r="23" spans="1:22" ht="288.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:22" ht="288.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="12">
         <v>6</v>
       </c>
@@ -4735,7 +4736,7 @@
       <c r="U23" s="76"/>
       <c r="V23" s="76"/>
     </row>
-    <row r="24" spans="1:22" ht="288.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:22" ht="288.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="12">
         <v>6</v>
       </c>
@@ -4797,7 +4798,7 @@
       <c r="U24" s="76"/>
       <c r="V24" s="76"/>
     </row>
-    <row r="25" spans="1:22" ht="243" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:22" ht="243" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="12">
         <v>7</v>
       </c>
@@ -4919,7 +4920,7 @@
       <c r="U26" s="76"/>
       <c r="V26" s="76"/>
     </row>
-    <row r="27" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:22" ht="409.6" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="33">
         <v>9</v>
       </c>
@@ -4979,7 +4980,7 @@
       <c r="U27" s="76"/>
       <c r="V27" s="76"/>
     </row>
-    <row r="28" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:22" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="12">
         <v>10</v>
       </c>
@@ -5039,7 +5040,7 @@
       <c r="U28" s="76"/>
       <c r="V28" s="76"/>
     </row>
-    <row r="29" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:22" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="12">
         <v>10</v>
       </c>
@@ -5099,7 +5100,7 @@
       <c r="U29" s="76"/>
       <c r="V29" s="76"/>
     </row>
-    <row r="30" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:22" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="12">
         <v>10</v>
       </c>
@@ -5159,7 +5160,7 @@
       <c r="U30" s="76"/>
       <c r="V30" s="76"/>
     </row>
-    <row r="31" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:22" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="12">
         <v>10</v>
       </c>
@@ -5219,7 +5220,7 @@
       <c r="U31" s="76"/>
       <c r="V31" s="76"/>
     </row>
-    <row r="32" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:22" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="12">
         <v>11</v>
       </c>
@@ -5281,7 +5282,7 @@
       <c r="U32" s="76"/>
       <c r="V32" s="76"/>
     </row>
-    <row r="33" spans="1:22" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:22" ht="160.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="12">
         <v>12</v>
       </c>
@@ -5629,7 +5630,7 @@
       <c r="U38" s="76"/>
       <c r="V38" s="76"/>
     </row>
-    <row r="39" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:22" ht="409.6" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="42">
         <v>1</v>
       </c>
@@ -5691,7 +5692,7 @@
       <c r="U39" s="76"/>
       <c r="V39" s="76"/>
     </row>
-    <row r="40" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:22" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="42">
         <v>6</v>
       </c>
@@ -5753,7 +5754,7 @@
       <c r="U40" s="76"/>
       <c r="V40" s="76"/>
     </row>
-    <row r="41" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:22" ht="409.6" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="42">
         <v>9</v>
       </c>
@@ -5870,7 +5871,27 @@
       <c r="V42" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V42" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}"/>
+  <autoFilter ref="A1:V42" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="1"/>
+        <filter val="16"/>
+        <filter val="18"/>
+        <filter val="19"/>
+        <filter val="2"/>
+        <filter val="20"/>
+        <filter val="25"/>
+        <filter val="33"/>
+        <filter val="34"/>
+        <filter val="35"/>
+        <filter val="36"/>
+        <filter val="37"/>
+        <filter val="41"/>
+        <filter val="7"/>
+        <filter val="8"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="N19">
     <cfRule type="duplicateValues" dxfId="35" priority="14"/>
   </conditionalFormatting>

--- a/Overview_Studies.xlsx
+++ b/Overview_Studies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f2d186216cf91ab/Bidlung/University/M.S. Leiden University/M.S. Neuroscience (Research)/Internship Groningen/GitHub_Multiverse_meta/MetaAnalysis-Psilo-Cognition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="681" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2339B3C2-3B33-472D-B6D8-ACF2315A27AF}"/>
+  <xr:revisionPtr revIDLastSave="685" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8595A5E5-5D1A-4BBD-B20E-D4613EF745D7}"/>
   <bookViews>
-    <workbookView xWindow="-1725" yWindow="-17835" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11625" yWindow="-20820" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -3331,12 +3331,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="58" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3545,7 +3544,7 @@
       <c r="U3" s="76"/>
       <c r="V3" s="76"/>
     </row>
-    <row r="4" spans="1:23" ht="321.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" ht="321.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -3607,7 +3606,7 @@
       <c r="U4" s="76"/>
       <c r="V4" s="76"/>
     </row>
-    <row r="5" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -3665,7 +3664,7 @@
       <c r="U5" s="76"/>
       <c r="V5" s="76"/>
     </row>
-    <row r="6" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="12">
         <v>1</v>
       </c>
@@ -3723,7 +3722,7 @@
       <c r="U6" s="76"/>
       <c r="V6" s="76"/>
     </row>
-    <row r="7" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="12">
         <v>1</v>
       </c>
@@ -3899,7 +3898,7 @@
       <c r="U9" s="76"/>
       <c r="V9" s="76"/>
     </row>
-    <row r="10" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="12">
         <v>1</v>
       </c>
@@ -3961,7 +3960,7 @@
       <c r="U10" s="76"/>
       <c r="V10" s="76"/>
     </row>
-    <row r="11" spans="1:23" ht="409.6" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:23" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="12">
         <v>9</v>
       </c>
@@ -4021,7 +4020,7 @@
       <c r="U11" s="76"/>
       <c r="V11" s="76"/>
     </row>
-    <row r="12" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="12">
         <v>1</v>
       </c>
@@ -4079,7 +4078,7 @@
       <c r="U12" s="76"/>
       <c r="V12" s="76"/>
     </row>
-    <row r="13" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="12">
         <v>1</v>
       </c>
@@ -4137,7 +4136,7 @@
       <c r="U13" s="76"/>
       <c r="V13" s="76"/>
     </row>
-    <row r="14" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="12">
         <v>1</v>
       </c>
@@ -4195,7 +4194,7 @@
       <c r="U14" s="76"/>
       <c r="V14" s="76"/>
     </row>
-    <row r="15" spans="1:23" ht="409.6" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:23" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="12">
         <v>2</v>
       </c>
@@ -4256,7 +4255,7 @@
       <c r="V15" s="76"/>
       <c r="W15" s="75"/>
     </row>
-    <row r="16" spans="1:23" ht="293.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:23" ht="293.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="12">
         <v>2</v>
       </c>
@@ -4376,7 +4375,7 @@
       <c r="U17" s="76"/>
       <c r="V17" s="76"/>
     </row>
-    <row r="18" spans="1:22" ht="288.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:22" ht="288.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="12">
         <v>3</v>
       </c>
@@ -4612,7 +4611,7 @@
       <c r="U21" s="76"/>
       <c r="V21" s="76"/>
     </row>
-    <row r="22" spans="1:22" ht="288.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:22" ht="288.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="12">
         <v>6</v>
       </c>
@@ -4674,7 +4673,7 @@
       <c r="U22" s="76"/>
       <c r="V22" s="76"/>
     </row>
-    <row r="23" spans="1:22" ht="288.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:22" ht="288.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="12">
         <v>6</v>
       </c>
@@ -4736,7 +4735,7 @@
       <c r="U23" s="76"/>
       <c r="V23" s="76"/>
     </row>
-    <row r="24" spans="1:22" ht="288.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:22" ht="288.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="12">
         <v>6</v>
       </c>
@@ -4798,7 +4797,7 @@
       <c r="U24" s="76"/>
       <c r="V24" s="76"/>
     </row>
-    <row r="25" spans="1:22" ht="243" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:22" ht="243" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="12">
         <v>7</v>
       </c>
@@ -4920,7 +4919,7 @@
       <c r="U26" s="76"/>
       <c r="V26" s="76"/>
     </row>
-    <row r="27" spans="1:22" ht="409.6" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="33">
         <v>9</v>
       </c>
@@ -4980,7 +4979,7 @@
       <c r="U27" s="76"/>
       <c r="V27" s="76"/>
     </row>
-    <row r="28" spans="1:22" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="12">
         <v>10</v>
       </c>
@@ -5040,7 +5039,7 @@
       <c r="U28" s="76"/>
       <c r="V28" s="76"/>
     </row>
-    <row r="29" spans="1:22" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="12">
         <v>10</v>
       </c>
@@ -5100,7 +5099,7 @@
       <c r="U29" s="76"/>
       <c r="V29" s="76"/>
     </row>
-    <row r="30" spans="1:22" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="12">
         <v>10</v>
       </c>
@@ -5160,7 +5159,7 @@
       <c r="U30" s="76"/>
       <c r="V30" s="76"/>
     </row>
-    <row r="31" spans="1:22" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="12">
         <v>10</v>
       </c>
@@ -5220,7 +5219,7 @@
       <c r="U31" s="76"/>
       <c r="V31" s="76"/>
     </row>
-    <row r="32" spans="1:22" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="12">
         <v>11</v>
       </c>
@@ -5282,7 +5281,7 @@
       <c r="U32" s="76"/>
       <c r="V32" s="76"/>
     </row>
-    <row r="33" spans="1:22" ht="160.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:22" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="12">
         <v>12</v>
       </c>
@@ -5630,7 +5629,7 @@
       <c r="U38" s="76"/>
       <c r="V38" s="76"/>
     </row>
-    <row r="39" spans="1:22" ht="409.6" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="42">
         <v>1</v>
       </c>
@@ -5692,7 +5691,7 @@
       <c r="U39" s="76"/>
       <c r="V39" s="76"/>
     </row>
-    <row r="40" spans="1:22" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="42">
         <v>6</v>
       </c>
@@ -5754,7 +5753,7 @@
       <c r="U40" s="76"/>
       <c r="V40" s="76"/>
     </row>
-    <row r="41" spans="1:22" ht="409.6" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="42">
         <v>9</v>
       </c>
@@ -5871,27 +5870,7 @@
       <c r="V42" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V42" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="1"/>
-        <filter val="16"/>
-        <filter val="18"/>
-        <filter val="19"/>
-        <filter val="2"/>
-        <filter val="20"/>
-        <filter val="25"/>
-        <filter val="33"/>
-        <filter val="34"/>
-        <filter val="35"/>
-        <filter val="36"/>
-        <filter val="37"/>
-        <filter val="41"/>
-        <filter val="7"/>
-        <filter val="8"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:V42" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}"/>
   <conditionalFormatting sqref="N19">
     <cfRule type="duplicateValues" dxfId="35" priority="14"/>
   </conditionalFormatting>

--- a/Overview_Studies.xlsx
+++ b/Overview_Studies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f2d186216cf91ab/Bidlung/University/M.S. Leiden University/M.S. Neuroscience (Research)/Internship Groningen/GitHub_Multiverse_meta/MetaAnalysis-Psilo-Cognition/Code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f2d186216cf91ab/Bidlung/University/M.S. Leiden University/M.S. Neuroscience (Research)/Internship Groningen/GitHub_Multiverse_meta/MetaAnalysis-Psilo-Cognition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="686" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D874CF13-2964-4D91-8DAB-6DCFAEAEB090}"/>
+  <xr:revisionPtr revIDLastSave="714" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F99E135-CCC5-4A09-B4F3-5D8CD0E93688}"/>
   <bookViews>
-    <workbookView xWindow="-11625" yWindow="-20820" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="272">
   <si>
     <t>CognitiveFunction</t>
   </si>
@@ -2085,6 +2085,9 @@
   </si>
   <si>
     <t>-1.34</t>
+  </si>
+  <si>
+    <t>Cognitive  Flexibility</t>
   </si>
 </sst>
 </file>
@@ -2432,7 +2435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2675,6 +2678,19 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3334,8 +3350,8 @@
   <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="58" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R49" sqref="R49"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3552,7 +3568,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>38</v>
+        <v>271</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>10</v>
@@ -3614,7 +3630,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>38</v>
+        <v>271</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>10</v>
@@ -3672,7 +3688,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>38</v>
+        <v>271</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>10</v>
@@ -3730,7 +3746,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>38</v>
+        <v>271</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>10</v>
@@ -3906,7 +3922,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>38</v>
+        <v>271</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>10</v>
@@ -3960,59 +3976,57 @@
       <c r="U10" s="76"/>
       <c r="V10" s="76"/>
     </row>
-    <row r="11" spans="1:23" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="12">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B11" s="79">
+        <v>11</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="63" t="s">
-        <v>17</v>
+      <c r="E11" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>44</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H11" s="15">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="J11" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>164</v>
+        <v>12</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="15">
+        <v>20</v>
       </c>
       <c r="L11" s="15">
-        <v>105</v>
-      </c>
-      <c r="M11" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q11" s="59" t="s">
-        <v>162</v>
-      </c>
-      <c r="R11" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="S11" s="19" t="s">
-        <v>236</v>
+        <v>360</v>
+      </c>
+      <c r="M11" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="S11" s="19">
+        <v>3</v>
       </c>
       <c r="T11" s="75" t="s">
         <v>255</v>
@@ -4025,19 +4039,19 @@
         <v>1</v>
       </c>
       <c r="B12" s="79">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>38</v>
+        <v>271</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>44</v>
+      <c r="E12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>39</v>
@@ -4052,22 +4066,22 @@
         <v>59</v>
       </c>
       <c r="K12" s="15">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L12" s="15">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N12" s="52"/>
       <c r="O12" s="52" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="17"/>
       <c r="R12" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="S12" s="19">
         <v>3</v>
@@ -4083,10 +4097,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="79">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>38</v>
+        <v>271</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>10</v>
@@ -4113,19 +4127,19 @@
         <v>30</v>
       </c>
       <c r="L13" s="15">
-        <v>240</v>
-      </c>
-      <c r="M13" s="17" t="s">
-        <v>76</v>
+        <v>360</v>
+      </c>
+      <c r="M13" s="53" t="s">
+        <v>77</v>
       </c>
       <c r="N13" s="52"/>
       <c r="O13" s="52" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="14"/>
       <c r="R13" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="S13" s="19">
         <v>3</v>
@@ -4136,15 +4150,15 @@
       <c r="U13" s="76"/>
       <c r="V13" s="76"/>
     </row>
-    <row r="14" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:23" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="12">
         <v>1</v>
       </c>
       <c r="B14" s="79">
+        <v>36</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>13</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>38</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>10</v>
@@ -4155,38 +4169,38 @@
       <c r="F14" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="14" t="s">
-        <v>39</v>
-      </c>
+      <c r="G14" s="18"/>
       <c r="H14" s="15">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="K14" s="15">
         <v>30</v>
       </c>
       <c r="L14" s="15">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="M14" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52" t="s">
-        <v>218</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="15"/>
+      <c r="Q14" s="56" t="s">
+        <v>247</v>
+      </c>
       <c r="R14" s="19" t="s">
-        <v>66</v>
+        <v>248</v>
       </c>
       <c r="S14" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T14" s="75" t="s">
         <v>255</v>
@@ -4194,59 +4208,59 @@
       <c r="U14" s="76"/>
       <c r="V14" s="76"/>
     </row>
-    <row r="15" spans="1:23" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:23" ht="276" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="79">
+        <v>37</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="15">
+        <v>20</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="H15" s="15">
-        <v>8</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>28</v>
+      <c r="K15" s="15">
+        <v>30</v>
       </c>
       <c r="L15" s="15">
-        <v>120</v>
-      </c>
-      <c r="M15" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="52" t="s">
-        <v>219</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="R15" s="19" t="s">
-        <v>82</v>
+      <c r="Q15" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="R15" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="S15" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T15" s="75" t="s">
         <v>255</v>
@@ -4255,59 +4269,61 @@
       <c r="V15" s="76"/>
       <c r="W15" s="75"/>
     </row>
-    <row r="16" spans="1:23" ht="293.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:23" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="79">
-        <v>15</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>15</v>
+        <v>38</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>271</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="63" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="15">
-        <v>8</v>
+        <v>39</v>
+      </c>
+      <c r="H16" s="19">
+        <v>14</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="K16" s="15" t="s">
-        <v>28</v>
+        <v>12</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" s="15">
+        <v>30</v>
       </c>
       <c r="L16" s="15">
         <v>120</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="P16" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="Q16" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="R16" s="15" t="s">
-        <v>87</v>
+        <v>75</v>
+      </c>
+      <c r="R16" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="S16" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T16" s="75" t="s">
         <v>255</v>
@@ -4315,59 +4331,59 @@
       <c r="U16" s="76"/>
       <c r="V16" s="76"/>
     </row>
-    <row r="17" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="25">
-        <v>3</v>
-      </c>
-      <c r="B17" s="81">
+    <row r="17" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="12">
+        <v>2</v>
+      </c>
+      <c r="B17" s="79">
+        <v>14</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>21</v>
+      <c r="E17" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H17" s="15">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="L17" s="15">
-        <v>180</v>
-      </c>
-      <c r="M17" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>252</v>
+        <v>120</v>
+      </c>
+      <c r="M17" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="52" t="s">
+        <v>219</v>
       </c>
       <c r="P17" s="2"/>
-      <c r="Q17" s="18"/>
+      <c r="Q17" s="66" t="s">
+        <v>81</v>
+      </c>
       <c r="R17" s="19" t="s">
-        <v>254</v>
+        <v>82</v>
       </c>
       <c r="S17" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T17" s="75" t="s">
         <v>255</v>
@@ -4375,54 +4391,56 @@
       <c r="U17" s="76"/>
       <c r="V17" s="76"/>
     </row>
-    <row r="18" spans="1:22" ht="288.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:22" ht="293.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" s="79">
-        <v>17</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>15</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="E18" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H18" s="15">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="16" t="s">
-        <v>43</v>
+        <v>18</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="L18" s="15">
-        <v>150</v>
-      </c>
-      <c r="M18" s="53" t="s">
-        <v>92</v>
+        <v>120</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="P18" s="2"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="19" t="s">
-        <v>256</v>
+      <c r="Q18" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="R18" s="15" t="s">
+        <v>87</v>
       </c>
       <c r="S18" s="19">
         <v>1</v>
@@ -4433,15 +4451,15 @@
       <c r="U18" s="76"/>
       <c r="V18" s="76"/>
     </row>
-    <row r="19" spans="1:22" ht="303" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="12">
+    <row r="19" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="25">
         <v>3</v>
       </c>
-      <c r="B19" s="79">
-        <v>18</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>15</v>
+      <c r="B19" s="81">
+        <v>16</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>50</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>20</v>
@@ -4453,13 +4471,13 @@
         <v>21</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H19" s="15">
         <v>34</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="J19" s="16" t="s">
         <v>43</v>
@@ -4467,22 +4485,22 @@
       <c r="K19" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="L19" s="19">
+      <c r="L19" s="15">
         <v>180</v>
       </c>
-      <c r="M19" s="53" t="s">
-        <v>225</v>
+      <c r="M19" s="17" t="s">
+        <v>90</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="18"/>
-      <c r="R19" s="56" t="s">
-        <v>261</v>
+      <c r="R19" s="19" t="s">
+        <v>254</v>
       </c>
       <c r="S19" s="19">
         <v>1</v>
@@ -4493,15 +4511,15 @@
       <c r="U19" s="76"/>
       <c r="V19" s="76"/>
     </row>
-    <row r="20" spans="1:22" ht="108" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:22" ht="288.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="12">
         <v>3</v>
       </c>
       <c r="B20" s="79">
-        <v>19</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>23</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>20</v>
@@ -4513,39 +4531,37 @@
         <v>21</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H20" s="15">
         <v>34</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="K20" s="15">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="L20" s="19">
-        <v>60</v>
-      </c>
-      <c r="M20" s="65" t="s">
-        <v>226</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="L20" s="15">
+        <v>150</v>
+      </c>
+      <c r="M20" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2" t="s">
+        <v>257</v>
+      </c>
       <c r="P20" s="2"/>
-      <c r="Q20" s="66" t="s">
-        <v>98</v>
-      </c>
+      <c r="Q20" s="18"/>
       <c r="R20" s="19" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="S20" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T20" s="75" t="s">
         <v>255</v>
@@ -4553,54 +4569,56 @@
       <c r="U20" s="76"/>
       <c r="V20" s="76"/>
     </row>
-    <row r="21" spans="1:22" ht="274.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="25">
-        <v>5</v>
-      </c>
-      <c r="B21" s="81">
-        <v>20</v>
+    <row r="21" spans="1:22" ht="303" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="12">
+        <v>3</v>
+      </c>
+      <c r="B21" s="79">
+        <v>18</v>
       </c>
       <c r="C21" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="H21" s="28">
-        <v>16</v>
-      </c>
-      <c r="I21" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="J21" s="67" t="s">
-        <v>125</v>
-      </c>
-      <c r="K21" s="28">
-        <v>14</v>
-      </c>
-      <c r="L21" s="28">
-        <v>85</v>
-      </c>
-      <c r="M21" s="68" t="s">
-        <v>126</v>
+      <c r="D21" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" s="15">
+        <v>34</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="L21" s="19">
+        <v>180</v>
+      </c>
+      <c r="M21" s="53" t="s">
+        <v>225</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="P21" s="2"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="67" t="s">
-        <v>234</v>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="56" t="s">
+        <v>261</v>
       </c>
       <c r="S21" s="19">
         <v>1</v>
@@ -4611,18 +4629,18 @@
       <c r="U21" s="76"/>
       <c r="V21" s="76"/>
     </row>
-    <row r="22" spans="1:22" ht="288.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:22" ht="108" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B22" s="79">
-        <v>21</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>271</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>21</v>
@@ -4631,38 +4649,36 @@
         <v>21</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="H22" s="15">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J22" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="L22" s="15">
-        <v>140</v>
-      </c>
-      <c r="M22" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q22" s="18" t="s">
-        <v>134</v>
+        <v>96</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="K22" s="15">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="L22" s="19">
+        <v>60</v>
+      </c>
+      <c r="M22" s="65" t="s">
+        <v>226</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="66" t="s">
+        <v>98</v>
       </c>
       <c r="R22" s="19" t="s">
-        <v>135</v>
+        <v>227</v>
       </c>
       <c r="S22" s="19">
         <v>2</v>
@@ -4673,18 +4689,18 @@
       <c r="U22" s="76"/>
       <c r="V22" s="76"/>
     </row>
-    <row r="23" spans="1:22" ht="288.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="12">
-        <v>6</v>
-      </c>
-      <c r="B23" s="79">
-        <v>22</v>
+    <row r="23" spans="1:22" ht="274.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="25">
+        <v>5</v>
+      </c>
+      <c r="B23" s="81">
+        <v>20</v>
       </c>
       <c r="C23" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="15" t="s">
-        <v>26</v>
+      <c r="D23" s="28" t="s">
+        <v>25</v>
       </c>
       <c r="E23" s="63" t="s">
         <v>17</v>
@@ -4692,42 +4708,38 @@
       <c r="F23" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="H23" s="15">
-        <v>8</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="J23" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="L23" s="15">
-        <v>140</v>
-      </c>
-      <c r="M23" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q23" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="R23" s="19" t="s">
-        <v>135</v>
+      <c r="G23" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="H23" s="28">
+        <v>16</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="J23" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="K23" s="28">
+        <v>14</v>
+      </c>
+      <c r="L23" s="28">
+        <v>85</v>
+      </c>
+      <c r="M23" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="86"/>
+      <c r="R23" s="67" t="s">
+        <v>234</v>
       </c>
       <c r="S23" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T23" s="75" t="s">
         <v>255</v>
@@ -4740,7 +4752,7 @@
         <v>6</v>
       </c>
       <c r="B24" s="79">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C24" s="24" t="s">
         <v>15</v>
@@ -4748,11 +4760,11 @@
       <c r="D24" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="63" t="s">
-        <v>17</v>
+      <c r="E24" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>128</v>
@@ -4761,31 +4773,31 @@
         <v>8</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="J24" s="55" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="L24" s="15">
         <v>140</v>
       </c>
       <c r="M24" s="17" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="Q24" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="R24" s="56" t="s">
+      <c r="R24" s="19" t="s">
         <v>135</v>
       </c>
       <c r="S24" s="19">
@@ -4797,18 +4809,18 @@
       <c r="U24" s="76"/>
       <c r="V24" s="76"/>
     </row>
-    <row r="25" spans="1:22" ht="243" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:22" ht="288.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25" s="79">
-        <v>24</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>15</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E25" s="63" t="s">
         <v>17</v>
@@ -4817,39 +4829,41 @@
         <v>17</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="H25" s="15">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="J25" s="16" t="s">
-        <v>149</v>
+        <v>136</v>
+      </c>
+      <c r="J25" s="55" t="s">
+        <v>220</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="L25" s="15">
-        <v>120</v>
-      </c>
-      <c r="M25" s="53" t="s">
-        <v>150</v>
+        <v>140</v>
+      </c>
+      <c r="M25" s="17" t="s">
+        <v>138</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2" t="s">
-        <v>222</v>
+        <v>139</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="56" t="s">
-        <v>232</v>
+        <v>140</v>
+      </c>
+      <c r="Q25" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R25" s="19" t="s">
+        <v>135</v>
       </c>
       <c r="S25" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T25" s="75" t="s">
         <v>255</v>
@@ -4857,58 +4871,58 @@
       <c r="U25" s="76"/>
       <c r="V25" s="76"/>
     </row>
-    <row r="26" spans="1:22" ht="168" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:22" ht="288.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="12">
+        <v>6</v>
+      </c>
+      <c r="B26" s="79">
+        <v>23</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="H26" s="15">
         <v>8</v>
       </c>
-      <c r="B26" s="79">
-        <v>25</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="H26" s="15">
-        <v>16</v>
-      </c>
       <c r="I26" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J26" s="45" t="s">
-        <v>43</v>
+        <v>136</v>
+      </c>
+      <c r="J26" s="55" t="s">
+        <v>221</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="L26" s="15">
-        <v>85</v>
-      </c>
-      <c r="M26" s="70" t="s">
-        <v>153</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>154</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="M26" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="R26" s="19" t="s">
-        <v>157</v>
+        <v>142</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q26" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R26" s="56" t="s">
+        <v>135</v>
       </c>
       <c r="S26" s="19">
         <v>2</v>
@@ -4919,59 +4933,61 @@
       <c r="U26" s="76"/>
       <c r="V26" s="76"/>
     </row>
-    <row r="27" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="33">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B27" s="79">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C27" s="24" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="63" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>44</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="H27" s="15">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I27" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="J27" s="45" t="s">
-        <v>158</v>
+      <c r="J27" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="L27" s="15">
-        <v>105</v>
-      </c>
-      <c r="M27" s="53" t="s">
-        <v>160</v>
+        <v>140</v>
+      </c>
+      <c r="M27" s="17" t="s">
+        <v>145</v>
       </c>
       <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="O27" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="P27" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q27" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="R27" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="S27" s="19" t="s">
-        <v>236</v>
+        <v>147</v>
+      </c>
+      <c r="Q27" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R27" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="S27" s="19">
+        <v>2</v>
       </c>
       <c r="T27" s="75" t="s">
         <v>255</v>
@@ -4979,18 +4995,18 @@
       <c r="U27" s="76"/>
       <c r="V27" s="76"/>
     </row>
-    <row r="28" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:22" ht="243" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="12">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B28" s="79">
-        <v>27</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>23</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E28" s="63" t="s">
         <v>17</v>
@@ -4999,39 +5015,39 @@
         <v>17</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="H28" s="15">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J28" s="16" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="L28" s="15">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M28" s="53" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="R28" s="71" t="s">
-        <v>243</v>
+        <v>222</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q28" s="82"/>
+      <c r="R28" s="57" t="s">
+        <v>232</v>
       </c>
       <c r="S28" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T28" s="75" t="s">
         <v>255</v>
@@ -5039,18 +5055,18 @@
       <c r="U28" s="76"/>
       <c r="V28" s="76"/>
     </row>
-    <row r="29" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:22" ht="168" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B29" s="79">
-        <v>28</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>50</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E29" s="63" t="s">
         <v>17</v>
@@ -5059,36 +5075,38 @@
         <v>17</v>
       </c>
       <c r="G29" s="35" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="H29" s="36">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" s="46" t="s">
-        <v>172</v>
+        <v>22</v>
+      </c>
+      <c r="J29" s="83" t="s">
+        <v>43</v>
       </c>
       <c r="K29" s="36" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L29" s="36">
-        <v>360</v>
-      </c>
-      <c r="M29" s="63" t="s">
-        <v>176</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="M29" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="O29" s="2" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="R29" s="71" t="s">
-        <v>243</v>
+        <v>156</v>
+      </c>
+      <c r="R29" s="34" t="s">
+        <v>157</v>
       </c>
       <c r="S29" s="19">
         <v>2</v>
@@ -5099,18 +5117,18 @@
       <c r="U29" s="76"/>
       <c r="V29" s="76"/>
     </row>
-    <row r="30" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="12">
+        <v>9</v>
+      </c>
+      <c r="B30" s="79">
         <v>10</v>
       </c>
-      <c r="B30" s="79">
-        <v>29</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>13</v>
+      <c r="C30" s="24" t="s">
+        <v>15</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E30" s="63" t="s">
         <v>17</v>
@@ -5119,39 +5137,39 @@
         <v>17</v>
       </c>
       <c r="G30" s="38" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="H30" s="21">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="40" t="s">
-        <v>172</v>
+        <v>136</v>
+      </c>
+      <c r="J30" s="39" t="s">
+        <v>158</v>
       </c>
       <c r="K30" s="21" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="L30" s="21">
-        <v>100</v>
-      </c>
-      <c r="M30" s="37" t="s">
-        <v>179</v>
+        <v>105</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="N30" s="2"/>
-      <c r="O30" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="R30" s="71" t="s">
-        <v>243</v>
-      </c>
-      <c r="S30" s="19">
-        <v>2</v>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q30" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="R30" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="S30" s="19" t="s">
+        <v>236</v>
       </c>
       <c r="T30" s="75" t="s">
         <v>255</v>
@@ -5159,18 +5177,18 @@
       <c r="U30" s="76"/>
       <c r="V30" s="76"/>
     </row>
-    <row r="31" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31" s="79">
-        <v>30</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>13</v>
+        <v>26</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>15</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E31" s="63" t="s">
         <v>17</v>
@@ -5179,39 +5197,39 @@
         <v>17</v>
       </c>
       <c r="G31" s="38" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="H31" s="21">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31" s="40" t="s">
-        <v>172</v>
+        <v>136</v>
+      </c>
+      <c r="J31" s="39" t="s">
+        <v>158</v>
       </c>
       <c r="K31" s="21" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="L31" s="21">
-        <v>360</v>
-      </c>
-      <c r="M31" s="37" t="s">
-        <v>181</v>
+        <v>105</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="N31" s="2"/>
-      <c r="O31" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="R31" s="71" t="s">
-        <v>243</v>
-      </c>
-      <c r="S31" s="19">
-        <v>2</v>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q31" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="R31" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="S31" s="19" t="s">
+        <v>236</v>
       </c>
       <c r="T31" s="75" t="s">
         <v>255</v>
@@ -5219,61 +5237,61 @@
       <c r="U31" s="76"/>
       <c r="V31" s="76"/>
     </row>
-    <row r="32" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="12">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B32" s="79">
-        <v>31</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>23</v>
+        <v>40</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>15</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>21</v>
+        <v>32</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>44</v>
       </c>
       <c r="G32" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="H32" s="34">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="H32" s="21">
+        <v>16</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="J32" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="K32" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="L32" s="34">
-        <v>90</v>
+        <v>136</v>
+      </c>
+      <c r="J32" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="K32" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="L32" s="21">
+        <v>105</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2" t="s">
-        <v>258</v>
+        <v>169</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q32" s="41" t="s">
-        <v>186</v>
+        <v>42</v>
+      </c>
+      <c r="Q32" s="60" t="s">
+        <v>162</v>
       </c>
       <c r="R32" s="57" t="s">
-        <v>233</v>
+        <v>170</v>
       </c>
       <c r="S32" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T32" s="75" t="s">
         <v>255</v>
@@ -5281,18 +5299,18 @@
       <c r="U32" s="76"/>
       <c r="V32" s="76"/>
     </row>
-    <row r="33" spans="1:22" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="12">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B33" s="79">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E33" s="63" t="s">
         <v>17</v>
@@ -5300,35 +5318,37 @@
       <c r="F33" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="41"/>
+      <c r="G33" s="38" t="s">
+        <v>171</v>
+      </c>
       <c r="H33" s="21">
+        <v>12</v>
+      </c>
+      <c r="I33" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I33" s="21" t="s">
-        <v>187</v>
-      </c>
       <c r="J33" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="K33" s="21">
-        <v>15</v>
+        <v>172</v>
+      </c>
+      <c r="K33" s="21" t="s">
+        <v>137</v>
       </c>
       <c r="L33" s="21">
-        <v>225</v>
+        <v>100</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2" t="s">
-        <v>270</v>
+        <v>174</v>
       </c>
       <c r="P33" s="2"/>
-      <c r="Q33" s="48" t="s">
-        <v>190</v>
+      <c r="Q33" s="37" t="s">
+        <v>175</v>
       </c>
       <c r="R33" s="71" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="S33" s="19">
         <v>2</v>
@@ -5339,57 +5359,59 @@
       <c r="U33" s="76"/>
       <c r="V33" s="76"/>
     </row>
-    <row r="34" spans="1:22" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="12">
+        <v>10</v>
+      </c>
+      <c r="B34" s="79">
+        <v>28</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="H34" s="21">
         <v>12</v>
       </c>
-      <c r="B34" s="79">
-        <v>33</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="H34" s="21">
+      <c r="I34" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I34" s="21" t="s">
-        <v>12</v>
-      </c>
       <c r="J34" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="K34" s="21">
-        <v>15</v>
+        <v>172</v>
+      </c>
+      <c r="K34" s="21" t="s">
+        <v>137</v>
       </c>
       <c r="L34" s="21">
-        <v>172</v>
+        <v>360</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="P34" s="2"/>
-      <c r="Q34" s="62" t="s">
-        <v>195</v>
-      </c>
-      <c r="R34" s="34"/>
+      <c r="Q34" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="R34" s="71" t="s">
+        <v>243</v>
+      </c>
       <c r="S34" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T34" s="75" t="s">
         <v>255</v>
@@ -5397,57 +5419,59 @@
       <c r="U34" s="76"/>
       <c r="V34" s="76"/>
     </row>
-    <row r="35" spans="1:22" ht="231.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="12">
+        <v>10</v>
+      </c>
+      <c r="B35" s="79">
+        <v>29</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="H35" s="21">
         <v>12</v>
       </c>
-      <c r="B35" s="79">
-        <v>34</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="H35" s="21">
-        <v>21</v>
-      </c>
       <c r="I35" s="21" t="s">
-        <v>196</v>
+        <v>19</v>
       </c>
       <c r="J35" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="K35" s="21">
-        <v>15</v>
+        <v>172</v>
+      </c>
+      <c r="K35" s="21" t="s">
+        <v>178</v>
       </c>
       <c r="L35" s="21">
-        <v>153</v>
-      </c>
-      <c r="M35" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="M35" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="P35" s="2"/>
-      <c r="Q35" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="R35" s="34"/>
+      <c r="Q35" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="R35" s="71" t="s">
+        <v>243</v>
+      </c>
       <c r="S35" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T35" s="75" t="s">
         <v>255</v>
@@ -5457,51 +5481,55 @@
     </row>
     <row r="36" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="12">
+        <v>10</v>
+      </c>
+      <c r="B36" s="79">
+        <v>30</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="H36" s="21">
         <v>12</v>
       </c>
-      <c r="B36" s="79">
-        <v>35</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E36" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="H36" s="21">
-        <v>21</v>
-      </c>
       <c r="I36" s="21" t="s">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="J36" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="K36" s="21">
-        <v>15</v>
+        <v>172</v>
+      </c>
+      <c r="K36" s="21" t="s">
+        <v>178</v>
       </c>
       <c r="L36" s="21">
-        <v>166</v>
+        <v>360</v>
       </c>
       <c r="M36" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="P36" s="2"/>
-      <c r="Q36" s="48"/>
-      <c r="R36" s="34"/>
+      <c r="Q36" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="R36" s="71" t="s">
+        <v>243</v>
+      </c>
       <c r="S36" s="19">
         <v>2</v>
       </c>
@@ -5511,54 +5539,58 @@
       <c r="U36" s="76"/>
       <c r="V36" s="76"/>
     </row>
-    <row r="37" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B37" s="79">
-        <v>36</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>13</v>
+        <v>31</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>23</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G37" s="41"/>
-      <c r="H37" s="21">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="G37" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="H37" s="34">
+        <v>40</v>
       </c>
       <c r="I37" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="J37" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="K37" s="21">
         <v>30</v>
       </c>
-      <c r="L37" s="21">
-        <v>180</v>
+      <c r="J37" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="L37" s="34">
+        <v>90</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="65" t="s">
-        <v>247</v>
-      </c>
-      <c r="R37" s="19" t="s">
-        <v>248</v>
+        <v>185</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q37" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="R37" s="56" t="s">
+        <v>233</v>
       </c>
       <c r="S37" s="19">
         <v>1</v>
@@ -5569,59 +5601,55 @@
       <c r="U37" s="76"/>
       <c r="V37" s="76"/>
     </row>
-    <row r="38" spans="1:22" ht="276" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="33">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B38" s="79">
-        <v>37</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>50</v>
+        <v>35</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>15</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="E38" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="71" t="s">
+        <v>17</v>
       </c>
       <c r="G38" s="38" t="s">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="H38" s="21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I38" s="21" t="s">
-        <v>52</v>
+        <v>201</v>
       </c>
       <c r="J38" s="40" t="s">
         <v>14</v>
       </c>
       <c r="K38" s="21">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L38" s="21">
-        <v>240</v>
-      </c>
-      <c r="M38" s="48" t="s">
-        <v>208</v>
+        <v>166</v>
+      </c>
+      <c r="M38" s="37" t="s">
+        <v>202</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>58</v>
+        <v>207</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
-      <c r="Q38" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="R38" s="21" t="s">
-        <v>56</v>
-      </c>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="34"/>
       <c r="S38" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T38" s="75" t="s">
         <v>255</v>
@@ -5629,61 +5657,57 @@
       <c r="U38" s="76"/>
       <c r="V38" s="76"/>
     </row>
-    <row r="39" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:22" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="42">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B39" s="79">
-        <v>38</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G39" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="H39" s="34">
-        <v>14</v>
+        <v>35</v>
+      </c>
+      <c r="E39" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="41"/>
+      <c r="H39" s="21">
+        <v>19</v>
       </c>
       <c r="I39" s="21" t="s">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="J39" s="40" t="s">
-        <v>59</v>
+        <v>188</v>
       </c>
       <c r="K39" s="21">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L39" s="21">
-        <v>120</v>
-      </c>
-      <c r="M39" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q39" s="78" t="s">
-        <v>75</v>
-      </c>
-      <c r="R39" s="34" t="s">
-        <v>62</v>
+        <v>225</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="R39" s="71" t="s">
+        <v>237</v>
       </c>
       <c r="S39" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T39" s="75" t="s">
         <v>255</v>
@@ -5691,61 +5715,57 @@
       <c r="U39" s="76"/>
       <c r="V39" s="76"/>
     </row>
-    <row r="40" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:22" ht="160.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="42">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B40" s="79">
-        <v>39</v>
-      </c>
-      <c r="C40" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="H40" s="44">
+        <v>19</v>
+      </c>
+      <c r="I40" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="K40" s="21">
         <v>15</v>
       </c>
-      <c r="D40" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="F40" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="G40" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="H40" s="44">
-        <v>8</v>
-      </c>
-      <c r="I40" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="J40" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="K40" s="21" t="s">
-        <v>144</v>
-      </c>
       <c r="L40" s="21">
-        <v>140</v>
-      </c>
-      <c r="M40" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q40" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="R40" s="57" t="s">
-        <v>135</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="M40" s="63" t="s">
+        <v>193</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="R40" s="34"/>
       <c r="S40" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T40" s="75" t="s">
         <v>255</v>
@@ -5753,61 +5773,57 @@
       <c r="U40" s="76"/>
       <c r="V40" s="76"/>
     </row>
-    <row r="41" spans="1:22" ht="409.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:22" ht="231.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="42">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B41" s="79">
-        <v>40</v>
-      </c>
-      <c r="C41" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="H41" s="44">
+        <v>21</v>
+      </c>
+      <c r="I41" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="J41" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="K41" s="21">
         <v>15</v>
       </c>
-      <c r="D41" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E41" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="G41" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="H41" s="44">
-        <v>16</v>
-      </c>
-      <c r="I41" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="J41" s="61" t="s">
-        <v>166</v>
-      </c>
-      <c r="K41" s="21" t="s">
-        <v>167</v>
-      </c>
       <c r="L41" s="21">
-        <v>105</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="P41" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q41" s="60" t="s">
-        <v>162</v>
-      </c>
-      <c r="R41" s="57" t="s">
-        <v>170</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M41" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="78" t="s">
+        <v>229</v>
+      </c>
+      <c r="R41" s="34"/>
       <c r="S41" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T41" s="75" t="s">
         <v>255</v>
@@ -5872,7 +5888,11 @@
       <c r="V42" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V42" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}"/>
+  <autoFilter ref="A1:V42" xr:uid="{2EF2F6BA-3E86-4A09-A91D-773D5C504DD4}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V42">
+      <sortCondition ref="A1:A42"/>
+    </sortState>
+  </autoFilter>
   <conditionalFormatting sqref="N19">
     <cfRule type="duplicateValues" dxfId="35" priority="14"/>
   </conditionalFormatting>
